--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\English Translation\Dreamon-Senki-Translation\English translation\その他文字 (Items, Skills, Characters, Descriptions)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob Wai\Roming\サキュバス戦記new\English translation\English Translation\Dreamon-Senki-Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,14 @@
     <sheet name="Skills-スキル" sheetId="3" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'names-名前'!$A$1:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'names-名前'!$A$1:$H$78</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="2898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="2912">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -7278,9 +7278,6 @@
     <t>Knight</t>
   </si>
   <si>
-    <t>Right, Let's do this.</t>
-  </si>
-  <si>
     <t>Urgh, I'm not ready...</t>
   </si>
   <si>
@@ -7538,9 +7535,6 @@
 Anything else you'd like to sell to me?</t>
   </si>
   <si>
-    <t>Is this right?</t>
-  </si>
-  <si>
     <t>Thanks!
 Do you want anyone else?</t>
   </si>
@@ -8211,10 +8205,6 @@
     <t>Put a stop to the illegal trade of succubus items.</t>
   </si>
   <si>
-    <t>Want some help?
-Fufu, it all depends on how well known you are-</t>
-  </si>
-  <si>
     <t>Heroes may exchange merit
 for these sacred relics.</t>
   </si>
@@ -8779,6 +8769,59 @@
   </si>
   <si>
     <t>Bandit</t>
+  </si>
+  <si>
+    <t>Right, Let's do this!</t>
+  </si>
+  <si>
+    <t>主人公の幼馴染。 体がとても大きい。 紬かいことによく気が付く。</t>
+  </si>
+  <si>
+    <t>体力と物理防御に優れる見習いの戦士。</t>
+  </si>
+  <si>
+    <t>自警団の見習いリ一ダ一</t>
+  </si>
+  <si>
+    <t>主人公。 剣の腕が立つ。</t>
+  </si>
+  <si>
+    <t>主人公の幼馴染。 主人公をリ一ダ一にして自警団を結成した。</t>
+  </si>
+  <si>
+    <t>移動力と技にすぐれる見習いの戦土。</t>
+  </si>
+  <si>
+    <t>上下キーでユニットを切り替えます</t>
+  </si>
+  <si>
+    <t>預ける</t>
+  </si>
+  <si>
+    <t>全預け</t>
+  </si>
+  <si>
+    <t>取り出す</t>
+  </si>
+  <si>
+    <t>Switch items with the up and down key.</t>
+  </si>
+  <si>
+    <t>Take</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Store all</t>
+  </si>
+  <si>
+    <t>Want some help? 
+Fufu, it all depends on how
+well known you are-</t>
+  </si>
+  <si>
+    <t>This one?</t>
   </si>
 </sst>
 </file>
@@ -9498,10 +9541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -9582,40 +9625,36 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>2336</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="23"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="23"/>
       <c r="C5" s="23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="23"/>
     </row>
@@ -9623,17 +9662,19 @@
       <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2111</v>
+        <v>2339</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="23"/>
     </row>
@@ -9643,15 +9684,15 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2337</v>
+        <v>2111</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -9661,15 +9702,15 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="23"/>
     </row>
@@ -9677,37 +9718,37 @@
       <c r="A9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>23</v>
-      </c>
+      <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="A10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -9717,14 +9758,16 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>2394</v>
+        <v>27</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2395</v>
+        <v>2341</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="15">
@@ -9733,33 +9776,31 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>29</v>
+        <v>2394</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2342</v>
+        <v>2395</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -9769,15 +9810,17 @@
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2344</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>2343</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>2899</v>
+      </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14" s="23"/>
     </row>
@@ -9787,15 +9830,17 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2345</v>
-      </c>
-      <c r="E15" s="23"/>
+        <v>2344</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>2900</v>
+      </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -9804,16 +9849,18 @@
         <v>31</v>
       </c>
       <c r="B16" s="23"/>
-      <c r="C16" s="35" t="s">
-        <v>38</v>
+      <c r="C16" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2346</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>2345</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>2896</v>
+      </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="23"/>
     </row>
@@ -9822,16 +9869,16 @@
         <v>31</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
-        <v>40</v>
+      <c r="C17" s="35" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="23"/>
     </row>
@@ -9841,14 +9888,16 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23" t="s">
-        <v>2396</v>
+        <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2399</v>
+        <v>2347</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="15">
@@ -9857,12 +9906,14 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2400</v>
-      </c>
-      <c r="E19" s="23"/>
+        <v>2399</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>2898</v>
+      </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -9873,12 +9924,14 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2401</v>
-      </c>
-      <c r="E20" s="23"/>
+        <v>2400</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>2901</v>
+      </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -9889,16 +9942,16 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23" t="s">
-        <v>42</v>
+        <v>2398</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>2401</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>2897</v>
+      </c>
       <c r="F21" s="23"/>
-      <c r="G21" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="G21" s="23"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="15">
@@ -9907,15 +9960,15 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2348</v>
+        <v>2115</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -9925,15 +9978,15 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2112</v>
+        <v>2348</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H23" s="23"/>
     </row>
@@ -9943,15 +9996,15 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2349</v>
+        <v>2112</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="23"/>
     </row>
@@ -9961,15 +10014,15 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2113</v>
+        <v>2349</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="23"/>
     </row>
@@ -9979,15 +10032,15 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H26" s="23"/>
     </row>
@@ -9997,15 +10050,15 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H27" s="23"/>
     </row>
@@ -10015,14 +10068,15 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="23"/>
     </row>
@@ -10032,15 +10086,14 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2897</v>
+        <v>2117</v>
       </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
       <c r="G29" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H29" s="23"/>
     </row>
@@ -10050,15 +10103,15 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2350</v>
+        <v>2894</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="23"/>
     </row>
@@ -10068,39 +10121,33 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8" ht="15">
       <c r="A32" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>64</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B32" s="23"/>
       <c r="C32" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2353</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>2291</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>2393</v>
-      </c>
+        <v>2351</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H32" s="23"/>
     </row>
@@ -10112,19 +10159,19 @@
         <v>64</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2392</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>68</v>
+        <v>2393</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="H33" s="23"/>
     </row>
@@ -10136,15 +10183,19 @@
         <v>64</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2355</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>70</v>
+        <v>2354</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="H34" s="23"/>
     </row>
@@ -10153,22 +10204,18 @@
         <v>63</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2356</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>2293</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>2727</v>
-      </c>
+        <v>2355</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H35" s="23"/>
     </row>
@@ -10180,19 +10227,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2728</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>74</v>
+        <v>2724</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="H36" s="23"/>
     </row>
@@ -10204,19 +10251,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2729</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>76</v>
+        <v>2725</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="H37" s="23"/>
     </row>
@@ -10228,19 +10275,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H38" s="23"/>
     </row>
@@ -10249,22 +10296,22 @@
         <v>63</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" s="23"/>
     </row>
@@ -10282,10 +10329,10 @@
         <v>2362</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2749</v>
+        <v>2728</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>80</v>
@@ -10300,19 +10347,19 @@
         <v>23</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2693</v>
+        <v>2362</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H41" s="23"/>
     </row>
@@ -10324,19 +10371,19 @@
         <v>23</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2360</v>
+        <v>2691</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H42" s="23"/>
     </row>
@@ -10348,19 +10395,19 @@
         <v>23</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H43" s="23"/>
     </row>
@@ -10369,22 +10416,22 @@
         <v>63</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2352</v>
+        <v>2361</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H44" s="23"/>
     </row>
@@ -10396,19 +10443,19 @@
         <v>10</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2363</v>
+        <v>2352</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2736</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>90</v>
+        <v>2732</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="H45" s="23"/>
     </row>
@@ -10420,19 +10467,19 @@
         <v>10</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2737</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>92</v>
+        <v>2733</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="H46" s="23"/>
     </row>
@@ -10444,19 +10491,19 @@
         <v>10</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H47" s="23"/>
     </row>
@@ -10465,22 +10512,22 @@
         <v>63</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2380</v>
+        <v>2365</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2739</v>
+        <v>2735</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H48" s="23"/>
     </row>
@@ -10492,19 +10539,19 @@
         <v>15</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2740</v>
+        <v>2736</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H49" s="23"/>
     </row>
@@ -10516,19 +10563,19 @@
         <v>15</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2741</v>
+        <v>2737</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H50" s="23"/>
     </row>
@@ -10540,19 +10587,19 @@
         <v>15</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2742</v>
+        <v>2738</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H51" s="23"/>
     </row>
@@ -10564,19 +10611,19 @@
         <v>15</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H52" s="23"/>
     </row>
@@ -10588,19 +10635,19 @@
         <v>15</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2379</v>
+        <v>2389</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H53" s="23"/>
     </row>
@@ -10609,22 +10656,22 @@
         <v>63</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H54" s="23"/>
     </row>
@@ -10633,22 +10680,22 @@
         <v>63</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>1994</v>
+        <v>2312</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H55" s="23"/>
     </row>
@@ -10666,10 +10713,10 @@
         <v>2385</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>2313</v>
+        <v>1994</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2747</v>
+        <v>2743</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>112</v>
@@ -10684,19 +10731,19 @@
         <v>110</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2748</v>
+        <v>2744</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H57" s="23"/>
     </row>
@@ -10708,17 +10755,19 @@
         <v>110</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F58" s="23"/>
+        <v>2314</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>2745</v>
+      </c>
       <c r="G58" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -10730,17 +10779,17 @@
         <v>110</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H59" s="23"/>
     </row>
@@ -10749,48 +10798,48 @@
         <v>63</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2371</v>
+        <v>2388</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="15">
       <c r="A61" s="23" t="s">
-        <v>1995</v>
+        <v>63</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>1996</v>
+        <v>2317</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="15">
       <c r="A62" s="23" t="s">
-        <v>63</v>
+        <v>1995</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>119</v>
@@ -10802,7 +10851,7 @@
         <v>2377</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>2318</v>
+        <v>1996</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
@@ -10818,17 +10867,17 @@
         <v>119</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H63" s="23"/>
     </row>
@@ -10840,17 +10889,17 @@
         <v>119</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H64" s="23"/>
     </row>
@@ -10862,15 +10911,17 @@
         <v>119</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>2376</v>
+      </c>
       <c r="E65" s="23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H65" s="23"/>
     </row>
@@ -10879,20 +10930,18 @@
         <v>63</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1997</v>
+        <v>119</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>2359</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D66" s="23"/>
       <c r="E66" s="23" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="H66" s="23"/>
     </row>
@@ -10901,20 +10950,20 @@
         <v>63</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>119</v>
+        <v>1997</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2372</v>
+        <v>2359</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="H67" s="23"/>
     </row>
@@ -10923,20 +10972,20 @@
         <v>63</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H68" s="23"/>
     </row>
@@ -10948,17 +10997,17 @@
         <v>132</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>2324</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H69" s="23"/>
     </row>
@@ -10970,17 +11019,17 @@
         <v>132</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H70" s="23"/>
     </row>
@@ -10992,17 +11041,17 @@
         <v>132</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2369</v>
+        <v>2375</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H71" s="23"/>
     </row>
@@ -11014,17 +11063,17 @@
         <v>132</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -11036,17 +11085,17 @@
         <v>132</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H73" s="23"/>
     </row>
@@ -11055,18 +11104,20 @@
         <v>63</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2368</v>
-      </c>
-      <c r="E74" s="23"/>
+        <v>2367</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>2328</v>
+      </c>
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H74" s="23"/>
     </row>
@@ -11078,17 +11129,15 @@
         <v>145</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2366</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>2329</v>
-      </c>
+        <v>2368</v>
+      </c>
+      <c r="E75" s="23"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H75" s="23"/>
     </row>
@@ -11097,20 +11146,20 @@
         <v>63</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2390</v>
+        <v>2366</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H76" s="23"/>
     </row>
@@ -11122,22 +11171,44 @@
         <v>150</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" ht="15">
+      <c r="A78" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H77" s="23"/>
+      <c r="H78" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H77"/>
+  <autoFilter ref="A1:H78"/>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11150,7 +11221,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -11186,8 +11257,8 @@
       <c r="B2" s="23" t="s">
         <v>2274</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>2702</v>
+      <c r="D2" s="23" t="s">
+        <v>2700</v>
       </c>
       <c r="E2" t="s">
         <v>1630</v>
@@ -11203,7 +11274,7 @@
       <c r="B3" s="23" t="s">
         <v>2275</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E3" t="s">
@@ -11220,7 +11291,7 @@
       <c r="B4" s="23" t="s">
         <v>2276</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E4" t="s">
@@ -11237,7 +11308,7 @@
       <c r="B5" s="23" t="s">
         <v>2277</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E5" t="s">
@@ -11254,7 +11325,7 @@
       <c r="B6" s="23" t="s">
         <v>2278</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E6" t="s">
@@ -11271,8 +11342,8 @@
       <c r="B7" s="23" t="s">
         <v>2285</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>2703</v>
+      <c r="D7" s="23" t="s">
+        <v>2701</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1642</v>
@@ -11288,8 +11359,8 @@
       <c r="B8" s="23" t="s">
         <v>2286</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>2706</v>
+      <c r="D8" s="23" t="s">
+        <v>2704</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1645</v>
@@ -11305,7 +11376,7 @@
       <c r="B9" s="23" t="s">
         <v>2279</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E9" t="s">
@@ -11322,7 +11393,7 @@
       <c r="B10" s="23" t="s">
         <v>2280</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E10" t="s">
@@ -11339,7 +11410,7 @@
       <c r="B11" s="23" t="s">
         <v>2281</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E11" t="s">
@@ -11356,8 +11427,8 @@
       <c r="B12" s="23" t="s">
         <v>2287</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>2705</v>
+      <c r="D12" s="23" t="s">
+        <v>2703</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1654</v>
@@ -11373,8 +11444,8 @@
       <c r="B13" s="23" t="s">
         <v>2288</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>2707</v>
+      <c r="D13" s="23" t="s">
+        <v>2705</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1657</v>
@@ -11390,8 +11461,8 @@
       <c r="B14" s="23" t="s">
         <v>2289</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>2708</v>
+      <c r="D14" s="23" t="s">
+        <v>2706</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1660</v>
@@ -11407,8 +11478,8 @@
       <c r="B15" s="23" t="s">
         <v>2282</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>2704</v>
+      <c r="D15" s="23" t="s">
+        <v>2702</v>
       </c>
       <c r="E15" t="s">
         <v>1663</v>
@@ -11424,7 +11495,7 @@
       <c r="B16" s="23" t="s">
         <v>2283</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E16" t="s">
@@ -11441,7 +11512,7 @@
       <c r="B17" s="23" t="s">
         <v>2284</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="D17" s="23" t="s">
         <v>2290</v>
       </c>
       <c r="E17" t="s">
@@ -11491,7 +11562,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -11507,7 +11578,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11517,7 +11588,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11527,7 +11598,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11537,7 +11608,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11560,7 +11631,7 @@
         <v>1675</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11572,7 +11643,7 @@
         <v>1677</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>1678</v>
@@ -11584,7 +11655,7 @@
         <v>1679</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>1680</v>
@@ -11596,7 +11667,7 @@
         <v>1681</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>1682</v>
@@ -11608,7 +11679,7 @@
         <v>1683</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1684</v>
@@ -11620,7 +11691,7 @@
         <v>1685</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1686</v>
@@ -11632,7 +11703,7 @@
         <v>1687</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D12" s="44" t="s">
         <v>1688</v>
@@ -11654,7 +11725,7 @@
         <v>1691</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>1692</v>
@@ -11666,7 +11737,7 @@
         <v>1693</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1694</v>
@@ -11678,7 +11749,7 @@
         <v>1695</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1696</v>
@@ -11690,7 +11761,7 @@
         <v>1697</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1698</v>
@@ -11702,7 +11773,7 @@
         <v>1699</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>1680</v>
@@ -11714,7 +11785,7 @@
         <v>1700</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>1684</v>
@@ -11726,7 +11797,7 @@
         <v>1695</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1696</v>
@@ -11738,7 +11809,7 @@
         <v>1687</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>1701</v>
@@ -11750,7 +11821,7 @@
         <v>1700</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>1702</v>
@@ -11764,10 +11835,10 @@
         <v>1695</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33.75" customHeight="1">
@@ -11776,10 +11847,10 @@
         <v>1704</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -11793,10 +11864,10 @@
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40"/>
       <c r="B26" s="40" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>1696</v>
@@ -11805,13 +11876,13 @@
     <row r="27" spans="1:4" ht="29.15">
       <c r="A27" s="40"/>
       <c r="B27" s="41" t="s">
+        <v>2470</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>2471</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -11820,7 +11891,7 @@
         <v>1705</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>1706</v>
@@ -11832,7 +11903,7 @@
         <v>1707</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>1708</v>
@@ -11844,7 +11915,7 @@
         <v>1709</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1682</v>
@@ -11862,15 +11933,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="21.0703125" customWidth="1"/>
     <col min="2" max="2" width="36.0703125" customWidth="1"/>
-    <col min="3" max="3" width="40.0703125" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11879,7 +11950,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -11889,7 +11960,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -11899,7 +11970,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -11909,7 +11980,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -11932,7 +12003,7 @@
         <v>1711</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2709</v>
+        <v>2910</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -11944,7 +12015,7 @@
         <v>1712</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2485</v>
+        <v>2911</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1713</v>
@@ -11956,7 +12027,7 @@
         <v>1714</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1715</v>
@@ -11968,7 +12039,7 @@
         <v>1716</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1998</v>
@@ -11986,7 +12057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -12005,7 +12076,7 @@
         <v>2000</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -12013,7 +12084,7 @@
         <v>1717</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1718</v>
@@ -12024,7 +12095,7 @@
         <v>1719</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1720</v>
@@ -12035,7 +12106,7 @@
         <v>1721</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1722</v>
@@ -12046,7 +12117,7 @@
         <v>1723</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>1724</v>
@@ -12057,7 +12128,7 @@
         <v>1725</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1726</v>
@@ -12068,7 +12139,7 @@
         <v>1727</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>1728</v>
@@ -12079,7 +12150,7 @@
         <v>1729</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1730</v>
@@ -12090,7 +12161,7 @@
         <v>1731</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>1732</v>
@@ -12101,7 +12172,7 @@
         <v>1733</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>1734</v>
@@ -12112,7 +12183,7 @@
         <v>1735</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1736</v>
@@ -12123,7 +12194,7 @@
         <v>1737</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>1738</v>
@@ -12134,7 +12205,7 @@
         <v>1739</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>1740</v>
@@ -12145,7 +12216,7 @@
         <v>1741</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>1742</v>
@@ -12156,7 +12227,7 @@
         <v>1743</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>1744</v>
@@ -12167,7 +12238,7 @@
         <v>1745</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>1746</v>
@@ -12178,7 +12249,7 @@
         <v>1747</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1748</v>
@@ -12189,7 +12260,7 @@
         <v>1749</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>1750</v>
@@ -12200,7 +12271,7 @@
         <v>1751</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>1752</v>
@@ -12211,7 +12282,7 @@
         <v>1753</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>1754</v>
@@ -12222,7 +12293,7 @@
         <v>1755</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>1756</v>
@@ -12244,7 +12315,7 @@
         <v>1757</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>1758</v>
@@ -12266,7 +12337,7 @@
         <v>1759</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>1760</v>
@@ -12277,7 +12348,7 @@
         <v>1761</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>1762</v>
@@ -12288,7 +12359,7 @@
         <v>1763</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>1764</v>
@@ -12299,7 +12370,7 @@
         <v>1765</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>1766</v>
@@ -12310,7 +12381,7 @@
         <v>1763</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>1764</v>
@@ -12321,7 +12392,7 @@
         <v>1767</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>1768</v>
@@ -12332,7 +12403,7 @@
         <v>1769</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>1770</v>
@@ -12343,7 +12414,7 @@
         <v>1771</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>1772</v>
@@ -12354,7 +12425,7 @@
         <v>1773</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>1774</v>
@@ -12365,7 +12436,7 @@
         <v>1775</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>1776</v>
@@ -12376,7 +12447,7 @@
         <v>1777</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>1778</v>
@@ -12387,7 +12458,7 @@
         <v>1779</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1780</v>
@@ -12398,7 +12469,7 @@
         <v>1781</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>1782</v>
@@ -12409,7 +12480,7 @@
         <v>1783</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>1784</v>
@@ -12420,7 +12491,7 @@
         <v>1785</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>1786</v>
@@ -12431,7 +12502,7 @@
         <v>1787</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>1788</v>
@@ -12442,7 +12513,7 @@
         <v>1789</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>1790</v>
@@ -12453,7 +12524,7 @@
         <v>1791</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>1792</v>
@@ -12464,7 +12535,7 @@
         <v>1793</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>1794</v>
@@ -12475,7 +12546,7 @@
         <v>1795</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>1796</v>
@@ -12486,7 +12557,7 @@
         <v>1797</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>1798</v>
@@ -12497,7 +12568,7 @@
         <v>1799</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>1800</v>
@@ -12508,7 +12579,7 @@
         <v>1801</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>1802</v>
@@ -12519,7 +12590,7 @@
         <v>1803</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>1804</v>
@@ -12530,7 +12601,7 @@
         <v>1805</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>1806</v>
@@ -12541,7 +12612,7 @@
         <v>1807</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>1808</v>
@@ -12552,7 +12623,7 @@
         <v>1809</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>1810</v>
@@ -12563,7 +12634,7 @@
         <v>1811</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>1812</v>
@@ -12574,7 +12645,7 @@
         <v>1813</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>1814</v>
@@ -12585,7 +12656,7 @@
         <v>1815</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>1816</v>
@@ -12596,7 +12667,7 @@
         <v>1817</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>1818</v>
@@ -12607,7 +12678,7 @@
         <v>1819</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>1820</v>
@@ -12618,7 +12689,7 @@
         <v>1821</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>1822</v>
@@ -12629,7 +12700,7 @@
         <v>1823</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>1824</v>
@@ -12640,7 +12711,7 @@
         <v>1825</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>1826</v>
@@ -12651,7 +12722,7 @@
         <v>1827</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>1828</v>
@@ -12662,7 +12733,7 @@
         <v>1829</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>1830</v>
@@ -12673,7 +12744,7 @@
         <v>1831</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>1832</v>
@@ -12684,7 +12755,7 @@
         <v>1833</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>1834</v>
@@ -12695,7 +12766,7 @@
         <v>1835</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>1836</v>
@@ -12706,7 +12777,7 @@
         <v>1837</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>1838</v>
@@ -12717,7 +12788,7 @@
         <v>1839</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>1840</v>
@@ -12728,7 +12799,7 @@
         <v>1841</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>1842</v>
@@ -12739,7 +12810,7 @@
         <v>1843</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>1844</v>
@@ -12750,7 +12821,7 @@
         <v>1845</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>1846</v>
@@ -12761,7 +12832,7 @@
         <v>1847</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>1848</v>
@@ -12772,7 +12843,7 @@
         <v>1739</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>1849</v>
@@ -12783,7 +12854,7 @@
         <v>1850</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>1851</v>
@@ -12794,7 +12865,7 @@
         <v>1852</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>1853</v>
@@ -12805,7 +12876,7 @@
         <v>1854</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>1855</v>
@@ -12816,7 +12887,7 @@
         <v>1856</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>1857</v>
@@ -12827,7 +12898,7 @@
         <v>1858</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>1859</v>
@@ -12838,7 +12909,7 @@
         <v>1860</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>1861</v>
@@ -12873,7 +12944,7 @@
         <v>1671</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12881,7 +12952,7 @@
         <v>1672</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12897,7 +12968,7 @@
         <v>1863</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1864</v>
@@ -12908,7 +12979,7 @@
         <v>1865</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1866</v>
@@ -12919,7 +12990,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1868</v>
@@ -12930,7 +13001,7 @@
         <v>1869</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1870</v>
@@ -12948,7 +13019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -13271,7 +13342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -13826,7 +13897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -13853,7 +13924,7 @@
         <v>2000</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1435</v>
@@ -13873,7 +13944,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -13892,7 +13963,7 @@
         <v>1438</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -13911,7 +13982,7 @@
         <v>1440</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -13930,7 +14001,7 @@
         <v>1442</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -13949,7 +14020,7 @@
         <v>1444</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -13968,7 +14039,7 @@
         <v>1446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -13987,7 +14058,7 @@
         <v>1448</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -14006,7 +14077,7 @@
         <v>1451</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -14025,7 +14096,7 @@
         <v>1453</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -14044,7 +14115,7 @@
         <v>1455</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -14063,7 +14134,7 @@
         <v>1457</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -14082,7 +14153,7 @@
         <v>1459</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -14120,7 +14191,7 @@
         <v>1461</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -14139,7 +14210,7 @@
         <v>1463</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -14158,7 +14229,7 @@
         <v>1465</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -14177,7 +14248,7 @@
         <v>1448</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -14196,7 +14267,7 @@
         <v>1467</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -14215,7 +14286,7 @@
         <v>1469</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -14234,7 +14305,7 @@
         <v>1471</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -14253,7 +14324,7 @@
         <v>1451</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -14272,7 +14343,7 @@
         <v>1473</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -14291,7 +14362,7 @@
         <v>1475</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -14310,7 +14381,7 @@
         <v>1477</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -14329,7 +14400,7 @@
         <v>1479</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -14348,7 +14419,7 @@
         <v>1481</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -14367,7 +14438,7 @@
         <v>1483</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -14386,7 +14457,7 @@
         <v>1463</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -14405,7 +14476,7 @@
         <v>1467</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -14424,7 +14495,7 @@
         <v>1469</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -14443,7 +14514,7 @@
         <v>1485</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -14462,7 +14533,7 @@
         <v>1448</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -14481,7 +14552,7 @@
         <v>1487</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -14497,14 +14568,14 @@
         <v>1436</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -14519,7 +14590,7 @@
         <v>1444</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -14538,7 +14609,7 @@
         <v>1446</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -14557,7 +14628,7 @@
         <v>1489</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -14576,7 +14647,7 @@
         <v>1491</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -14595,7 +14666,7 @@
         <v>1493</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -14614,7 +14685,7 @@
         <v>1495</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -14671,7 +14742,7 @@
         <v>1451</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -14690,7 +14761,7 @@
         <v>1498</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -14709,7 +14780,7 @@
         <v>1500</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -14728,7 +14799,7 @@
         <v>1502</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -14747,7 +14818,7 @@
         <v>1504</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -14766,7 +14837,7 @@
         <v>1506</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -14785,7 +14856,7 @@
         <v>1508</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -14804,7 +14875,7 @@
         <v>1491</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -14823,7 +14894,7 @@
         <v>1510</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -14861,7 +14932,7 @@
         <v>1514</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -14880,7 +14951,7 @@
         <v>1451</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -14899,7 +14970,7 @@
         <v>1516</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -14918,7 +14989,7 @@
         <v>1518</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -14937,7 +15008,7 @@
         <v>1520</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -14956,7 +15027,7 @@
         <v>1522</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -14975,7 +15046,7 @@
         <v>1524</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -14994,7 +15065,7 @@
         <v>1526</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -15013,7 +15084,7 @@
         <v>1528</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -15032,7 +15103,7 @@
         <v>1530</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -15051,7 +15122,7 @@
         <v>1532</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -15070,7 +15141,7 @@
         <v>1534</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -15127,7 +15198,7 @@
         <v>1537</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -15165,7 +15236,7 @@
         <v>1539</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -15184,7 +15255,7 @@
         <v>1541</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -15203,7 +15274,7 @@
         <v>1543</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -15222,7 +15293,7 @@
         <v>1545</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -15241,7 +15312,7 @@
         <v>1547</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -15298,7 +15369,7 @@
         <v>1550</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -15314,10 +15385,10 @@
         <v>1436</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -15336,7 +15407,7 @@
         <v>1553</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -15355,7 +15426,7 @@
         <v>1451</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -15374,7 +15445,7 @@
         <v>1555</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -15393,7 +15464,7 @@
         <v>1557</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -15412,7 +15483,7 @@
         <v>1559</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -15431,7 +15502,7 @@
         <v>1561</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -15450,7 +15521,7 @@
         <v>1563</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -15469,7 +15540,7 @@
         <v>1565</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -15507,7 +15578,7 @@
         <v>1463</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -15526,7 +15597,7 @@
         <v>1448</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -15583,7 +15654,7 @@
         <v>1569</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -15602,7 +15673,7 @@
         <v>1571</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -15621,7 +15692,7 @@
         <v>1553</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -15640,7 +15711,7 @@
         <v>1550</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -15696,10 +15767,10 @@
         <v>1436</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -15718,7 +15789,7 @@
         <v>1553</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -15737,7 +15808,7 @@
         <v>1550</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -15758,7 +15829,7 @@
         <v>1451</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -15777,7 +15848,7 @@
         <v>1575</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -15796,7 +15867,7 @@
         <v>1577</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -15815,7 +15886,7 @@
         <v>1579</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -15834,7 +15905,7 @@
         <v>1581</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -15853,7 +15924,7 @@
         <v>1583</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -15872,7 +15943,7 @@
         <v>1585</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -15891,7 +15962,7 @@
         <v>1587</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -15910,7 +15981,7 @@
         <v>1589</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -15929,7 +16000,7 @@
         <v>1591</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -15948,7 +16019,7 @@
         <v>1593</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -16068,7 +16139,7 @@
         <v>1436</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -16306,7 +16377,7 @@
         <v>1436</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -16515,7 +16586,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -16768,8 +16839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16816,7 +16887,7 @@
         <v>2028</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>202</v>
@@ -16837,7 +16908,7 @@
         <v>2029</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>206</v>
@@ -17131,7 +17202,7 @@
         <v>2043</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>258</v>
@@ -17299,7 +17370,7 @@
         <v>2051</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>290</v>
@@ -17320,7 +17391,7 @@
         <v>2052</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>294</v>
@@ -17782,7 +17853,7 @@
         <v>2074</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>377</v>
@@ -17803,7 +17874,7 @@
         <v>2075</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>381</v>
@@ -17824,7 +17895,7 @@
         <v>2076</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>385</v>
@@ -17845,7 +17916,7 @@
         <v>2077</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>389</v>
@@ -17866,7 +17937,7 @@
         <v>2078</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>393</v>
@@ -17887,7 +17958,7 @@
         <v>2079</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>397</v>
@@ -17908,7 +17979,7 @@
         <v>2080</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>401</v>
@@ -17926,10 +17997,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>405</v>
@@ -17950,7 +18021,7 @@
         <v>2081</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>409</v>
@@ -17971,7 +18042,7 @@
         <v>2082</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>413</v>
@@ -17992,7 +18063,7 @@
         <v>2083</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>417</v>
@@ -18013,7 +18084,7 @@
         <v>2084</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>421</v>
@@ -18034,7 +18105,7 @@
         <v>2085</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>424</v>
@@ -18055,7 +18126,7 @@
         <v>2086</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>427</v>
@@ -18076,7 +18147,7 @@
         <v>2087</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>430</v>
@@ -18097,7 +18168,7 @@
         <v>2088</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>434</v>
@@ -18160,7 +18231,7 @@
         <v>2091</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>445</v>
@@ -18181,7 +18252,7 @@
         <v>2092</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>449</v>
@@ -18202,7 +18273,7 @@
         <v>2093</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>453</v>
@@ -18220,10 +18291,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>457</v>
@@ -18241,10 +18312,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>461</v>
@@ -18262,10 +18333,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>465</v>
@@ -18286,7 +18357,7 @@
         <v>2094</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>469</v>
@@ -18304,10 +18375,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>473</v>
@@ -18325,10 +18396,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>477</v>
@@ -18346,10 +18417,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>481</v>
@@ -18370,7 +18441,7 @@
         <v>2095</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>485</v>
@@ -18391,7 +18462,7 @@
         <v>2096</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>489</v>
@@ -18412,7 +18483,7 @@
         <v>2097</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>493</v>
@@ -18433,7 +18504,7 @@
         <v>2098</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>497</v>
@@ -18454,7 +18525,7 @@
         <v>2099</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>501</v>
@@ -18475,7 +18546,7 @@
         <v>2100</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>505</v>
@@ -18496,7 +18567,7 @@
         <v>2101</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>509</v>
@@ -18517,7 +18588,7 @@
         <v>2102</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>513</v>
@@ -18580,7 +18651,7 @@
         <v>2103</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>525</v>
@@ -18601,7 +18672,7 @@
         <v>2104</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>529</v>
@@ -18622,7 +18693,7 @@
         <v>2105</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>533</v>
@@ -18643,7 +18714,7 @@
         <v>2106</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>537</v>
@@ -18664,7 +18735,7 @@
         <v>2107</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>541</v>
@@ -18685,7 +18756,7 @@
         <v>2103</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>544</v>
@@ -18706,7 +18777,7 @@
         <v>2104</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>546</v>
@@ -18727,7 +18798,7 @@
         <v>2105</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>548</v>
@@ -18748,7 +18819,7 @@
         <v>2106</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>550</v>
@@ -18769,7 +18840,7 @@
         <v>2107</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>552</v>
@@ -18790,7 +18861,7 @@
         <v>2108</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>555</v>
@@ -18811,7 +18882,7 @@
         <v>2109</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>559</v>
@@ -18832,7 +18903,7 @@
         <v>2110</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>563</v>
@@ -18979,7 +19050,7 @@
         <v>2116</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>54</v>
@@ -19000,7 +19071,7 @@
         <v>2117</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>56</v>
@@ -19018,10 +19089,10 @@
         <v>582</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>58</v>
@@ -19042,7 +19113,7 @@
         <v>2351</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>60</v>
@@ -19063,7 +19134,7 @@
         <v>2118</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>62</v>
@@ -19105,7 +19176,7 @@
         <v>2258</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>592</v>
@@ -19126,7 +19197,7 @@
         <v>2259</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>595</v>
@@ -19147,7 +19218,7 @@
         <v>2260</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>598</v>
@@ -19165,10 +19236,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>602</v>
@@ -19186,10 +19257,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>605</v>
@@ -19207,10 +19278,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>606</v>
@@ -19228,10 +19299,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>610</v>
@@ -19249,10 +19320,10 @@
         <v>601</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>612</v>
@@ -19270,10 +19341,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>613</v>
@@ -19291,10 +19362,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>616</v>
@@ -19315,7 +19386,7 @@
         <v>2119</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>621</v>
@@ -19336,7 +19407,7 @@
         <v>2120</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>625</v>
@@ -19357,7 +19428,7 @@
         <v>2121</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>629</v>
@@ -19378,7 +19449,7 @@
         <v>2122</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>633</v>
@@ -19399,7 +19470,7 @@
         <v>2123</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>637</v>
@@ -19420,7 +19491,7 @@
         <v>2124</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>641</v>
@@ -19441,7 +19512,7 @@
         <v>2125</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>645</v>
@@ -19457,7 +19528,7 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="23" t="s">
@@ -19472,7 +19543,7 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="23" t="s">
@@ -19487,7 +19558,7 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="23" t="s">
@@ -19502,7 +19573,7 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="23" t="s">
@@ -19517,7 +19588,7 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="23" t="s">
@@ -19532,7 +19603,7 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="23" t="s">
@@ -19547,7 +19618,7 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="23" t="s">
@@ -19562,7 +19633,7 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="23" t="s">
@@ -19577,7 +19648,7 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="23" t="s">
@@ -19592,7 +19663,7 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="23" t="s">
@@ -19607,7 +19678,7 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="23" t="s">
@@ -19622,7 +19693,7 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="23" t="s">
@@ -19637,7 +19708,7 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="23" t="s">
@@ -19652,7 +19723,7 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="23" t="s">
@@ -19735,7 +19806,7 @@
         <v>2129</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>689</v>
@@ -19756,7 +19827,7 @@
         <v>2130</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>693</v>
@@ -19777,7 +19848,7 @@
         <v>2131</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>697</v>
@@ -19900,7 +19971,7 @@
         <v>720</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>2239</v>
@@ -19987,7 +20058,7 @@
         <v>2140</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>735</v>
@@ -20008,7 +20079,7 @@
         <v>2141</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>738</v>
@@ -20029,7 +20100,7 @@
         <v>2142</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>741</v>
@@ -20155,7 +20226,7 @@
         <v>2148</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>763</v>
@@ -20176,7 +20247,7 @@
         <v>2149</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>767</v>
@@ -20197,7 +20268,7 @@
         <v>2150</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>770</v>
@@ -20239,7 +20310,7 @@
         <v>2152</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>777</v>
@@ -20260,7 +20331,7 @@
         <v>2153</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>781</v>
@@ -20279,7 +20350,7 @@
         <v>2154</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>784</v>
@@ -20298,7 +20369,7 @@
         <v>2155</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>787</v>
@@ -20317,7 +20388,7 @@
         <v>2155</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>787</v>
@@ -20336,7 +20407,7 @@
         <v>2156</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>791</v>
@@ -20355,7 +20426,7 @@
         <v>2157</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>794</v>
@@ -20374,7 +20445,7 @@
         <v>2158</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>794</v>
@@ -20393,7 +20464,7 @@
         <v>2159</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>798</v>
@@ -20412,7 +20483,7 @@
         <v>2160</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>801</v>
@@ -20433,7 +20504,7 @@
         <v>2161</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>805</v>
@@ -20454,7 +20525,7 @@
         <v>2162</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>809</v>
@@ -20475,7 +20546,7 @@
         <v>2163</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>813</v>
@@ -20496,7 +20567,7 @@
         <v>2164</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>817</v>
@@ -20514,10 +20585,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>821</v>
@@ -20538,7 +20609,7 @@
         <v>2165</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>825</v>
@@ -20559,7 +20630,7 @@
         <v>2166</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>829</v>
@@ -20580,7 +20651,7 @@
         <v>2167</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>833</v>
@@ -20601,7 +20672,7 @@
         <v>2168</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>837</v>
@@ -20622,7 +20693,7 @@
         <v>2169</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>841</v>
@@ -20643,7 +20714,7 @@
         <v>2170</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>845</v>
@@ -20664,7 +20735,7 @@
         <v>2171</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>849</v>
@@ -20731,7 +20802,7 @@
         <v>2173</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>861</v>
@@ -20752,7 +20823,7 @@
         <v>2174</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>865</v>
@@ -20773,7 +20844,7 @@
         <v>2175</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>869</v>
@@ -20794,7 +20865,7 @@
         <v>2176</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>873</v>
@@ -20815,7 +20886,7 @@
         <v>2177</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>875</v>
@@ -20836,7 +20907,7 @@
         <v>2178</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>880</v>
@@ -20857,7 +20928,7 @@
         <v>2179</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>884</v>
@@ -20878,7 +20949,7 @@
         <v>2180</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>888</v>
@@ -20899,7 +20970,7 @@
         <v>2181</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>892</v>
@@ -20963,8 +21034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -21008,7 +21079,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2402</v>
+        <v>2895</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>905</v>
@@ -21022,7 +21093,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>907</v>
@@ -21042,7 +21113,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>911</v>
@@ -21056,7 +21127,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>913</v>
@@ -21072,7 +21143,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>911</v>
@@ -21086,7 +21157,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>913</v>
@@ -21104,7 +21175,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>917</v>
@@ -21118,7 +21189,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>919</v>
@@ -21138,7 +21209,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>922</v>
@@ -21152,7 +21223,7 @@
         <v>923</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>924</v>
@@ -21168,7 +21239,7 @@
         <v>921</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>922</v>
@@ -21182,7 +21253,7 @@
         <v>923</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>924</v>
@@ -21198,7 +21269,7 @@
         <v>921</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>922</v>
@@ -21212,7 +21283,7 @@
         <v>921</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>922</v>
@@ -21232,7 +21303,7 @@
         <v>929</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>930</v>
@@ -21246,7 +21317,7 @@
         <v>931</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>924</v>
@@ -21264,7 +21335,7 @@
         <v>933</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>934</v>
@@ -21278,7 +21349,7 @@
         <v>935</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>936</v>
@@ -21296,7 +21367,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>939</v>
@@ -21310,7 +21381,7 @@
         <v>940</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>941</v>
@@ -21326,7 +21397,7 @@
         <v>938</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>939</v>
@@ -21340,7 +21411,7 @@
         <v>940</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>941</v>
@@ -21358,7 +21429,7 @@
         <v>944</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>945</v>
@@ -21372,7 +21443,7 @@
         <v>935</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>936</v>
@@ -21392,7 +21463,7 @@
         <v>948</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>949</v>
@@ -21408,7 +21479,7 @@
         <v>951</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>952</v>
@@ -21422,7 +21493,7 @@
         <v>953</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>954</v>
@@ -21438,7 +21509,7 @@
         <v>956</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>957</v>
@@ -21454,7 +21525,7 @@
         <v>959</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>930</v>
@@ -21468,7 +21539,7 @@
         <v>960</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>961</v>
@@ -21488,7 +21559,7 @@
         <v>963</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>964</v>
@@ -21504,7 +21575,7 @@
         <v>966</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>967</v>
@@ -21518,7 +21589,7 @@
         <v>968</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>969</v>
@@ -21536,7 +21607,7 @@
         <v>970</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>971</v>
@@ -21550,7 +21621,7 @@
         <v>972</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>973</v>
@@ -21570,7 +21641,7 @@
         <v>975</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>976</v>
@@ -21584,7 +21655,7 @@
         <v>977</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>978</v>
@@ -21602,7 +21673,7 @@
         <v>929</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>980</v>
@@ -21616,7 +21687,7 @@
         <v>968</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>981</v>
@@ -21634,7 +21705,7 @@
         <v>929</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>980</v>
@@ -21648,7 +21719,7 @@
         <v>983</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>984</v>
@@ -21668,7 +21739,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>988</v>
@@ -21682,7 +21753,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>990</v>
@@ -21696,7 +21767,7 @@
         <v>991</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>992</v>
@@ -21714,7 +21785,7 @@
         <v>995</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1999</v>
@@ -21728,7 +21799,7 @@
         <v>997</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>998</v>
@@ -21746,7 +21817,7 @@
         <v>995</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>996</v>
@@ -21760,7 +21831,7 @@
         <v>997</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>998</v>
@@ -21778,7 +21849,7 @@
         <v>1001</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1002</v>
@@ -21792,7 +21863,7 @@
         <v>1003</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1004</v>
@@ -21810,7 +21881,7 @@
         <v>1006</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1007</v>
@@ -21824,7 +21895,7 @@
         <v>1008</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1009</v>
@@ -21842,7 +21913,7 @@
         <v>1006</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1007</v>
@@ -21856,7 +21927,7 @@
         <v>1008</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1009</v>
@@ -21874,7 +21945,7 @@
         <v>1006</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1007</v>
@@ -21888,7 +21959,7 @@
         <v>1008</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1009</v>
@@ -21906,7 +21977,7 @@
         <v>1006</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1007</v>
@@ -21920,7 +21991,7 @@
         <v>1008</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1009</v>
@@ -21938,7 +22009,7 @@
         <v>1006</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1007</v>
@@ -21952,7 +22023,7 @@
         <v>1008</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1009</v>
@@ -22424,8 +22495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView topLeftCell="G67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -22457,7 +22528,7 @@
         <v>1086</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -22474,7 +22545,7 @@
         <v>1089</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1090</v>
@@ -22491,7 +22562,7 @@
         <v>1091</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1092</v>
@@ -22508,7 +22579,7 @@
         <v>1093</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1094</v>
@@ -22525,7 +22596,7 @@
         <v>1095</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1096</v>
@@ -22542,13 +22613,13 @@
         <v>1098</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1099</v>
@@ -22568,13 +22639,13 @@
         <v>1102</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1103</v>
@@ -22594,13 +22665,13 @@
         <v>1106</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1108</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1107</v>
@@ -22620,13 +22691,13 @@
         <v>1110</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1112</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1111</v>
@@ -22646,13 +22717,13 @@
         <v>1114</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1115</v>
@@ -22672,13 +22743,13 @@
         <v>1117</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1118</v>
@@ -22698,7 +22769,7 @@
         <v>1122</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1123</v>
@@ -22715,7 +22786,7 @@
         <v>1097</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1124</v>
@@ -22732,7 +22803,7 @@
         <v>1125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1125</v>
@@ -22749,7 +22820,7 @@
         <v>1093</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1094</v>
@@ -22766,7 +22837,7 @@
         <v>1126</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1126</v>
@@ -22783,7 +22854,7 @@
         <v>1127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1128</v>
@@ -22800,7 +22871,7 @@
         <v>1130</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1132</v>
@@ -22814,13 +22885,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1131</v>
@@ -22843,7 +22914,7 @@
         <v>1137</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1139</v>
@@ -22852,10 +22923,10 @@
         <v>1141</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1138</v>
@@ -22878,7 +22949,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1145</v>
@@ -22887,10 +22958,10 @@
         <v>1147</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1144</v>
@@ -22913,7 +22984,7 @@
         <v>1149</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1151</v>
@@ -22922,10 +22993,10 @@
         <v>1153</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1150</v>
@@ -22948,7 +23019,7 @@
         <v>1155</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1151</v>
@@ -22957,10 +23028,10 @@
         <v>1153</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1156</v>
@@ -22983,7 +23054,7 @@
         <v>1157</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1159</v>
@@ -22992,10 +23063,10 @@
         <v>1161</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1158</v>
@@ -23018,7 +23089,7 @@
         <v>1163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1159</v>
@@ -23027,10 +23098,10 @@
         <v>1161</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1164</v>
@@ -23053,7 +23124,7 @@
         <v>1165</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1159</v>
@@ -23062,10 +23133,10 @@
         <v>1161</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1166</v>
@@ -23088,7 +23159,7 @@
         <v>1167</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1159</v>
@@ -23097,10 +23168,10 @@
         <v>1169</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1168</v>
@@ -23123,7 +23194,7 @@
         <v>1170</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1172</v>
@@ -23132,10 +23203,10 @@
         <v>1173</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1171</v>
@@ -23158,7 +23229,7 @@
         <v>1174</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1159</v>
@@ -23167,10 +23238,10 @@
         <v>1169</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1175</v>
@@ -23193,7 +23264,7 @@
         <v>1177</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1178</v>
@@ -23207,7 +23278,7 @@
         <v>1179</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1180</v>
@@ -23221,7 +23292,7 @@
         <v>1181</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>186</v>
@@ -23235,7 +23306,7 @@
         <v>1182</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1183</v>
@@ -23249,7 +23320,31 @@
         <v>1184</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2755</v>
+        <v>2752</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>2903</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>2904</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>2906</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>2907</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>2908</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>2909</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1185</v>
@@ -23263,7 +23358,7 @@
         <v>1186</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1186</v>
@@ -23277,7 +23372,7 @@
         <v>1187</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1188</v>
@@ -23291,7 +23386,7 @@
         <v>1189</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1190</v>
@@ -23305,7 +23400,7 @@
         <v>1191</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1192</v>
@@ -23319,7 +23414,7 @@
         <v>928</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1193</v>
@@ -23333,7 +23428,7 @@
         <v>1194</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1195</v>
@@ -23347,7 +23442,7 @@
         <v>1196</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1197</v>
@@ -23361,7 +23456,7 @@
         <v>1198</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1199</v>
@@ -23375,7 +23470,7 @@
         <v>1200</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1190</v>
@@ -23389,7 +23484,7 @@
         <v>1201</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1202</v>
@@ -23403,7 +23498,7 @@
         <v>1203</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1204</v>
@@ -23417,7 +23512,7 @@
         <v>1205</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1206</v>
@@ -23431,7 +23526,7 @@
         <v>1207</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1208</v>
@@ -23445,7 +23540,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1210</v>
@@ -23459,7 +23554,7 @@
         <v>1211</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1212</v>
@@ -23473,7 +23568,7 @@
         <v>1213</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1214</v>
@@ -23487,7 +23582,7 @@
         <v>1215</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1216</v>
@@ -23501,7 +23596,7 @@
         <v>1217</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1218</v>
@@ -23515,7 +23610,7 @@
         <v>1219</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1220</v>
@@ -23529,7 +23624,7 @@
         <v>1221</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1222</v>
@@ -23543,7 +23638,7 @@
         <v>1223</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1223</v>
@@ -23557,7 +23652,7 @@
         <v>1127</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1128</v>
@@ -23571,7 +23666,7 @@
         <v>1225</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1226</v>
@@ -23585,7 +23680,7 @@
         <v>1125</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1227</v>
@@ -23599,7 +23694,7 @@
         <v>1228</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1229</v>
@@ -23613,7 +23708,7 @@
         <v>1230</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1231</v>
@@ -23627,7 +23722,7 @@
         <v>1232</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1233</v>
@@ -23641,7 +23736,7 @@
         <v>1129</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1234</v>
@@ -23655,7 +23750,7 @@
         <v>1097</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1235</v>
@@ -23669,7 +23764,7 @@
         <v>1236</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1096</v>
@@ -23683,7 +23778,7 @@
         <v>1165</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1166</v>
@@ -23697,7 +23792,7 @@
         <v>1163</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1164</v>
@@ -23711,7 +23806,7 @@
         <v>1237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1238</v>
@@ -23725,7 +23820,7 @@
         <v>1239</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1240</v>
@@ -23739,7 +23834,7 @@
         <v>1241</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1242</v>
@@ -23753,7 +23848,7 @@
         <v>1243</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1244</v>
@@ -23767,7 +23862,7 @@
         <v>1245</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1246</v>
@@ -23781,7 +23876,7 @@
         <v>1247</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1248</v>
@@ -23798,7 +23893,7 @@
         <v>1249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1250</v>
@@ -23812,13 +23907,13 @@
         <v>1251</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1252</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -23829,13 +23924,13 @@
         <v>1253</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -23846,7 +23941,7 @@
         <v>1255</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1256</v>
@@ -23858,13 +23953,13 @@
         <v>1258</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -23875,7 +23970,7 @@
         <v>1259</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1260</v>
@@ -23887,13 +23982,13 @@
         <v>1258</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -23904,7 +23999,7 @@
         <v>1261</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1262</v>
@@ -23919,16 +24014,16 @@
         <v>1265</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2854</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>2855</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>2856</v>
+      </c>
+      <c r="L78" s="40" t="s">
         <v>2857</v>
-      </c>
-      <c r="J78" s="40" t="s">
-        <v>2858</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>2859</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -23939,7 +24034,7 @@
         <v>1266</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1267</v>
@@ -23951,10 +24046,10 @@
         <v>1258</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -23965,7 +24060,7 @@
         <v>1268</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1269</v>
@@ -23977,10 +24072,10 @@
         <v>1258</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -23991,7 +24086,7 @@
         <v>1270</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1271</v>
@@ -24014,7 +24109,7 @@
         <v>1274</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1275</v>
@@ -24037,7 +24132,7 @@
         <v>1276</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1277</v>
@@ -24060,7 +24155,7 @@
         <v>1278</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1279</v>
@@ -24072,10 +24167,10 @@
         <v>1258</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -24086,7 +24181,7 @@
         <v>1280</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1281</v>
@@ -24112,7 +24207,7 @@
         <v>1282</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1283</v>
@@ -24127,7 +24222,7 @@
         <v>1265</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -24138,7 +24233,7 @@
         <v>1286</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1287</v>
@@ -24150,13 +24245,13 @@
         <v>1258</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -24167,7 +24262,7 @@
         <v>1288</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1289</v>
@@ -24179,10 +24274,10 @@
         <v>1258</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -24193,7 +24288,7 @@
         <v>1290</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1291</v>
@@ -24205,10 +24300,10 @@
         <v>1258</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -24219,7 +24314,7 @@
         <v>1292</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1293</v>
@@ -24242,7 +24337,7 @@
         <v>1296</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1297</v>
@@ -24254,10 +24349,10 @@
         <v>1258</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -24268,7 +24363,7 @@
         <v>1298</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1299</v>
@@ -24280,10 +24375,10 @@
         <v>1258</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
   </sheetData>
@@ -24302,7 +24397,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -24363,7 +24458,7 @@
         <v>1307</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1308</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,14 @@
     <sheet name="Skills-スキル" sheetId="3" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'names-名前'!$A$1:$H$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'names-名前'!$A$1:$H$79</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="2912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="2916">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -8258,16 +8258,10 @@
     <t>Nobus and Mizuhide</t>
   </si>
   <si>
-    <t>A lesser succubus with huge breasts.</t>
-  </si>
-  <si>
     <t>A lesser succubus with a younger appearance.</t>
   </si>
   <si>
     <t>A lesser succubus who specializes in footjobs.</t>
-  </si>
-  <si>
-    <t>A middle class succubus. Enemy commander.</t>
   </si>
   <si>
     <t>A junior school girl. Quite cheeky</t>
@@ -8822,6 +8816,24 @@
   </si>
   <si>
     <t>This one?</t>
+  </si>
+  <si>
+    <t>A middle class succubus. An enemy commander.</t>
+  </si>
+  <si>
+    <t>A lesser succubus posessing huge breasts.</t>
+  </si>
+  <si>
+    <t>中級のサキュバス。</t>
+  </si>
+  <si>
+    <t>Intermediate Succubus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intermediate level succubus. </t>
+  </si>
+  <si>
+    <t>中級淫魔</t>
   </si>
 </sst>
 </file>
@@ -9541,10 +9553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -9816,7 +9828,7 @@
         <v>2343</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
@@ -9836,7 +9848,7 @@
         <v>2344</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
@@ -9856,7 +9868,7 @@
         <v>2345</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
@@ -9912,7 +9924,7 @@
         <v>2399</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -9930,7 +9942,7 @@
         <v>2400</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -9948,7 +9960,7 @@
         <v>2401</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -10106,7 +10118,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -10236,7 +10248,7 @@
         <v>2293</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2724</v>
+        <v>2911</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>72</v>
@@ -10260,7 +10272,7 @@
         <v>2294</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>74</v>
@@ -10284,7 +10296,7 @@
         <v>2295</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>76</v>
@@ -10292,50 +10304,46 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="15">
-      <c r="A39" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>2359</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>2296</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>2727</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" s="23"/>
+      <c r="C39" s="40" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>2914</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="15">
       <c r="A40" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2728</v>
+        <v>2910</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H40" s="23"/>
     </row>
@@ -10353,10 +10361,10 @@
         <v>2362</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2746</v>
+        <v>2726</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>80</v>
@@ -10371,19 +10379,19 @@
         <v>23</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2691</v>
+        <v>2362</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2729</v>
+        <v>2744</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H42" s="23"/>
     </row>
@@ -10395,19 +10403,19 @@
         <v>23</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2360</v>
+        <v>2691</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H43" s="23"/>
     </row>
@@ -10419,19 +10427,19 @@
         <v>23</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H44" s="23"/>
     </row>
@@ -10440,22 +10448,22 @@
         <v>63</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2352</v>
+        <v>2361</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H45" s="23"/>
     </row>
@@ -10467,19 +10475,19 @@
         <v>10</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2363</v>
+        <v>2352</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2733</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>90</v>
+        <v>2730</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="H46" s="23"/>
     </row>
@@ -10491,19 +10499,19 @@
         <v>10</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2734</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>92</v>
+        <v>2731</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="H47" s="23"/>
     </row>
@@ -10515,19 +10523,19 @@
         <v>10</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H48" s="23"/>
     </row>
@@ -10536,22 +10544,22 @@
         <v>63</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2380</v>
+        <v>2365</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H49" s="23"/>
     </row>
@@ -10563,19 +10571,19 @@
         <v>15</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H50" s="23"/>
     </row>
@@ -10587,19 +10595,19 @@
         <v>15</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H51" s="23"/>
     </row>
@@ -10611,19 +10619,19 @@
         <v>15</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H52" s="23"/>
     </row>
@@ -10635,19 +10643,19 @@
         <v>15</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H53" s="23"/>
     </row>
@@ -10659,19 +10667,19 @@
         <v>15</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2379</v>
+        <v>2389</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H54" s="23"/>
     </row>
@@ -10680,22 +10688,22 @@
         <v>63</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2384</v>
+        <v>2379</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H55" s="23"/>
     </row>
@@ -10704,22 +10712,22 @@
         <v>63</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>1994</v>
+        <v>2312</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H56" s="23"/>
     </row>
@@ -10737,10 +10745,10 @@
         <v>2385</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>2313</v>
+        <v>1994</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>112</v>
@@ -10755,19 +10763,19 @@
         <v>110</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H58" s="23"/>
     </row>
@@ -10779,17 +10787,19 @@
         <v>110</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F59" s="23"/>
+        <v>2314</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>2743</v>
+      </c>
       <c r="G59" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H59" s="23"/>
     </row>
@@ -10801,17 +10811,17 @@
         <v>110</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H60" s="23"/>
     </row>
@@ -10820,48 +10830,48 @@
         <v>63</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2371</v>
+        <v>2388</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="15">
       <c r="A62" s="23" t="s">
-        <v>1995</v>
+        <v>63</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>1996</v>
+        <v>2317</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="15">
       <c r="A63" s="23" t="s">
-        <v>63</v>
+        <v>1995</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>119</v>
@@ -10873,7 +10883,7 @@
         <v>2377</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>2318</v>
+        <v>1996</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
@@ -10889,17 +10899,17 @@
         <v>119</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H64" s="23"/>
     </row>
@@ -10911,17 +10921,17 @@
         <v>119</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H65" s="23"/>
     </row>
@@ -10933,15 +10943,17 @@
         <v>119</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="23"/>
+        <v>126</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>2376</v>
+      </c>
       <c r="E66" s="23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H66" s="23"/>
     </row>
@@ -10950,20 +10962,18 @@
         <v>63</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1997</v>
+        <v>119</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>2359</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D67" s="23"/>
       <c r="E67" s="23" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="H67" s="23"/>
     </row>
@@ -10972,20 +10982,20 @@
         <v>63</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>119</v>
+        <v>1997</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2372</v>
+        <v>2359</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="H68" s="23"/>
     </row>
@@ -10994,20 +11004,20 @@
         <v>63</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H69" s="23"/>
     </row>
@@ -11019,17 +11029,17 @@
         <v>132</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>2324</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H70" s="23"/>
     </row>
@@ -11041,17 +11051,17 @@
         <v>132</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H71" s="23"/>
     </row>
@@ -11063,17 +11073,17 @@
         <v>132</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2369</v>
+        <v>2375</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H72" s="23"/>
     </row>
@@ -11085,17 +11095,17 @@
         <v>132</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H73" s="23"/>
     </row>
@@ -11107,17 +11117,17 @@
         <v>132</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H74" s="23"/>
     </row>
@@ -11126,18 +11136,20 @@
         <v>63</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2368</v>
-      </c>
-      <c r="E75" s="23"/>
+        <v>2367</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>2328</v>
+      </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H75" s="23"/>
     </row>
@@ -11149,17 +11161,15 @@
         <v>145</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2366</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>2329</v>
-      </c>
+        <v>2368</v>
+      </c>
+      <c r="E76" s="23"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H76" s="23"/>
     </row>
@@ -11168,20 +11178,20 @@
         <v>63</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2390</v>
+        <v>2366</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H77" s="23"/>
     </row>
@@ -11193,22 +11203,44 @@
         <v>150</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="1:8" ht="15">
+      <c r="A79" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="23"/>
+      <c r="H79" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H78"/>
+  <autoFilter ref="A1:H79"/>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11933,7 +11965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -12003,7 +12035,7 @@
         <v>1711</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -12015,7 +12047,7 @@
         <v>1712</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1713</v>
@@ -19089,7 +19121,7 @@
         <v>582</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>2607</v>
@@ -21079,7 +21111,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>905</v>
@@ -21113,7 +21145,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>911</v>
@@ -21127,7 +21159,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>913</v>
@@ -21143,7 +21175,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>911</v>
@@ -21157,7 +21189,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>913</v>
@@ -21209,7 +21241,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>922</v>
@@ -21223,7 +21255,7 @@
         <v>923</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>924</v>
@@ -21239,7 +21271,7 @@
         <v>921</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>922</v>
@@ -21253,7 +21285,7 @@
         <v>923</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>924</v>
@@ -21269,7 +21301,7 @@
         <v>921</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>922</v>
@@ -21283,7 +21315,7 @@
         <v>921</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>922</v>
@@ -21303,7 +21335,7 @@
         <v>929</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>930</v>
@@ -21317,7 +21349,7 @@
         <v>931</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>924</v>
@@ -21335,7 +21367,7 @@
         <v>933</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>934</v>
@@ -21349,7 +21381,7 @@
         <v>935</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>936</v>
@@ -21367,7 +21399,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>939</v>
@@ -21381,7 +21413,7 @@
         <v>940</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>941</v>
@@ -21397,7 +21429,7 @@
         <v>938</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>939</v>
@@ -21411,7 +21443,7 @@
         <v>940</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>941</v>
@@ -21429,7 +21461,7 @@
         <v>944</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>945</v>
@@ -21443,7 +21475,7 @@
         <v>935</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>936</v>
@@ -21463,7 +21495,7 @@
         <v>948</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>949</v>
@@ -21479,7 +21511,7 @@
         <v>951</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>952</v>
@@ -21493,7 +21525,7 @@
         <v>953</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>954</v>
@@ -21509,7 +21541,7 @@
         <v>956</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>957</v>
@@ -21525,7 +21557,7 @@
         <v>959</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>930</v>
@@ -21539,7 +21571,7 @@
         <v>960</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>961</v>
@@ -21559,7 +21591,7 @@
         <v>963</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>964</v>
@@ -21575,7 +21607,7 @@
         <v>966</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>967</v>
@@ -21589,7 +21621,7 @@
         <v>968</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>969</v>
@@ -21607,7 +21639,7 @@
         <v>970</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>971</v>
@@ -21621,7 +21653,7 @@
         <v>972</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>973</v>
@@ -21641,7 +21673,7 @@
         <v>975</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>976</v>
@@ -21655,7 +21687,7 @@
         <v>977</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>978</v>
@@ -21673,7 +21705,7 @@
         <v>929</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>980</v>
@@ -21687,7 +21719,7 @@
         <v>968</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>981</v>
@@ -21705,7 +21737,7 @@
         <v>929</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>980</v>
@@ -21719,7 +21751,7 @@
         <v>983</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>984</v>
@@ -21739,7 +21771,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>988</v>
@@ -21753,7 +21785,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>990</v>
@@ -21767,7 +21799,7 @@
         <v>991</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>992</v>
@@ -21785,7 +21817,7 @@
         <v>995</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1999</v>
@@ -21799,7 +21831,7 @@
         <v>997</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>998</v>
@@ -21817,7 +21849,7 @@
         <v>995</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>996</v>
@@ -21831,7 +21863,7 @@
         <v>997</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>998</v>
@@ -21849,7 +21881,7 @@
         <v>1001</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1002</v>
@@ -21863,7 +21895,7 @@
         <v>1003</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1004</v>
@@ -21881,7 +21913,7 @@
         <v>1006</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1007</v>
@@ -21895,7 +21927,7 @@
         <v>1008</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1009</v>
@@ -21913,7 +21945,7 @@
         <v>1006</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1007</v>
@@ -21927,7 +21959,7 @@
         <v>1008</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1009</v>
@@ -21945,7 +21977,7 @@
         <v>1006</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1007</v>
@@ -21959,7 +21991,7 @@
         <v>1008</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1009</v>
@@ -21977,7 +22009,7 @@
         <v>1006</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1007</v>
@@ -21991,7 +22023,7 @@
         <v>1008</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1009</v>
@@ -22009,7 +22041,7 @@
         <v>1006</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1007</v>
@@ -22023,7 +22055,7 @@
         <v>1008</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1009</v>
@@ -22528,7 +22560,7 @@
         <v>1086</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -22545,7 +22577,7 @@
         <v>1089</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1090</v>
@@ -22562,7 +22594,7 @@
         <v>1091</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1092</v>
@@ -22579,7 +22611,7 @@
         <v>1093</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1094</v>
@@ -22596,7 +22628,7 @@
         <v>1095</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1096</v>
@@ -22613,13 +22645,13 @@
         <v>1098</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1099</v>
@@ -22639,13 +22671,13 @@
         <v>1102</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1103</v>
@@ -22665,13 +22697,13 @@
         <v>1106</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1108</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1107</v>
@@ -22691,13 +22723,13 @@
         <v>1110</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1112</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1111</v>
@@ -22717,13 +22749,13 @@
         <v>1114</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1115</v>
@@ -22743,13 +22775,13 @@
         <v>1117</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1118</v>
@@ -22769,7 +22801,7 @@
         <v>1122</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1123</v>
@@ -22786,7 +22818,7 @@
         <v>1097</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1124</v>
@@ -22803,7 +22835,7 @@
         <v>1125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1125</v>
@@ -22820,7 +22852,7 @@
         <v>1093</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1094</v>
@@ -22837,7 +22869,7 @@
         <v>1126</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1126</v>
@@ -22854,7 +22886,7 @@
         <v>1127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1128</v>
@@ -22871,7 +22903,7 @@
         <v>1130</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1132</v>
@@ -22885,13 +22917,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>2772</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2774</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2776</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1131</v>
@@ -22914,7 +22946,7 @@
         <v>1137</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1139</v>
@@ -22923,10 +22955,10 @@
         <v>1141</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1138</v>
@@ -22949,7 +22981,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1145</v>
@@ -22958,10 +22990,10 @@
         <v>1147</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1144</v>
@@ -22984,7 +23016,7 @@
         <v>1149</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1151</v>
@@ -22993,10 +23025,10 @@
         <v>1153</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1150</v>
@@ -23019,7 +23051,7 @@
         <v>1155</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1151</v>
@@ -23028,10 +23060,10 @@
         <v>1153</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1156</v>
@@ -23054,7 +23086,7 @@
         <v>1157</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1159</v>
@@ -23063,10 +23095,10 @@
         <v>1161</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1158</v>
@@ -23089,7 +23121,7 @@
         <v>1163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1159</v>
@@ -23098,10 +23130,10 @@
         <v>1161</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1164</v>
@@ -23124,7 +23156,7 @@
         <v>1165</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1159</v>
@@ -23133,10 +23165,10 @@
         <v>1161</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1166</v>
@@ -23159,7 +23191,7 @@
         <v>1167</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1159</v>
@@ -23168,10 +23200,10 @@
         <v>1169</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1168</v>
@@ -23194,7 +23226,7 @@
         <v>1170</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1172</v>
@@ -23203,10 +23235,10 @@
         <v>1173</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1171</v>
@@ -23229,7 +23261,7 @@
         <v>1174</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1159</v>
@@ -23238,10 +23270,10 @@
         <v>1169</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1175</v>
@@ -23264,7 +23296,7 @@
         <v>1177</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1178</v>
@@ -23278,7 +23310,7 @@
         <v>1179</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1180</v>
@@ -23292,7 +23324,7 @@
         <v>1181</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>186</v>
@@ -23306,7 +23338,7 @@
         <v>1182</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1183</v>
@@ -23320,31 +23352,31 @@
         <v>1184</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>2901</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>2902</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="I33" s="40" t="s">
+        <v>2904</v>
+      </c>
+      <c r="J33" s="40" t="s">
         <v>2905</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2903</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2904</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2906</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2907</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>2908</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2909</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1185</v>
@@ -23358,7 +23390,7 @@
         <v>1186</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1186</v>
@@ -23372,7 +23404,7 @@
         <v>1187</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1188</v>
@@ -23386,7 +23418,7 @@
         <v>1189</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1190</v>
@@ -23400,7 +23432,7 @@
         <v>1191</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1192</v>
@@ -23414,7 +23446,7 @@
         <v>928</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1193</v>
@@ -23428,7 +23460,7 @@
         <v>1194</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1195</v>
@@ -23442,7 +23474,7 @@
         <v>1196</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1197</v>
@@ -23456,7 +23488,7 @@
         <v>1198</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1199</v>
@@ -23470,7 +23502,7 @@
         <v>1200</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1190</v>
@@ -23484,7 +23516,7 @@
         <v>1201</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1202</v>
@@ -23498,7 +23530,7 @@
         <v>1203</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1204</v>
@@ -23512,7 +23544,7 @@
         <v>1205</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1206</v>
@@ -23526,7 +23558,7 @@
         <v>1207</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1208</v>
@@ -23540,7 +23572,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1210</v>
@@ -23554,7 +23586,7 @@
         <v>1211</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1212</v>
@@ -23568,7 +23600,7 @@
         <v>1213</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1214</v>
@@ -23582,7 +23614,7 @@
         <v>1215</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1216</v>
@@ -23596,7 +23628,7 @@
         <v>1217</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1218</v>
@@ -23610,7 +23642,7 @@
         <v>1219</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1220</v>
@@ -23624,7 +23656,7 @@
         <v>1221</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1222</v>
@@ -23638,7 +23670,7 @@
         <v>1223</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1223</v>
@@ -23652,7 +23684,7 @@
         <v>1127</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1128</v>
@@ -23666,7 +23698,7 @@
         <v>1225</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1226</v>
@@ -23680,7 +23712,7 @@
         <v>1125</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1227</v>
@@ -23694,7 +23726,7 @@
         <v>1228</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1229</v>
@@ -23708,7 +23740,7 @@
         <v>1230</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1231</v>
@@ -23722,7 +23754,7 @@
         <v>1232</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1233</v>
@@ -23736,7 +23768,7 @@
         <v>1129</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1234</v>
@@ -23750,7 +23782,7 @@
         <v>1097</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1235</v>
@@ -23764,7 +23796,7 @@
         <v>1236</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1096</v>
@@ -23778,7 +23810,7 @@
         <v>1165</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1166</v>
@@ -23792,7 +23824,7 @@
         <v>1163</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1164</v>
@@ -23806,7 +23838,7 @@
         <v>1237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1238</v>
@@ -23820,7 +23852,7 @@
         <v>1239</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1240</v>
@@ -23834,7 +23866,7 @@
         <v>1241</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1242</v>
@@ -23848,7 +23880,7 @@
         <v>1243</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1244</v>
@@ -23862,7 +23894,7 @@
         <v>1245</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1246</v>
@@ -23876,7 +23908,7 @@
         <v>1247</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1248</v>
@@ -23893,7 +23925,7 @@
         <v>1249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1250</v>
@@ -23907,13 +23939,13 @@
         <v>1251</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1252</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -23924,13 +23956,13 @@
         <v>1253</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -23941,7 +23973,7 @@
         <v>1255</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1256</v>
@@ -23953,13 +23985,13 @@
         <v>1258</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -23970,7 +24002,7 @@
         <v>1259</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1260</v>
@@ -23982,13 +24014,13 @@
         <v>1258</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -23999,7 +24031,7 @@
         <v>1261</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1262</v>
@@ -24014,16 +24046,16 @@
         <v>1265</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2852</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>2853</v>
+      </c>
+      <c r="K78" s="40" t="s">
         <v>2854</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2855</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>2856</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -24034,7 +24066,7 @@
         <v>1266</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1267</v>
@@ -24046,10 +24078,10 @@
         <v>1258</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -24060,7 +24092,7 @@
         <v>1268</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1269</v>
@@ -24072,10 +24104,10 @@
         <v>1258</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -24086,7 +24118,7 @@
         <v>1270</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1271</v>
@@ -24109,7 +24141,7 @@
         <v>1274</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1275</v>
@@ -24132,7 +24164,7 @@
         <v>1276</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1277</v>
@@ -24155,7 +24187,7 @@
         <v>1278</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1279</v>
@@ -24167,10 +24199,10 @@
         <v>1258</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -24181,7 +24213,7 @@
         <v>1280</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1281</v>
@@ -24207,7 +24239,7 @@
         <v>1282</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1283</v>
@@ -24222,7 +24254,7 @@
         <v>1265</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -24233,7 +24265,7 @@
         <v>1286</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1287</v>
@@ -24245,13 +24277,13 @@
         <v>1258</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -24262,7 +24294,7 @@
         <v>1288</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1289</v>
@@ -24274,10 +24306,10 @@
         <v>1258</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -24288,7 +24320,7 @@
         <v>1290</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1291</v>
@@ -24300,10 +24332,10 @@
         <v>1258</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -24314,7 +24346,7 @@
         <v>1292</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1293</v>
@@ -24337,7 +24369,7 @@
         <v>1296</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1297</v>
@@ -24349,10 +24381,10 @@
         <v>1258</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -24363,7 +24395,7 @@
         <v>1298</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1299</v>
@@ -24375,10 +24407,10 @@
         <v>1258</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
   </sheetData>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="2916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="2924">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -8834,6 +8834,30 @@
   </si>
   <si>
     <t>中級淫魔</t>
+  </si>
+  <si>
+    <t>クリア済みのステージのイベントを自由に見られる部屋</t>
+  </si>
+  <si>
+    <t>※経験値˙武器消費なし　※無限行動</t>
+  </si>
+  <si>
+    <t>不足したヒーラーを派遣しよう　※ヒーラー１人以上必須</t>
+  </si>
+  <si>
+    <t>付近を荒らしまわる盜賊を退治よせよ</t>
+  </si>
+  <si>
+    <t>他作者による敗北後ifです。百合注意。文：二刀流</t>
+  </si>
+  <si>
+    <t>少年の求めにしたがい、洞窟で迷子になった子供を救助しよう。</t>
+  </si>
+  <si>
+    <t>違法にするサキュバスのアイテムを取り締まろう</t>
+  </si>
+  <si>
+    <t>【レベドレ後のセーブに注意】※経験値˙武器消費なし　※無限行動</t>
   </si>
 </sst>
 </file>
@@ -9555,7 +9579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -11252,8 +11276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -11289,6 +11313,9 @@
       <c r="B2" s="23" t="s">
         <v>2274</v>
       </c>
+      <c r="C2" s="40" t="s">
+        <v>2916</v>
+      </c>
       <c r="D2" s="23" t="s">
         <v>2700</v>
       </c>
@@ -11306,6 +11333,9 @@
       <c r="B3" s="23" t="s">
         <v>2275</v>
       </c>
+      <c r="C3" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D3" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11323,6 +11353,9 @@
       <c r="B4" s="23" t="s">
         <v>2276</v>
       </c>
+      <c r="C4" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D4" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11340,6 +11373,9 @@
       <c r="B5" s="23" t="s">
         <v>2277</v>
       </c>
+      <c r="C5" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D5" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11357,6 +11393,9 @@
       <c r="B6" s="23" t="s">
         <v>2278</v>
       </c>
+      <c r="C6" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D6" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11374,6 +11413,9 @@
       <c r="B7" s="23" t="s">
         <v>2285</v>
       </c>
+      <c r="C7" s="40" t="s">
+        <v>2918</v>
+      </c>
       <c r="D7" s="23" t="s">
         <v>2701</v>
       </c>
@@ -11391,6 +11433,9 @@
       <c r="B8" s="23" t="s">
         <v>2286</v>
       </c>
+      <c r="C8" s="40" t="s">
+        <v>2919</v>
+      </c>
       <c r="D8" s="23" t="s">
         <v>2704</v>
       </c>
@@ -11408,6 +11453,9 @@
       <c r="B9" s="23" t="s">
         <v>2279</v>
       </c>
+      <c r="C9" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D9" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11425,6 +11473,9 @@
       <c r="B10" s="23" t="s">
         <v>2280</v>
       </c>
+      <c r="C10" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D10" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11442,6 +11493,9 @@
       <c r="B11" s="23" t="s">
         <v>2281</v>
       </c>
+      <c r="C11" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D11" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11459,6 +11513,9 @@
       <c r="B12" s="23" t="s">
         <v>2287</v>
       </c>
+      <c r="C12" s="40" t="s">
+        <v>2920</v>
+      </c>
       <c r="D12" s="23" t="s">
         <v>2703</v>
       </c>
@@ -11476,6 +11533,9 @@
       <c r="B13" s="23" t="s">
         <v>2288</v>
       </c>
+      <c r="C13" s="40" t="s">
+        <v>2921</v>
+      </c>
       <c r="D13" s="23" t="s">
         <v>2705</v>
       </c>
@@ -11493,6 +11553,9 @@
       <c r="B14" s="23" t="s">
         <v>2289</v>
       </c>
+      <c r="C14" s="40" t="s">
+        <v>2922</v>
+      </c>
       <c r="D14" s="23" t="s">
         <v>2706</v>
       </c>
@@ -11510,6 +11573,9 @@
       <c r="B15" s="23" t="s">
         <v>2282</v>
       </c>
+      <c r="C15" s="40" t="s">
+        <v>2923</v>
+      </c>
       <c r="D15" s="23" t="s">
         <v>2702</v>
       </c>
@@ -11527,6 +11593,9 @@
       <c r="B16" s="23" t="s">
         <v>2283</v>
       </c>
+      <c r="C16" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D16" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11544,6 +11613,9 @@
       <c r="B17" s="23" t="s">
         <v>2284</v>
       </c>
+      <c r="C17" s="40" t="s">
+        <v>2917</v>
+      </c>
       <c r="D17" s="23" t="s">
         <v>2290</v>
       </c>
@@ -11584,7 +11656,7 @@
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="2924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="2925">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -6722,9 +6722,6 @@
     <t>Cures an adjacent unit from arousal.</t>
   </si>
   <si>
-    <t>Removes all negative status conditions.</t>
-  </si>
-  <si>
     <t>A magical leaf that can be used multiple times. Restores 10 HP to an adjacent ally.</t>
   </si>
   <si>
@@ -7501,9 +7498,6 @@
     <t>Would you like to buy this?</t>
   </si>
   <si>
-    <t>This one yes?</t>
-  </si>
-  <si>
     <t>Anything else?</t>
   </si>
   <si>
@@ -7519,9 +7513,6 @@
   </si>
   <si>
     <t>Did you want to sell this?</t>
-  </si>
-  <si>
-    <t>Welcome. Thanks for stopping by-♪</t>
   </si>
   <si>
     <t>Thanks a bunch!
@@ -8858,6 +8849,18 @@
   </si>
   <si>
     <t>【レベドレ後のセーブに注意】※経験値˙武器消費なし　※無限行動</t>
+  </si>
+  <si>
+    <t>This one, yes?</t>
+  </si>
+  <si>
+    <t>Welcome welcome! Thanks for stopping by-♪</t>
+  </si>
+  <si>
+    <t>Cures all negative status conditions.</t>
+  </si>
+  <si>
+    <t>英語</t>
   </si>
 </sst>
 </file>
@@ -8947,7 +8950,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9023,6 +9026,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9129,7 +9138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -9222,6 +9231,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9605,13 +9615,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>3</v>
@@ -9631,7 +9641,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -9651,7 +9661,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -9669,7 +9679,7 @@
         <v>1448</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -9685,7 +9695,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -9705,7 +9715,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -9741,7 +9751,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -9759,7 +9769,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -9779,7 +9789,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -9797,7 +9807,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -9812,10 +9822,10 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>2394</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>2395</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -9831,7 +9841,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -9849,10 +9859,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23" t="s">
@@ -9869,10 +9879,10 @@
         <v>34</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="23" t="s">
@@ -9889,10 +9899,10 @@
         <v>36</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
@@ -9909,7 +9919,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -9927,7 +9937,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -9942,13 +9952,13 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
@@ -9960,13 +9970,13 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -9978,13 +9988,13 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -10017,7 +10027,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -10053,7 +10063,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -10142,7 +10152,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -10160,7 +10170,7 @@
         <v>59</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -10178,7 +10188,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -10198,13 +10208,13 @@
         <v>65</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>66</v>
@@ -10222,13 +10232,13 @@
         <v>67</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>68</v>
@@ -10246,7 +10256,7 @@
         <v>69</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
@@ -10266,13 +10276,13 @@
         <v>71</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>72</v>
@@ -10290,13 +10300,13 @@
         <v>73</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>74</v>
@@ -10314,13 +10324,13 @@
         <v>75</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>76</v>
@@ -10333,16 +10343,16 @@
         <v>7</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -10358,13 +10368,13 @@
         <v>77</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>78</v>
@@ -10382,13 +10392,13 @@
         <v>79</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>80</v>
@@ -10406,13 +10416,13 @@
         <v>79</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>80</v>
@@ -10430,13 +10440,13 @@
         <v>81</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>82</v>
@@ -10454,13 +10464,13 @@
         <v>83</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>84</v>
@@ -10478,13 +10488,13 @@
         <v>85</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>86</v>
@@ -10502,13 +10512,13 @@
         <v>87</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>88</v>
@@ -10526,13 +10536,13 @@
         <v>89</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>90</v>
@@ -10550,13 +10560,13 @@
         <v>91</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>92</v>
@@ -10574,13 +10584,13 @@
         <v>93</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>94</v>
@@ -10598,13 +10608,13 @@
         <v>95</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>96</v>
@@ -10622,13 +10632,13 @@
         <v>97</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>98</v>
@@ -10646,13 +10656,13 @@
         <v>99</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>100</v>
@@ -10670,13 +10680,13 @@
         <v>101</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>102</v>
@@ -10694,13 +10704,13 @@
         <v>103</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>104</v>
@@ -10718,13 +10728,13 @@
         <v>105</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>106</v>
@@ -10742,13 +10752,13 @@
         <v>108</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>109</v>
@@ -10766,13 +10776,13 @@
         <v>111</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>1994</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>112</v>
@@ -10790,13 +10800,13 @@
         <v>111</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>112</v>
@@ -10814,13 +10824,13 @@
         <v>113</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>114</v>
@@ -10838,10 +10848,10 @@
         <v>115</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
@@ -10860,10 +10870,10 @@
         <v>117</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23" t="s">
@@ -10882,10 +10892,10 @@
         <v>120</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
@@ -10904,7 +10914,7 @@
         <v>122</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>1996</v>
@@ -10926,10 +10936,10 @@
         <v>122</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
@@ -10948,10 +10958,10 @@
         <v>124</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
@@ -10970,10 +10980,10 @@
         <v>126</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
@@ -10993,7 +11003,7 @@
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
@@ -11012,10 +11022,10 @@
         <v>77</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
@@ -11034,10 +11044,10 @@
         <v>130</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
@@ -11056,10 +11066,10 @@
         <v>133</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
@@ -11078,10 +11088,10 @@
         <v>135</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
@@ -11100,10 +11110,10 @@
         <v>137</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
@@ -11122,10 +11132,10 @@
         <v>139</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
@@ -11144,10 +11154,10 @@
         <v>141</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="s">
@@ -11166,10 +11176,10 @@
         <v>143</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
@@ -11188,7 +11198,7 @@
         <v>146</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
@@ -11208,10 +11218,10 @@
         <v>148</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="23" t="s">
@@ -11230,10 +11240,10 @@
         <v>151</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="23" t="s">
@@ -11252,10 +11262,10 @@
         <v>153</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="23" t="s">
@@ -11276,7 +11286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -11301,7 +11311,7 @@
         <v>1628</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -11311,13 +11321,13 @@
         <v>1629</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="E2" t="s">
         <v>1630</v>
@@ -11331,13 +11341,13 @@
         <v>1632</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E3" t="s">
         <v>1633</v>
@@ -11351,13 +11361,13 @@
         <v>1635</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E4" t="s">
         <v>1636</v>
@@ -11371,13 +11381,13 @@
         <v>1637</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E5" t="s">
         <v>1638</v>
@@ -11391,13 +11401,13 @@
         <v>1639</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E6" t="s">
         <v>1640</v>
@@ -11411,13 +11421,13 @@
         <v>1641</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1642</v>
@@ -11431,13 +11441,13 @@
         <v>1644</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1645</v>
@@ -11451,13 +11461,13 @@
         <v>1647</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E9" t="s">
         <v>1648</v>
@@ -11471,13 +11481,13 @@
         <v>1649</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E10" t="s">
         <v>1650</v>
@@ -11491,13 +11501,13 @@
         <v>1651</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E11" t="s">
         <v>1652</v>
@@ -11511,13 +11521,13 @@
         <v>1653</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1654</v>
@@ -11531,13 +11541,13 @@
         <v>1656</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1657</v>
@@ -11551,13 +11561,13 @@
         <v>1659</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1660</v>
@@ -11571,13 +11581,13 @@
         <v>1662</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="E15" t="s">
         <v>1663</v>
@@ -11591,13 +11601,13 @@
         <v>1665</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E16" t="s">
         <v>1666</v>
@@ -11611,13 +11621,13 @@
         <v>1667</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E17" t="s">
         <v>1668</v>
@@ -11663,10 +11673,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -11677,351 +11687,359 @@
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="40" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>2456</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+    <row r="1" spans="1:4">
+      <c r="A1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>2924</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="40" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="40" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>1673</v>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>2458</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:4" ht="33" customHeight="1">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="42" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" ht="33" customHeight="1">
+      <c r="A7" s="43" t="s">
         <v>1674</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B7" s="43" t="s">
         <v>1675</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C7" s="43" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>2460</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="D8" s="40" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32.15" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="43" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>2461</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32.15" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>2462</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="D9" s="44" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.899999999999999" customHeight="1">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40"/>
       <c r="B10" s="40" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.899999999999999" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="40" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40" t="s">
         <v>1685</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>2474</v>
-      </c>
-      <c r="D11" s="40" t="s">
+      <c r="C12" s="40" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43" t="s">
+    <row r="13" spans="1:4" ht="29.15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43" t="s">
         <v>1687</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>2466</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="C13" s="45" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40" t="s">
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.15">
-      <c r="A14" s="27" t="s">
+    <row r="15" spans="1:4" ht="29.15">
+      <c r="A15" s="27" t="s">
         <v>1690</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B15" s="43" t="s">
         <v>1691</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>2472</v>
-      </c>
-      <c r="D14" s="41" t="s">
+      <c r="C15" s="45" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>1692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>2473</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40"/>
       <c r="B16" s="40" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2465</v>
+        <v>2472</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40"/>
       <c r="B17" s="40" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40" t="s">
         <v>1697</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>2475</v>
-      </c>
-      <c r="D17" s="40" t="s">
+      <c r="C18" s="40" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43" t="s">
+    <row r="19" spans="1:4" ht="29.15">
+      <c r="A19" s="40"/>
+      <c r="B19" s="43" t="s">
         <v>1699</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>2476</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="C19" s="43" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>1680</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>2477</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40"/>
       <c r="B20" s="40" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40" t="s">
         <v>1695</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="C21" s="40" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29.15">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43" t="s">
+    <row r="22" spans="1:4" ht="29.15">
+      <c r="A22" s="40"/>
+      <c r="B22" s="43" t="s">
         <v>1687</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>2478</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="C22" s="43" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40" t="s">
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
         <v>1700</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>2479</v>
-      </c>
-      <c r="D22" s="40" t="s">
+      <c r="C23" s="40" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="27" t="s">
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="27" t="s">
         <v>1703</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B24" s="40" t="s">
         <v>1695</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="C24" s="40" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33.75" customHeight="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="43" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>2467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>2476</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40"/>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="29.15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
         <v>2469</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C28" s="41" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="29.15">
+      <c r="A30" s="40"/>
+      <c r="B30" s="43" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>2480</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="29.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41" t="s">
-        <v>2470</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>2481</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>2482</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="29.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>2483</v>
-      </c>
-      <c r="D29" s="41" t="s">
+      <c r="D30" s="41" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40" t="s">
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40" t="s">
         <v>1709</v>
       </c>
-      <c r="C30" s="40" t="s">
-        <v>2475</v>
-      </c>
-      <c r="D30" s="40" t="s">
+      <c r="C31" s="40" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -12038,7 +12056,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -12054,7 +12072,7 @@
         <v>1669</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -12064,7 +12082,7 @@
         <v>1670</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -12074,7 +12092,7 @@
         <v>1671</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -12084,7 +12102,7 @@
         <v>1672</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -12107,7 +12125,7 @@
         <v>1711</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1676</v>
@@ -12119,7 +12137,7 @@
         <v>1712</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1713</v>
@@ -12131,7 +12149,7 @@
         <v>1714</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1715</v>
@@ -12143,7 +12161,7 @@
         <v>1716</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1998</v>
@@ -12180,7 +12198,7 @@
         <v>2000</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -12188,7 +12206,7 @@
         <v>1717</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1718</v>
@@ -12199,7 +12217,7 @@
         <v>1719</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1720</v>
@@ -12210,7 +12228,7 @@
         <v>1721</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1722</v>
@@ -12221,7 +12239,7 @@
         <v>1723</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>1724</v>
@@ -12232,7 +12250,7 @@
         <v>1725</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1726</v>
@@ -12243,7 +12261,7 @@
         <v>1727</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>1728</v>
@@ -12254,7 +12272,7 @@
         <v>1729</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1730</v>
@@ -12265,7 +12283,7 @@
         <v>1731</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>1732</v>
@@ -12276,7 +12294,7 @@
         <v>1733</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>1734</v>
@@ -12287,7 +12305,7 @@
         <v>1735</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>1736</v>
@@ -12298,7 +12316,7 @@
         <v>1737</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>1738</v>
@@ -12309,7 +12327,7 @@
         <v>1739</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>1740</v>
@@ -12320,7 +12338,7 @@
         <v>1741</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>1742</v>
@@ -12331,7 +12349,7 @@
         <v>1743</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>1744</v>
@@ -12342,7 +12360,7 @@
         <v>1745</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>1746</v>
@@ -12353,7 +12371,7 @@
         <v>1747</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1748</v>
@@ -12364,7 +12382,7 @@
         <v>1749</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>1750</v>
@@ -12375,7 +12393,7 @@
         <v>1751</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>1752</v>
@@ -12386,7 +12404,7 @@
         <v>1753</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>1754</v>
@@ -12397,7 +12415,7 @@
         <v>1755</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>1756</v>
@@ -12419,7 +12437,7 @@
         <v>1757</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>1758</v>
@@ -12441,7 +12459,7 @@
         <v>1759</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>1760</v>
@@ -12452,7 +12470,7 @@
         <v>1761</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>1762</v>
@@ -12463,7 +12481,7 @@
         <v>1763</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>1764</v>
@@ -12474,7 +12492,7 @@
         <v>1765</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>1766</v>
@@ -12485,7 +12503,7 @@
         <v>1763</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="C29" s="40" t="s">
         <v>1764</v>
@@ -12496,7 +12514,7 @@
         <v>1767</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>1768</v>
@@ -12507,7 +12525,7 @@
         <v>1769</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>1770</v>
@@ -12518,7 +12536,7 @@
         <v>1771</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>1772</v>
@@ -12529,7 +12547,7 @@
         <v>1773</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>1774</v>
@@ -12540,7 +12558,7 @@
         <v>1775</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>1776</v>
@@ -12551,7 +12569,7 @@
         <v>1777</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>1778</v>
@@ -12562,7 +12580,7 @@
         <v>1779</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1780</v>
@@ -12573,7 +12591,7 @@
         <v>1781</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>1782</v>
@@ -12584,7 +12602,7 @@
         <v>1783</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="C38" s="40" t="s">
         <v>1784</v>
@@ -12595,7 +12613,7 @@
         <v>1785</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>1786</v>
@@ -12606,7 +12624,7 @@
         <v>1787</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>1788</v>
@@ -12617,7 +12635,7 @@
         <v>1789</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>1790</v>
@@ -12628,7 +12646,7 @@
         <v>1791</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>1792</v>
@@ -12639,7 +12657,7 @@
         <v>1793</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>1794</v>
@@ -12650,7 +12668,7 @@
         <v>1795</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>1796</v>
@@ -12661,7 +12679,7 @@
         <v>1797</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="C45" s="40" t="s">
         <v>1798</v>
@@ -12672,7 +12690,7 @@
         <v>1799</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>1800</v>
@@ -12683,7 +12701,7 @@
         <v>1801</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="C47" s="40" t="s">
         <v>1802</v>
@@ -12694,7 +12712,7 @@
         <v>1803</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>1804</v>
@@ -12705,7 +12723,7 @@
         <v>1805</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="C49" s="40" t="s">
         <v>1806</v>
@@ -12716,7 +12734,7 @@
         <v>1807</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>1808</v>
@@ -12727,7 +12745,7 @@
         <v>1809</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="C51" s="40" t="s">
         <v>1810</v>
@@ -12738,7 +12756,7 @@
         <v>1811</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>1812</v>
@@ -12749,7 +12767,7 @@
         <v>1813</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>1814</v>
@@ -12760,7 +12778,7 @@
         <v>1815</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>1816</v>
@@ -12771,7 +12789,7 @@
         <v>1817</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>1818</v>
@@ -12782,7 +12800,7 @@
         <v>1819</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>1820</v>
@@ -12793,7 +12811,7 @@
         <v>1821</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>1822</v>
@@ -12804,7 +12822,7 @@
         <v>1823</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>1824</v>
@@ -12815,7 +12833,7 @@
         <v>1825</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>1826</v>
@@ -12826,7 +12844,7 @@
         <v>1827</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>1828</v>
@@ -12837,7 +12855,7 @@
         <v>1829</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>1830</v>
@@ -12848,7 +12866,7 @@
         <v>1831</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>1832</v>
@@ -12859,7 +12877,7 @@
         <v>1833</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>1834</v>
@@ -12870,7 +12888,7 @@
         <v>1835</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>1836</v>
@@ -12881,7 +12899,7 @@
         <v>1837</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>1838</v>
@@ -12892,7 +12910,7 @@
         <v>1839</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>1840</v>
@@ -12903,7 +12921,7 @@
         <v>1841</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>1842</v>
@@ -12914,7 +12932,7 @@
         <v>1843</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>1844</v>
@@ -12925,7 +12943,7 @@
         <v>1845</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>1846</v>
@@ -12936,7 +12954,7 @@
         <v>1847</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>1848</v>
@@ -12947,7 +12965,7 @@
         <v>1739</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>1849</v>
@@ -12958,7 +12976,7 @@
         <v>1850</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>1851</v>
@@ -12969,7 +12987,7 @@
         <v>1852</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>1853</v>
@@ -12980,7 +12998,7 @@
         <v>1854</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>1855</v>
@@ -12991,7 +13009,7 @@
         <v>1856</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>1857</v>
@@ -13002,7 +13020,7 @@
         <v>1858</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>1859</v>
@@ -13013,7 +13031,7 @@
         <v>1860</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>1861</v>
@@ -13048,7 +13066,7 @@
         <v>1671</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13056,7 +13074,7 @@
         <v>1672</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13072,7 +13090,7 @@
         <v>1863</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1864</v>
@@ -13083,7 +13101,7 @@
         <v>1865</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1866</v>
@@ -13094,7 +13112,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1868</v>
@@ -13105,7 +13123,7 @@
         <v>1869</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1870</v>
@@ -14028,7 +14046,7 @@
         <v>2000</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1435</v>
@@ -14048,7 +14066,7 @@
         <v>909</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -14067,7 +14085,7 @@
         <v>1438</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -14086,7 +14104,7 @@
         <v>1440</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -14105,7 +14123,7 @@
         <v>1442</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -14124,7 +14142,7 @@
         <v>1444</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -14143,7 +14161,7 @@
         <v>1446</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -14162,7 +14180,7 @@
         <v>1448</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -14181,7 +14199,7 @@
         <v>1451</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -14200,7 +14218,7 @@
         <v>1453</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -14219,7 +14237,7 @@
         <v>1455</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -14238,7 +14256,7 @@
         <v>1457</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -14257,7 +14275,7 @@
         <v>1459</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -14276,7 +14294,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
@@ -14295,7 +14313,7 @@
         <v>1461</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -14314,7 +14332,7 @@
         <v>1463</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -14333,7 +14351,7 @@
         <v>1465</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -14352,7 +14370,7 @@
         <v>1448</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -14371,7 +14389,7 @@
         <v>1467</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -14390,7 +14408,7 @@
         <v>1469</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -14409,7 +14427,7 @@
         <v>1471</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -14428,7 +14446,7 @@
         <v>1451</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -14447,7 +14465,7 @@
         <v>1473</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -14466,7 +14484,7 @@
         <v>1475</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -14485,7 +14503,7 @@
         <v>1477</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -14504,7 +14522,7 @@
         <v>1479</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -14523,7 +14541,7 @@
         <v>1481</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -14542,7 +14560,7 @@
         <v>1483</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -14561,7 +14579,7 @@
         <v>1463</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -14580,7 +14598,7 @@
         <v>1467</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -14599,7 +14617,7 @@
         <v>1469</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -14618,7 +14636,7 @@
         <v>1485</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -14637,7 +14655,7 @@
         <v>1448</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -14656,7 +14674,7 @@
         <v>1487</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -14672,14 +14690,14 @@
         <v>1436</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -14694,7 +14712,7 @@
         <v>1444</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -14713,7 +14731,7 @@
         <v>1446</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -14732,7 +14750,7 @@
         <v>1489</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -14751,7 +14769,7 @@
         <v>1491</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -14770,7 +14788,7 @@
         <v>1493</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -14789,7 +14807,7 @@
         <v>1495</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -14808,7 +14826,7 @@
         <v>1497</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
@@ -14827,7 +14845,7 @@
         <v>87</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="s">
@@ -14846,7 +14864,7 @@
         <v>1451</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -14865,7 +14883,7 @@
         <v>1498</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -14884,7 +14902,7 @@
         <v>1500</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -14903,7 +14921,7 @@
         <v>1502</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -14922,7 +14940,7 @@
         <v>1504</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -14941,7 +14959,7 @@
         <v>1506</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -14960,7 +14978,7 @@
         <v>1508</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -14979,7 +14997,7 @@
         <v>1491</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -14998,7 +15016,7 @@
         <v>1510</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -15017,7 +15035,7 @@
         <v>1512</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="25" t="s">
@@ -15036,7 +15054,7 @@
         <v>1514</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -15055,7 +15073,7 @@
         <v>1451</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -15074,7 +15092,7 @@
         <v>1516</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -15093,7 +15111,7 @@
         <v>1518</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -15112,7 +15130,7 @@
         <v>1520</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -15131,7 +15149,7 @@
         <v>1522</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -15150,7 +15168,7 @@
         <v>1524</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -15169,7 +15187,7 @@
         <v>1526</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -15188,7 +15206,7 @@
         <v>1528</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -15207,7 +15225,7 @@
         <v>1530</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -15226,7 +15244,7 @@
         <v>1532</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -15245,7 +15263,7 @@
         <v>1534</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -15264,7 +15282,7 @@
         <v>99</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="25" t="s">
@@ -15283,7 +15301,7 @@
         <v>1536</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="25" t="s">
@@ -15302,7 +15320,7 @@
         <v>1537</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -15321,7 +15339,7 @@
         <v>1497</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="25" t="s">
@@ -15340,7 +15358,7 @@
         <v>1539</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -15359,7 +15377,7 @@
         <v>1541</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -15378,7 +15396,7 @@
         <v>1543</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -15397,7 +15415,7 @@
         <v>1545</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -15416,7 +15434,7 @@
         <v>1547</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -15435,7 +15453,7 @@
         <v>1536</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="25" t="s">
@@ -15454,7 +15472,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="25" t="s">
@@ -15473,7 +15491,7 @@
         <v>1550</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -15489,10 +15507,10 @@
         <v>1436</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -15511,7 +15529,7 @@
         <v>1553</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -15530,7 +15548,7 @@
         <v>1451</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -15549,7 +15567,7 @@
         <v>1555</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -15568,7 +15586,7 @@
         <v>1557</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -15587,7 +15605,7 @@
         <v>1559</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -15606,7 +15624,7 @@
         <v>1561</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -15625,7 +15643,7 @@
         <v>1563</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -15644,7 +15662,7 @@
         <v>1565</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -15663,7 +15681,7 @@
         <v>1567</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="25" t="s">
@@ -15682,7 +15700,7 @@
         <v>1463</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -15701,7 +15719,7 @@
         <v>1448</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -15720,7 +15738,7 @@
         <v>1497</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="25" t="s">
@@ -15739,7 +15757,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="25" t="s">
@@ -15758,7 +15776,7 @@
         <v>1569</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -15777,7 +15795,7 @@
         <v>1571</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -15796,7 +15814,7 @@
         <v>1553</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -15815,7 +15833,7 @@
         <v>1550</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -15834,7 +15852,7 @@
         <v>34</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="25" t="s">
@@ -15855,7 +15873,7 @@
         <v>1497</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="25" t="s">
@@ -15871,10 +15889,10 @@
         <v>1436</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -15893,7 +15911,7 @@
         <v>1553</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -15912,7 +15930,7 @@
         <v>1550</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -15933,7 +15951,7 @@
         <v>1451</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -15952,7 +15970,7 @@
         <v>1575</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -15971,7 +15989,7 @@
         <v>1577</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -15990,7 +16008,7 @@
         <v>1579</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -16009,7 +16027,7 @@
         <v>1581</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -16028,7 +16046,7 @@
         <v>1583</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -16047,7 +16065,7 @@
         <v>1585</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -16066,7 +16084,7 @@
         <v>1587</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -16085,7 +16103,7 @@
         <v>1589</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -16104,7 +16122,7 @@
         <v>1591</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -16123,7 +16141,7 @@
         <v>1593</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -16142,7 +16160,7 @@
         <v>34</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E112" s="23"/>
       <c r="F112" s="25" t="s">
@@ -16243,7 +16261,7 @@
         <v>1436</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -16481,7 +16499,7 @@
         <v>1436</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -16943,8 +16961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16991,7 +17009,7 @@
         <v>2028</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>202</v>
@@ -17012,7 +17030,7 @@
         <v>2029</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>206</v>
@@ -17306,7 +17324,7 @@
         <v>2043</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>258</v>
@@ -17474,7 +17492,7 @@
         <v>2051</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>290</v>
@@ -17495,7 +17513,7 @@
         <v>2052</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>294</v>
@@ -17810,7 +17828,7 @@
         <v>2067</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2217</v>
+        <v>2923</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>353</v>
@@ -17830,8 +17848,8 @@
       <c r="C42" s="19" t="s">
         <v>2068</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>2217</v>
+      <c r="D42" s="19" t="s">
+        <v>2923</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>356</v>
@@ -17852,7 +17870,7 @@
         <v>2069</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2217</v>
+        <v>2923</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>358</v>
@@ -17873,7 +17891,7 @@
         <v>2070</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>361</v>
@@ -17894,7 +17912,7 @@
         <v>2071</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>365</v>
@@ -17915,7 +17933,7 @@
         <v>2072</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>369</v>
@@ -17936,7 +17954,7 @@
         <v>2073</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>373</v>
@@ -17957,7 +17975,7 @@
         <v>2074</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>377</v>
@@ -17978,7 +17996,7 @@
         <v>2075</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>381</v>
@@ -17999,7 +18017,7 @@
         <v>2076</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>385</v>
@@ -18020,7 +18038,7 @@
         <v>2077</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>389</v>
@@ -18041,7 +18059,7 @@
         <v>2078</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>393</v>
@@ -18062,7 +18080,7 @@
         <v>2079</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>397</v>
@@ -18083,7 +18101,7 @@
         <v>2080</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>401</v>
@@ -18101,10 +18119,10 @@
         <v>404</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>405</v>
@@ -18125,7 +18143,7 @@
         <v>2081</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>409</v>
@@ -18146,7 +18164,7 @@
         <v>2082</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>413</v>
@@ -18167,7 +18185,7 @@
         <v>2083</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>417</v>
@@ -18188,7 +18206,7 @@
         <v>2084</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>421</v>
@@ -18209,7 +18227,7 @@
         <v>2085</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>424</v>
@@ -18230,7 +18248,7 @@
         <v>2086</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>427</v>
@@ -18251,7 +18269,7 @@
         <v>2087</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>430</v>
@@ -18272,7 +18290,7 @@
         <v>2088</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>434</v>
@@ -18293,7 +18311,7 @@
         <v>2089</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>438</v>
@@ -18314,7 +18332,7 @@
         <v>2090</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>442</v>
@@ -18335,7 +18353,7 @@
         <v>2091</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>445</v>
@@ -18356,7 +18374,7 @@
         <v>2092</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>449</v>
@@ -18377,7 +18395,7 @@
         <v>2093</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>453</v>
@@ -18395,10 +18413,10 @@
         <v>456</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>457</v>
@@ -18416,10 +18434,10 @@
         <v>460</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>461</v>
@@ -18437,10 +18455,10 @@
         <v>464</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>465</v>
@@ -18461,7 +18479,7 @@
         <v>2094</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>469</v>
@@ -18479,10 +18497,10 @@
         <v>472</v>
       </c>
       <c r="C73" s="19" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>2588</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>2591</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>473</v>
@@ -18500,10 +18518,10 @@
         <v>476</v>
       </c>
       <c r="C74" s="19" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>2589</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>2592</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>477</v>
@@ -18521,10 +18539,10 @@
         <v>480</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>2590</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>2593</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>481</v>
@@ -18545,7 +18563,7 @@
         <v>2095</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>485</v>
@@ -18566,7 +18584,7 @@
         <v>2096</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>489</v>
@@ -18587,7 +18605,7 @@
         <v>2097</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>493</v>
@@ -18608,7 +18626,7 @@
         <v>2098</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>497</v>
@@ -18629,7 +18647,7 @@
         <v>2099</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>501</v>
@@ -18650,7 +18668,7 @@
         <v>2100</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>505</v>
@@ -18671,7 +18689,7 @@
         <v>2101</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>509</v>
@@ -18692,7 +18710,7 @@
         <v>2102</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>513</v>
@@ -18710,10 +18728,10 @@
         <v>516</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>517</v>
@@ -18731,10 +18749,10 @@
         <v>520</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>521</v>
@@ -18755,7 +18773,7 @@
         <v>2103</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>525</v>
@@ -18776,7 +18794,7 @@
         <v>2104</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>529</v>
@@ -18797,7 +18815,7 @@
         <v>2105</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>533</v>
@@ -18818,7 +18836,7 @@
         <v>2106</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>537</v>
@@ -18839,7 +18857,7 @@
         <v>2107</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>541</v>
@@ -18860,7 +18878,7 @@
         <v>2103</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>544</v>
@@ -18881,7 +18899,7 @@
         <v>2104</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>546</v>
@@ -18902,7 +18920,7 @@
         <v>2105</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>548</v>
@@ -18923,7 +18941,7 @@
         <v>2106</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>550</v>
@@ -18944,7 +18962,7 @@
         <v>2107</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>552</v>
@@ -18965,7 +18983,7 @@
         <v>2108</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>555</v>
@@ -18986,7 +19004,7 @@
         <v>2109</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>559</v>
@@ -19007,7 +19025,7 @@
         <v>2110</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>563</v>
@@ -19028,7 +19046,7 @@
         <v>2111</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>45</v>
@@ -19049,7 +19067,7 @@
         <v>2112</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>47</v>
@@ -19067,10 +19085,10 @@
         <v>569</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>48</v>
@@ -19091,7 +19109,7 @@
         <v>2113</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>50</v>
@@ -19112,7 +19130,7 @@
         <v>2114</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>52</v>
@@ -19133,7 +19151,7 @@
         <v>2115</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>43</v>
@@ -19154,7 +19172,7 @@
         <v>2116</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>54</v>
@@ -19175,7 +19193,7 @@
         <v>2117</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>56</v>
@@ -19193,10 +19211,10 @@
         <v>582</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>58</v>
@@ -19214,10 +19232,10 @@
         <v>584</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>60</v>
@@ -19238,7 +19256,7 @@
         <v>2118</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>62</v>
@@ -19256,10 +19274,10 @@
         <v>589</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>590</v>
@@ -19277,10 +19295,10 @@
         <v>593</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>592</v>
@@ -19298,10 +19316,10 @@
         <v>593</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>595</v>
@@ -19319,10 +19337,10 @@
         <v>597</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>598</v>
@@ -19340,10 +19358,10 @@
         <v>601</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>602</v>
@@ -19361,10 +19379,10 @@
         <v>589</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>605</v>
@@ -19382,10 +19400,10 @@
         <v>607</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>606</v>
@@ -19403,10 +19421,10 @@
         <v>597</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>610</v>
@@ -19424,10 +19442,10 @@
         <v>601</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>612</v>
@@ -19445,10 +19463,10 @@
         <v>614</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>613</v>
@@ -19466,10 +19484,10 @@
         <v>617</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>616</v>
@@ -19490,7 +19508,7 @@
         <v>2119</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>621</v>
@@ -19511,7 +19529,7 @@
         <v>2120</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>625</v>
@@ -19532,7 +19550,7 @@
         <v>2121</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>629</v>
@@ -19553,7 +19571,7 @@
         <v>2122</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>633</v>
@@ -19574,7 +19592,7 @@
         <v>2123</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>637</v>
@@ -19595,7 +19613,7 @@
         <v>2124</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>641</v>
@@ -19616,7 +19634,7 @@
         <v>2125</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>645</v>
@@ -19632,7 +19650,7 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="23" t="s">
@@ -19647,7 +19665,7 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="23" t="s">
@@ -19662,7 +19680,7 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="23" t="s">
@@ -19677,7 +19695,7 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="23" t="s">
@@ -19692,7 +19710,7 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="23" t="s">
@@ -19707,7 +19725,7 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="23" t="s">
@@ -19722,7 +19740,7 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="23" t="s">
@@ -19737,7 +19755,7 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="23" t="s">
@@ -19752,7 +19770,7 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="23" t="s">
@@ -19767,7 +19785,7 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="23" t="s">
@@ -19782,7 +19800,7 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="23" t="s">
@@ -19797,7 +19815,7 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="23" t="s">
@@ -19812,7 +19830,7 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="23" t="s">
@@ -19827,7 +19845,7 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="23" t="s">
@@ -19847,7 +19865,7 @@
         <v>2126</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>677</v>
@@ -19868,7 +19886,7 @@
         <v>2127</v>
       </c>
       <c r="D143" s="19" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E143" s="23" t="s">
         <v>681</v>
@@ -19889,7 +19907,7 @@
         <v>2128</v>
       </c>
       <c r="D144" s="19" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>685</v>
@@ -19910,7 +19928,7 @@
         <v>2129</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>689</v>
@@ -19931,7 +19949,7 @@
         <v>2130</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>693</v>
@@ -19952,7 +19970,7 @@
         <v>2131</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>697</v>
@@ -19973,7 +19991,7 @@
         <v>2132</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E148" s="23" t="s">
         <v>701</v>
@@ -19994,7 +20012,7 @@
         <v>2133</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>705</v>
@@ -20015,7 +20033,7 @@
         <v>2134</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E150" s="23" t="s">
         <v>709</v>
@@ -20036,7 +20054,7 @@
         <v>2135</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E151" s="23" t="s">
         <v>713</v>
@@ -20057,7 +20075,7 @@
         <v>2136</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E152" s="23" t="s">
         <v>717</v>
@@ -20075,10 +20093,10 @@
         <v>720</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>721</v>
@@ -20099,7 +20117,7 @@
         <v>2137</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E154" s="27" t="s">
         <v>725</v>
@@ -20120,7 +20138,7 @@
         <v>2138</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E155" s="23" t="s">
         <v>728</v>
@@ -20141,7 +20159,7 @@
         <v>2139</v>
       </c>
       <c r="D156" s="19" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E156" s="23" t="s">
         <v>731</v>
@@ -20162,7 +20180,7 @@
         <v>2140</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>735</v>
@@ -20183,7 +20201,7 @@
         <v>2141</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>738</v>
@@ -20204,7 +20222,7 @@
         <v>2142</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>741</v>
@@ -20225,7 +20243,7 @@
         <v>2143</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E160" s="23" t="s">
         <v>745</v>
@@ -20246,7 +20264,7 @@
         <v>2144</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>748</v>
@@ -20267,7 +20285,7 @@
         <v>2145</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E162" s="23" t="s">
         <v>751</v>
@@ -20288,7 +20306,7 @@
         <v>2146</v>
       </c>
       <c r="D163" s="19" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E163" s="23" t="s">
         <v>755</v>
@@ -20309,7 +20327,7 @@
         <v>2147</v>
       </c>
       <c r="D164" s="19" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E164" s="23" t="s">
         <v>759</v>
@@ -20330,7 +20348,7 @@
         <v>2148</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>763</v>
@@ -20351,7 +20369,7 @@
         <v>2149</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>767</v>
@@ -20372,7 +20390,7 @@
         <v>2150</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>770</v>
@@ -20393,7 +20411,7 @@
         <v>2151</v>
       </c>
       <c r="D168" s="19" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>773</v>
@@ -20414,7 +20432,7 @@
         <v>2152</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>777</v>
@@ -20435,7 +20453,7 @@
         <v>2153</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>781</v>
@@ -20454,7 +20472,7 @@
         <v>2154</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>784</v>
@@ -20473,7 +20491,7 @@
         <v>2155</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>787</v>
@@ -20492,7 +20510,7 @@
         <v>2155</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>787</v>
@@ -20511,7 +20529,7 @@
         <v>2156</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>791</v>
@@ -20530,7 +20548,7 @@
         <v>2157</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>794</v>
@@ -20549,7 +20567,7 @@
         <v>2158</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>794</v>
@@ -20568,7 +20586,7 @@
         <v>2159</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>798</v>
@@ -20587,7 +20605,7 @@
         <v>2160</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>801</v>
@@ -20608,7 +20626,7 @@
         <v>2161</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>805</v>
@@ -20629,7 +20647,7 @@
         <v>2162</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>809</v>
@@ -20650,7 +20668,7 @@
         <v>2163</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>813</v>
@@ -20671,7 +20689,7 @@
         <v>2164</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>817</v>
@@ -20689,10 +20707,10 @@
         <v>820</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>821</v>
@@ -20713,7 +20731,7 @@
         <v>2165</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>825</v>
@@ -20734,7 +20752,7 @@
         <v>2166</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>829</v>
@@ -20755,7 +20773,7 @@
         <v>2167</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>833</v>
@@ -20776,7 +20794,7 @@
         <v>2168</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>837</v>
@@ -20797,7 +20815,7 @@
         <v>2169</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>841</v>
@@ -20818,7 +20836,7 @@
         <v>2170</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>845</v>
@@ -20839,7 +20857,7 @@
         <v>2171</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>849</v>
@@ -20860,7 +20878,7 @@
         <v>2172</v>
       </c>
       <c r="D191" s="19" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E191" s="23" t="s">
         <v>853</v>
@@ -20883,7 +20901,7 @@
         <v>2172</v>
       </c>
       <c r="D192" s="19" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E192" s="27" t="s">
         <v>853</v>
@@ -20906,7 +20924,7 @@
         <v>2173</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>861</v>
@@ -20927,7 +20945,7 @@
         <v>2174</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>865</v>
@@ -20948,7 +20966,7 @@
         <v>2175</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>869</v>
@@ -20969,7 +20987,7 @@
         <v>2176</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>873</v>
@@ -20990,7 +21008,7 @@
         <v>2177</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>875</v>
@@ -21011,7 +21029,7 @@
         <v>2178</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>880</v>
@@ -21032,7 +21050,7 @@
         <v>2179</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>884</v>
@@ -21053,7 +21071,7 @@
         <v>2180</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>888</v>
@@ -21074,7 +21092,7 @@
         <v>2181</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>892</v>
@@ -21095,7 +21113,7 @@
         <v>2182</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>896</v>
@@ -21116,7 +21134,7 @@
         <v>2183</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>900</v>
@@ -21183,7 +21201,7 @@
         <v>904</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>905</v>
@@ -21197,7 +21215,7 @@
         <v>906</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>907</v>
@@ -21217,7 +21235,7 @@
         <v>910</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>911</v>
@@ -21231,7 +21249,7 @@
         <v>912</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>913</v>
@@ -21247,7 +21265,7 @@
         <v>910</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>911</v>
@@ -21261,7 +21279,7 @@
         <v>912</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>913</v>
@@ -21279,7 +21297,7 @@
         <v>916</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>917</v>
@@ -21293,7 +21311,7 @@
         <v>918</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>919</v>
@@ -21313,7 +21331,7 @@
         <v>921</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>922</v>
@@ -21327,7 +21345,7 @@
         <v>923</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>924</v>
@@ -21343,7 +21361,7 @@
         <v>921</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>922</v>
@@ -21357,7 +21375,7 @@
         <v>923</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>924</v>
@@ -21373,7 +21391,7 @@
         <v>921</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>922</v>
@@ -21387,7 +21405,7 @@
         <v>921</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>922</v>
@@ -21407,7 +21425,7 @@
         <v>929</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>930</v>
@@ -21421,7 +21439,7 @@
         <v>931</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>924</v>
@@ -21439,7 +21457,7 @@
         <v>933</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>934</v>
@@ -21453,7 +21471,7 @@
         <v>935</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>936</v>
@@ -21471,7 +21489,7 @@
         <v>938</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>939</v>
@@ -21485,7 +21503,7 @@
         <v>940</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>941</v>
@@ -21501,7 +21519,7 @@
         <v>938</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>939</v>
@@ -21515,7 +21533,7 @@
         <v>940</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>941</v>
@@ -21533,7 +21551,7 @@
         <v>944</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>945</v>
@@ -21547,7 +21565,7 @@
         <v>935</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>936</v>
@@ -21567,7 +21585,7 @@
         <v>948</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>949</v>
@@ -21583,7 +21601,7 @@
         <v>951</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>952</v>
@@ -21597,7 +21615,7 @@
         <v>953</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>954</v>
@@ -21613,7 +21631,7 @@
         <v>956</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>957</v>
@@ -21629,7 +21647,7 @@
         <v>959</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>930</v>
@@ -21643,7 +21661,7 @@
         <v>960</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>961</v>
@@ -21663,7 +21681,7 @@
         <v>963</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>964</v>
@@ -21679,7 +21697,7 @@
         <v>966</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>967</v>
@@ -21693,7 +21711,7 @@
         <v>968</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>969</v>
@@ -21711,7 +21729,7 @@
         <v>970</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>971</v>
@@ -21725,7 +21743,7 @@
         <v>972</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>973</v>
@@ -21745,7 +21763,7 @@
         <v>975</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>976</v>
@@ -21759,7 +21777,7 @@
         <v>977</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>978</v>
@@ -21777,7 +21795,7 @@
         <v>929</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>980</v>
@@ -21791,7 +21809,7 @@
         <v>968</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>981</v>
@@ -21809,7 +21827,7 @@
         <v>929</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>980</v>
@@ -21823,7 +21841,7 @@
         <v>983</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>984</v>
@@ -21843,7 +21861,7 @@
         <v>987</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>988</v>
@@ -21857,7 +21875,7 @@
         <v>989</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>990</v>
@@ -21871,7 +21889,7 @@
         <v>991</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>992</v>
@@ -21889,7 +21907,7 @@
         <v>995</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1999</v>
@@ -21903,7 +21921,7 @@
         <v>997</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>998</v>
@@ -21921,7 +21939,7 @@
         <v>995</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>996</v>
@@ -21935,7 +21953,7 @@
         <v>997</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>998</v>
@@ -21953,7 +21971,7 @@
         <v>1001</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1002</v>
@@ -21967,7 +21985,7 @@
         <v>1003</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1004</v>
@@ -21985,7 +22003,7 @@
         <v>1006</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1007</v>
@@ -21999,7 +22017,7 @@
         <v>1008</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1009</v>
@@ -22017,7 +22035,7 @@
         <v>1006</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1007</v>
@@ -22031,7 +22049,7 @@
         <v>1008</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1009</v>
@@ -22049,7 +22067,7 @@
         <v>1006</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1007</v>
@@ -22063,7 +22081,7 @@
         <v>1008</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1009</v>
@@ -22081,7 +22099,7 @@
         <v>1006</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1007</v>
@@ -22095,7 +22113,7 @@
         <v>1008</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1009</v>
@@ -22113,7 +22131,7 @@
         <v>1006</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1007</v>
@@ -22127,7 +22145,7 @@
         <v>1008</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1009</v>
@@ -22283,7 +22301,7 @@
         <v>908</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>1041</v>
@@ -22309,7 +22327,7 @@
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
       <c r="C74" s="23" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>1041</v>
@@ -22473,7 +22491,7 @@
         <v>908</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D85" s="23" t="s">
         <v>1067</v>
@@ -22533,7 +22551,7 @@
         <v>908</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D89" s="23" t="s">
         <v>1077</v>
@@ -22559,7 +22577,7 @@
       <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>1077</v>
@@ -22599,8 +22617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -22626,13 +22644,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>1086</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -22649,7 +22667,7 @@
         <v>1089</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1090</v>
@@ -22666,7 +22684,7 @@
         <v>1091</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1092</v>
@@ -22683,7 +22701,7 @@
         <v>1093</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1094</v>
@@ -22700,7 +22718,7 @@
         <v>1095</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1096</v>
@@ -22717,13 +22735,13 @@
         <v>1098</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1099</v>
@@ -22743,13 +22761,13 @@
         <v>1102</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1103</v>
@@ -22769,13 +22787,13 @@
         <v>1106</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1108</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1107</v>
@@ -22795,13 +22813,13 @@
         <v>1110</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1112</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1111</v>
@@ -22821,13 +22839,13 @@
         <v>1114</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1116</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1115</v>
@@ -22847,13 +22865,13 @@
         <v>1117</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1119</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1118</v>
@@ -22873,7 +22891,7 @@
         <v>1122</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1123</v>
@@ -22890,7 +22908,7 @@
         <v>1097</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1124</v>
@@ -22907,7 +22925,7 @@
         <v>1125</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1125</v>
@@ -22924,7 +22942,7 @@
         <v>1093</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1094</v>
@@ -22941,7 +22959,7 @@
         <v>1126</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1126</v>
@@ -22958,7 +22976,7 @@
         <v>1127</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1128</v>
@@ -22975,7 +22993,7 @@
         <v>1130</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1132</v>
@@ -22989,13 +23007,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1131</v>
@@ -23018,7 +23036,7 @@
         <v>1137</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1139</v>
@@ -23027,10 +23045,10 @@
         <v>1141</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1138</v>
@@ -23053,7 +23071,7 @@
         <v>1143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1145</v>
@@ -23062,10 +23080,10 @@
         <v>1147</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1144</v>
@@ -23088,7 +23106,7 @@
         <v>1149</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1151</v>
@@ -23097,10 +23115,10 @@
         <v>1153</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1150</v>
@@ -23123,7 +23141,7 @@
         <v>1155</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1151</v>
@@ -23132,10 +23150,10 @@
         <v>1153</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1156</v>
@@ -23158,7 +23176,7 @@
         <v>1157</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1159</v>
@@ -23167,10 +23185,10 @@
         <v>1161</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1158</v>
@@ -23193,7 +23211,7 @@
         <v>1163</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1159</v>
@@ -23202,10 +23220,10 @@
         <v>1161</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1164</v>
@@ -23228,7 +23246,7 @@
         <v>1165</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1159</v>
@@ -23237,10 +23255,10 @@
         <v>1161</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1166</v>
@@ -23263,7 +23281,7 @@
         <v>1167</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1159</v>
@@ -23272,10 +23290,10 @@
         <v>1169</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1168</v>
@@ -23298,7 +23316,7 @@
         <v>1170</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1172</v>
@@ -23307,10 +23325,10 @@
         <v>1173</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1171</v>
@@ -23333,7 +23351,7 @@
         <v>1174</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1159</v>
@@ -23342,10 +23360,10 @@
         <v>1169</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1175</v>
@@ -23368,7 +23386,7 @@
         <v>1177</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1178</v>
@@ -23382,7 +23400,7 @@
         <v>1179</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1180</v>
@@ -23396,7 +23414,7 @@
         <v>1181</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>186</v>
@@ -23410,7 +23428,7 @@
         <v>1182</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1183</v>
@@ -23424,31 +23442,31 @@
         <v>1184</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>2900</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="40" t="s">
+        <v>2898</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>2899</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>2901</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>2902</v>
+      </c>
+      <c r="K33" s="40" t="s">
         <v>2903</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2901</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2902</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2904</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>2905</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>2906</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2907</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1185</v>
@@ -23462,7 +23480,7 @@
         <v>1186</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1186</v>
@@ -23476,7 +23494,7 @@
         <v>1187</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1188</v>
@@ -23490,7 +23508,7 @@
         <v>1189</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1190</v>
@@ -23504,7 +23522,7 @@
         <v>1191</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1192</v>
@@ -23518,7 +23536,7 @@
         <v>928</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1193</v>
@@ -23532,7 +23550,7 @@
         <v>1194</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1195</v>
@@ -23546,7 +23564,7 @@
         <v>1196</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1197</v>
@@ -23560,7 +23578,7 @@
         <v>1198</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1199</v>
@@ -23574,7 +23592,7 @@
         <v>1200</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1190</v>
@@ -23588,7 +23606,7 @@
         <v>1201</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1202</v>
@@ -23602,7 +23620,7 @@
         <v>1203</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1204</v>
@@ -23616,7 +23634,7 @@
         <v>1205</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1206</v>
@@ -23630,7 +23648,7 @@
         <v>1207</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1208</v>
@@ -23644,7 +23662,7 @@
         <v>1209</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1210</v>
@@ -23658,7 +23676,7 @@
         <v>1211</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1212</v>
@@ -23672,7 +23690,7 @@
         <v>1213</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1214</v>
@@ -23686,7 +23704,7 @@
         <v>1215</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1216</v>
@@ -23700,7 +23718,7 @@
         <v>1217</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1218</v>
@@ -23714,7 +23732,7 @@
         <v>1219</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1220</v>
@@ -23728,7 +23746,7 @@
         <v>1221</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1222</v>
@@ -23742,7 +23760,7 @@
         <v>1223</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1223</v>
@@ -23756,7 +23774,7 @@
         <v>1127</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1128</v>
@@ -23770,7 +23788,7 @@
         <v>1225</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1226</v>
@@ -23784,7 +23802,7 @@
         <v>1125</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1227</v>
@@ -23798,7 +23816,7 @@
         <v>1228</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1229</v>
@@ -23812,7 +23830,7 @@
         <v>1230</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1231</v>
@@ -23826,7 +23844,7 @@
         <v>1232</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1233</v>
@@ -23840,7 +23858,7 @@
         <v>1129</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1234</v>
@@ -23854,7 +23872,7 @@
         <v>1097</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1235</v>
@@ -23868,7 +23886,7 @@
         <v>1236</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1096</v>
@@ -23882,7 +23900,7 @@
         <v>1165</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1166</v>
@@ -23896,7 +23914,7 @@
         <v>1163</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1164</v>
@@ -23910,7 +23928,7 @@
         <v>1237</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1238</v>
@@ -23924,7 +23942,7 @@
         <v>1239</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1240</v>
@@ -23938,7 +23956,7 @@
         <v>1241</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1242</v>
@@ -23952,7 +23970,7 @@
         <v>1243</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1244</v>
@@ -23966,7 +23984,7 @@
         <v>1245</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1246</v>
@@ -23980,7 +23998,7 @@
         <v>1247</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1248</v>
@@ -23997,7 +24015,7 @@
         <v>1249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1250</v>
@@ -24011,13 +24029,13 @@
         <v>1251</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1252</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -24028,13 +24046,13 @@
         <v>1253</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1254</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -24045,7 +24063,7 @@
         <v>1255</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1256</v>
@@ -24057,13 +24075,13 @@
         <v>1258</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -24074,7 +24092,7 @@
         <v>1259</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1260</v>
@@ -24086,13 +24104,13 @@
         <v>1258</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -24103,7 +24121,7 @@
         <v>1261</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1262</v>
@@ -24118,16 +24136,16 @@
         <v>1265</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2849</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>2850</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>2851</v>
+      </c>
+      <c r="L78" s="40" t="s">
         <v>2852</v>
-      </c>
-      <c r="J78" s="40" t="s">
-        <v>2853</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>2854</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2855</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -24138,7 +24156,7 @@
         <v>1266</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1267</v>
@@ -24150,10 +24168,10 @@
         <v>1258</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -24164,7 +24182,7 @@
         <v>1268</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1269</v>
@@ -24176,10 +24194,10 @@
         <v>1258</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -24190,7 +24208,7 @@
         <v>1270</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1271</v>
@@ -24213,7 +24231,7 @@
         <v>1274</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1275</v>
@@ -24236,7 +24254,7 @@
         <v>1276</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1277</v>
@@ -24259,7 +24277,7 @@
         <v>1278</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1279</v>
@@ -24271,10 +24289,10 @@
         <v>1258</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -24285,7 +24303,7 @@
         <v>1280</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1281</v>
@@ -24311,7 +24329,7 @@
         <v>1282</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1283</v>
@@ -24326,7 +24344,7 @@
         <v>1265</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -24337,7 +24355,7 @@
         <v>1286</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1287</v>
@@ -24349,13 +24367,13 @@
         <v>1258</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -24366,7 +24384,7 @@
         <v>1288</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1289</v>
@@ -24378,10 +24396,10 @@
         <v>1258</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -24392,7 +24410,7 @@
         <v>1290</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1291</v>
@@ -24404,10 +24422,10 @@
         <v>1258</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -24418,7 +24436,7 @@
         <v>1292</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1293</v>
@@ -24441,7 +24459,7 @@
         <v>1296</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1297</v>
@@ -24453,10 +24471,10 @@
         <v>1258</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -24467,7 +24485,7 @@
         <v>1298</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1299</v>
@@ -24479,10 +24497,10 @@
         <v>1258</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
   </sheetData>
@@ -24520,7 +24538,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>3</v>
@@ -24534,7 +24552,7 @@
         <v>1302</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1303</v>
@@ -24548,7 +24566,7 @@
         <v>1305</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>1306</v>
@@ -24562,7 +24580,7 @@
         <v>1307</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1308</v>
@@ -24576,7 +24594,7 @@
         <v>1309</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1310</v>
@@ -24590,7 +24608,7 @@
         <v>1311</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1312</v>
@@ -24604,7 +24622,7 @@
         <v>1313</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1314</v>
@@ -24618,7 +24636,7 @@
         <v>1315</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1316</v>
@@ -24632,7 +24650,7 @@
         <v>1317</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>1317</v>
@@ -24646,7 +24664,7 @@
         <v>1318</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>1319</v>
@@ -24660,7 +24678,7 @@
         <v>1320</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>1321</v>
@@ -24674,7 +24692,7 @@
         <v>1322</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>1323</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="2925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="2927">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -8861,6 +8861,12 @@
   </si>
   <si>
     <t>英語</t>
+  </si>
+  <si>
+    <t>回復</t>
+  </si>
+  <si>
+    <t>Cures</t>
   </si>
 </sst>
 </file>
@@ -9589,8 +9595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -13464,7 +13470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16705,10 +16711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -16949,6 +16955,22 @@
         <v>198</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="23" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16961,8 +16983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -22617,7 +22639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="3359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="3385">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -8055,9 +8055,6 @@
     <t>A mermaid who loves to charm men with kisses.</t>
   </si>
   <si>
-    <t>A large snake said to be worshiped. Far bigger than a normal human.</t>
-  </si>
-  <si>
     <t>A advanced level breast succubus. All men's reason will melt with within her abundant breasts.</t>
   </si>
   <si>
@@ -10164,6 +10161,87 @@
   </si>
   <si>
     <t>Beckoning  Flower</t>
+  </si>
+  <si>
+    <t>Spearman</t>
+  </si>
+  <si>
+    <t>Spear Master</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>High Sage</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>High Priest</t>
+  </si>
+  <si>
+    <t>Master Priest</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Master Excavator</t>
+  </si>
+  <si>
+    <t>Grand Alchemist</t>
+  </si>
+  <si>
+    <t>Expert Martial Artist</t>
+  </si>
+  <si>
+    <t>Magician</t>
+  </si>
+  <si>
+    <t>Grand Magician</t>
+  </si>
+  <si>
+    <t>Female Bandit</t>
+  </si>
+  <si>
+    <t>Lesser Breast Succubus</t>
+  </si>
+  <si>
+    <t>Succubus maid</t>
+  </si>
+  <si>
+    <t>Soldier (HP)</t>
+  </si>
+  <si>
+    <t>Soldier (Str)</t>
+  </si>
+  <si>
+    <t>Advanced Soldier</t>
+  </si>
+  <si>
+    <t>Soldier EX</t>
+  </si>
+  <si>
+    <t>Advanced Soldier EX</t>
+  </si>
+  <si>
+    <t>Skilled Flag Bearer</t>
+  </si>
+  <si>
+    <t>A large snake said to be worshiped. Towers over humans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray's second childhood friend. Carefree and overdramatic, but always thinks things through.  </t>
+  </si>
+  <si>
+    <t>The hero of the story. Adept at swords.</t>
+  </si>
+  <si>
+    <t>A hardworking and loyal childhood friend of Ray and Miles. Simple but kind hearted.</t>
   </si>
 </sst>
 </file>
@@ -10893,8 +10971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -11148,9 +11226,11 @@
         <v>2264</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F13" s="23"/>
+        <v>2812</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>3383</v>
+      </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
       </c>
@@ -11168,9 +11248,11 @@
         <v>2265</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>2814</v>
-      </c>
-      <c r="F14" s="23"/>
+        <v>2813</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>3382</v>
+      </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
       </c>
@@ -11188,9 +11270,11 @@
         <v>2266</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>2811</v>
-      </c>
-      <c r="F15" s="23"/>
+        <v>2810</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>3384</v>
+      </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
       </c>
@@ -11384,7 +11468,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -11514,7 +11598,7 @@
         <v>2214</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -11575,16 +11659,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D35" s="40" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>2828</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>2827</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>2829</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -11606,7 +11690,7 @@
         <v>2217</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -11654,7 +11738,7 @@
         <v>2219</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -11966,7 +12050,7 @@
         <v>2232</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>2656</v>
+        <v>3381</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -11990,7 +12074,7 @@
         <v>2233</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -12014,7 +12098,7 @@
         <v>1916</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -12038,7 +12122,7 @@
         <v>2234</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -12062,7 +12146,7 @@
         <v>2235</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -12563,7 +12647,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -12597,7 +12681,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -12611,7 +12695,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -12627,7 +12711,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -12641,7 +12725,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -12693,7 +12777,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -12707,7 +12791,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -12723,7 +12807,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -12737,7 +12821,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -12753,7 +12837,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -12767,7 +12851,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -12787,7 +12871,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -12801,7 +12885,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -12819,7 +12903,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -12833,7 +12917,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -12851,7 +12935,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -12865,7 +12949,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -12881,7 +12965,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -12895,7 +12979,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -12913,7 +12997,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -12927,7 +13011,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -12947,7 +13031,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -12963,7 +13047,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -12977,7 +13061,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -12993,7 +13077,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -13009,7 +13093,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -13023,7 +13107,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -13043,7 +13127,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -13059,7 +13143,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -13073,7 +13157,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -13091,7 +13175,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -13105,7 +13189,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -13125,7 +13209,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -13139,7 +13223,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -13157,7 +13241,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -13171,7 +13255,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -13189,7 +13273,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -13203,7 +13287,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -13223,7 +13307,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -13237,7 +13321,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -13251,7 +13335,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -13269,7 +13353,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -13283,7 +13367,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -13301,7 +13385,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -13315,7 +13399,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -13333,7 +13417,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -13347,7 +13431,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -13365,7 +13449,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -13379,7 +13463,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -13397,7 +13481,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -13411,7 +13495,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -13429,7 +13513,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -13443,7 +13527,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -13461,7 +13545,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -13475,7 +13559,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -13493,7 +13577,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -13507,7 +13591,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -14012,7 +14096,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -14029,7 +14113,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -14046,7 +14130,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -14063,7 +14147,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -14080,7 +14164,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -14097,13 +14181,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -14123,13 +14207,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -14149,13 +14233,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -14175,13 +14259,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -14201,13 +14285,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -14227,13 +14311,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -14253,7 +14337,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -14270,7 +14354,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -14287,7 +14371,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -14304,7 +14388,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -14321,7 +14405,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -14338,7 +14422,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -14355,7 +14439,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14369,13 +14453,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>2688</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2690</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>2689</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2691</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -14398,7 +14482,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -14407,10 +14491,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>2692</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>2693</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -14433,7 +14517,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -14442,10 +14526,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -14468,7 +14552,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -14477,10 +14561,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>2695</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>2696</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -14503,7 +14587,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -14512,10 +14596,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>2695</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>2696</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -14538,7 +14622,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -14547,10 +14631,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>2701</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>2702</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -14573,7 +14657,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -14582,10 +14666,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>2701</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>2702</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -14608,7 +14692,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -14617,10 +14701,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>2700</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>2701</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>2702</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -14643,7 +14727,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -14652,10 +14736,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
+        <v>2707</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>2708</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>2709</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -14678,7 +14762,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -14687,10 +14771,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="J27" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>2706</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -14713,7 +14797,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -14722,10 +14806,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
+        <v>2707</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>2708</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>2709</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -14748,7 +14832,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -14762,7 +14846,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -14776,7 +14860,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -14790,7 +14874,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -14804,31 +14888,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>2815</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="G33" s="40" t="s">
+        <v>2816</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>2818</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2816</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2817</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="J33" s="40" t="s">
         <v>2819</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2820</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2821</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2822</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -14842,7 +14926,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -14856,7 +14940,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -14870,7 +14954,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -14884,7 +14968,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -14898,7 +14982,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -14912,7 +14996,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -14926,7 +15010,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -14940,7 +15024,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -14954,7 +15038,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -14968,7 +15052,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -14982,7 +15066,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -14996,7 +15080,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -15010,7 +15094,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -15024,7 +15108,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -15038,7 +15122,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -15052,7 +15136,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -15066,7 +15150,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -15080,7 +15164,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -15094,7 +15178,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -15108,7 +15192,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -15122,7 +15206,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -15136,7 +15220,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -15150,7 +15234,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -15164,7 +15248,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -15178,7 +15262,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -15192,7 +15276,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -15206,7 +15290,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -15220,7 +15304,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -15234,7 +15318,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -15248,7 +15332,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -15262,7 +15346,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -15276,7 +15360,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -15290,7 +15374,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15304,7 +15388,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -15318,7 +15402,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -15332,7 +15416,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -15346,7 +15430,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -15360,7 +15444,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -15377,7 +15461,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -15391,13 +15475,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -15408,13 +15492,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -15425,7 +15509,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -15437,13 +15521,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="J76" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K76" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -15454,7 +15538,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -15466,13 +15550,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="J77" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K77" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -15483,7 +15567,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -15498,16 +15582,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2768</v>
+      </c>
+      <c r="J78" s="40" t="s">
         <v>2769</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="K78" s="40" t="s">
         <v>2770</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2771</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -15518,7 +15602,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -15530,10 +15614,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K79" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -15544,7 +15628,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -15556,10 +15640,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K80" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -15570,7 +15654,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -15593,7 +15677,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -15616,7 +15700,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -15639,7 +15723,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -15651,10 +15735,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K84" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -15665,7 +15749,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -15691,7 +15775,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -15706,7 +15790,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -15717,7 +15801,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -15729,13 +15813,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="J87" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K87" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -15746,7 +15830,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -15758,10 +15842,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -15772,7 +15856,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -15784,10 +15868,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K89" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -15798,7 +15882,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -15821,7 +15905,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -15833,10 +15917,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K91" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -15847,7 +15931,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -15859,10 +15943,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>2706</v>
       </c>
     </row>
   </sheetData>
@@ -17480,7 +17564,7 @@
         <v>2195</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2617</v>
@@ -17500,7 +17584,7 @@
         <v>2196</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2211</v>
@@ -17520,7 +17604,7 @@
         <v>2197</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2211</v>
@@ -17540,7 +17624,7 @@
         <v>2198</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2211</v>
@@ -17560,7 +17644,7 @@
         <v>2199</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2211</v>
@@ -17580,7 +17664,7 @@
         <v>2206</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>2618</v>
@@ -17600,7 +17684,7 @@
         <v>2207</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>2621</v>
@@ -17620,7 +17704,7 @@
         <v>2200</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2211</v>
@@ -17640,7 +17724,7 @@
         <v>2201</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2211</v>
@@ -17660,7 +17744,7 @@
         <v>2202</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2211</v>
@@ -17680,7 +17764,7 @@
         <v>2208</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>2620</v>
@@ -17700,7 +17784,7 @@
         <v>2209</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>2622</v>
@@ -17720,7 +17804,7 @@
         <v>2210</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>2623</v>
@@ -17740,7 +17824,7 @@
         <v>2203</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2619</v>
@@ -17760,7 +17844,7 @@
         <v>2204</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2211</v>
@@ -17780,7 +17864,7 @@
         <v>2205</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2211</v>
@@ -17848,7 +17932,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -17969,7 +18053,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -18145,7 +18229,7 @@
         <v>2389</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -18281,7 +18365,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -18293,7 +18377,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -19246,10 +19330,10 @@
         <v>2253</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3035</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3036</v>
       </c>
     </row>
   </sheetData>
@@ -19264,8 +19348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -19281,13 +19365,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -19295,19 +19379,19 @@
         <v>2317</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2847</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2848</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2319</v>
@@ -19319,45 +19403,45 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2850</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2851</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2852</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2853</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2854</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>2855</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2320</v>
@@ -19366,37 +19450,37 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2856</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2857</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2858</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2859</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D10" s="40"/>
     </row>
@@ -19405,7 +19489,7 @@
         <v>2318</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2321</v>
@@ -19414,25 +19498,25 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2861</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2862</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2863</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2864</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D13" s="40"/>
     </row>
@@ -19448,17 +19532,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -19468,162 +19552,194 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2867</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>2868</v>
-      </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="40" t="s">
+        <v>3375</v>
+      </c>
       <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2869</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2870</v>
-      </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="40" t="s">
+        <v>3376</v>
+      </c>
       <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>2871</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>2872</v>
-      </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="40" t="s">
+        <v>3378</v>
+      </c>
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2873</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2874</v>
-      </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="40" t="s">
+        <v>3377</v>
+      </c>
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>2875</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>2876</v>
-      </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="40" t="s">
+        <v>3379</v>
+      </c>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>2877</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>2878</v>
-      </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="40" t="s">
+        <v>2039</v>
+      </c>
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2878</v>
-      </c>
-      <c r="C23" s="40"/>
+        <v>2877</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>3380</v>
+      </c>
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>2880</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>3358</v>
+      </c>
       <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C25" s="40"/>
+        <v>2880</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>2036</v>
+      </c>
       <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C26" s="40"/>
+        <v>2880</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>3359</v>
+      </c>
       <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2884</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C27" s="40"/>
+      <c r="C27" s="40" t="s">
+        <v>3360</v>
+      </c>
       <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C28" s="40"/>
+        <v>2884</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>3361</v>
+      </c>
       <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C29" s="40"/>
+        <v>2884</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>3362</v>
+      </c>
       <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2888</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>3363</v>
+      </c>
       <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C31" s="40"/>
+        <v>2888</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>3364</v>
+      </c>
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C32" s="40"/>
+        <v>2888</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>3365</v>
+      </c>
       <c r="D32" s="40"/>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -19631,19 +19747,23 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C33" s="40"/>
+        <v>2891</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>3366</v>
+      </c>
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2893</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>2894</v>
-      </c>
-      <c r="C34" s="40"/>
+      <c r="C34" s="40" t="s">
+        <v>2270</v>
+      </c>
       <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -19651,19 +19771,23 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C35" s="40"/>
+        <v>2894</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>2035</v>
+      </c>
       <c r="D35" s="40"/>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2896</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2897</v>
-      </c>
-      <c r="C36" s="40"/>
+      <c r="C36" s="40" t="s">
+        <v>3367</v>
+      </c>
       <c r="D36" s="40"/>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -19671,19 +19795,23 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2898</v>
-      </c>
-      <c r="C37" s="40"/>
+        <v>2897</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>2038</v>
+      </c>
       <c r="D37" s="40"/>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2899</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2900</v>
-      </c>
-      <c r="C38" s="40"/>
+      <c r="C38" s="40" t="s">
+        <v>3368</v>
+      </c>
       <c r="D38" s="40"/>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -19691,19 +19819,23 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C39" s="40"/>
+        <v>2900</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>2271</v>
+      </c>
       <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C40" s="40"/>
+        <v>2900</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>3369</v>
+      </c>
       <c r="D40" s="40"/>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -19711,24 +19843,28 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2903</v>
-      </c>
-      <c r="C41" s="40"/>
+        <v>2902</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>3370</v>
+      </c>
       <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2903</v>
-      </c>
-      <c r="C42" s="40"/>
+        <v>2902</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>3371</v>
+      </c>
       <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -19736,18 +19872,22 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
+      <c r="C44" s="40" t="s">
+        <v>3372</v>
+      </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="40" t="s">
+        <v>3373</v>
+      </c>
       <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" ht="15">
@@ -19755,7 +19895,9 @@
         <v>1614</v>
       </c>
       <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="40" t="s">
+        <v>3374</v>
+      </c>
       <c r="D46" s="40"/>
     </row>
   </sheetData>
@@ -22456,7 +22598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+    <sheetView topLeftCell="A212" workbookViewId="0">
       <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
@@ -23084,122 +23226,122 @@
     </row>
     <row r="78" spans="1:2" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B79" s="40"/>
     </row>
     <row r="80" spans="1:2" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B81" s="40"/>
     </row>
     <row r="82" spans="1:2" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B83" s="40"/>
     </row>
     <row r="84" spans="1:2" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="B85" s="40"/>
     </row>
     <row r="86" spans="1:2" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B87" s="40"/>
     </row>
     <row r="88" spans="1:2" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B89" s="40"/>
     </row>
     <row r="90" spans="1:2" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B91" s="40"/>
     </row>
     <row r="92" spans="1:2" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B93" s="40"/>
     </row>
     <row r="94" spans="1:2" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15">
@@ -23210,865 +23352,865 @@
     </row>
     <row r="96" spans="1:2" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B97" s="40"/>
     </row>
     <row r="98" spans="1:2" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="B99" s="40"/>
     </row>
     <row r="100" spans="1:2" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B101" s="40"/>
     </row>
     <row r="102" spans="1:2" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B103" s="40"/>
     </row>
     <row r="104" spans="1:2" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="B105" s="40"/>
     </row>
     <row r="106" spans="1:2" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="B107" s="40"/>
     </row>
     <row r="108" spans="1:2" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="B109" s="40"/>
     </row>
     <row r="110" spans="1:2" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B111" s="40"/>
     </row>
     <row r="112" spans="1:2" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="B113" s="40"/>
     </row>
     <row r="114" spans="1:2" ht="15">
       <c r="A114" s="40" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B115" s="40"/>
     </row>
     <row r="116" spans="1:2" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B117" s="40"/>
     </row>
     <row r="118" spans="1:2" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="B119" s="40"/>
     </row>
     <row r="120" spans="1:2" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B121" s="40"/>
     </row>
     <row r="122" spans="1:2" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B123" s="40"/>
     </row>
     <row r="124" spans="1:2" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B125" s="40"/>
     </row>
     <row r="126" spans="1:2" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B127" s="40"/>
     </row>
     <row r="128" spans="1:2" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B129" s="40"/>
     </row>
     <row r="130" spans="1:2" ht="15">
       <c r="A130" s="40" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15">
       <c r="A131" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B131" s="40"/>
     </row>
     <row r="132" spans="1:2" ht="15">
       <c r="A132" s="40" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15">
       <c r="A133" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B133" s="40"/>
     </row>
     <row r="134" spans="1:2" ht="15">
       <c r="A134" s="40" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15">
       <c r="A135" s="40" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="B135" s="40"/>
     </row>
     <row r="136" spans="1:2" ht="15">
       <c r="A136" s="40" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15">
       <c r="A137" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B137" s="40"/>
     </row>
     <row r="138" spans="1:2" ht="15">
       <c r="A138" s="40" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B138" s="40" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15">
       <c r="A139" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B139" s="40"/>
     </row>
     <row r="140" spans="1:2" ht="15">
       <c r="A140" s="40" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B140" s="40" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15">
       <c r="A141" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B141" s="40"/>
     </row>
     <row r="142" spans="1:2" ht="15">
       <c r="A142" s="40" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B142" s="40" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15">
       <c r="A143" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B143" s="40"/>
     </row>
     <row r="144" spans="1:2" ht="15">
       <c r="A144" s="40" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15">
       <c r="A145" s="40" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="B145" s="40"/>
     </row>
     <row r="146" spans="1:2" ht="15">
       <c r="A146" s="40" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15">
       <c r="A147" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="B147" s="40"/>
     </row>
     <row r="148" spans="1:2" ht="15">
       <c r="A148" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15">
       <c r="A149" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B149" s="40"/>
     </row>
     <row r="150" spans="1:2" ht="15">
       <c r="A150" s="40" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B150" s="40" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15">
       <c r="A151" s="40" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15">
       <c r="A152" s="40" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15">
       <c r="A153" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B153" s="40"/>
     </row>
     <row r="154" spans="1:2" ht="15">
       <c r="A154" s="40" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15">
       <c r="A155" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B155" s="40"/>
     </row>
     <row r="156" spans="1:2" ht="15">
       <c r="A156" s="40" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15">
       <c r="A157" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B157" s="40"/>
     </row>
     <row r="158" spans="1:2" ht="15">
       <c r="A158" s="40" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15">
       <c r="A159" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B159" s="40"/>
     </row>
     <row r="160" spans="1:2" ht="15">
       <c r="A160" s="40" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B160" s="40" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15">
       <c r="A161" s="40" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B161" s="40"/>
     </row>
     <row r="162" spans="1:2" ht="15">
       <c r="A162" s="40" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B162" s="40" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15">
       <c r="A163" s="40" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B163" s="40"/>
     </row>
     <row r="164" spans="1:2" ht="15">
       <c r="A164" s="40" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15">
       <c r="A165" s="40" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B165" s="40"/>
     </row>
     <row r="166" spans="1:2" ht="15">
       <c r="A166" s="40" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15">
       <c r="A167" s="40" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15">
       <c r="A168" s="40" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B168" s="40" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15">
       <c r="A169" s="40" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15">
       <c r="A170" s="40" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15">
       <c r="A171" s="40" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B171" s="40"/>
     </row>
     <row r="172" spans="1:2" ht="15">
       <c r="A172" s="40" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15">
       <c r="A173" s="40" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B173" s="40"/>
     </row>
     <row r="174" spans="1:2" ht="15">
       <c r="A174" s="40" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15">
       <c r="A175" s="40" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B175" s="40"/>
     </row>
     <row r="176" spans="1:2" ht="15">
       <c r="A176" s="40" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15">
       <c r="A177" s="40" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B177" s="40"/>
     </row>
     <row r="178" spans="1:2" ht="15">
       <c r="A178" s="40" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15">
       <c r="A179" s="40" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B179" s="40"/>
     </row>
     <row r="180" spans="1:2" ht="15">
       <c r="A180" s="40" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15">
       <c r="A181" s="40" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B181" s="40"/>
     </row>
     <row r="182" spans="1:2" ht="15">
       <c r="A182" s="40" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15">
       <c r="A183" s="40" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B183" s="40"/>
     </row>
     <row r="184" spans="1:2" ht="15">
       <c r="A184" s="40" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="B184" s="40" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15">
       <c r="A185" s="40" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B185" s="40" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15">
       <c r="A186" s="40" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B186" s="40" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15">
       <c r="A187" s="40" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B187" s="40"/>
     </row>
     <row r="188" spans="1:2" ht="15">
       <c r="A188" s="40" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="B188" s="40" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15">
       <c r="A189" s="40" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B189" s="40" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15">
       <c r="A190" s="40" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="B190" s="40" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15">
       <c r="A191" s="40" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B191" s="40"/>
     </row>
     <row r="192" spans="1:2" ht="15">
       <c r="A192" s="40" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="B192" s="40" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15">
       <c r="A193" s="40" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B193" s="40"/>
     </row>
     <row r="194" spans="1:2" ht="15">
       <c r="A194" s="40" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="B194" s="40" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15">
       <c r="A195" s="40" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B195" s="40"/>
     </row>
     <row r="196" spans="1:2" ht="15">
       <c r="A196" s="40" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B196" s="40" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15">
       <c r="A197" s="40" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="B197" s="40"/>
     </row>
     <row r="198" spans="1:2" ht="15">
       <c r="A198" s="40" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B198" s="40" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15">
       <c r="A199" s="40" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="B199" s="40"/>
     </row>
     <row r="200" spans="1:2" ht="15">
       <c r="A200" s="40" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15">
       <c r="A201" s="40" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="B201" s="40"/>
     </row>
     <row r="202" spans="1:2" ht="15">
       <c r="A202" s="40" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15">
       <c r="A203" s="40" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="B203" s="40"/>
     </row>
     <row r="204" spans="1:2" ht="15">
       <c r="A204" s="40" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B204" s="40" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15">
       <c r="A205" s="40" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="B205" s="40"/>
     </row>
     <row r="206" spans="1:2" ht="15">
       <c r="A206" s="40" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15">
       <c r="A207" s="40" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="B207" s="40"/>
     </row>
     <row r="208" spans="1:2" ht="15">
       <c r="A208" s="40" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B208" s="40" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15">
       <c r="A209" s="40" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B209" s="40"/>
     </row>
     <row r="210" spans="1:2" ht="15">
       <c r="A210" s="40" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="B210" s="40" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15">
       <c r="A211" s="40" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B211" s="40"/>
     </row>
     <row r="212" spans="1:2" ht="15">
       <c r="A212" s="40" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="B212" s="40" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15">
       <c r="A213" s="40" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B213" s="40"/>
     </row>
     <row r="214" spans="1:2" ht="15">
       <c r="A214" s="40" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="B214" s="40" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15">
       <c r="A215" s="40" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="B215" s="40"/>
     </row>
     <row r="216" spans="1:2" ht="15">
       <c r="A216" s="40" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15">
       <c r="A217" s="40" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B217" s="40"/>
     </row>
@@ -24077,224 +24219,224 @@
         <v>810</v>
       </c>
       <c r="B218" s="40" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15">
       <c r="A219" s="40" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B219" s="40"/>
     </row>
     <row r="220" spans="1:2" ht="15">
       <c r="A220" s="40" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15">
       <c r="A221" s="40" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="B221" s="40"/>
     </row>
     <row r="222" spans="1:2" ht="15">
       <c r="A222" s="40" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15">
       <c r="A223" s="40" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="B223" s="40"/>
     </row>
     <row r="224" spans="1:2" ht="15">
       <c r="A224" s="40" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15">
       <c r="A225" s="40" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="B225" s="40"/>
     </row>
     <row r="226" spans="1:2" ht="15">
       <c r="A226" s="40" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B226" s="40" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15">
       <c r="A227" s="40" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B227" s="40"/>
     </row>
     <row r="228" spans="1:2" ht="15">
       <c r="A228" s="40" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B228" s="40" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15">
       <c r="A229" s="40" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="B229" s="40"/>
     </row>
     <row r="230" spans="1:2" ht="15">
       <c r="A230" s="40" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15">
       <c r="A231" s="40" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="B231" s="40"/>
     </row>
     <row r="232" spans="1:2" ht="15">
       <c r="A232" s="40" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15">
       <c r="A233" s="40" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B233" s="40"/>
     </row>
     <row r="234" spans="1:2" ht="15">
       <c r="A234" s="40" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="B234" s="40" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15">
       <c r="A235" s="40" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B235" s="40"/>
     </row>
     <row r="236" spans="1:2" ht="15">
       <c r="A236" s="40" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B236" s="40" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15">
       <c r="A237" s="40" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B237" s="40"/>
     </row>
     <row r="238" spans="1:2" ht="15">
       <c r="A238" s="40" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15">
       <c r="A239" s="40" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B239" s="40"/>
     </row>
     <row r="240" spans="1:2" ht="15">
       <c r="A240" s="40" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15">
       <c r="A241" s="40" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B241" s="40"/>
     </row>
     <row r="242" spans="1:2" ht="15">
       <c r="A242" s="40" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15">
       <c r="A243" s="40" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B243" s="40"/>
     </row>
     <row r="244" spans="1:2" ht="15">
       <c r="A244" s="40" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15">
       <c r="A245" s="40" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B245" s="40"/>
     </row>
     <row r="246" spans="1:2" ht="15">
       <c r="A246" s="40" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15">
       <c r="A247" s="40" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B247" s="40" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15">
       <c r="A248" s="40" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B248" s="40" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15">
       <c r="A249" s="40" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B249" s="40"/>
     </row>
@@ -24331,13 +24473,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24345,7 +24487,7 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
@@ -24353,10 +24495,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2909</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2910</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
@@ -24364,10 +24506,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>2911</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>2912</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
@@ -24375,142 +24517,142 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2913</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2914</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2915</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2916</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2917</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>2918</v>
-      </c>
       <c r="C7" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2919</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2920</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2921</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2922</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>2923</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>2924</v>
-      </c>
       <c r="C10" s="40" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>2925</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>2926</v>
-      </c>
       <c r="C11" s="40" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2927</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2928</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2929</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2930</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>2931</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>2932</v>
-      </c>
       <c r="C14" s="40" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>2933</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>2934</v>
-      </c>
       <c r="C15" s="40" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>2935</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>2936</v>
-      </c>
       <c r="C16" s="40" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="40" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2937</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>2938</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
@@ -24518,13 +24660,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="40" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2939</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2940</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -24532,21 +24674,21 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="40" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2942</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2943</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -24554,73 +24696,73 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="40" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="40" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>2946</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>2947</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="40" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>2949</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>2950</v>
-      </c>
       <c r="C25" s="40" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="40" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>2951</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>2952</v>
-      </c>
       <c r="C26" s="40" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="40" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2953</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>2954</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
@@ -24628,32 +24770,32 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="40" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>2955</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>2956</v>
-      </c>
       <c r="C28" s="40" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="40" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>2957</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>2958</v>
-      </c>
       <c r="C29" s="40" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="40" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2959</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>2960</v>
       </c>
       <c r="C30" s="40" t="s">
         <v>2042</v>
@@ -24661,10 +24803,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="40" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>2961</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>2962</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2042</v>
@@ -24672,21 +24814,21 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="40" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>2963</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>2964</v>
-      </c>
       <c r="C32" s="40" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="40" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>2965</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>2966</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
@@ -24694,21 +24836,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="40" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2967</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>2968</v>
-      </c>
       <c r="C34" s="40" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="40" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B35" s="40" t="s">
         <v>2969</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>2970</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
@@ -24716,156 +24858,156 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="40" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2971</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2972</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="40" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>2973</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>2974</v>
-      </c>
       <c r="C37" s="40" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="40" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2975</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2976</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="40" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>2977</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>2978</v>
-      </c>
       <c r="C39" s="40" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="40" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>2979</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>2980</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="40" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>2981</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>2982</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="40" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>2983</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>2984</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="40" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>2985</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>2986</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="40" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>2987</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>2988</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="40" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>2989</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>2990</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="40" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>2991</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>2992</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="40" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>2993</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>2994</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="40" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>2995</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>2996</v>
-      </c>
       <c r="C48" s="40" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="40" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>2997</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>2998</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -24878,149 +25020,149 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="40" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="40" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="40" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="40" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="40" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="40" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="40" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3005</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3006</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="40" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3007</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3008</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="40" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3009</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3010</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="40" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="40" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="40" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3013</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3014</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="40" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3015</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3016</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="40" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="40" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -25028,92 +25170,92 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="40" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3020</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3021</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="40" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3022</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3023</v>
-      </c>
       <c r="C68" s="40" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="40" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B69" s="40" t="s">
         <v>3024</v>
       </c>
-      <c r="B69" s="40" t="s">
-        <v>3025</v>
-      </c>
       <c r="C69" s="40" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="40" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="40" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="40" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>3028</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>3029</v>
-      </c>
       <c r="C72" s="40" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="40" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3030</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3031</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="40" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3032</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3033</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
     </row>
   </sheetData>
@@ -25369,10 +25511,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>2843</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>2844</v>
       </c>
     </row>
   </sheetData>
@@ -26254,7 +26396,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -26275,7 +26417,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -26296,7 +26438,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -27637,7 +27779,7 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>2524</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="3385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="3386">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -10013,9 +10013,6 @@
     <t>Semen Squeezing Foot</t>
   </si>
   <si>
-    <t>Electric Massage</t>
-  </si>
-  <si>
     <t>Handjob Strike LV2</t>
   </si>
   <si>
@@ -10091,21 +10088,12 @@
     <t>Enthraling Kiss</t>
   </si>
   <si>
-    <t>Blown Kiss LV1</t>
-  </si>
-  <si>
-    <t>Blown Plump Kiss</t>
-  </si>
-  <si>
     <t>Plump Kiss of Betrayal</t>
   </si>
   <si>
     <t>Enthraling Sniper Kiss</t>
   </si>
   <si>
-    <t>Seductive Thrown Kiss</t>
-  </si>
-  <si>
     <t>Alluring Kiss</t>
   </si>
   <si>
@@ -10139,9 +10127,6 @@
     <t>Draining Strike</t>
   </si>
   <si>
-    <t>Helish Electric Massage</t>
-  </si>
-  <si>
     <t>Sugesstive Sexual Pose</t>
   </si>
   <si>
@@ -10242,6 +10227,24 @@
   </si>
   <si>
     <t>A hardworking and loyal childhood friend of Ray and Miles. Simple but kind hearted.</t>
+  </si>
+  <si>
+    <t>Plump Blow Kiss</t>
+  </si>
+  <si>
+    <t>Blow Kiss LV1</t>
+  </si>
+  <si>
+    <t>Seductive Blow Kiss</t>
+  </si>
+  <si>
+    <t>Helish Foot Grind</t>
+  </si>
+  <si>
+    <t>Foot Grind</t>
+  </si>
+  <si>
+    <t>The leader of a mercinary group.</t>
   </si>
 </sst>
 </file>
@@ -10971,7 +10974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -11229,7 +11232,7 @@
         <v>2812</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11251,7 +11254,7 @@
         <v>2813</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11273,7 +11276,7 @@
         <v>2810</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -12050,7 +12053,7 @@
         <v>2232</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -19348,8 +19351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -19384,7 +19387,9 @@
       <c r="C2" s="40" t="s">
         <v>3040</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="40" t="s">
+        <v>3385</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
@@ -19558,7 +19563,7 @@
         <v>2867</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
       <c r="D17" s="40"/>
     </row>
@@ -19570,7 +19575,7 @@
         <v>2869</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="40"/>
     </row>
@@ -19582,7 +19587,7 @@
         <v>2871</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
       <c r="D19" s="40"/>
     </row>
@@ -19594,7 +19599,7 @@
         <v>2873</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
       <c r="D20" s="40"/>
     </row>
@@ -19606,7 +19611,7 @@
         <v>2875</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
       <c r="D21" s="40"/>
     </row>
@@ -19630,7 +19635,7 @@
         <v>2877</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
       <c r="D23" s="40"/>
     </row>
@@ -19642,7 +19647,7 @@
         <v>2880</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
       <c r="D24" s="40"/>
     </row>
@@ -19666,7 +19671,7 @@
         <v>2880</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
       <c r="D26" s="40"/>
     </row>
@@ -19678,7 +19683,7 @@
         <v>2884</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
       <c r="D27" s="40"/>
     </row>
@@ -19690,7 +19695,7 @@
         <v>2884</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="D28" s="40"/>
     </row>
@@ -19702,7 +19707,7 @@
         <v>2884</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
       <c r="D29" s="40"/>
     </row>
@@ -19714,7 +19719,7 @@
         <v>2888</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
       <c r="D30" s="40"/>
     </row>
@@ -19726,7 +19731,7 @@
         <v>2888</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
       <c r="D31" s="40"/>
     </row>
@@ -19738,7 +19743,7 @@
         <v>2888</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="D32" s="40"/>
     </row>
@@ -19750,7 +19755,7 @@
         <v>2891</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
       <c r="D33" s="40"/>
     </row>
@@ -19786,7 +19791,7 @@
         <v>2896</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
       <c r="D36" s="40"/>
     </row>
@@ -19810,7 +19815,7 @@
         <v>2899</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
       <c r="D38" s="40"/>
     </row>
@@ -19834,7 +19839,7 @@
         <v>2900</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
       <c r="D40" s="40"/>
     </row>
@@ -19846,7 +19851,7 @@
         <v>2902</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
       <c r="D41" s="40"/>
     </row>
@@ -19858,7 +19863,7 @@
         <v>2902</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
       <c r="D42" s="40"/>
     </row>
@@ -19876,7 +19881,7 @@
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="D44" s="40"/>
     </row>
@@ -19886,7 +19891,7 @@
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -19896,7 +19901,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -19910,7 +19915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B97" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -22598,8 +22603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -23719,7 +23724,7 @@
         <v>3172</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15">
@@ -23741,7 +23746,7 @@
         <v>3175</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15">
@@ -23833,7 +23838,7 @@
         <v>3184</v>
       </c>
       <c r="B164" s="40" t="s">
-        <v>3308</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15">
@@ -23847,7 +23852,7 @@
         <v>3186</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15">
@@ -23855,7 +23860,7 @@
         <v>3187</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15">
@@ -23863,7 +23868,7 @@
         <v>3188</v>
       </c>
       <c r="B168" s="40" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15">
@@ -23871,7 +23876,7 @@
         <v>3189</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15">
@@ -23879,7 +23884,7 @@
         <v>3190</v>
       </c>
       <c r="B170" s="40" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15">
@@ -23893,7 +23898,7 @@
         <v>3192</v>
       </c>
       <c r="B172" s="40" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15">
@@ -23907,7 +23912,7 @@
         <v>3193</v>
       </c>
       <c r="B174" s="40" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15">
@@ -23921,7 +23926,7 @@
         <v>3195</v>
       </c>
       <c r="B176" s="40" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15">
@@ -23935,7 +23940,7 @@
         <v>3197</v>
       </c>
       <c r="B178" s="40" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15">
@@ -23949,7 +23954,7 @@
         <v>3199</v>
       </c>
       <c r="B180" s="40" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15">
@@ -23963,7 +23968,7 @@
         <v>3201</v>
       </c>
       <c r="B182" s="40" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15">
@@ -23977,7 +23982,7 @@
         <v>3203</v>
       </c>
       <c r="B184" s="40" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15">
@@ -23985,7 +23990,7 @@
         <v>3204</v>
       </c>
       <c r="B185" s="40" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15">
@@ -23993,7 +23998,7 @@
         <v>3205</v>
       </c>
       <c r="B186" s="40" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15">
@@ -24007,7 +24012,7 @@
         <v>3207</v>
       </c>
       <c r="B188" s="40" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15">
@@ -24015,7 +24020,7 @@
         <v>3208</v>
       </c>
       <c r="B189" s="40" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15">
@@ -24023,7 +24028,7 @@
         <v>3209</v>
       </c>
       <c r="B190" s="40" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15">
@@ -24037,7 +24042,7 @@
         <v>3211</v>
       </c>
       <c r="B192" s="40" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15">
@@ -24051,7 +24056,7 @@
         <v>3213</v>
       </c>
       <c r="B194" s="40" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15">
@@ -24065,7 +24070,7 @@
         <v>3214</v>
       </c>
       <c r="B196" s="40" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15">
@@ -24079,7 +24084,7 @@
         <v>3216</v>
       </c>
       <c r="B198" s="40" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15">
@@ -24093,7 +24098,7 @@
         <v>3218</v>
       </c>
       <c r="B200" s="40" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15">
@@ -24107,7 +24112,7 @@
         <v>3220</v>
       </c>
       <c r="B202" s="40" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15">
@@ -24121,7 +24126,7 @@
         <v>3222</v>
       </c>
       <c r="B204" s="40" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15">
@@ -24135,7 +24140,7 @@
         <v>3224</v>
       </c>
       <c r="B206" s="40" t="s">
-        <v>3334</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15">
@@ -24149,7 +24154,7 @@
         <v>3225</v>
       </c>
       <c r="B208" s="40" t="s">
-        <v>3335</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15">
@@ -24163,7 +24168,7 @@
         <v>3227</v>
       </c>
       <c r="B210" s="40" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15">
@@ -24177,7 +24182,7 @@
         <v>3229</v>
       </c>
       <c r="B212" s="40" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15">
@@ -24191,7 +24196,7 @@
         <v>3231</v>
       </c>
       <c r="B214" s="40" t="s">
-        <v>3338</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15">
@@ -24205,7 +24210,7 @@
         <v>3233</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>3339</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15">
@@ -24219,7 +24224,7 @@
         <v>810</v>
       </c>
       <c r="B218" s="40" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15">
@@ -24233,7 +24238,7 @@
         <v>3236</v>
       </c>
       <c r="B220" s="40" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15">
@@ -24247,7 +24252,7 @@
         <v>3238</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15">
@@ -24261,7 +24266,7 @@
         <v>3240</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15">
@@ -24275,7 +24280,7 @@
         <v>3242</v>
       </c>
       <c r="B226" s="40" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15">
@@ -24289,7 +24294,7 @@
         <v>3244</v>
       </c>
       <c r="B228" s="40" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15">
@@ -24303,7 +24308,7 @@
         <v>3246</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15">
@@ -24317,7 +24322,7 @@
         <v>3248</v>
       </c>
       <c r="B232" s="40" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15">
@@ -24331,7 +24336,7 @@
         <v>3250</v>
       </c>
       <c r="B234" s="40" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15">
@@ -24345,7 +24350,7 @@
         <v>3252</v>
       </c>
       <c r="B236" s="40" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15">
@@ -24359,7 +24364,7 @@
         <v>3254</v>
       </c>
       <c r="B238" s="40" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15">
@@ -24373,7 +24378,7 @@
         <v>3256</v>
       </c>
       <c r="B240" s="40" t="s">
-        <v>3350</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15">
@@ -24387,7 +24392,7 @@
         <v>3258</v>
       </c>
       <c r="B242" s="40" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15">
@@ -24401,7 +24406,7 @@
         <v>3260</v>
       </c>
       <c r="B244" s="40" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15">
@@ -24415,7 +24420,7 @@
         <v>3262</v>
       </c>
       <c r="B246" s="40" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15">
@@ -24423,7 +24428,7 @@
         <v>3263</v>
       </c>
       <c r="B247" s="40" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15">
@@ -24431,7 +24436,7 @@
         <v>3264</v>
       </c>
       <c r="B248" s="40" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15">
@@ -24455,7 +24460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4775" uniqueCount="3386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="3497">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -9287,9 +9287,6 @@
     <t>Masturbation Frenzy</t>
   </si>
   <si>
-    <t>Surrendered</t>
-  </si>
-  <si>
     <t>Betrayal+</t>
   </si>
   <si>
@@ -9305,15 +9302,9 @@
     <t>Evasion+</t>
   </si>
   <si>
-    <t>Strength</t>
-  </si>
-  <si>
     <t>Defence</t>
   </si>
   <si>
-    <t>Magic</t>
-  </si>
-  <si>
     <t>Masturbation Frenzy+</t>
   </si>
   <si>
@@ -9350,9 +9341,6 @@
     <t>Encouragement</t>
   </si>
   <si>
-    <t>Arouma Arousal</t>
-  </si>
-  <si>
     <t>Wildfire</t>
   </si>
   <si>
@@ -9971,9 +9959,6 @@
     <t>Enthralling Ass</t>
   </si>
   <si>
-    <t>Drain Strink LV3</t>
-  </si>
-  <si>
     <t>Breast Strike LV1</t>
   </si>
   <si>
@@ -10136,12 +10121,6 @@
     <t>Mindless Paizuri</t>
   </si>
   <si>
-    <t>A skillful handjob that manipulates enemies into mindlessness.</t>
-  </si>
-  <si>
-    <t>A skillful Paizuri that robs men of the will to fight.</t>
-  </si>
-  <si>
     <t>Dreamy Breath</t>
   </si>
   <si>
@@ -10245,6 +10224,360 @@
   </si>
   <si>
     <t>The leader of a mercinary group.</t>
+  </si>
+  <si>
+    <t>Unit becomes love struck and unable to resist seduction.</t>
+  </si>
+  <si>
+    <t>HP decreases over 3 turns.</t>
+  </si>
+  <si>
+    <t>HP decreases by a large amount over 3 turns.</t>
+  </si>
+  <si>
+    <t>Acting becomes impossible for 3 turns.</t>
+  </si>
+  <si>
+    <t>Acting becomes impossible for 1 turns.</t>
+  </si>
+  <si>
+    <t>Unit will attack allies for 2 turns.</t>
+  </si>
+  <si>
+    <t>Unit will attack allies until they faint or die.</t>
+  </si>
+  <si>
+    <t>Grants Str+3 for 4 turns.</t>
+  </si>
+  <si>
+    <t>Grants Mag+15 for 4 turns.</t>
+  </si>
+  <si>
+    <t>Strength+</t>
+  </si>
+  <si>
+    <t>Magic+</t>
+  </si>
+  <si>
+    <t>Grants Def+5. Weakens by 1 every turn.</t>
+  </si>
+  <si>
+    <t>Grants Spd+40 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Grants Spd+10 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Grants Max HP+20 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Grants Max HP+50 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Grants Mov+3 for 1 turn.</t>
+  </si>
+  <si>
+    <t>Grants Max HP+10 for 1 turn.</t>
+  </si>
+  <si>
+    <t>Mark of submission to the queen. Serves her to their very limit untill death.</t>
+  </si>
+  <si>
+    <t>Unit becomes enthralled and vulnerable to pleasure for several turns.</t>
+  </si>
+  <si>
+    <t>Serious enthrallment. Unit becomes vulerable and sets Will to 0.</t>
+  </si>
+  <si>
+    <t>Unit becomes irresistably turned on and won't stop masturbating.</t>
+  </si>
+  <si>
+    <t>Unit becomes seduced and actively seeks pleasure.</t>
+  </si>
+  <si>
+    <t>Surrender</t>
+  </si>
+  <si>
+    <t>Unit offers no resistance what so ever.</t>
+  </si>
+  <si>
+    <t>Unit's strength and mind has been drained by pleasure.</t>
+  </si>
+  <si>
+    <t>Inflicts Mag-3 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Spd-3 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Str/Mag-3 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Str/Mag-6 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Str/Mag-9 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Def Down</t>
+  </si>
+  <si>
+    <t>Inflicts Def/Will-3 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Mag-6 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Luk-10 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Luk-5 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Skil-5 and Hit-50 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Inflicts Skil-10 and Hit-80 for 3 turns.</t>
+  </si>
+  <si>
+    <t>Grants Str+5.</t>
+  </si>
+  <si>
+    <t>Aroma Arousal</t>
+  </si>
+  <si>
+    <t>Sexually excited by the aroma. Grants Str+6 but inflicts Mag/Will-3.</t>
+  </si>
+  <si>
+    <t>Grants Str+6 for 5 turns.</t>
+  </si>
+  <si>
+    <t>Grants Str+12 for 5 turns.</t>
+  </si>
+  <si>
+    <t>Grants HP+25, Str+10, an Skill+10.</t>
+  </si>
+  <si>
+    <t>Attacks by this unit will never miss for 3 turns.</t>
+  </si>
+  <si>
+    <t>Greatly increases Spd and Mov for 3 turns.</t>
+  </si>
+  <si>
+    <t>Increases Spd and Mov for 3 turns.</t>
+  </si>
+  <si>
+    <t>Increases Def/HP for 3-5 turns.</t>
+  </si>
+  <si>
+    <t>Increases Mag for 3-5 turns.</t>
+  </si>
+  <si>
+    <t>Increases Mag for 3-10 turns.</t>
+  </si>
+  <si>
+    <t>Seals off any kind of movement, leaving them open to attack.</t>
+  </si>
+  <si>
+    <t>Inflicts Mov-7 for 4 turns.</t>
+  </si>
+  <si>
+    <t>Gives the opponenet a 50% chance of decreasing defence.</t>
+  </si>
+  <si>
+    <t>Reduces body size. Decreases all stats by 5.</t>
+  </si>
+  <si>
+    <t>Reduces body size. Decreases all stats by 8.</t>
+  </si>
+  <si>
+    <t>Unit attacks three times for one turn.</t>
+  </si>
+  <si>
+    <t>Greatly seals a succubus' stats for 3 turns.</t>
+  </si>
+  <si>
+    <t>Prevents all negative status effects, and grants Mov+1</t>
+  </si>
+  <si>
+    <t>Grants +3 to all stats through the power of light.</t>
+  </si>
+  <si>
+    <t>Recoil from using a holy relic, greatly decreases stats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Grants Max HP+10 and restores 10 HP every turn.</t>
+  </si>
+  <si>
+    <t>Stored magic for later use.</t>
+  </si>
+  <si>
+    <t>Draws all magic in the room to oneself. Grants Mag+10</t>
+  </si>
+  <si>
+    <t>Prevents unit from using magic.</t>
+  </si>
+  <si>
+    <t>Attacks by inflicting direct pleasure.</t>
+  </si>
+  <si>
+    <t>Deals damage by throwing themselves at the enemy.</t>
+  </si>
+  <si>
+    <t>A whip that inflicts pleasure into the victim.</t>
+  </si>
+  <si>
+    <t>A skill that enthralls enemies with the pleasure of a soft ass.</t>
+  </si>
+  <si>
+    <t>Drain Strike LV3</t>
+  </si>
+  <si>
+    <t>Drains an enemies in exchange for pleasure.</t>
+  </si>
+  <si>
+    <t>Uses their breasts to massage aphrodasic directly into a foe's penis.</t>
+  </si>
+  <si>
+    <t>A paizuri that revitalises an mans penis with abundant breasts.</t>
+  </si>
+  <si>
+    <t>Drains a man's strength with a handjob while stuffing their face in endless clevage</t>
+  </si>
+  <si>
+    <t>A special hand technique that manipulates men into mindlessness.</t>
+  </si>
+  <si>
+    <t>Forces pleasure into a foe's penis with smooth feet or long legs.</t>
+  </si>
+  <si>
+    <t>A pleasure filled attack involving the user's supple breasts.</t>
+  </si>
+  <si>
+    <t>A foot skill designed to drain power and semen through a foe's penis.</t>
+  </si>
+  <si>
+    <t>Paralyzes an enemy by grinding them with the user's feet.</t>
+  </si>
+  <si>
+    <t>Uses their mouth to coerce a foe's penis to ejaculate.</t>
+  </si>
+  <si>
+    <t>Uses skilful hand techniques to coerce a foe's penis to cum.</t>
+  </si>
+  <si>
+    <t>Masturbates foes with a specially designed sucuubus onahole.</t>
+  </si>
+  <si>
+    <t>Uses their pussy to straddle and grind against a foe's penis.</t>
+  </si>
+  <si>
+    <t>Attempts to make the foe fall in love with them. High charm chance.</t>
+  </si>
+  <si>
+    <t>Attempts to make the foe fall in love with them. Has charm chance.</t>
+  </si>
+  <si>
+    <t>Throws sentient slime that pleasures foes. Cannot be used at close range.</t>
+  </si>
+  <si>
+    <t>Uses special pheromones to make foes fall in love. High arousal chance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses special pheromones to make foes fall in love. </t>
+  </si>
+  <si>
+    <t>A pollen attack that can make foes fall into a state of seduction.</t>
+  </si>
+  <si>
+    <t>Attempts to seduce a foe with various sexual temptations. Range 2.</t>
+  </si>
+  <si>
+    <t>Attempts to seduce a foe with their bountiful breasts. Range 2.</t>
+  </si>
+  <si>
+    <t>An attack of sexual temptation. Range 4.</t>
+  </si>
+  <si>
+    <t>An attack of sexual temptation. Range 2.</t>
+  </si>
+  <si>
+    <t>A voluptuous dance filled with sexual movements.</t>
+  </si>
+  <si>
+    <t>Embraces foes with a loving hug.</t>
+  </si>
+  <si>
+    <t>Weakens foes by forcing them to bring the user's breast milk.</t>
+  </si>
+  <si>
+    <t>Brainwashes foes with a special blown kiss.</t>
+  </si>
+  <si>
+    <t>Blows a kiss that makes an enemy fall in love.</t>
+  </si>
+  <si>
+    <t>Blows a kiss that drowns an enemy in pleasure if it hits.</t>
+  </si>
+  <si>
+    <t>A blown kiss that can charm foes from a distance.</t>
+  </si>
+  <si>
+    <t>A blown kiss that can put foes in a state of seduction.</t>
+  </si>
+  <si>
+    <t>A blown kiss with a high chance of enthralling an opponent.</t>
+  </si>
+  <si>
+    <t>A magically charged bow that can put foes in a state of seduction.</t>
+  </si>
+  <si>
+    <t>Special pheromones that turns enemies into mindless puppets.</t>
+  </si>
+  <si>
+    <t>Allows foes to experience heaven in a loving embrace.</t>
+  </si>
+  <si>
+    <t>Beckens a man to have their semen squeezed in their flower. High crit rate.</t>
+  </si>
+  <si>
+    <t>Drowns a foe's penis in sweet pleasure by stroking it between their breasts.</t>
+  </si>
+  <si>
+    <t>Drains a foe's strength by rubbing their face against the queen's breasts.</t>
+  </si>
+  <si>
+    <t>Skillfully melts a man with unrivaled handjob techniques.</t>
+  </si>
+  <si>
+    <t>Melts a man into mindlessness with the caress of her mouth.</t>
+  </si>
+  <si>
+    <t>Pleasures men by rubbing her smooth feet around their penis.</t>
+  </si>
+  <si>
+    <t>Pleasures men by wrapping her plump thighs around their penis.</t>
+  </si>
+  <si>
+    <t>A technique that drains enemy levels in exchange for pleasure.</t>
+  </si>
+  <si>
+    <t>Faints a foe by massaging their crotch with the soles of her feet.</t>
+  </si>
+  <si>
+    <t>A technique that arouses foes by moving sexually and lascivously.</t>
+  </si>
+  <si>
+    <t>A dangerous technique that brainwashes foes with huge, loli boobies.</t>
+  </si>
+  <si>
+    <t>An irresistable paizuri that drains men of the will to fight.</t>
+  </si>
+  <si>
+    <t>A sigh filled with pheromones that inflicts 2 or more abnormal states.</t>
   </si>
 </sst>
 </file>
@@ -11232,7 +11565,7 @@
         <v>2812</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3378</v>
+        <v>3371</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11254,7 +11587,7 @@
         <v>2813</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3377</v>
+        <v>3370</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11276,7 +11609,7 @@
         <v>2810</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3379</v>
+        <v>3372</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -12053,7 +12386,7 @@
         <v>2232</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3376</v>
+        <v>3369</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -19351,7 +19684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -19388,7 +19721,7 @@
         <v>3040</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3385</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -19563,7 +19896,7 @@
         <v>2867</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3370</v>
+        <v>3363</v>
       </c>
       <c r="D17" s="40"/>
     </row>
@@ -19575,7 +19908,7 @@
         <v>2869</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3371</v>
+        <v>3364</v>
       </c>
       <c r="D18" s="40"/>
     </row>
@@ -19587,7 +19920,7 @@
         <v>2871</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3373</v>
+        <v>3366</v>
       </c>
       <c r="D19" s="40"/>
     </row>
@@ -19599,7 +19932,7 @@
         <v>2873</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3372</v>
+        <v>3365</v>
       </c>
       <c r="D20" s="40"/>
     </row>
@@ -19611,7 +19944,7 @@
         <v>2875</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3374</v>
+        <v>3367</v>
       </c>
       <c r="D21" s="40"/>
     </row>
@@ -19635,7 +19968,7 @@
         <v>2877</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3375</v>
+        <v>3368</v>
       </c>
       <c r="D23" s="40"/>
     </row>
@@ -19647,7 +19980,7 @@
         <v>2880</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3353</v>
+        <v>3346</v>
       </c>
       <c r="D24" s="40"/>
     </row>
@@ -19671,7 +20004,7 @@
         <v>2880</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3354</v>
+        <v>3347</v>
       </c>
       <c r="D26" s="40"/>
     </row>
@@ -19683,7 +20016,7 @@
         <v>2884</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3355</v>
+        <v>3348</v>
       </c>
       <c r="D27" s="40"/>
     </row>
@@ -19695,7 +20028,7 @@
         <v>2884</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3356</v>
+        <v>3349</v>
       </c>
       <c r="D28" s="40"/>
     </row>
@@ -19707,7 +20040,7 @@
         <v>2884</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3357</v>
+        <v>3350</v>
       </c>
       <c r="D29" s="40"/>
     </row>
@@ -19719,7 +20052,7 @@
         <v>2888</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3358</v>
+        <v>3351</v>
       </c>
       <c r="D30" s="40"/>
     </row>
@@ -19731,7 +20064,7 @@
         <v>2888</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3359</v>
+        <v>3352</v>
       </c>
       <c r="D31" s="40"/>
     </row>
@@ -19743,7 +20076,7 @@
         <v>2888</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3360</v>
+        <v>3353</v>
       </c>
       <c r="D32" s="40"/>
     </row>
@@ -19755,7 +20088,7 @@
         <v>2891</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3361</v>
+        <v>3354</v>
       </c>
       <c r="D33" s="40"/>
     </row>
@@ -19791,7 +20124,7 @@
         <v>2896</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3362</v>
+        <v>3355</v>
       </c>
       <c r="D36" s="40"/>
     </row>
@@ -19815,7 +20148,7 @@
         <v>2899</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3363</v>
+        <v>3356</v>
       </c>
       <c r="D38" s="40"/>
     </row>
@@ -19839,7 +20172,7 @@
         <v>2900</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3364</v>
+        <v>3357</v>
       </c>
       <c r="D40" s="40"/>
     </row>
@@ -19851,7 +20184,7 @@
         <v>2902</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3365</v>
+        <v>3358</v>
       </c>
       <c r="D41" s="40"/>
     </row>
@@ -19863,7 +20196,7 @@
         <v>2902</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3366</v>
+        <v>3359</v>
       </c>
       <c r="D42" s="40"/>
     </row>
@@ -19881,7 +20214,7 @@
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3367</v>
+        <v>3360</v>
       </c>
       <c r="D44" s="40"/>
     </row>
@@ -19891,7 +20224,7 @@
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3368</v>
+        <v>3361</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -19901,7 +20234,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3369</v>
+        <v>3362</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -22601,1852 +22934,1772 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.2109375" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="23.0703125" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="40" t="s">
         <v>1716</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
+      <c r="D2" s="40" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
+        <v>1719</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="40" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
+        <v>1721</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
+        <v>1723</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15">
+        <v>1725</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15">
+        <v>1727</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
+        <v>1729</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15">
+        <v>1731</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15">
+        <v>1733</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="40" t="s">
-        <v>1725</v>
+        <v>1734</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15">
+        <v>1735</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
-        <v>1726</v>
+        <v>199</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15">
+        <v>1736</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="40" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="40" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="40" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="40" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="40" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="40" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="40" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="40" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="40" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="40" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="40" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" s="40" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="40" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="40" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="40" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="40" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="40" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" s="40" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="40" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="40" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="40" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="40" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="40" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>1727</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="C36" s="40" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="40" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="40" t="s">
-        <v>1729</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="40" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="40" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="40" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="40" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="40" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="40" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="40" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15">
-      <c r="A25" s="40" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="40" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15">
-      <c r="A27" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="40" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="40" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15">
-      <c r="A31" s="40" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="40" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15">
-      <c r="A33" s="40" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="40" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15">
-      <c r="A35" s="40" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="40" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" s="40" t="s">
-        <v>1748</v>
+        <v>1782</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15">
+        <v>1783</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
-        <v>1749</v>
+        <v>1784</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15">
+        <v>1785</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="40" t="s">
-        <v>1750</v>
+        <v>1786</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15">
+        <v>1787</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>1751</v>
+        <v>3105</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15">
+        <v>3106</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D40" s="40"/>
+    </row>
+    <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
-        <v>1752</v>
+        <v>3107</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15">
+        <v>3108</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D41" s="40"/>
+    </row>
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>1753</v>
+        <v>3109</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15">
+        <v>3110</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D42" s="40"/>
+    </row>
+    <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>1754</v>
+        <v>3111</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15">
+        <v>3112</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D43" s="40"/>
+    </row>
+    <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>1755</v>
+        <v>3113</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15">
+        <v>3114</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D44" s="40"/>
+    </row>
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>1756</v>
+        <v>3115</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15">
+        <v>3116</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D45" s="40"/>
+    </row>
+    <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
-        <v>1757</v>
+        <v>3117</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15">
+        <v>3118</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D46" s="40"/>
+    </row>
+    <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
-        <v>1758</v>
+        <v>3119</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15">
+        <v>3120</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>1759</v>
+        <v>3121</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15">
+        <v>1727</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
-        <v>1760</v>
+        <v>3122</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15">
+        <v>3123</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D49" s="40"/>
+    </row>
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
-        <v>1761</v>
+        <v>3124</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15">
+        <v>3125</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
-        <v>1762</v>
+        <v>3126</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
+        <v>3127</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D51" s="40"/>
+    </row>
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
-        <v>1763</v>
+        <v>3128</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
+        <v>3129</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
-        <v>1764</v>
+        <v>3130</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15">
+        <v>3131</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
-        <v>1765</v>
+        <v>3132</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15">
+        <v>3133</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
-        <v>1766</v>
+        <v>3134</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
+        <v>3135</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
-        <v>1767</v>
+        <v>3136</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
+        <v>3137</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
-        <v>1768</v>
+        <v>3138</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15">
+        <v>3139</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
-        <v>1769</v>
+        <v>3140</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15">
+        <v>3141</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D58" s="40"/>
+    </row>
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
-        <v>1770</v>
+        <v>3142</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15">
+        <v>3143</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D59" s="40"/>
+    </row>
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
-        <v>1771</v>
+        <v>3144</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
+        <v>3145</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D60" s="40"/>
+    </row>
+    <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
-        <v>1772</v>
+        <v>3146</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15">
+        <v>3147</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D61" s="40"/>
+    </row>
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
-        <v>1773</v>
+        <v>3148</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15">
+        <v>3149</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
-        <v>1774</v>
+        <v>3150</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15">
+        <v>3151</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
-        <v>1775</v>
+        <v>3152</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>1776</v>
+        <v>3154</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>1777</v>
+        <v>3155</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
-        <v>1778</v>
+        <v>3156</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15">
+        <v>3157</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
-        <v>1779</v>
+        <v>3158</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15">
+        <v>3159</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>1780</v>
+        <v>3160</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>1781</v>
+        <v>3161</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>1727</v>
+        <v>3162</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>1782</v>
+        <v>3163</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15">
+        <v>3153</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
-        <v>1783</v>
+        <v>3164</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15">
+        <v>3165</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
-        <v>1784</v>
+        <v>3166</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15">
+        <v>3167</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
-        <v>1785</v>
+        <v>3168</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15">
+        <v>3169</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>3307</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
-        <v>1786</v>
+        <v>3170</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15">
+        <v>3171</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
-        <v>1787</v>
+        <v>3172</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15">
+        <v>3173</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3109</v>
+        <v>3174</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15">
+        <v>3173</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B79" s="40"/>
-    </row>
-    <row r="80" spans="1:2" ht="15">
+        <v>3175</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3111</v>
+        <v>3176</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15">
+        <v>3173</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3112</v>
-      </c>
-      <c r="B81" s="40"/>
-    </row>
-    <row r="82" spans="1:2" ht="15">
+        <v>3177</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3113</v>
+        <v>3178</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15">
+        <v>3179</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B83" s="40"/>
-    </row>
-    <row r="84" spans="1:2" ht="15">
+        <v>3180</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C83" s="40" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D83" s="40" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3115</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15">
+        <v>3182</v>
+      </c>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3116</v>
+        <v>3183</v>
       </c>
       <c r="B85" s="40"/>
-    </row>
-    <row r="86" spans="1:2" ht="15">
+      <c r="C85" s="40" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D85" s="40" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3117</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15">
+        <v>3184</v>
+      </c>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D86" s="40" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3118</v>
+        <v>3185</v>
       </c>
       <c r="B87" s="40"/>
-    </row>
-    <row r="88" spans="1:2" ht="15">
+      <c r="C87" s="40" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D87" s="40" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3119</v>
+        <v>3186</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15">
+        <v>3187</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B89" s="40"/>
-    </row>
-    <row r="90" spans="1:2" ht="15">
+        <v>3188</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3121</v>
+        <v>3189</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15">
+        <v>3190</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B91" s="40"/>
-    </row>
-    <row r="92" spans="1:2" ht="15">
+        <v>3191</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>3311</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3123</v>
+        <v>3193</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15">
+        <v>3194</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B93" s="40"/>
-    </row>
-    <row r="94" spans="1:2" ht="15">
+        <v>3195</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3125</v>
+        <v>3197</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15">
+        <v>3198</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D94" s="40" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>1727</v>
+        <v>3199</v>
       </c>
       <c r="B95" s="40"/>
-    </row>
-    <row r="96" spans="1:2" ht="15">
+      <c r="C95" s="40" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3126</v>
-      </c>
-      <c r="B96" s="40" t="s">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15">
+        <v>3200</v>
+      </c>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D96" s="40" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B97" s="40"/>
-    </row>
-    <row r="98" spans="1:2" ht="15">
+        <v>3201</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3128</v>
-      </c>
-      <c r="B98" s="40" t="s">
-        <v>3276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15">
+        <v>3203</v>
+      </c>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3129</v>
+        <v>3204</v>
       </c>
       <c r="B99" s="40"/>
-    </row>
-    <row r="100" spans="1:2" ht="15">
+      <c r="C99" s="40" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3130</v>
+        <v>3205</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15">
+        <v>3206</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B101" s="40"/>
-    </row>
-    <row r="102" spans="1:2" ht="15">
+        <v>3207</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3132</v>
+        <v>3209</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15">
+        <v>3202</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D102" s="40" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B103" s="40"/>
-    </row>
-    <row r="104" spans="1:2" ht="15">
+        <v>3210</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3134</v>
+        <v>3212</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15">
+        <v>3213</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B105" s="40"/>
-    </row>
-    <row r="106" spans="1:2" ht="15">
+        <v>3214</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3136</v>
+        <v>3216</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15">
+        <v>3217</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B107" s="40"/>
-    </row>
-    <row r="108" spans="1:2" ht="15">
+        <v>3218</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3138</v>
+        <v>3220</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15">
+        <v>3219</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B109" s="40"/>
-    </row>
-    <row r="110" spans="1:2" ht="15">
+        <v>3221</v>
+      </c>
+      <c r="B109" s="40" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3140</v>
+        <v>3223</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3282</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15">
+        <v>3224</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B111" s="40"/>
-    </row>
-    <row r="112" spans="1:2" ht="15">
+        <v>3225</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3142</v>
+        <v>3227</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3283</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15">
+        <v>3228</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B113" s="40"/>
-    </row>
-    <row r="114" spans="1:2" ht="15">
+        <v>3229</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15">
       <c r="A114" s="40" t="s">
-        <v>3144</v>
+        <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3284</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15">
+        <v>3231</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B115" s="40"/>
-    </row>
-    <row r="116" spans="1:2" ht="15">
+        <v>3232</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3146</v>
+        <v>3234</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15">
+        <v>3235</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3147</v>
-      </c>
-      <c r="B117" s="40"/>
-    </row>
-    <row r="118" spans="1:2" ht="15">
+        <v>3236</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3148</v>
+        <v>3238</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15">
+        <v>3239</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B119" s="40"/>
-    </row>
-    <row r="120" spans="1:2" ht="15">
+        <v>3240</v>
+      </c>
+      <c r="B119" s="40" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3150</v>
+        <v>3242</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15">
+        <v>3243</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3151</v>
-      </c>
-      <c r="B121" s="40"/>
-    </row>
-    <row r="122" spans="1:2" ht="15">
+        <v>3244</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3152</v>
+        <v>3246</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3288</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15">
+        <v>3247</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3153</v>
-      </c>
-      <c r="B123" s="40"/>
-    </row>
-    <row r="124" spans="1:2" ht="15">
+        <v>3248</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3154</v>
+        <v>3250</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15">
+        <v>3251</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B125" s="40"/>
-    </row>
-    <row r="126" spans="1:2" ht="15">
+        <v>3252</v>
+      </c>
+      <c r="B125" s="40" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C125" s="40" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3156</v>
+        <v>3254</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15">
+        <v>3255</v>
+      </c>
+      <c r="C126" s="40" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D126" s="40" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B127" s="40"/>
-    </row>
-    <row r="128" spans="1:2" ht="15">
+        <v>3256</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C127" s="40" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D127" s="40" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3158</v>
+        <v>3258</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3291</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15">
+        <v>3259</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B129" s="40"/>
-    </row>
-    <row r="130" spans="1:2" ht="15">
-      <c r="A130" s="40" t="s">
-        <v>3159</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15">
-      <c r="A131" s="40" t="s">
-        <v>3157</v>
-      </c>
+        <v>3260</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15">
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+    </row>
+    <row r="131" spans="1:4" ht="15">
+      <c r="A131" s="40"/>
       <c r="B131" s="40"/>
-    </row>
-    <row r="132" spans="1:2" ht="15">
-      <c r="A132" s="40" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B132" s="40" t="s">
-        <v>3293</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15">
-      <c r="A133" s="40" t="s">
-        <v>3161</v>
-      </c>
-      <c r="B133" s="40"/>
-    </row>
-    <row r="134" spans="1:2" ht="15">
-      <c r="A134" s="40" t="s">
-        <v>3162</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>3294</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15">
-      <c r="A135" s="40" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B135" s="40"/>
-    </row>
-    <row r="136" spans="1:2" ht="15">
-      <c r="A136" s="40" t="s">
-        <v>3164</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15">
-      <c r="A137" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B137" s="40"/>
-    </row>
-    <row r="138" spans="1:2" ht="15">
-      <c r="A138" s="40" t="s">
-        <v>3165</v>
-      </c>
-      <c r="B138" s="40" t="s">
-        <v>3296</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15">
-      <c r="A139" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B139" s="40"/>
-    </row>
-    <row r="140" spans="1:2" ht="15">
-      <c r="A140" s="40" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15">
-      <c r="A141" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B141" s="40"/>
-    </row>
-    <row r="142" spans="1:2" ht="15">
-      <c r="A142" s="40" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B142" s="40" t="s">
-        <v>3298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15">
-      <c r="A143" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="B143" s="40"/>
-    </row>
-    <row r="144" spans="1:2" ht="15">
-      <c r="A144" s="40" t="s">
-        <v>3168</v>
-      </c>
-      <c r="B144" s="40" t="s">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15">
-      <c r="A145" s="40" t="s">
-        <v>3169</v>
-      </c>
-      <c r="B145" s="40"/>
-    </row>
-    <row r="146" spans="1:2" ht="15">
-      <c r="A146" s="40" t="s">
-        <v>3170</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15">
-      <c r="A147" s="40" t="s">
-        <v>3171</v>
-      </c>
-      <c r="B147" s="40"/>
-    </row>
-    <row r="148" spans="1:2" ht="15">
-      <c r="A148" s="40" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15">
-      <c r="A149" s="40" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B149" s="40"/>
-    </row>
-    <row r="150" spans="1:2" ht="15">
-      <c r="A150" s="40" t="s">
-        <v>3174</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15">
-      <c r="A151" s="40" t="s">
-        <v>3175</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15">
-      <c r="A152" s="40" t="s">
-        <v>3176</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15">
-      <c r="A153" s="40" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B153" s="40"/>
-    </row>
-    <row r="154" spans="1:2" ht="15">
-      <c r="A154" s="40" t="s">
-        <v>3178</v>
-      </c>
-      <c r="B154" s="40" t="s">
-        <v>3303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15">
-      <c r="A155" s="40" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B155" s="40"/>
-    </row>
-    <row r="156" spans="1:2" ht="15">
-      <c r="A156" s="40" t="s">
-        <v>3179</v>
-      </c>
-      <c r="B156" s="40" t="s">
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15">
-      <c r="A157" s="40" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B157" s="40"/>
-    </row>
-    <row r="158" spans="1:2" ht="15">
-      <c r="A158" s="40" t="s">
-        <v>3180</v>
-      </c>
-      <c r="B158" s="40" t="s">
-        <v>3305</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15">
-      <c r="A159" s="40" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B159" s="40"/>
-    </row>
-    <row r="160" spans="1:2" ht="15">
-      <c r="A160" s="40" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B160" s="40" t="s">
-        <v>3306</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="15">
-      <c r="A161" s="40" t="s">
-        <v>3177</v>
-      </c>
-      <c r="B161" s="40"/>
-    </row>
-    <row r="162" spans="1:2" ht="15">
-      <c r="A162" s="40" t="s">
-        <v>3182</v>
-      </c>
-      <c r="B162" s="40" t="s">
-        <v>3307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="15">
-      <c r="A163" s="40" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B163" s="40"/>
-    </row>
-    <row r="164" spans="1:2" ht="15">
-      <c r="A164" s="40" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B164" s="40" t="s">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="15">
-      <c r="A165" s="40" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B165" s="40"/>
-    </row>
-    <row r="166" spans="1:2" ht="15">
-      <c r="A166" s="40" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B166" s="40" t="s">
-        <v>3308</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15">
-      <c r="A167" s="40" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B167" s="40" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="15">
-      <c r="A168" s="40" t="s">
-        <v>3188</v>
-      </c>
-      <c r="B168" s="40" t="s">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15">
-      <c r="A169" s="40" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B169" s="40" t="s">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15">
-      <c r="A170" s="40" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B170" s="40" t="s">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15">
-      <c r="A171" s="40" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B171" s="40"/>
-    </row>
-    <row r="172" spans="1:2" ht="15">
-      <c r="A172" s="40" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B172" s="40" t="s">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15">
-      <c r="A173" s="40" t="s">
-        <v>3191</v>
-      </c>
-      <c r="B173" s="40"/>
-    </row>
-    <row r="174" spans="1:2" ht="15">
-      <c r="A174" s="40" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B174" s="40" t="s">
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="15">
-      <c r="A175" s="40" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B175" s="40"/>
-    </row>
-    <row r="176" spans="1:2" ht="15">
-      <c r="A176" s="40" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B176" s="40" t="s">
-        <v>3316</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="15">
-      <c r="A177" s="40" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B177" s="40"/>
-    </row>
-    <row r="178" spans="1:2" ht="15">
-      <c r="A178" s="40" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B178" s="40" t="s">
-        <v>3317</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="15">
-      <c r="A179" s="40" t="s">
-        <v>3198</v>
-      </c>
-      <c r="B179" s="40"/>
-    </row>
-    <row r="180" spans="1:2" ht="15">
-      <c r="A180" s="40" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B180" s="40" t="s">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="15">
-      <c r="A181" s="40" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B181" s="40"/>
-    </row>
-    <row r="182" spans="1:2" ht="15">
-      <c r="A182" s="40" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B182" s="40" t="s">
-        <v>3319</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="15">
-      <c r="A183" s="40" t="s">
-        <v>3202</v>
-      </c>
-      <c r="B183" s="40"/>
-    </row>
-    <row r="184" spans="1:2" ht="15">
-      <c r="A184" s="40" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B184" s="40" t="s">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="15">
-      <c r="A185" s="40" t="s">
-        <v>3204</v>
-      </c>
-      <c r="B185" s="40" t="s">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="15">
-      <c r="A186" s="40" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B186" s="40" t="s">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="15">
-      <c r="A187" s="40" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B187" s="40"/>
-    </row>
-    <row r="188" spans="1:2" ht="15">
-      <c r="A188" s="40" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B188" s="40" t="s">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="15">
-      <c r="A189" s="40" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B189" s="40" t="s">
-        <v>3325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="15">
-      <c r="A190" s="40" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B190" s="40" t="s">
-        <v>3324</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="15">
-      <c r="A191" s="40" t="s">
-        <v>3210</v>
-      </c>
-      <c r="B191" s="40"/>
-    </row>
-    <row r="192" spans="1:2" ht="15">
-      <c r="A192" s="40" t="s">
-        <v>3211</v>
-      </c>
-      <c r="B192" s="40" t="s">
-        <v>3326</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="15">
-      <c r="A193" s="40" t="s">
-        <v>3212</v>
-      </c>
-      <c r="B193" s="40"/>
-    </row>
-    <row r="194" spans="1:2" ht="15">
-      <c r="A194" s="40" t="s">
-        <v>3213</v>
-      </c>
-      <c r="B194" s="40" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="15">
-      <c r="A195" s="40" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B195" s="40"/>
-    </row>
-    <row r="196" spans="1:2" ht="15">
-      <c r="A196" s="40" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B196" s="40" t="s">
-        <v>3328</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="15">
-      <c r="A197" s="40" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B197" s="40"/>
-    </row>
-    <row r="198" spans="1:2" ht="15">
-      <c r="A198" s="40" t="s">
-        <v>3216</v>
-      </c>
-      <c r="B198" s="40" t="s">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="15">
-      <c r="A199" s="40" t="s">
-        <v>3217</v>
-      </c>
-      <c r="B199" s="40"/>
-    </row>
-    <row r="200" spans="1:2" ht="15">
-      <c r="A200" s="40" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B200" s="40" t="s">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15">
-      <c r="A201" s="40" t="s">
-        <v>3219</v>
-      </c>
-      <c r="B201" s="40"/>
-    </row>
-    <row r="202" spans="1:2" ht="15">
-      <c r="A202" s="40" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B202" s="40" t="s">
-        <v>3331</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="15">
-      <c r="A203" s="40" t="s">
-        <v>3221</v>
-      </c>
-      <c r="B203" s="40"/>
-    </row>
-    <row r="204" spans="1:2" ht="15">
-      <c r="A204" s="40" t="s">
-        <v>3222</v>
-      </c>
-      <c r="B204" s="40" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="15">
-      <c r="A205" s="40" t="s">
-        <v>3223</v>
-      </c>
-      <c r="B205" s="40"/>
-    </row>
-    <row r="206" spans="1:2" ht="15">
-      <c r="A206" s="40" t="s">
-        <v>3224</v>
-      </c>
-      <c r="B206" s="40" t="s">
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="15">
-      <c r="A207" s="40" t="s">
-        <v>3223</v>
-      </c>
-      <c r="B207" s="40"/>
-    </row>
-    <row r="208" spans="1:2" ht="15">
-      <c r="A208" s="40" t="s">
-        <v>3225</v>
-      </c>
-      <c r="B208" s="40" t="s">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="15">
-      <c r="A209" s="40" t="s">
-        <v>3226</v>
-      </c>
-      <c r="B209" s="40"/>
-    </row>
-    <row r="210" spans="1:2" ht="15">
-      <c r="A210" s="40" t="s">
-        <v>3227</v>
-      </c>
-      <c r="B210" s="40" t="s">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="15">
-      <c r="A211" s="40" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B211" s="40"/>
-    </row>
-    <row r="212" spans="1:2" ht="15">
-      <c r="A212" s="40" t="s">
-        <v>3229</v>
-      </c>
-      <c r="B212" s="40" t="s">
-        <v>3334</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15">
-      <c r="A213" s="40" t="s">
-        <v>3230</v>
-      </c>
-      <c r="B213" s="40"/>
-    </row>
-    <row r="214" spans="1:2" ht="15">
-      <c r="A214" s="40" t="s">
-        <v>3231</v>
-      </c>
-      <c r="B214" s="40" t="s">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="15">
-      <c r="A215" s="40" t="s">
-        <v>3232</v>
-      </c>
-      <c r="B215" s="40"/>
-    </row>
-    <row r="216" spans="1:2" ht="15">
-      <c r="A216" s="40" t="s">
-        <v>3233</v>
-      </c>
-      <c r="B216" s="40" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15">
-      <c r="A217" s="40" t="s">
-        <v>3234</v>
-      </c>
-      <c r="B217" s="40"/>
-    </row>
-    <row r="218" spans="1:2" ht="15">
-      <c r="A218" s="40" t="s">
-        <v>810</v>
-      </c>
-      <c r="B218" s="40" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="15">
-      <c r="A219" s="40" t="s">
-        <v>3235</v>
-      </c>
-      <c r="B219" s="40"/>
-    </row>
-    <row r="220" spans="1:2" ht="15">
-      <c r="A220" s="40" t="s">
-        <v>3236</v>
-      </c>
-      <c r="B220" s="40" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15">
-      <c r="A221" s="40" t="s">
-        <v>3237</v>
-      </c>
-      <c r="B221" s="40"/>
-    </row>
-    <row r="222" spans="1:2" ht="15">
-      <c r="A222" s="40" t="s">
-        <v>3238</v>
-      </c>
-      <c r="B222" s="40" t="s">
-        <v>3338</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15">
-      <c r="A223" s="40" t="s">
-        <v>3239</v>
-      </c>
-      <c r="B223" s="40"/>
-    </row>
-    <row r="224" spans="1:2" ht="15">
-      <c r="A224" s="40" t="s">
-        <v>3240</v>
-      </c>
-      <c r="B224" s="40" t="s">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15">
-      <c r="A225" s="40" t="s">
-        <v>3241</v>
-      </c>
-      <c r="B225" s="40"/>
-    </row>
-    <row r="226" spans="1:2" ht="15">
-      <c r="A226" s="40" t="s">
-        <v>3242</v>
-      </c>
-      <c r="B226" s="40" t="s">
-        <v>3339</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15">
-      <c r="A227" s="40" t="s">
-        <v>3243</v>
-      </c>
-      <c r="B227" s="40"/>
-    </row>
-    <row r="228" spans="1:2" ht="15">
-      <c r="A228" s="40" t="s">
-        <v>3244</v>
-      </c>
-      <c r="B228" s="40" t="s">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15">
-      <c r="A229" s="40" t="s">
-        <v>3245</v>
-      </c>
-      <c r="B229" s="40"/>
-    </row>
-    <row r="230" spans="1:2" ht="15">
-      <c r="A230" s="40" t="s">
-        <v>3246</v>
-      </c>
-      <c r="B230" s="40" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15">
-      <c r="A231" s="40" t="s">
-        <v>3247</v>
-      </c>
-      <c r="B231" s="40"/>
-    </row>
-    <row r="232" spans="1:2" ht="15">
-      <c r="A232" s="40" t="s">
-        <v>3248</v>
-      </c>
-      <c r="B232" s="40" t="s">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15">
-      <c r="A233" s="40" t="s">
-        <v>3249</v>
-      </c>
-      <c r="B233" s="40"/>
-    </row>
-    <row r="234" spans="1:2" ht="15">
-      <c r="A234" s="40" t="s">
-        <v>3250</v>
-      </c>
-      <c r="B234" s="40" t="s">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15">
-      <c r="A235" s="40" t="s">
-        <v>3251</v>
-      </c>
-      <c r="B235" s="40"/>
-    </row>
-    <row r="236" spans="1:2" ht="15">
-      <c r="A236" s="40" t="s">
-        <v>3252</v>
-      </c>
-      <c r="B236" s="40" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15">
-      <c r="A237" s="40" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B237" s="40"/>
-    </row>
-    <row r="238" spans="1:2" ht="15">
-      <c r="A238" s="40" t="s">
-        <v>3254</v>
-      </c>
-      <c r="B238" s="40" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15">
-      <c r="A239" s="40" t="s">
-        <v>3255</v>
-      </c>
-      <c r="B239" s="40"/>
-    </row>
-    <row r="240" spans="1:2" ht="15">
-      <c r="A240" s="40" t="s">
-        <v>3256</v>
-      </c>
-      <c r="B240" s="40" t="s">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15">
-      <c r="A241" s="40" t="s">
-        <v>3257</v>
-      </c>
-      <c r="B241" s="40"/>
-    </row>
-    <row r="242" spans="1:2" ht="15">
-      <c r="A242" s="40" t="s">
-        <v>3258</v>
-      </c>
-      <c r="B242" s="40" t="s">
-        <v>3346</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15">
-      <c r="A243" s="40" t="s">
-        <v>3259</v>
-      </c>
-      <c r="B243" s="40"/>
-    </row>
-    <row r="244" spans="1:2" ht="15">
-      <c r="A244" s="40" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B244" s="40" t="s">
-        <v>3347</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="15">
-      <c r="A245" s="40" t="s">
-        <v>3261</v>
-      </c>
-      <c r="B245" s="40"/>
-    </row>
-    <row r="246" spans="1:2" ht="15">
-      <c r="A246" s="40" t="s">
-        <v>3262</v>
-      </c>
-      <c r="B246" s="40" t="s">
-        <v>3348</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="15">
-      <c r="A247" s="40" t="s">
-        <v>3263</v>
-      </c>
-      <c r="B247" s="40" t="s">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15">
-      <c r="A248" s="40" t="s">
-        <v>3264</v>
-      </c>
-      <c r="B248" s="40" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15">
-      <c r="A249" s="40" t="s">
-        <v>3265</v>
-      </c>
-      <c r="B249" s="40"/>
-    </row>
-    <row r="250" spans="1:2" ht="15">
-      <c r="A250" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -24458,10 +24711,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -24469,7 +24722,7 @@
     <col min="1" max="1" width="13.640625" style="40" customWidth="1"/>
     <col min="2" max="2" width="68.85546875" style="40" customWidth="1"/>
     <col min="3" max="3" width="17.35546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="66.2109375" style="40" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
@@ -24497,6 +24750,9 @@
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
+      <c r="D2" s="40" t="s">
+        <v>3379</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
@@ -24508,6 +24764,9 @@
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
+      <c r="D3" s="40" t="s">
+        <v>3380</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
@@ -24519,6 +24778,9 @@
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
+      <c r="D4" s="40" t="s">
+        <v>3381</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
@@ -24530,6 +24792,9 @@
       <c r="C5" s="40" t="s">
         <v>3046</v>
       </c>
+      <c r="D5" s="40" t="s">
+        <v>3382</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
@@ -24541,6 +24806,9 @@
       <c r="C6" s="40" t="s">
         <v>3047</v>
       </c>
+      <c r="D6" s="40" t="s">
+        <v>3383</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
@@ -24552,6 +24820,9 @@
       <c r="C7" s="40" t="s">
         <v>3048</v>
       </c>
+      <c r="D7" s="40" t="s">
+        <v>3384</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
@@ -24561,7 +24832,10 @@
         <v>2919</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3067</v>
+        <v>3066</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>3385</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -24574,6 +24848,9 @@
       <c r="C9" s="40" t="s">
         <v>3049</v>
       </c>
+      <c r="D9" s="40" t="s">
+        <v>3397</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
@@ -24583,7 +24860,10 @@
         <v>2923</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3072</v>
+        <v>3388</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>3386</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -24594,7 +24874,10 @@
         <v>2925</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3074</v>
+        <v>3389</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>3387</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -24605,7 +24888,10 @@
         <v>2927</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3073</v>
+        <v>3071</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>3390</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -24616,7 +24902,10 @@
         <v>2929</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3071</v>
+        <v>3070</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>3391</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -24629,6 +24918,9 @@
       <c r="C14" s="40" t="s">
         <v>3051</v>
       </c>
+      <c r="D14" s="40" t="s">
+        <v>3392</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
@@ -24638,7 +24930,10 @@
         <v>2933</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3069</v>
+        <v>3068</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>3393</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -24649,10 +24944,13 @@
         <v>2935</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>3069</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
         <v>2936</v>
       </c>
@@ -24662,8 +24960,11 @@
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="40" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
         <v>2938</v>
       </c>
@@ -24671,10 +24972,13 @@
         <v>2939</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>3067</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="40" t="s">
         <v>160</v>
       </c>
@@ -24684,8 +24988,11 @@
       <c r="C19" s="40" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="40" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
         <v>2941</v>
       </c>
@@ -24693,10 +25000,13 @@
         <v>2942</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>3080</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="40" t="s">
         <v>166</v>
       </c>
@@ -24706,8 +25016,11 @@
       <c r="C21" s="40" t="s">
         <v>3065</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="40" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
         <v>2944</v>
       </c>
@@ -24715,10 +25028,13 @@
         <v>2943</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>3072</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
         <v>2945</v>
       </c>
@@ -24726,10 +25042,13 @@
         <v>2946</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>3081</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
         <v>2947</v>
       </c>
@@ -24737,10 +25056,13 @@
         <v>2946</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>3082</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
         <v>2948</v>
       </c>
@@ -24748,10 +25070,13 @@
         <v>2949</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>3402</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
         <v>2950</v>
       </c>
@@ -24759,10 +25084,13 @@
         <v>2951</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3082</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>3079</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
         <v>2952</v>
       </c>
@@ -24772,8 +25100,11 @@
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="40" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
         <v>2954</v>
       </c>
@@ -24781,10 +25112,13 @@
         <v>2955</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>3075</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
         <v>2956</v>
       </c>
@@ -24792,10 +25126,13 @@
         <v>2957</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>3076</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
         <v>2958</v>
       </c>
@@ -24803,10 +25140,13 @@
         <v>2959</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>3410</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
         <v>2960</v>
       </c>
@@ -24814,10 +25154,13 @@
         <v>2961</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>2043</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
         <v>2962</v>
       </c>
@@ -24825,10 +25168,13 @@
         <v>2963</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>3078</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
         <v>2964</v>
       </c>
@@ -24838,8 +25184,11 @@
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="40" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
         <v>2966</v>
       </c>
@@ -24847,10 +25196,13 @@
         <v>2967</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>3077</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
         <v>2968</v>
       </c>
@@ -24860,8 +25212,11 @@
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="40" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
         <v>2970</v>
       </c>
@@ -24869,10 +25224,13 @@
         <v>2971</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>3074</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
         <v>2972</v>
       </c>
@@ -24880,10 +25238,13 @@
         <v>2973</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>3073</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
         <v>2974</v>
       </c>
@@ -24891,10 +25252,13 @@
         <v>2975</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>3083</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
         <v>2976</v>
       </c>
@@ -24902,10 +25266,13 @@
         <v>2977</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>3418</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
         <v>2978</v>
       </c>
@@ -24913,10 +25280,13 @@
         <v>2979</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>3084</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
         <v>2980</v>
       </c>
@@ -24924,10 +25294,13 @@
         <v>2981</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>3085</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
         <v>2982</v>
       </c>
@@ -24935,10 +25308,13 @@
         <v>2983</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>3086</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
         <v>2984</v>
       </c>
@@ -24946,10 +25322,13 @@
         <v>2985</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>3087</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
         <v>2986</v>
       </c>
@@ -24957,10 +25336,13 @@
         <v>2987</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>3088</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
         <v>2988</v>
       </c>
@@ -24968,10 +25350,13 @@
         <v>2989</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>3089</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
         <v>2990</v>
       </c>
@@ -24979,10 +25364,13 @@
         <v>2991</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>3090</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
         <v>2992</v>
       </c>
@@ -24990,10 +25378,13 @@
         <v>2993</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>3091</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
         <v>2994</v>
       </c>
@@ -25001,10 +25392,13 @@
         <v>2995</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>3092</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
         <v>2996</v>
       </c>
@@ -25012,10 +25406,13 @@
         <v>2997</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>3093</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="40" t="s">
         <v>168</v>
       </c>
@@ -25023,7 +25420,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
         <v>2998</v>
       </c>
@@ -25031,7 +25428,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
         <v>2999</v>
       </c>
@@ -25039,7 +25436,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
         <v>3000</v>
       </c>
@@ -25047,7 +25444,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
         <v>3001</v>
       </c>
@@ -25055,7 +25452,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
         <v>3002</v>
       </c>
@@ -25063,7 +25460,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
         <v>3003</v>
       </c>
@@ -25071,7 +25468,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
         <v>3004</v>
       </c>
@@ -25081,8 +25478,11 @@
       <c r="C57" s="40" t="s">
         <v>3058</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="40" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
         <v>3006</v>
       </c>
@@ -25090,10 +25490,13 @@
         <v>3007</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3098</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>3094</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
         <v>3008</v>
       </c>
@@ -25103,8 +25506,11 @@
       <c r="C59" s="40" t="s">
         <v>3059</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="40" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
         <v>3008</v>
       </c>
@@ -25112,10 +25518,13 @@
         <v>3010</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>3095</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
         <v>3011</v>
       </c>
@@ -25123,10 +25532,13 @@
         <v>3010</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>3096</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
         <v>3012</v>
       </c>
@@ -25134,10 +25546,13 @@
         <v>3013</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>3097</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
         <v>3014</v>
       </c>
@@ -25145,10 +25560,13 @@
         <v>3015</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>3098</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
         <v>3016</v>
       </c>
@@ -25156,10 +25574,13 @@
         <v>3015</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>3099</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
         <v>3017</v>
       </c>
@@ -25167,10 +25588,13 @@
         <v>3015</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>3100</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="40" t="s">
         <v>158</v>
       </c>
@@ -25178,10 +25602,13 @@
         <v>3018</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>3101</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
         <v>3019</v>
       </c>
@@ -25189,10 +25616,13 @@
         <v>3020</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>3102</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
         <v>3021</v>
       </c>
@@ -25200,10 +25630,13 @@
         <v>3022</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>3103</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
         <v>3023</v>
       </c>
@@ -25211,10 +25644,16 @@
         <v>3024</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>3104</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
         <v>3025</v>
       </c>
@@ -25222,7 +25661,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
         <v>3026</v>
       </c>
@@ -25230,7 +25669,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
         <v>3027</v>
       </c>
@@ -25240,8 +25679,11 @@
       <c r="C72" s="40" t="s">
         <v>3062</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="40" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
         <v>3029</v>
       </c>
@@ -25251,8 +25693,11 @@
       <c r="C73" s="40" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="40" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
         <v>3031</v>
       </c>
@@ -25261,6 +25706,9 @@
       </c>
       <c r="C74" s="40" t="s">
         <v>3064</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>3443</v>
       </c>
     </row>
   </sheetData>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="3497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="3519">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -10565,9 +10565,6 @@
     <t>A technique that drains enemy levels in exchange for pleasure.</t>
   </si>
   <si>
-    <t>Faints a foe by massaging their crotch with the soles of her feet.</t>
-  </si>
-  <si>
     <t>A technique that arouses foes by moving sexually and lascivously.</t>
   </si>
   <si>
@@ -10578,6 +10575,75 @@
   </si>
   <si>
     <t>A sigh filled with pheromones that inflicts 2 or more abnormal states.</t>
+  </si>
+  <si>
+    <t>A spear made by woodland sprites. It quietens the user's mind and movements.</t>
+  </si>
+  <si>
+    <t>A staff made by woodland sprites. It quietens the user's mind and movements.</t>
+  </si>
+  <si>
+    <t>A spear with superior durability.</t>
+  </si>
+  <si>
+    <t>A spear that will almost always hit it's mark.</t>
+  </si>
+  <si>
+    <t>A spear coated in poison. Occasionally paralyzes foes.</t>
+  </si>
+  <si>
+    <t>Strikes enemies with a thick log.</t>
+  </si>
+  <si>
+    <t>More powerful than a sword, but less acurrate.</t>
+  </si>
+  <si>
+    <t>A heavy axe. It's rather powerful, although hard to hit with.</t>
+  </si>
+  <si>
+    <t>A danerous skill that faints a foe by massaging their crotch with the soles of her feet.</t>
+  </si>
+  <si>
+    <t>An axe said to fell an opponent in one blow. High crit and power, but terribly inaccurate.</t>
+  </si>
+  <si>
+    <t>Comes with a skill that allows the user to strike twice.</t>
+  </si>
+  <si>
+    <t>A club made from a tree. Kinda cheap.</t>
+  </si>
+  <si>
+    <t>A hammer boasting high power. Has a chance to cut a foe's defence in half.</t>
+  </si>
+  <si>
+    <t>Strikes foes multiple times until dizziness, temporarily stopping movement.</t>
+  </si>
+  <si>
+    <t>A club dotted with spikes. Quite strong.</t>
+  </si>
+  <si>
+    <t>A cheap staff. It's not particualrly expensive.</t>
+  </si>
+  <si>
+    <t>A normal staff of average strength.</t>
+  </si>
+  <si>
+    <t>A high quality staff. It has great strength although it breaks easily.</t>
+  </si>
+  <si>
+    <t>A staff blessed by the goddess. Restores HP every turn when equipped.</t>
+  </si>
+  <si>
+    <t>A staff with a high critical rate.</t>
+  </si>
+  <si>
+    <t>A staff said to ward off sprits.</t>
+  </si>
+  <si>
+    <t>A staff said to offer protection against spirits.</t>
+  </si>
+  <si>
+    <t>A staff said to protect against death. Grants a huge HP boost.</t>
   </si>
 </sst>
 </file>
@@ -22936,16 +23002,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="22.2109375" customWidth="1"/>
-    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="2" max="2" width="83.5" customWidth="1"/>
     <col min="3" max="3" width="23.0703125" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -23502,7 +23568,9 @@
       <c r="C40" s="40" t="s">
         <v>3262</v>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="40" t="s">
+        <v>3496</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
@@ -23514,7 +23582,9 @@
       <c r="C41" s="40" t="s">
         <v>3263</v>
       </c>
-      <c r="D41" s="40"/>
+      <c r="D41" s="40" t="s">
+        <v>3498</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
@@ -23526,7 +23596,9 @@
       <c r="C42" s="40" t="s">
         <v>3264</v>
       </c>
-      <c r="D42" s="40"/>
+      <c r="D42" s="40" t="s">
+        <v>3499</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
@@ -23538,7 +23610,9 @@
       <c r="C43" s="40" t="s">
         <v>3265</v>
       </c>
-      <c r="D43" s="40"/>
+      <c r="D43" s="40" t="s">
+        <v>3500</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
@@ -23550,7 +23624,9 @@
       <c r="C44" s="40" t="s">
         <v>3266</v>
       </c>
-      <c r="D44" s="40"/>
+      <c r="D44" s="40" t="s">
+        <v>3501</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
@@ -23562,7 +23638,9 @@
       <c r="C45" s="40" t="s">
         <v>3267</v>
       </c>
-      <c r="D45" s="40"/>
+      <c r="D45" s="40" t="s">
+        <v>3502</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
@@ -23574,7 +23652,9 @@
       <c r="C46" s="40" t="s">
         <v>3268</v>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="40" t="s">
+        <v>3503</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
@@ -23586,7 +23666,9 @@
       <c r="C47" s="40" t="s">
         <v>3269</v>
       </c>
-      <c r="D47" s="40"/>
+      <c r="D47" s="40" t="s">
+        <v>3505</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
@@ -23598,7 +23680,9 @@
       <c r="C48" s="40" t="s">
         <v>3270</v>
       </c>
-      <c r="D48" s="40"/>
+      <c r="D48" s="40" t="s">
+        <v>3506</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
@@ -23610,7 +23694,9 @@
       <c r="C49" s="40" t="s">
         <v>3271</v>
       </c>
-      <c r="D49" s="40"/>
+      <c r="D49" s="40" t="s">
+        <v>3507</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
@@ -23622,7 +23708,9 @@
       <c r="C50" s="40" t="s">
         <v>3272</v>
       </c>
-      <c r="D50" s="40"/>
+      <c r="D50" s="40" t="s">
+        <v>3508</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
@@ -23634,7 +23722,9 @@
       <c r="C51" s="40" t="s">
         <v>3273</v>
       </c>
-      <c r="D51" s="40"/>
+      <c r="D51" s="40" t="s">
+        <v>3509</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
@@ -23646,7 +23736,9 @@
       <c r="C52" s="40" t="s">
         <v>3274</v>
       </c>
-      <c r="D52" s="40"/>
+      <c r="D52" s="40" t="s">
+        <v>3510</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
@@ -23658,7 +23750,9 @@
       <c r="C53" s="40" t="s">
         <v>3275</v>
       </c>
-      <c r="D53" s="40"/>
+      <c r="D53" s="40" t="s">
+        <v>3511</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
@@ -23670,7 +23764,9 @@
       <c r="C54" s="40" t="s">
         <v>3276</v>
       </c>
-      <c r="D54" s="40"/>
+      <c r="D54" s="40" t="s">
+        <v>3512</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
@@ -23682,7 +23778,9 @@
       <c r="C55" s="40" t="s">
         <v>3277</v>
       </c>
-      <c r="D55" s="40"/>
+      <c r="D55" s="40" t="s">
+        <v>3513</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
@@ -23694,7 +23792,9 @@
       <c r="C56" s="40" t="s">
         <v>3278</v>
       </c>
-      <c r="D56" s="40"/>
+      <c r="D56" s="40" t="s">
+        <v>3497</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
@@ -23706,7 +23806,9 @@
       <c r="C57" s="40" t="s">
         <v>3279</v>
       </c>
-      <c r="D57" s="40"/>
+      <c r="D57" s="40" t="s">
+        <v>3514</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
@@ -23718,7 +23820,9 @@
       <c r="C58" s="40" t="s">
         <v>3280</v>
       </c>
-      <c r="D58" s="40"/>
+      <c r="D58" s="40" t="s">
+        <v>3515</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
@@ -23730,7 +23834,9 @@
       <c r="C59" s="40" t="s">
         <v>3281</v>
       </c>
-      <c r="D59" s="40"/>
+      <c r="D59" s="40" t="s">
+        <v>3516</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
@@ -23742,7 +23848,9 @@
       <c r="C60" s="40" t="s">
         <v>3282</v>
       </c>
-      <c r="D60" s="40"/>
+      <c r="D60" s="40" t="s">
+        <v>3517</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
@@ -23754,7 +23862,9 @@
       <c r="C61" s="40" t="s">
         <v>3283</v>
       </c>
-      <c r="D61" s="40"/>
+      <c r="D61" s="40" t="s">
+        <v>3518</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
@@ -24633,7 +24743,7 @@
         <v>3376</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3492</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
@@ -24647,7 +24757,7 @@
         <v>3341</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
@@ -24661,7 +24771,7 @@
         <v>3342</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
@@ -24675,7 +24785,7 @@
         <v>3343</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
@@ -24689,7 +24799,7 @@
         <v>3344</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4929" uniqueCount="3519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="3529">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -10379,9 +10379,6 @@
     <t>Seals off any kind of movement, leaving them open to attack.</t>
   </si>
   <si>
-    <t>Inflicts Mov-7 for 4 turns.</t>
-  </si>
-  <si>
     <t>Gives the opponenet a 50% chance of decreasing defence.</t>
   </si>
   <si>
@@ -10644,6 +10641,39 @@
   </si>
   <si>
     <t>A staff said to protect against death. Grants a huge HP boost.</t>
+  </si>
+  <si>
+    <t>Units with this status are more suseptible to the power of soft breasts.</t>
+  </si>
+  <si>
+    <t>A raging erection that won't calm down. Inflicts Mov-7 for 4 turns.</t>
+  </si>
+  <si>
+    <t>Unit has developed a breast addiction</t>
+  </si>
+  <si>
+    <t>Units with this status are more suseptible to the sweet suction of a girl's mouth.</t>
+  </si>
+  <si>
+    <t>Units with this status are more suseptible to the curvature of smooth feet.</t>
+  </si>
+  <si>
+    <t>Titty Fetish</t>
+  </si>
+  <si>
+    <t>Units with this status are more suseptible to the strokes of dexterious hands.</t>
+  </si>
+  <si>
+    <t>Units with this status are more suseptible to the maw of a warm pussy.</t>
+  </si>
+  <si>
+    <t>Units with this status are more suseptible to plump lips and wet kisses.</t>
+  </si>
+  <si>
+    <t>An unusually tempting pose that beckons you to stare…</t>
+  </si>
+  <si>
+    <t>A mysterious aura…</t>
   </si>
 </sst>
 </file>
@@ -20314,7 +20344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="B97" workbookViewId="0">
+    <sheetView topLeftCell="B51" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -23002,7 +23032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B103" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -23569,7 +23599,7 @@
         <v>3262</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -23583,7 +23613,7 @@
         <v>3263</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -23597,7 +23627,7 @@
         <v>3264</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
@@ -23611,7 +23641,7 @@
         <v>3265</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -23625,7 +23655,7 @@
         <v>3266</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
@@ -23639,7 +23669,7 @@
         <v>3267</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
@@ -23653,7 +23683,7 @@
         <v>3268</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
@@ -23667,7 +23697,7 @@
         <v>3269</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
@@ -23681,7 +23711,7 @@
         <v>3270</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
@@ -23695,7 +23725,7 @@
         <v>3271</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
@@ -23709,7 +23739,7 @@
         <v>3272</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
@@ -23723,7 +23753,7 @@
         <v>3273</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
@@ -23737,7 +23767,7 @@
         <v>3274</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
@@ -23751,7 +23781,7 @@
         <v>3275</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
@@ -23765,7 +23795,7 @@
         <v>3276</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
@@ -23779,7 +23809,7 @@
         <v>3277</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
@@ -23793,7 +23823,7 @@
         <v>3278</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
@@ -23807,7 +23837,7 @@
         <v>3279</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
@@ -23821,7 +23851,7 @@
         <v>3280</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
@@ -23835,7 +23865,7 @@
         <v>3281</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
@@ -23849,7 +23879,7 @@
         <v>3282</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
@@ -23863,7 +23893,7 @@
         <v>3283</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
@@ -23877,7 +23907,7 @@
         <v>3284</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
@@ -23891,7 +23921,7 @@
         <v>3285</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
@@ -23905,7 +23935,7 @@
         <v>3286</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
@@ -23919,7 +23949,7 @@
         <v>3287</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
@@ -23933,7 +23963,7 @@
         <v>3288</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
@@ -23947,7 +23977,7 @@
         <v>3289</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
@@ -23958,10 +23988,10 @@
         <v>3159</v>
       </c>
       <c r="C68" s="40" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>3448</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>3449</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
@@ -23975,7 +24005,7 @@
         <v>3290</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
@@ -23989,7 +24019,7 @@
         <v>3291</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
@@ -24003,7 +24033,7 @@
         <v>3292</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
@@ -24017,7 +24047,7 @@
         <v>3293</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
@@ -24031,7 +24061,7 @@
         <v>3294</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
@@ -24045,7 +24075,7 @@
         <v>3295</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
@@ -24059,7 +24089,7 @@
         <v>3307</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
@@ -24073,7 +24103,7 @@
         <v>3296</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
@@ -24087,7 +24117,7 @@
         <v>3297</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
@@ -24101,7 +24131,7 @@
         <v>3298</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
@@ -24115,7 +24145,7 @@
         <v>3299</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
@@ -24129,7 +24159,7 @@
         <v>3300</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
@@ -24143,7 +24173,7 @@
         <v>3301</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
@@ -24157,7 +24187,7 @@
         <v>3302</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
@@ -24171,7 +24201,7 @@
         <v>3377</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
@@ -24183,7 +24213,7 @@
         <v>3303</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
@@ -24195,7 +24225,7 @@
         <v>3304</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
@@ -24207,7 +24237,7 @@
         <v>3305</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
@@ -24219,7 +24249,7 @@
         <v>3306</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
@@ -24233,7 +24263,7 @@
         <v>3308</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
@@ -24247,7 +24277,7 @@
         <v>3309</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
@@ -24261,7 +24291,7 @@
         <v>3310</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
@@ -24275,7 +24305,7 @@
         <v>3311</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
@@ -24289,7 +24319,7 @@
         <v>3312</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
@@ -24303,7 +24333,7 @@
         <v>3313</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
@@ -24317,7 +24347,7 @@
         <v>3314</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
@@ -24329,7 +24359,7 @@
         <v>3315</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
@@ -24341,7 +24371,7 @@
         <v>3316</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
@@ -24355,7 +24385,7 @@
         <v>3317</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
@@ -24367,7 +24397,7 @@
         <v>3318</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
@@ -24379,7 +24409,7 @@
         <v>3320</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
@@ -24393,7 +24423,7 @@
         <v>3319</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
@@ -24407,7 +24437,7 @@
         <v>3321</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
@@ -24421,7 +24451,7 @@
         <v>3322</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
@@ -24435,7 +24465,7 @@
         <v>3323</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
@@ -24449,7 +24479,7 @@
         <v>3324</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
@@ -24463,7 +24493,7 @@
         <v>3325</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
@@ -24477,7 +24507,7 @@
         <v>3326</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
@@ -24491,7 +24521,7 @@
         <v>3327</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
@@ -24505,7 +24535,7 @@
         <v>3374</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
@@ -24519,7 +24549,7 @@
         <v>3373</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
@@ -24533,7 +24563,7 @@
         <v>3328</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
@@ -24547,7 +24577,7 @@
         <v>3329</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
@@ -24561,7 +24591,7 @@
         <v>3375</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
@@ -24575,7 +24605,7 @@
         <v>3330</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24589,7 +24619,7 @@
         <v>3331</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
@@ -24603,7 +24633,7 @@
         <v>3332</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
@@ -24617,7 +24647,7 @@
         <v>3333</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
@@ -24631,7 +24661,7 @@
         <v>3345</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
@@ -24645,7 +24675,7 @@
         <v>3334</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
@@ -24659,7 +24689,7 @@
         <v>3335</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
@@ -24673,7 +24703,7 @@
         <v>3336</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
@@ -24687,7 +24717,7 @@
         <v>3337</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
@@ -24701,7 +24731,7 @@
         <v>3338</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
@@ -24715,7 +24745,7 @@
         <v>3339</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
@@ -24729,7 +24759,7 @@
         <v>3340</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
@@ -24743,7 +24773,7 @@
         <v>3376</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
@@ -24757,7 +24787,7 @@
         <v>3341</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
@@ -24771,7 +24801,7 @@
         <v>3342</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
@@ -24785,7 +24815,7 @@
         <v>3343</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
@@ -24799,7 +24829,7 @@
         <v>3344</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -24823,8 +24853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -25527,7 +25557,10 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>1929</v>
+        <v>3523</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>3518</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -25537,6 +25570,9 @@
       <c r="C51" s="40" t="s">
         <v>3052</v>
       </c>
+      <c r="D51" s="40" t="s">
+        <v>3520</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
@@ -25545,6 +25581,9 @@
       <c r="C52" s="40" t="s">
         <v>3053</v>
       </c>
+      <c r="D52" s="40" t="s">
+        <v>3521</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
@@ -25553,6 +25592,9 @@
       <c r="C53" s="40" t="s">
         <v>3054</v>
       </c>
+      <c r="D53" s="40" t="s">
+        <v>3522</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
@@ -25561,6 +25603,9 @@
       <c r="C54" s="40" t="s">
         <v>3055</v>
       </c>
+      <c r="D54" s="40" t="s">
+        <v>3524</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
@@ -25569,6 +25614,9 @@
       <c r="C55" s="40" t="s">
         <v>3056</v>
       </c>
+      <c r="D55" s="40" t="s">
+        <v>3525</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
@@ -25577,6 +25625,9 @@
       <c r="C56" s="40" t="s">
         <v>3057</v>
       </c>
+      <c r="D56" s="40" t="s">
+        <v>3526</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
@@ -25589,7 +25640,7 @@
         <v>3058</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3430</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -25603,7 +25654,7 @@
         <v>3094</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -25617,7 +25668,7 @@
         <v>3059</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -25631,7 +25682,7 @@
         <v>3095</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25645,7 +25696,7 @@
         <v>3096</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -25659,7 +25710,7 @@
         <v>3097</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -25673,7 +25724,7 @@
         <v>3098</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -25687,7 +25738,7 @@
         <v>3099</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -25701,7 +25752,7 @@
         <v>3100</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25715,7 +25766,7 @@
         <v>3101</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -25729,7 +25780,7 @@
         <v>3102</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -25743,7 +25794,7 @@
         <v>3103</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -25757,10 +25808,10 @@
         <v>3104</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -25770,6 +25821,9 @@
       <c r="C70" s="40" t="s">
         <v>3060</v>
       </c>
+      <c r="D70" s="40" t="s">
+        <v>3527</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
@@ -25778,6 +25832,9 @@
       <c r="C71" s="40" t="s">
         <v>3061</v>
       </c>
+      <c r="D71" s="40" t="s">
+        <v>3528</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
@@ -25790,7 +25847,7 @@
         <v>3062</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -25804,7 +25861,7 @@
         <v>3063</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -25818,7 +25875,7 @@
         <v>3064</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
   </sheetData>
@@ -26092,7 +26149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -8055,9 +8055,6 @@
     <t>A mermaid who loves to charm men with kisses.</t>
   </si>
   <si>
-    <t>A advanced level breast succubus. All men's reason will melt with within her abundant breasts.</t>
-  </si>
-  <si>
     <t>An elf with a huge breasts that was converted into a succubus.</t>
   </si>
   <si>
@@ -10674,6 +10671,9 @@
   </si>
   <si>
     <t>A mysterious aura…</t>
+  </si>
+  <si>
+    <t>A advanced level breast succubus. All men's reason will melts within her huge soft breasts.</t>
   </si>
 </sst>
 </file>
@@ -11403,16 +11403,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="2" width="12.0703125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="68.140625" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.0703125" customWidth="1"/>
     <col min="6" max="6" width="73.35546875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="24.92578125" customWidth="1"/>
@@ -11429,10 +11429,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>2253</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>2254</v>
@@ -11454,10 +11454,10 @@
       <c r="C2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>2255</v>
       </c>
-      <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23" t="s">
         <v>9</v>
@@ -11474,10 +11474,10 @@
       <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>2256</v>
       </c>
-      <c r="E3" s="23"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23" t="s">
         <v>12</v>
@@ -11492,10 +11492,10 @@
       <c r="C4" s="40" t="s">
         <v>1447</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>2335</v>
       </c>
-      <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -11508,10 +11508,10 @@
       <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23" t="s">
         <v>2257</v>
       </c>
-      <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23" t="s">
         <v>14</v>
@@ -11528,10 +11528,10 @@
       <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>2260</v>
       </c>
-      <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
         <v>17</v>
@@ -11546,10 +11546,10 @@
       <c r="C7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>2033</v>
       </c>
-      <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23" t="s">
         <v>19</v>
@@ -11564,10 +11564,10 @@
       <c r="C8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>2258</v>
       </c>
-      <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
         <v>21</v>
@@ -11582,10 +11582,10 @@
       <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
         <v>2259</v>
       </c>
-      <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
         <v>22</v>
@@ -11602,10 +11602,10 @@
       <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
         <v>2261</v>
       </c>
-      <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
         <v>25</v>
@@ -11620,10 +11620,10 @@
       <c r="C11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>2262</v>
       </c>
-      <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
         <v>28</v>
@@ -11638,10 +11638,10 @@
       <c r="C12" s="23" t="s">
         <v>2315</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>2316</v>
       </c>
-      <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -11655,13 +11655,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>2264</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>2812</v>
-      </c>
       <c r="F13" s="23" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11677,13 +11677,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>2265</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>2813</v>
-      </c>
       <c r="F14" s="23" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11699,13 +11699,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>2266</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>2810</v>
-      </c>
       <c r="F15" s="23" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -11720,10 +11720,10 @@
       <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>2267</v>
       </c>
-      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23" t="s">
         <v>38</v>
@@ -11738,10 +11738,10 @@
       <c r="C17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23" t="s">
         <v>2268</v>
       </c>
-      <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23" t="s">
         <v>40</v>
@@ -11756,10 +11756,10 @@
       <c r="C18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23" t="s">
         <v>2037</v>
       </c>
-      <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23" t="s">
         <v>42</v>
@@ -11774,10 +11774,10 @@
       <c r="C19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>2269</v>
       </c>
-      <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
         <v>44</v>
@@ -11792,10 +11792,10 @@
       <c r="C20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23" t="s">
         <v>2034</v>
       </c>
-      <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
         <v>46</v>
@@ -11810,10 +11810,10 @@
       <c r="C21" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
         <v>2270</v>
       </c>
-      <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
         <v>47</v>
@@ -11828,10 +11828,10 @@
       <c r="C22" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>2035</v>
       </c>
-      <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
         <v>49</v>
@@ -11846,10 +11846,10 @@
       <c r="C23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>2036</v>
       </c>
-      <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
         <v>51</v>
@@ -11864,10 +11864,10 @@
       <c r="C24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
         <v>2038</v>
       </c>
-      <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
         <v>53</v>
@@ -11882,10 +11882,10 @@
       <c r="C25" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
         <v>2039</v>
       </c>
-      <c r="E25" s="23"/>
       <c r="G25" s="23" t="s">
         <v>55</v>
       </c>
@@ -11899,10 +11899,10 @@
       <c r="C26" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>2808</v>
-      </c>
-      <c r="E26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
+        <v>2807</v>
+      </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
         <v>57</v>
@@ -11917,10 +11917,10 @@
       <c r="C27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
         <v>2271</v>
       </c>
-      <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
         <v>59</v>
@@ -11935,10 +11935,10 @@
       <c r="C28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
         <v>2272</v>
       </c>
-      <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
         <v>61</v>
@@ -11956,10 +11956,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>2274</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>2212</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>2314</v>
@@ -11980,10 +11980,10 @@
         <v>66</v>
       </c>
       <c r="D30" s="23" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>2275</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>2213</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>2313</v>
@@ -12003,10 +12003,10 @@
       <c r="C31" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23" t="s">
         <v>2276</v>
       </c>
-      <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23" t="s">
         <v>69</v>
@@ -12024,13 +12024,13 @@
         <v>70</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>2277</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>2214</v>
-      </c>
       <c r="F32" s="23" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -12048,10 +12048,10 @@
         <v>72</v>
       </c>
       <c r="D33" s="23" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>2278</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>2215</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>2641</v>
@@ -12072,10 +12072,10 @@
         <v>74</v>
       </c>
       <c r="D34" s="23" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>2279</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>2216</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>2642</v>
@@ -12091,16 +12091,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>2826</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -12116,13 +12116,13 @@
         <v>76</v>
       </c>
       <c r="D36" s="23" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>2280</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>2217</v>
-      </c>
       <c r="F36" s="23" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -12140,10 +12140,10 @@
         <v>78</v>
       </c>
       <c r="D37" s="23" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>2283</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>2218</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>2643</v>
@@ -12164,13 +12164,13 @@
         <v>78</v>
       </c>
       <c r="D38" s="23" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>2283</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>2219</v>
-      </c>
       <c r="F38" s="23" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -12188,10 +12188,10 @@
         <v>80</v>
       </c>
       <c r="D39" s="23" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>2608</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>2220</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>2644</v>
@@ -12212,10 +12212,10 @@
         <v>82</v>
       </c>
       <c r="D40" s="23" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>2281</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>2221</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>2645</v>
@@ -12236,10 +12236,10 @@
         <v>84</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>2282</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>2222</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>2646</v>
@@ -12260,10 +12260,10 @@
         <v>86</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>2273</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>2223</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>2647</v>
@@ -12284,10 +12284,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="23" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>2284</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>2224</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>2648</v>
@@ -12308,10 +12308,10 @@
         <v>90</v>
       </c>
       <c r="D44" s="23" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>2285</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>2225</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>2649</v>
@@ -12332,10 +12332,10 @@
         <v>92</v>
       </c>
       <c r="D45" s="23" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>2286</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>2226</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>2650</v>
@@ -12356,10 +12356,10 @@
         <v>94</v>
       </c>
       <c r="D46" s="23" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>2301</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>2227</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>2651</v>
@@ -12380,10 +12380,10 @@
         <v>96</v>
       </c>
       <c r="D47" s="23" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E47" s="23" t="s">
         <v>2302</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>2228</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>2652</v>
@@ -12404,10 +12404,10 @@
         <v>98</v>
       </c>
       <c r="D48" s="23" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>2303</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>2229</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>2653</v>
@@ -12428,10 +12428,10 @@
         <v>100</v>
       </c>
       <c r="D49" s="23" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>2304</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>2230</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>2654</v>
@@ -12452,10 +12452,10 @@
         <v>102</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>2310</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>2231</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>2655</v>
@@ -12476,13 +12476,13 @@
         <v>104</v>
       </c>
       <c r="D51" s="23" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E51" s="23" t="s">
         <v>2300</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>2232</v>
-      </c>
       <c r="F51" s="23" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -12500,13 +12500,13 @@
         <v>107</v>
       </c>
       <c r="D52" s="23" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>2305</v>
       </c>
-      <c r="E52" s="23" t="s">
-        <v>2233</v>
-      </c>
       <c r="F52" s="23" t="s">
-        <v>2656</v>
+        <v>3528</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -12524,13 +12524,13 @@
         <v>110</v>
       </c>
       <c r="D53" s="23" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>2306</v>
       </c>
-      <c r="E53" s="23" t="s">
-        <v>1916</v>
-      </c>
       <c r="F53" s="23" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -12548,13 +12548,13 @@
         <v>110</v>
       </c>
       <c r="D54" s="23" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>2306</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>2234</v>
-      </c>
       <c r="F54" s="23" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -12572,13 +12572,13 @@
         <v>112</v>
       </c>
       <c r="D55" s="23" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>2307</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>2235</v>
-      </c>
       <c r="F55" s="23" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -12596,10 +12596,10 @@
         <v>114</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E56" s="23" t="s">
         <v>2308</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>2236</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="23" t="s">
@@ -12618,10 +12618,10 @@
         <v>116</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>2309</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>2237</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="23" t="s">
@@ -12640,10 +12640,10 @@
         <v>119</v>
       </c>
       <c r="D58" s="23" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E58" s="23" t="s">
         <v>2292</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>2238</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="23" t="s">
@@ -12662,10 +12662,10 @@
         <v>121</v>
       </c>
       <c r="D59" s="23" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E59" s="23" t="s">
         <v>2298</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>1918</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="23" t="s">
@@ -12684,10 +12684,10 @@
         <v>121</v>
       </c>
       <c r="D60" s="23" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>2298</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>2239</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
@@ -12706,10 +12706,10 @@
         <v>123</v>
       </c>
       <c r="D61" s="23" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>2299</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>2240</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="23" t="s">
@@ -12728,10 +12728,10 @@
         <v>125</v>
       </c>
       <c r="D62" s="23" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>2297</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>2241</v>
       </c>
       <c r="F62" s="23"/>
       <c r="G62" s="23" t="s">
@@ -12749,10 +12749,10 @@
       <c r="C63" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23" t="s">
+      <c r="D63" s="23" t="s">
         <v>2242</v>
       </c>
+      <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
         <v>128</v>
@@ -12770,10 +12770,10 @@
         <v>76</v>
       </c>
       <c r="D64" s="23" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E64" s="23" t="s">
         <v>2280</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>2243</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
@@ -12792,10 +12792,10 @@
         <v>129</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>2293</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>2244</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
@@ -12814,10 +12814,10 @@
         <v>132</v>
       </c>
       <c r="D66" s="23" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>2294</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>2245</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
@@ -12836,10 +12836,10 @@
         <v>134</v>
       </c>
       <c r="D67" s="23" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>2295</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>2245</v>
       </c>
       <c r="F67" s="23"/>
       <c r="G67" s="23" t="s">
@@ -12858,10 +12858,10 @@
         <v>136</v>
       </c>
       <c r="D68" s="23" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>2296</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>2246</v>
       </c>
       <c r="F68" s="23"/>
       <c r="G68" s="23" t="s">
@@ -12880,10 +12880,10 @@
         <v>138</v>
       </c>
       <c r="D69" s="23" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E69" s="23" t="s">
         <v>2290</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>2247</v>
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23" t="s">
@@ -12902,10 +12902,10 @@
         <v>140</v>
       </c>
       <c r="D70" s="23" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E70" s="23" t="s">
         <v>2291</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>2248</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23" t="s">
@@ -12924,10 +12924,10 @@
         <v>142</v>
       </c>
       <c r="D71" s="23" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E71" s="23" t="s">
         <v>2288</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>2249</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23" t="s">
@@ -12945,10 +12945,10 @@
       <c r="C72" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="23"/>
+      <c r="E72" s="23" t="s">
         <v>2289</v>
       </c>
-      <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23" t="s">
         <v>146</v>
@@ -12966,10 +12966,10 @@
         <v>147</v>
       </c>
       <c r="D73" s="23" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>2287</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>2250</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="23" t="s">
@@ -12988,10 +12988,10 @@
         <v>150</v>
       </c>
       <c r="D74" s="23" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E74" s="23" t="s">
         <v>2311</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>2251</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="s">
@@ -13010,10 +13010,10 @@
         <v>152</v>
       </c>
       <c r="D75" s="23" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E75" s="23" t="s">
         <v>2312</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>2252</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
@@ -13034,7 +13034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -13079,7 +13079,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -13113,7 +13113,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -13127,7 +13127,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -13143,7 +13143,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -13157,7 +13157,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -13209,7 +13209,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -13223,7 +13223,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -13239,7 +13239,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -13253,7 +13253,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -13269,7 +13269,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -13283,7 +13283,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -13303,7 +13303,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -13317,7 +13317,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -13335,7 +13335,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -13349,7 +13349,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -13367,7 +13367,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -13381,7 +13381,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -13397,7 +13397,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -13411,7 +13411,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -13429,7 +13429,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -13443,7 +13443,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -13463,7 +13463,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -13479,7 +13479,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -13493,7 +13493,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -13509,7 +13509,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -13525,7 +13525,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -13539,7 +13539,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -13559,7 +13559,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -13575,7 +13575,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -13589,7 +13589,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -13607,7 +13607,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -13621,7 +13621,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -13641,7 +13641,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -13655,7 +13655,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -13673,7 +13673,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -13687,7 +13687,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -13705,7 +13705,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -13719,7 +13719,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -13739,7 +13739,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -13753,7 +13753,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -13767,7 +13767,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -13785,7 +13785,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -13799,7 +13799,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -13817,7 +13817,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -13831,7 +13831,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -13849,7 +13849,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -13863,7 +13863,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -13881,7 +13881,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -13895,7 +13895,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -13913,7 +13913,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -13927,7 +13927,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -13945,7 +13945,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -13959,7 +13959,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -13977,7 +13977,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -13991,7 +13991,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -14009,7 +14009,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -14023,7 +14023,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -14528,7 +14528,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -14545,7 +14545,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -14562,7 +14562,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -14579,7 +14579,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -14596,7 +14596,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -14613,13 +14613,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -14639,13 +14639,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -14665,13 +14665,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -14691,13 +14691,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -14717,13 +14717,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -14743,13 +14743,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -14769,7 +14769,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -14786,7 +14786,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -14803,7 +14803,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -14820,7 +14820,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -14837,7 +14837,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -14854,7 +14854,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -14871,7 +14871,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14885,13 +14885,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>2687</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2689</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>2688</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2690</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -14914,7 +14914,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -14923,10 +14923,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>2690</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>2691</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>2692</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -14949,7 +14949,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -14958,10 +14958,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -14984,7 +14984,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -14993,10 +14993,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>2693</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>2694</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>2695</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -15019,7 +15019,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -15028,10 +15028,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
+        <v>2693</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>2694</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>2695</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -15054,7 +15054,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -15063,10 +15063,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>2700</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>2701</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -15089,7 +15089,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -15098,10 +15098,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>2700</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>2701</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -15124,7 +15124,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -15133,10 +15133,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>2699</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>2700</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>2701</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -15159,7 +15159,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -15168,10 +15168,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
+        <v>2706</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>2707</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>2708</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -15194,7 +15194,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -15203,10 +15203,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="J27" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>2705</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -15229,7 +15229,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -15238,10 +15238,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
+        <v>2706</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>2707</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>2708</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -15264,7 +15264,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -15278,7 +15278,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -15292,7 +15292,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -15306,7 +15306,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -15320,31 +15320,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>2814</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="G33" s="40" t="s">
+        <v>2815</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>2817</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2815</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2816</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="J33" s="40" t="s">
         <v>2818</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2819</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2820</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2821</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -15358,7 +15358,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -15372,7 +15372,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -15386,7 +15386,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -15400,7 +15400,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -15414,7 +15414,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -15428,7 +15428,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -15442,7 +15442,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -15456,7 +15456,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -15470,7 +15470,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -15484,7 +15484,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -15498,7 +15498,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -15512,7 +15512,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -15526,7 +15526,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -15540,7 +15540,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -15554,7 +15554,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -15568,7 +15568,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -15582,7 +15582,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -15596,7 +15596,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -15610,7 +15610,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -15624,7 +15624,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -15638,7 +15638,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -15652,7 +15652,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -15666,7 +15666,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -15680,7 +15680,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -15694,7 +15694,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -15708,7 +15708,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -15722,7 +15722,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -15736,7 +15736,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -15750,7 +15750,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -15764,7 +15764,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -15778,7 +15778,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -15792,7 +15792,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -15806,7 +15806,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15820,7 +15820,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -15834,7 +15834,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -15848,7 +15848,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -15862,7 +15862,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -15876,7 +15876,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -15893,7 +15893,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -15907,13 +15907,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -15924,13 +15924,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -15941,7 +15941,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -15953,13 +15953,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="J76" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K76" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -15970,7 +15970,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -15982,13 +15982,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="J77" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K77" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -15999,7 +15999,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -16014,16 +16014,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2767</v>
+      </c>
+      <c r="J78" s="40" t="s">
         <v>2768</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="K78" s="40" t="s">
         <v>2769</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2770</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -16034,7 +16034,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -16046,10 +16046,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K79" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -16060,7 +16060,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -16072,10 +16072,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K80" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -16086,7 +16086,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -16109,7 +16109,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -16132,7 +16132,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -16155,7 +16155,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -16167,10 +16167,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K84" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -16181,7 +16181,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -16207,7 +16207,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -16222,7 +16222,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -16233,7 +16233,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -16245,13 +16245,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="J87" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K87" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -16262,7 +16262,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -16274,10 +16274,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -16288,7 +16288,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -16300,10 +16300,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K89" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -16314,7 +16314,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -16337,7 +16337,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -16349,10 +16349,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K91" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -16363,7 +16363,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -16375,10 +16375,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>2704</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>2705</v>
       </c>
     </row>
   </sheetData>
@@ -17996,7 +17996,7 @@
         <v>2195</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2617</v>
@@ -18016,7 +18016,7 @@
         <v>2196</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2211</v>
@@ -18036,7 +18036,7 @@
         <v>2197</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2211</v>
@@ -18056,7 +18056,7 @@
         <v>2198</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2211</v>
@@ -18076,7 +18076,7 @@
         <v>2199</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2211</v>
@@ -18096,7 +18096,7 @@
         <v>2206</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>2618</v>
@@ -18116,7 +18116,7 @@
         <v>2207</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>2621</v>
@@ -18136,7 +18136,7 @@
         <v>2200</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2211</v>
@@ -18156,7 +18156,7 @@
         <v>2201</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2211</v>
@@ -18176,7 +18176,7 @@
         <v>2202</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2211</v>
@@ -18196,7 +18196,7 @@
         <v>2208</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>2620</v>
@@ -18216,7 +18216,7 @@
         <v>2209</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>2622</v>
@@ -18236,7 +18236,7 @@
         <v>2210</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>2623</v>
@@ -18256,7 +18256,7 @@
         <v>2203</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2619</v>
@@ -18276,7 +18276,7 @@
         <v>2204</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2211</v>
@@ -18296,7 +18296,7 @@
         <v>2205</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2211</v>
@@ -18364,7 +18364,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -18485,7 +18485,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -18661,7 +18661,7 @@
         <v>2389</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -18797,7 +18797,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -18809,7 +18809,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -19762,10 +19762,10 @@
         <v>2253</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3034</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3035</v>
       </c>
     </row>
   </sheetData>
@@ -19780,7 +19780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -19797,13 +19797,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -19811,21 +19811,21 @@
         <v>2317</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2846</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2847</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2319</v>
@@ -19837,45 +19837,45 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2849</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2850</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2851</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2852</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2853</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>2854</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2320</v>
@@ -19884,37 +19884,37 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2855</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2856</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2857</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2858</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D10" s="40"/>
     </row>
@@ -19923,7 +19923,7 @@
         <v>2318</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2321</v>
@@ -19932,25 +19932,25 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2860</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2861</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2862</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2863</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D13" s="40"/>
     </row>
@@ -19966,17 +19966,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -19986,70 +19986,70 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2866</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>2867</v>
-      </c>
       <c r="C17" s="40" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2868</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2869</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>2870</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>2871</v>
-      </c>
       <c r="C19" s="40" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2872</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2873</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>2874</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>2875</v>
-      </c>
       <c r="C21" s="40" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>2876</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>2877</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
@@ -20058,34 +20058,34 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>2879</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>2880</v>
-      </c>
       <c r="C24" s="40" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
@@ -20094,85 +20094,85 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2883</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>2884</v>
-      </c>
       <c r="C27" s="40" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2887</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2888</v>
-      </c>
       <c r="C30" s="40" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="D32" s="40"/>
     </row>
@@ -20181,19 +20181,19 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2892</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>2893</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2270</v>
@@ -20205,7 +20205,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
@@ -20214,13 +20214,13 @@
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2895</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2896</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="D36" s="40"/>
     </row>
@@ -20229,7 +20229,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
@@ -20238,13 +20238,13 @@
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2898</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2899</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="D38" s="40"/>
     </row>
@@ -20253,7 +20253,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2271</v>
@@ -20262,13 +20262,13 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D40" s="40"/>
     </row>
@@ -20277,28 +20277,28 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -20306,21 +20306,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -23032,7 +23032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="B103" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -23053,7 +23053,7 @@
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -23590,1022 +23590,1022 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>3105</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>3106</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>3107</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>3108</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>3109</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>3110</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>3111</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>3112</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>3113</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>3114</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>3115</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>3116</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>3117</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>3118</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>3119</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>3120</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>3122</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>3123</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B50" s="40" t="s">
         <v>3124</v>
       </c>
-      <c r="B50" s="40" t="s">
-        <v>3125</v>
-      </c>
       <c r="C50" s="40" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>3126</v>
       </c>
-      <c r="B51" s="40" t="s">
-        <v>3127</v>
-      </c>
       <c r="C51" s="40" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B52" s="40" t="s">
         <v>3128</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>3129</v>
-      </c>
       <c r="C52" s="40" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B53" s="40" t="s">
         <v>3130</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>3131</v>
-      </c>
       <c r="C53" s="40" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B54" s="40" t="s">
         <v>3132</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>3133</v>
-      </c>
       <c r="C54" s="40" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B55" s="40" t="s">
         <v>3134</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>3135</v>
-      </c>
       <c r="C55" s="40" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B56" s="40" t="s">
         <v>3136</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>3137</v>
-      </c>
       <c r="C56" s="40" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3138</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3139</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3140</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3141</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3142</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3143</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>3144</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>3145</v>
-      </c>
       <c r="C60" s="40" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>3146</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>3147</v>
-      </c>
       <c r="C61" s="40" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3148</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3149</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3150</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3151</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B64" s="40" t="s">
         <v>3152</v>
       </c>
-      <c r="B64" s="40" t="s">
-        <v>3153</v>
-      </c>
       <c r="C64" s="40" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3156</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3157</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3158</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3159</v>
-      </c>
       <c r="C68" s="40" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>3447</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>3448</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3164</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3165</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3166</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3167</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B75" s="40" t="s">
         <v>3168</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>3169</v>
-      </c>
       <c r="C75" s="40" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B76" s="40" t="s">
         <v>3170</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>3171</v>
-      </c>
       <c r="C76" s="40" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B77" s="40" t="s">
         <v>3172</v>
       </c>
-      <c r="B77" s="40" t="s">
-        <v>3173</v>
-      </c>
       <c r="C77" s="40" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B82" s="40" t="s">
         <v>3178</v>
       </c>
-      <c r="B82" s="40" t="s">
-        <v>3179</v>
-      </c>
       <c r="C82" s="40" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B83" s="40" t="s">
         <v>3180</v>
       </c>
-      <c r="B83" s="40" t="s">
-        <v>3181</v>
-      </c>
       <c r="C83" s="40" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B88" s="40" t="s">
         <v>3186</v>
       </c>
-      <c r="B88" s="40" t="s">
-        <v>3187</v>
-      </c>
       <c r="C88" s="40" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B90" s="40" t="s">
         <v>3189</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>3190</v>
-      </c>
       <c r="C90" s="40" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B91" s="40" t="s">
         <v>3191</v>
       </c>
-      <c r="B91" s="40" t="s">
-        <v>3192</v>
-      </c>
       <c r="C91" s="40" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B92" s="40" t="s">
         <v>3193</v>
       </c>
-      <c r="B92" s="40" t="s">
-        <v>3194</v>
-      </c>
       <c r="C92" s="40" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B93" s="40" t="s">
         <v>3195</v>
       </c>
-      <c r="B93" s="40" t="s">
-        <v>3196</v>
-      </c>
       <c r="C93" s="40" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B94" s="40" t="s">
         <v>3197</v>
       </c>
-      <c r="B94" s="40" t="s">
-        <v>3198</v>
-      </c>
       <c r="C94" s="40" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B97" s="40" t="s">
         <v>3201</v>
       </c>
-      <c r="B97" s="40" t="s">
-        <v>3202</v>
-      </c>
       <c r="C97" s="40" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B100" s="40" t="s">
         <v>3205</v>
       </c>
-      <c r="B100" s="40" t="s">
-        <v>3206</v>
-      </c>
       <c r="C100" s="40" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B101" s="40" t="s">
         <v>3207</v>
       </c>
-      <c r="B101" s="40" t="s">
-        <v>3208</v>
-      </c>
       <c r="C101" s="40" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B103" s="40" t="s">
         <v>3210</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>3211</v>
-      </c>
       <c r="C103" s="40" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B104" s="40" t="s">
         <v>3212</v>
       </c>
-      <c r="B104" s="40" t="s">
-        <v>3213</v>
-      </c>
       <c r="C104" s="40" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B105" s="40" t="s">
         <v>3214</v>
       </c>
-      <c r="B105" s="40" t="s">
-        <v>3215</v>
-      </c>
       <c r="C105" s="40" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B106" s="40" t="s">
         <v>3216</v>
       </c>
-      <c r="B106" s="40" t="s">
-        <v>3217</v>
-      </c>
       <c r="C106" s="40" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B107" s="40" t="s">
         <v>3218</v>
       </c>
-      <c r="B107" s="40" t="s">
-        <v>3219</v>
-      </c>
       <c r="C107" s="40" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B109" s="40" t="s">
         <v>3221</v>
       </c>
-      <c r="B109" s="40" t="s">
-        <v>3222</v>
-      </c>
       <c r="C109" s="40" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B110" s="40" t="s">
         <v>3223</v>
       </c>
-      <c r="B110" s="40" t="s">
-        <v>3224</v>
-      </c>
       <c r="C110" s="40" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B111" s="40" t="s">
         <v>3225</v>
       </c>
-      <c r="B111" s="40" t="s">
-        <v>3226</v>
-      </c>
       <c r="C111" s="40" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B112" s="40" t="s">
         <v>3227</v>
       </c>
-      <c r="B112" s="40" t="s">
-        <v>3228</v>
-      </c>
       <c r="C112" s="40" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B113" s="40" t="s">
         <v>3229</v>
       </c>
-      <c r="B113" s="40" t="s">
-        <v>3230</v>
-      </c>
       <c r="C113" s="40" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24613,223 +24613,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B115" s="40" t="s">
         <v>3232</v>
       </c>
-      <c r="B115" s="40" t="s">
-        <v>3233</v>
-      </c>
       <c r="C115" s="40" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B116" s="40" t="s">
         <v>3234</v>
       </c>
-      <c r="B116" s="40" t="s">
-        <v>3235</v>
-      </c>
       <c r="C116" s="40" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B117" s="40" t="s">
         <v>3236</v>
       </c>
-      <c r="B117" s="40" t="s">
-        <v>3237</v>
-      </c>
       <c r="C117" s="40" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B118" s="40" t="s">
         <v>3238</v>
       </c>
-      <c r="B118" s="40" t="s">
-        <v>3239</v>
-      </c>
       <c r="C118" s="40" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B119" s="40" t="s">
         <v>3240</v>
       </c>
-      <c r="B119" s="40" t="s">
-        <v>3241</v>
-      </c>
       <c r="C119" s="40" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B120" s="40" t="s">
         <v>3242</v>
       </c>
-      <c r="B120" s="40" t="s">
-        <v>3243</v>
-      </c>
       <c r="C120" s="40" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B121" s="40" t="s">
         <v>3244</v>
       </c>
-      <c r="B121" s="40" t="s">
-        <v>3245</v>
-      </c>
       <c r="C121" s="40" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B122" s="40" t="s">
         <v>3246</v>
       </c>
-      <c r="B122" s="40" t="s">
-        <v>3247</v>
-      </c>
       <c r="C122" s="40" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B123" s="40" t="s">
         <v>3248</v>
       </c>
-      <c r="B123" s="40" t="s">
-        <v>3249</v>
-      </c>
       <c r="C123" s="40" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B124" s="40" t="s">
         <v>3250</v>
       </c>
-      <c r="B124" s="40" t="s">
-        <v>3251</v>
-      </c>
       <c r="C124" s="40" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B125" s="40" t="s">
         <v>3252</v>
       </c>
-      <c r="B125" s="40" t="s">
-        <v>3253</v>
-      </c>
       <c r="C125" s="40" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B126" s="40" t="s">
         <v>3254</v>
       </c>
-      <c r="B126" s="40" t="s">
-        <v>3255</v>
-      </c>
       <c r="C126" s="40" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B127" s="40" t="s">
         <v>3256</v>
       </c>
-      <c r="B127" s="40" t="s">
-        <v>3257</v>
-      </c>
       <c r="C127" s="40" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B128" s="40" t="s">
         <v>3258</v>
       </c>
-      <c r="B128" s="40" t="s">
-        <v>3259</v>
-      </c>
       <c r="C128" s="40" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B129" s="40" t="s">
         <v>3260</v>
       </c>
-      <c r="B129" s="40" t="s">
-        <v>3261</v>
-      </c>
       <c r="C129" s="40" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -24854,7 +24854,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -24871,13 +24871,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24885,237 +24885,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2908</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2909</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>2910</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>2911</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2912</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2913</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2914</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2915</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2916</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>2917</v>
-      </c>
       <c r="C7" s="40" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2918</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2919</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2920</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2921</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>2922</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>2923</v>
-      </c>
       <c r="C10" s="40" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>2924</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>2925</v>
-      </c>
       <c r="C11" s="40" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2926</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2927</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2928</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2929</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>2930</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>2931</v>
-      </c>
       <c r="C14" s="40" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>2932</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>2933</v>
-      </c>
       <c r="C15" s="40" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>2934</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>2935</v>
-      </c>
       <c r="C16" s="40" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2936</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>2937</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2938</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2939</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25123,27 +25123,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2941</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2942</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25151,405 +25151,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>2945</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>2946</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>2948</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>2949</v>
-      </c>
       <c r="C25" s="40" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>3402</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>3403</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>2950</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>2951</v>
-      </c>
       <c r="C26" s="40" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2952</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>2953</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>2954</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>2955</v>
-      </c>
       <c r="C28" s="40" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>2956</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>2957</v>
-      </c>
       <c r="C29" s="40" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2958</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2959</v>
-      </c>
       <c r="C30" s="40" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>3410</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>3411</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>2960</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>2961</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>2962</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>2963</v>
-      </c>
       <c r="C32" s="40" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>2964</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>2965</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2966</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>2967</v>
-      </c>
       <c r="C34" s="40" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B35" s="40" t="s">
         <v>2968</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>2969</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2970</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2971</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>2972</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>2973</v>
-      </c>
       <c r="C37" s="40" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2974</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2975</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>2976</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>2977</v>
-      </c>
       <c r="C39" s="40" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>3418</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>3419</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>2978</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>2979</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>2980</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>2981</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>2982</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>2983</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>2984</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>2985</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>2986</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>2987</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>2988</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>2989</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>2990</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>2991</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>2992</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>2993</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>2994</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>2995</v>
-      </c>
       <c r="C48" s="40" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>2996</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>2997</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25557,202 +25557,202 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3004</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3005</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3006</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3007</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3008</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3009</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3012</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3013</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3014</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3015</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25760,122 +25760,122 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3019</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3020</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3021</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3022</v>
-      </c>
       <c r="C68" s="40" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B69" s="40" t="s">
         <v>3023</v>
       </c>
-      <c r="B69" s="40" t="s">
-        <v>3024</v>
-      </c>
       <c r="C69" s="40" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>3027</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>3028</v>
-      </c>
       <c r="C72" s="40" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3029</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3030</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3031</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3032</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
   </sheetData>
@@ -26131,10 +26131,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>2842</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>2843</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -27016,7 +27016,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -27037,7 +27037,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -27058,7 +27058,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -28399,7 +28399,7 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>2524</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -10223,9 +10223,6 @@
     <t>The leader of a mercinary group.</t>
   </si>
   <si>
-    <t>Unit becomes love struck and unable to resist seduction.</t>
-  </si>
-  <si>
     <t>HP decreases over 3 turns.</t>
   </si>
   <si>
@@ -10280,9 +10277,6 @@
     <t>Mark of submission to the queen. Serves her to their very limit untill death.</t>
   </si>
   <si>
-    <t>Unit becomes enthralled and vulnerable to pleasure for several turns.</t>
-  </si>
-  <si>
     <t>Serious enthrallment. Unit becomes vulerable and sets Will to 0.</t>
   </si>
   <si>
@@ -10674,6 +10668,12 @@
   </si>
   <si>
     <t>A advanced level breast succubus. All men's reason will melts within her huge soft breasts.</t>
+  </si>
+  <si>
+    <t>Love struck and unable to resist seduction.</t>
+  </si>
+  <si>
+    <t>Enthralled and vulnerable to pleasure for several turns.</t>
   </si>
 </sst>
 </file>
@@ -12506,7 +12506,7 @@
         <v>2305</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -19780,7 +19780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -23599,7 +23599,7 @@
         <v>3261</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -23613,7 +23613,7 @@
         <v>3262</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -23627,7 +23627,7 @@
         <v>3263</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
@@ -23641,7 +23641,7 @@
         <v>3264</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -23655,7 +23655,7 @@
         <v>3265</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
@@ -23669,7 +23669,7 @@
         <v>3266</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
@@ -23683,7 +23683,7 @@
         <v>3267</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
@@ -23697,7 +23697,7 @@
         <v>3268</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
@@ -23711,7 +23711,7 @@
         <v>3269</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
@@ -23725,7 +23725,7 @@
         <v>3270</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
@@ -23739,7 +23739,7 @@
         <v>3271</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
@@ -23753,7 +23753,7 @@
         <v>3272</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
@@ -23767,7 +23767,7 @@
         <v>3273</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
@@ -23781,7 +23781,7 @@
         <v>3274</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
@@ -23795,7 +23795,7 @@
         <v>3275</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
@@ -23809,7 +23809,7 @@
         <v>3276</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
@@ -23823,7 +23823,7 @@
         <v>3277</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
@@ -23837,7 +23837,7 @@
         <v>3278</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
@@ -23851,7 +23851,7 @@
         <v>3279</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
@@ -23865,7 +23865,7 @@
         <v>3280</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
@@ -23879,7 +23879,7 @@
         <v>3281</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
@@ -23893,7 +23893,7 @@
         <v>3282</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
@@ -23907,7 +23907,7 @@
         <v>3283</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
@@ -23921,7 +23921,7 @@
         <v>3284</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
@@ -23935,7 +23935,7 @@
         <v>3285</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
@@ -23949,7 +23949,7 @@
         <v>3286</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
@@ -23963,7 +23963,7 @@
         <v>3287</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
@@ -23977,7 +23977,7 @@
         <v>3288</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
@@ -23988,10 +23988,10 @@
         <v>3158</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
@@ -24005,7 +24005,7 @@
         <v>3289</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
@@ -24019,7 +24019,7 @@
         <v>3290</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
@@ -24033,7 +24033,7 @@
         <v>3291</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
@@ -24047,7 +24047,7 @@
         <v>3292</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
@@ -24061,7 +24061,7 @@
         <v>3293</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
@@ -24075,7 +24075,7 @@
         <v>3294</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
@@ -24089,7 +24089,7 @@
         <v>3306</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
@@ -24103,7 +24103,7 @@
         <v>3295</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
@@ -24117,7 +24117,7 @@
         <v>3296</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
@@ -24131,7 +24131,7 @@
         <v>3297</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
@@ -24145,7 +24145,7 @@
         <v>3298</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
@@ -24159,7 +24159,7 @@
         <v>3299</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
@@ -24173,7 +24173,7 @@
         <v>3300</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
@@ -24187,7 +24187,7 @@
         <v>3301</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
@@ -24201,7 +24201,7 @@
         <v>3376</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
@@ -24213,7 +24213,7 @@
         <v>3302</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
@@ -24225,7 +24225,7 @@
         <v>3303</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
@@ -24237,7 +24237,7 @@
         <v>3304</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
@@ -24249,7 +24249,7 @@
         <v>3305</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
@@ -24263,7 +24263,7 @@
         <v>3307</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
@@ -24277,7 +24277,7 @@
         <v>3308</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
@@ -24291,7 +24291,7 @@
         <v>3309</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
@@ -24305,7 +24305,7 @@
         <v>3310</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
@@ -24319,7 +24319,7 @@
         <v>3311</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
@@ -24333,7 +24333,7 @@
         <v>3312</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
@@ -24347,7 +24347,7 @@
         <v>3313</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
@@ -24359,7 +24359,7 @@
         <v>3314</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
@@ -24371,7 +24371,7 @@
         <v>3315</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
@@ -24385,7 +24385,7 @@
         <v>3316</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
@@ -24397,7 +24397,7 @@
         <v>3317</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
@@ -24409,7 +24409,7 @@
         <v>3319</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
@@ -24423,7 +24423,7 @@
         <v>3318</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
@@ -24437,7 +24437,7 @@
         <v>3320</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
@@ -24451,7 +24451,7 @@
         <v>3321</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
@@ -24465,7 +24465,7 @@
         <v>3322</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
@@ -24479,7 +24479,7 @@
         <v>3323</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
@@ -24493,7 +24493,7 @@
         <v>3324</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
@@ -24507,7 +24507,7 @@
         <v>3325</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
@@ -24521,7 +24521,7 @@
         <v>3326</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
@@ -24535,7 +24535,7 @@
         <v>3373</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
@@ -24549,7 +24549,7 @@
         <v>3372</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
@@ -24563,7 +24563,7 @@
         <v>3327</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
@@ -24577,7 +24577,7 @@
         <v>3328</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
@@ -24591,7 +24591,7 @@
         <v>3374</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
@@ -24605,7 +24605,7 @@
         <v>3329</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24619,7 +24619,7 @@
         <v>3330</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
@@ -24633,7 +24633,7 @@
         <v>3331</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
@@ -24647,7 +24647,7 @@
         <v>3332</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
@@ -24661,7 +24661,7 @@
         <v>3344</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
@@ -24675,7 +24675,7 @@
         <v>3333</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
@@ -24689,7 +24689,7 @@
         <v>3334</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
@@ -24703,7 +24703,7 @@
         <v>3335</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
@@ -24717,7 +24717,7 @@
         <v>3336</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
@@ -24731,7 +24731,7 @@
         <v>3337</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
@@ -24745,7 +24745,7 @@
         <v>3338</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
@@ -24759,7 +24759,7 @@
         <v>3339</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
@@ -24773,7 +24773,7 @@
         <v>3375</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
@@ -24787,7 +24787,7 @@
         <v>3340</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
@@ -24801,7 +24801,7 @@
         <v>3341</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
@@ -24815,7 +24815,7 @@
         <v>3342</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
@@ -24829,7 +24829,7 @@
         <v>3343</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -24853,8 +24853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -24891,7 +24891,7 @@
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3378</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -24905,7 +24905,7 @@
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -24919,7 +24919,7 @@
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -24933,7 +24933,7 @@
         <v>3045</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -24947,7 +24947,7 @@
         <v>3046</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -24961,7 +24961,7 @@
         <v>3047</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -24975,7 +24975,7 @@
         <v>3065</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -24989,7 +24989,7 @@
         <v>3048</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -25000,10 +25000,10 @@
         <v>2922</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -25014,10 +25014,10 @@
         <v>2924</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -25031,7 +25031,7 @@
         <v>3070</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -25045,7 +25045,7 @@
         <v>3069</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -25059,7 +25059,7 @@
         <v>3050</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -25073,7 +25073,7 @@
         <v>3067</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -25087,7 +25087,7 @@
         <v>3068</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -25101,7 +25101,7 @@
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -25115,7 +25115,7 @@
         <v>3066</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25129,7 +25129,7 @@
         <v>3049</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3397</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -25143,7 +25143,7 @@
         <v>3079</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25157,7 +25157,7 @@
         <v>3064</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -25171,7 +25171,7 @@
         <v>3071</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -25185,7 +25185,7 @@
         <v>3080</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -25199,7 +25199,7 @@
         <v>3081</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -25210,10 +25210,10 @@
         <v>2948</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25227,7 +25227,7 @@
         <v>3078</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -25241,7 +25241,7 @@
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -25255,7 +25255,7 @@
         <v>3074</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -25269,7 +25269,7 @@
         <v>3075</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -25280,10 +25280,10 @@
         <v>2958</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -25297,7 +25297,7 @@
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -25311,7 +25311,7 @@
         <v>3077</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -25325,7 +25325,7 @@
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -25339,7 +25339,7 @@
         <v>3076</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -25353,7 +25353,7 @@
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -25367,7 +25367,7 @@
         <v>3073</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -25381,7 +25381,7 @@
         <v>3072</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -25395,7 +25395,7 @@
         <v>3082</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -25406,10 +25406,10 @@
         <v>2976</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -25423,7 +25423,7 @@
         <v>3083</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -25437,7 +25437,7 @@
         <v>3084</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -25451,7 +25451,7 @@
         <v>3085</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -25465,7 +25465,7 @@
         <v>3086</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -25479,7 +25479,7 @@
         <v>3087</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -25493,7 +25493,7 @@
         <v>3088</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -25507,7 +25507,7 @@
         <v>3089</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -25521,7 +25521,7 @@
         <v>3090</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -25535,7 +25535,7 @@
         <v>3091</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -25549,7 +25549,7 @@
         <v>3092</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25557,10 +25557,10 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -25571,7 +25571,7 @@
         <v>3051</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -25582,7 +25582,7 @@
         <v>3052</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -25593,7 +25593,7 @@
         <v>3053</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -25604,7 +25604,7 @@
         <v>3054</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -25615,7 +25615,7 @@
         <v>3055</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -25626,7 +25626,7 @@
         <v>3056</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -25640,7 +25640,7 @@
         <v>3057</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -25654,7 +25654,7 @@
         <v>3093</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -25668,7 +25668,7 @@
         <v>3058</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -25682,7 +25682,7 @@
         <v>3094</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25696,7 +25696,7 @@
         <v>3095</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -25710,7 +25710,7 @@
         <v>3096</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -25724,7 +25724,7 @@
         <v>3097</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -25738,7 +25738,7 @@
         <v>3098</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -25752,7 +25752,7 @@
         <v>3099</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25766,7 +25766,7 @@
         <v>3100</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -25780,7 +25780,7 @@
         <v>3101</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -25794,7 +25794,7 @@
         <v>3102</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -25808,10 +25808,10 @@
         <v>3103</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -25822,7 +25822,7 @@
         <v>3059</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -25833,7 +25833,7 @@
         <v>3060</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -25847,7 +25847,7 @@
         <v>3061</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -25861,7 +25861,7 @@
         <v>3062</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -25875,7 +25875,7 @@
         <v>3063</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
     </row>
   </sheetData>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -24853,7 +24853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -26149,8 +26149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -6976,9 +6976,6 @@
     <t>Lamia</t>
   </si>
   <si>
-    <t>Big Breasted Elf</t>
-  </si>
-  <si>
     <t>Elf</t>
   </si>
   <si>
@@ -10674,6 +10671,9 @@
   </si>
   <si>
     <t>Enthralled and vulnerable to pleasure for several turns.</t>
+  </si>
+  <si>
+    <t>Boobie Elf</t>
   </si>
 </sst>
 </file>
@@ -11403,8 +11403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -11636,11 +11636,11 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -11655,13 +11655,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>2264</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11677,13 +11677,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>2265</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11699,13 +11699,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2266</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
@@ -11962,7 +11962,7 @@
         <v>2274</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>65</v>
@@ -11986,7 +11986,7 @@
         <v>2275</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>67</v>
@@ -12030,7 +12030,7 @@
         <v>2277</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -12054,7 +12054,7 @@
         <v>2278</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>73</v>
@@ -12078,7 +12078,7 @@
         <v>2279</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>75</v>
@@ -12091,16 +12091,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D35" s="40" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>2825</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="F35" s="40" t="s">
         <v>2826</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>2827</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -12122,7 +12122,7 @@
         <v>2280</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -12146,7 +12146,7 @@
         <v>2283</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>79</v>
@@ -12170,7 +12170,7 @@
         <v>2283</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -12191,10 +12191,10 @@
         <v>2220</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>81</v>
@@ -12218,7 +12218,7 @@
         <v>2281</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>83</v>
@@ -12242,7 +12242,7 @@
         <v>2282</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>85</v>
@@ -12266,7 +12266,7 @@
         <v>2273</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>87</v>
@@ -12290,7 +12290,7 @@
         <v>2284</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -12314,7 +12314,7 @@
         <v>2285</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>91</v>
@@ -12338,7 +12338,7 @@
         <v>2286</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>93</v>
@@ -12359,10 +12359,10 @@
         <v>2227</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>2301</v>
+        <v>3528</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>95</v>
@@ -12383,10 +12383,10 @@
         <v>2228</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>97</v>
@@ -12407,10 +12407,10 @@
         <v>2229</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>99</v>
@@ -12431,10 +12431,10 @@
         <v>2230</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>101</v>
@@ -12455,10 +12455,10 @@
         <v>2231</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>103</v>
@@ -12482,7 +12482,7 @@
         <v>2300</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -12503,10 +12503,10 @@
         <v>2233</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -12527,10 +12527,10 @@
         <v>1916</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -12551,10 +12551,10 @@
         <v>2234</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -12575,10 +12575,10 @@
         <v>2235</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -12599,7 +12599,7 @@
         <v>2236</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="23" t="s">
@@ -12621,7 +12621,7 @@
         <v>2237</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="23" t="s">
@@ -12991,7 +12991,7 @@
         <v>2251</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="F74" s="23"/>
       <c r="G74" s="23" t="s">
@@ -13013,7 +13013,7 @@
         <v>2252</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="F75" s="23"/>
       <c r="G75" s="23" t="s">
@@ -13079,7 +13079,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -13093,7 +13093,7 @@
         <v>905</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>906</v>
@@ -13113,7 +13113,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -13127,7 +13127,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -13143,7 +13143,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -13157,7 +13157,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -13175,7 +13175,7 @@
         <v>915</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>916</v>
@@ -13189,7 +13189,7 @@
         <v>917</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>918</v>
@@ -13209,7 +13209,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -13223,7 +13223,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -13239,7 +13239,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -13253,7 +13253,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -13269,7 +13269,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -13283,7 +13283,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -13303,7 +13303,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -13317,7 +13317,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -13335,7 +13335,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -13349,7 +13349,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -13367,7 +13367,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -13381,7 +13381,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -13397,7 +13397,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -13411,7 +13411,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -13429,7 +13429,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -13443,7 +13443,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -13463,7 +13463,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -13479,7 +13479,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -13493,7 +13493,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -13509,7 +13509,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -13525,7 +13525,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -13539,7 +13539,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -13559,7 +13559,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -13575,7 +13575,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -13589,7 +13589,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -13607,7 +13607,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -13621,7 +13621,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -13641,7 +13641,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -13655,7 +13655,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -13673,7 +13673,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -13687,7 +13687,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -13705,7 +13705,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -13719,7 +13719,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -13739,7 +13739,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -13753,7 +13753,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -13767,7 +13767,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -13785,7 +13785,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -13799,7 +13799,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -13817,7 +13817,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -13831,7 +13831,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -13849,7 +13849,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -13863,7 +13863,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -13881,7 +13881,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -13895,7 +13895,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -13913,7 +13913,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -13927,7 +13927,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -13945,7 +13945,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -13959,7 +13959,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -13977,7 +13977,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -13991,7 +13991,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -14009,7 +14009,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -14023,7 +14023,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -14528,7 +14528,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -14545,7 +14545,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -14562,7 +14562,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -14579,7 +14579,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -14596,7 +14596,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -14613,13 +14613,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -14639,13 +14639,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -14665,13 +14665,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -14691,13 +14691,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -14717,13 +14717,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -14743,13 +14743,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -14769,7 +14769,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -14786,7 +14786,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -14803,7 +14803,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -14820,7 +14820,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -14837,7 +14837,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -14854,7 +14854,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -14871,7 +14871,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14885,13 +14885,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
+        <v>2687</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>2686</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2688</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>2687</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2689</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -14914,7 +14914,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -14923,10 +14923,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>2690</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>2691</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -14949,7 +14949,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -14958,10 +14958,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -14984,7 +14984,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -14993,10 +14993,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>2693</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>2694</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -15019,7 +15019,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -15028,10 +15028,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>2693</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>2694</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -15054,7 +15054,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -15063,10 +15063,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>2699</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>2700</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -15089,7 +15089,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -15098,10 +15098,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>2699</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>2700</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -15124,7 +15124,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -15133,10 +15133,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>2699</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>2700</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -15159,7 +15159,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -15168,10 +15168,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
+        <v>2705</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>2706</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>2707</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -15194,7 +15194,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -15203,10 +15203,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J27" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>2704</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -15229,7 +15229,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -15238,10 +15238,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
+        <v>2705</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>2706</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>2707</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -15264,7 +15264,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -15278,7 +15278,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -15292,7 +15292,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -15306,7 +15306,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -15320,31 +15320,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>2813</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="G33" s="40" t="s">
+        <v>2814</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>2816</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2814</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2815</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="J33" s="40" t="s">
         <v>2817</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2818</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2819</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2820</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -15358,7 +15358,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -15372,7 +15372,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -15386,7 +15386,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -15400,7 +15400,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -15414,7 +15414,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -15428,7 +15428,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -15442,7 +15442,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -15456,7 +15456,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -15470,7 +15470,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -15484,7 +15484,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -15498,7 +15498,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -15512,7 +15512,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -15526,7 +15526,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -15540,7 +15540,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -15554,7 +15554,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -15568,7 +15568,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -15582,7 +15582,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -15596,7 +15596,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -15610,7 +15610,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -15624,7 +15624,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -15638,7 +15638,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -15652,7 +15652,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -15666,7 +15666,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -15680,7 +15680,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -15694,7 +15694,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -15708,7 +15708,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -15722,7 +15722,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -15736,7 +15736,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -15750,7 +15750,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -15764,7 +15764,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -15778,7 +15778,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -15792,7 +15792,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -15806,7 +15806,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15820,7 +15820,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -15834,7 +15834,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -15848,7 +15848,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -15862,7 +15862,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -15876,7 +15876,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -15893,7 +15893,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -15907,13 +15907,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -15924,13 +15924,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -15941,7 +15941,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -15953,13 +15953,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="J76" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K76" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -15970,7 +15970,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -15982,13 +15982,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="J77" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K77" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -15999,7 +15999,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -16014,16 +16014,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2766</v>
+      </c>
+      <c r="J78" s="40" t="s">
         <v>2767</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="K78" s="40" t="s">
         <v>2768</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2769</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -16034,7 +16034,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -16046,10 +16046,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K79" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -16060,7 +16060,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -16072,10 +16072,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K80" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -16086,7 +16086,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -16109,7 +16109,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -16132,7 +16132,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -16155,7 +16155,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -16167,10 +16167,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K84" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -16181,7 +16181,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -16207,7 +16207,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -16222,7 +16222,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -16233,7 +16233,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -16245,13 +16245,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="J87" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K87" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -16262,7 +16262,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -16274,10 +16274,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -16288,7 +16288,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -16300,10 +16300,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K89" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -16314,7 +16314,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -16337,7 +16337,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -16349,10 +16349,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K91" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -16363,7 +16363,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -16375,10 +16375,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>2703</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>2704</v>
       </c>
     </row>
   </sheetData>
@@ -16458,7 +16458,7 @@
         <v>1306</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1307</v>
@@ -17996,10 +17996,10 @@
         <v>2195</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E2" t="s">
         <v>1629</v>
@@ -18016,7 +18016,7 @@
         <v>2196</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2211</v>
@@ -18036,7 +18036,7 @@
         <v>2197</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2211</v>
@@ -18056,7 +18056,7 @@
         <v>2198</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2211</v>
@@ -18076,7 +18076,7 @@
         <v>2199</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2211</v>
@@ -18096,10 +18096,10 @@
         <v>2206</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1641</v>
@@ -18116,10 +18116,10 @@
         <v>2207</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1644</v>
@@ -18136,7 +18136,7 @@
         <v>2200</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2211</v>
@@ -18156,7 +18156,7 @@
         <v>2201</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2211</v>
@@ -18176,7 +18176,7 @@
         <v>2202</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2211</v>
@@ -18196,10 +18196,10 @@
         <v>2208</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1653</v>
@@ -18216,10 +18216,10 @@
         <v>2209</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1656</v>
@@ -18236,10 +18236,10 @@
         <v>2210</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1659</v>
@@ -18256,10 +18256,10 @@
         <v>2203</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E15" t="s">
         <v>1662</v>
@@ -18276,7 +18276,7 @@
         <v>2204</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2211</v>
@@ -18296,7 +18296,7 @@
         <v>2205</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2211</v>
@@ -18364,7 +18364,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -18372,7 +18372,7 @@
         <v>1668</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -18382,7 +18382,7 @@
         <v>1669</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -18392,7 +18392,7 @@
         <v>1670</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -18402,7 +18402,7 @@
         <v>1671</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -18425,7 +18425,7 @@
         <v>1674</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1675</v>
@@ -18437,7 +18437,7 @@
         <v>1676</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1677</v>
@@ -18449,7 +18449,7 @@
         <v>1678</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1679</v>
@@ -18461,7 +18461,7 @@
         <v>1680</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1681</v>
@@ -18473,7 +18473,7 @@
         <v>1682</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1683</v>
@@ -18485,7 +18485,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -18497,7 +18497,7 @@
         <v>1686</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>1687</v>
@@ -18519,7 +18519,7 @@
         <v>1690</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>1691</v>
@@ -18531,7 +18531,7 @@
         <v>1692</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1693</v>
@@ -18543,7 +18543,7 @@
         <v>1694</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1695</v>
@@ -18555,7 +18555,7 @@
         <v>1696</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>1697</v>
@@ -18567,7 +18567,7 @@
         <v>1698</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>1679</v>
@@ -18579,7 +18579,7 @@
         <v>1699</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1683</v>
@@ -18591,7 +18591,7 @@
         <v>1694</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>1695</v>
@@ -18603,7 +18603,7 @@
         <v>1686</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>1700</v>
@@ -18615,7 +18615,7 @@
         <v>1699</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>1701</v>
@@ -18629,10 +18629,10 @@
         <v>1694</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33.75" customHeight="1">
@@ -18641,10 +18641,10 @@
         <v>1703</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -18658,10 +18658,10 @@
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40"/>
       <c r="B27" s="40" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -18670,13 +18670,13 @@
     <row r="28" spans="1:4" ht="29.15">
       <c r="A28" s="40"/>
       <c r="B28" s="41" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>2390</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>2399</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -18685,7 +18685,7 @@
         <v>1704</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>1705</v>
@@ -18697,7 +18697,7 @@
         <v>1706</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>1707</v>
@@ -18709,7 +18709,7 @@
         <v>1708</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>1681</v>
@@ -18744,7 +18744,7 @@
         <v>1668</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -18754,7 +18754,7 @@
         <v>1669</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -18764,7 +18764,7 @@
         <v>1670</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -18774,7 +18774,7 @@
         <v>1671</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -18797,7 +18797,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -18809,7 +18809,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -18821,7 +18821,7 @@
         <v>1713</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1714</v>
@@ -18833,7 +18833,7 @@
         <v>1715</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1920</v>
@@ -18868,7 +18868,7 @@
         <v>1670</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -18876,7 +18876,7 @@
         <v>1671</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18892,7 +18892,7 @@
         <v>1789</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1790</v>
@@ -18903,7 +18903,7 @@
         <v>1791</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1792</v>
@@ -18914,7 +18914,7 @@
         <v>1793</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1794</v>
@@ -18925,7 +18925,7 @@
         <v>1795</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1796</v>
@@ -19762,10 +19762,10 @@
         <v>2253</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3033</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3034</v>
       </c>
     </row>
   </sheetData>
@@ -19781,7 +19781,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -19797,38 +19797,38 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="40" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2845</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>2846</v>
-      </c>
       <c r="C3" s="40" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D3" s="40"/>
     </row>
@@ -19837,120 +19837,120 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2848</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2849</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2850</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2851</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2852</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>2853</v>
-      </c>
       <c r="C7" s="40" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2854</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2855</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2856</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2857</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D9" s="40"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="40" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2859</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2860</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2861</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2862</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D13" s="40"/>
     </row>
@@ -19966,17 +19966,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -19986,70 +19986,70 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2865</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>2866</v>
-      </c>
       <c r="C17" s="40" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2867</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2868</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>2869</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>2870</v>
-      </c>
       <c r="C19" s="40" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2871</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2872</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="D20" s="40"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>2873</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>2874</v>
-      </c>
       <c r="C21" s="40" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>2875</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>2876</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
@@ -20058,34 +20058,34 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="D23" s="40"/>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>2878</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>2879</v>
-      </c>
       <c r="C24" s="40" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
@@ -20094,85 +20094,85 @@
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2882</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>2883</v>
-      </c>
       <c r="C27" s="40" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2886</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2887</v>
-      </c>
       <c r="C30" s="40" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="D32" s="40"/>
     </row>
@@ -20181,19 +20181,19 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="D33" s="40"/>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2891</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>2892</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2270</v>
@@ -20205,7 +20205,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
@@ -20214,13 +20214,13 @@
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2894</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2895</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D36" s="40"/>
     </row>
@@ -20229,7 +20229,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
@@ -20238,13 +20238,13 @@
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2897</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2898</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="D38" s="40"/>
     </row>
@@ -20253,7 +20253,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2271</v>
@@ -20262,13 +20262,13 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="D40" s="40"/>
     </row>
@@ -20277,28 +20277,28 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -20306,21 +20306,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -20371,7 +20371,7 @@
         <v>1922</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1434</v>
@@ -20391,7 +20391,7 @@
         <v>908</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -20410,7 +20410,7 @@
         <v>1437</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -20429,7 +20429,7 @@
         <v>1439</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -20448,7 +20448,7 @@
         <v>1441</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -20467,7 +20467,7 @@
         <v>1443</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -20486,7 +20486,7 @@
         <v>1445</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -20505,7 +20505,7 @@
         <v>1447</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -20524,7 +20524,7 @@
         <v>1450</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -20543,7 +20543,7 @@
         <v>1452</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -20562,7 +20562,7 @@
         <v>1454</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -20581,7 +20581,7 @@
         <v>1456</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -20600,7 +20600,7 @@
         <v>1458</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -20638,7 +20638,7 @@
         <v>1460</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -20657,7 +20657,7 @@
         <v>1462</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -20676,7 +20676,7 @@
         <v>1464</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -20695,7 +20695,7 @@
         <v>1447</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -20714,7 +20714,7 @@
         <v>1466</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -20733,7 +20733,7 @@
         <v>1468</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -20752,7 +20752,7 @@
         <v>1470</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -20771,7 +20771,7 @@
         <v>1450</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -20790,7 +20790,7 @@
         <v>1472</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -20809,7 +20809,7 @@
         <v>1474</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -20828,7 +20828,7 @@
         <v>1476</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -20847,7 +20847,7 @@
         <v>1478</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -20866,7 +20866,7 @@
         <v>1480</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -20885,7 +20885,7 @@
         <v>1482</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -20904,7 +20904,7 @@
         <v>1462</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -20923,7 +20923,7 @@
         <v>1466</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -20942,7 +20942,7 @@
         <v>1468</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -20961,7 +20961,7 @@
         <v>1484</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -20980,7 +20980,7 @@
         <v>1447</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -20999,7 +20999,7 @@
         <v>1486</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -21015,14 +21015,14 @@
         <v>1435</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -21037,7 +21037,7 @@
         <v>1443</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -21056,7 +21056,7 @@
         <v>1445</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -21075,7 +21075,7 @@
         <v>1488</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -21094,7 +21094,7 @@
         <v>1490</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -21113,7 +21113,7 @@
         <v>1492</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -21132,7 +21132,7 @@
         <v>1494</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -21189,7 +21189,7 @@
         <v>1450</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -21208,7 +21208,7 @@
         <v>1497</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -21227,7 +21227,7 @@
         <v>1499</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -21246,7 +21246,7 @@
         <v>1501</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -21265,7 +21265,7 @@
         <v>1503</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -21284,7 +21284,7 @@
         <v>1505</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -21303,7 +21303,7 @@
         <v>1507</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -21322,7 +21322,7 @@
         <v>1490</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -21341,7 +21341,7 @@
         <v>1509</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -21379,7 +21379,7 @@
         <v>1513</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -21398,7 +21398,7 @@
         <v>1450</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -21417,7 +21417,7 @@
         <v>1515</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -21436,7 +21436,7 @@
         <v>1517</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -21455,7 +21455,7 @@
         <v>1519</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -21474,7 +21474,7 @@
         <v>1521</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -21493,7 +21493,7 @@
         <v>1523</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -21512,7 +21512,7 @@
         <v>1525</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -21531,7 +21531,7 @@
         <v>1527</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -21550,7 +21550,7 @@
         <v>1529</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -21569,7 +21569,7 @@
         <v>1531</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -21588,7 +21588,7 @@
         <v>1533</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -21607,7 +21607,7 @@
         <v>98</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="25" t="s">
@@ -21626,7 +21626,7 @@
         <v>1535</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="25" t="s">
@@ -21645,7 +21645,7 @@
         <v>1536</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -21683,7 +21683,7 @@
         <v>1538</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -21702,7 +21702,7 @@
         <v>1540</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -21721,7 +21721,7 @@
         <v>1542</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -21740,7 +21740,7 @@
         <v>1544</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -21759,7 +21759,7 @@
         <v>1546</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -21778,7 +21778,7 @@
         <v>1535</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="25" t="s">
@@ -21816,7 +21816,7 @@
         <v>1549</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -21832,10 +21832,10 @@
         <v>1435</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -21854,7 +21854,7 @@
         <v>1552</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -21873,7 +21873,7 @@
         <v>1450</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -21892,7 +21892,7 @@
         <v>1554</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -21911,7 +21911,7 @@
         <v>1556</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -21930,7 +21930,7 @@
         <v>1558</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -21949,7 +21949,7 @@
         <v>1560</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -21968,7 +21968,7 @@
         <v>1562</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -21987,7 +21987,7 @@
         <v>1564</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -22025,7 +22025,7 @@
         <v>1462</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -22044,7 +22044,7 @@
         <v>1447</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -22101,7 +22101,7 @@
         <v>1568</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -22120,7 +22120,7 @@
         <v>1570</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -22139,7 +22139,7 @@
         <v>1552</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -22158,7 +22158,7 @@
         <v>1549</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -22214,10 +22214,10 @@
         <v>1435</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -22236,7 +22236,7 @@
         <v>1552</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -22255,7 +22255,7 @@
         <v>1549</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -22276,7 +22276,7 @@
         <v>1450</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -22295,7 +22295,7 @@
         <v>1574</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -22314,7 +22314,7 @@
         <v>1576</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -22333,7 +22333,7 @@
         <v>1578</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -22352,7 +22352,7 @@
         <v>1580</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -22371,7 +22371,7 @@
         <v>1582</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -22390,7 +22390,7 @@
         <v>1584</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -22409,7 +22409,7 @@
         <v>1586</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -22428,7 +22428,7 @@
         <v>1588</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -22447,7 +22447,7 @@
         <v>1590</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -22466,7 +22466,7 @@
         <v>1592</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -22586,7 +22586,7 @@
         <v>1435</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -22824,7 +22824,7 @@
         <v>1435</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -23032,8 +23032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -23053,7 +23053,7 @@
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -23064,10 +23064,10 @@
         <v>1717</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>2404</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -23078,10 +23078,10 @@
         <v>1719</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>2405</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>2406</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -23092,10 +23092,10 @@
         <v>1721</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>2407</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>2408</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -23106,10 +23106,10 @@
         <v>1723</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>2410</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -23120,10 +23120,10 @@
         <v>1725</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>2412</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -23134,10 +23134,10 @@
         <v>1727</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>2414</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -23148,10 +23148,10 @@
         <v>1729</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>2416</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -23162,10 +23162,10 @@
         <v>1731</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>2418</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -23176,10 +23176,10 @@
         <v>1733</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>2420</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -23190,10 +23190,10 @@
         <v>1735</v>
       </c>
       <c r="C11" s="40" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>2422</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -23207,7 +23207,7 @@
         <v>1950</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -23221,7 +23221,7 @@
         <v>1951</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -23232,10 +23232,10 @@
         <v>1739</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>2426</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -23246,10 +23246,10 @@
         <v>1739</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -23260,10 +23260,10 @@
         <v>1742</v>
       </c>
       <c r="C16" s="40" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>2429</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -23274,10 +23274,10 @@
         <v>1744</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>2431</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>2432</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -23288,10 +23288,10 @@
         <v>1746</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>2433</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -23302,10 +23302,10 @@
         <v>1748</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>2435</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -23316,10 +23316,10 @@
         <v>1750</v>
       </c>
       <c r="C20" s="40" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>2437</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>2438</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -23330,10 +23330,10 @@
         <v>1752</v>
       </c>
       <c r="C21" s="40" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>2439</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -23344,10 +23344,10 @@
         <v>1754</v>
       </c>
       <c r="C22" s="40" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>2441</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -23358,10 +23358,10 @@
         <v>1756</v>
       </c>
       <c r="C23" s="40" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>2443</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
@@ -23372,10 +23372,10 @@
         <v>1758</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>2445</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -23386,10 +23386,10 @@
         <v>1760</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>2447</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -23400,10 +23400,10 @@
         <v>1762</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>2449</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -23414,10 +23414,10 @@
         <v>1764</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>2450</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>2451</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -23428,10 +23428,10 @@
         <v>1766</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>2453</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -23442,10 +23442,10 @@
         <v>1768</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>2455</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -23456,10 +23456,10 @@
         <v>1770</v>
       </c>
       <c r="C30" s="40" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>2457</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -23470,10 +23470,10 @@
         <v>1772</v>
       </c>
       <c r="C31" s="40" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>2459</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
@@ -23484,10 +23484,10 @@
         <v>1774</v>
       </c>
       <c r="C32" s="40" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>2461</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -23498,10 +23498,10 @@
         <v>1776</v>
       </c>
       <c r="C33" s="40" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>2463</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -23512,10 +23512,10 @@
         <v>1778</v>
       </c>
       <c r="C34" s="40" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>2465</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -23526,10 +23526,10 @@
         <v>1780</v>
       </c>
       <c r="C35" s="40" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>2467</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -23540,10 +23540,10 @@
         <v>1727</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -23554,10 +23554,10 @@
         <v>1783</v>
       </c>
       <c r="C37" s="40" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>2470</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>2471</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -23568,10 +23568,10 @@
         <v>1785</v>
       </c>
       <c r="C38" s="40" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>2472</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -23582,1030 +23582,1030 @@
         <v>1787</v>
       </c>
       <c r="C39" s="40" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>2474</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>2475</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>3104</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>3105</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>3106</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>3107</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>3108</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>3109</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>3110</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>3111</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>3112</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>3113</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>3114</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>3115</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>3116</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>3117</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>3118</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>3119</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>3121</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>3122</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B50" s="40" t="s">
         <v>3123</v>
       </c>
-      <c r="B50" s="40" t="s">
-        <v>3124</v>
-      </c>
       <c r="C50" s="40" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>3125</v>
       </c>
-      <c r="B51" s="40" t="s">
-        <v>3126</v>
-      </c>
       <c r="C51" s="40" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B52" s="40" t="s">
         <v>3127</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>3128</v>
-      </c>
       <c r="C52" s="40" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B53" s="40" t="s">
         <v>3129</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>3130</v>
-      </c>
       <c r="C53" s="40" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B54" s="40" t="s">
         <v>3131</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>3132</v>
-      </c>
       <c r="C54" s="40" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B55" s="40" t="s">
         <v>3133</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>3134</v>
-      </c>
       <c r="C55" s="40" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B56" s="40" t="s">
         <v>3135</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>3136</v>
-      </c>
       <c r="C56" s="40" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3137</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3138</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3139</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3140</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3141</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3142</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>3143</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>3144</v>
-      </c>
       <c r="C60" s="40" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>3145</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>3146</v>
-      </c>
       <c r="C61" s="40" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3147</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3148</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3149</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3150</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B64" s="40" t="s">
         <v>3151</v>
       </c>
-      <c r="B64" s="40" t="s">
-        <v>3152</v>
-      </c>
       <c r="C64" s="40" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3155</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3156</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3157</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3158</v>
-      </c>
       <c r="C68" s="40" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D68" s="40" t="s">
         <v>3444</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>3445</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3163</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3164</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3165</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3166</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B75" s="40" t="s">
         <v>3167</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>3168</v>
-      </c>
       <c r="C75" s="40" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B76" s="40" t="s">
         <v>3169</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>3170</v>
-      </c>
       <c r="C76" s="40" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B77" s="40" t="s">
         <v>3171</v>
       </c>
-      <c r="B77" s="40" t="s">
-        <v>3172</v>
-      </c>
       <c r="C77" s="40" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B82" s="40" t="s">
         <v>3177</v>
       </c>
-      <c r="B82" s="40" t="s">
-        <v>3178</v>
-      </c>
       <c r="C82" s="40" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B83" s="40" t="s">
         <v>3179</v>
       </c>
-      <c r="B83" s="40" t="s">
-        <v>3180</v>
-      </c>
       <c r="C83" s="40" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B88" s="40" t="s">
         <v>3185</v>
       </c>
-      <c r="B88" s="40" t="s">
-        <v>3186</v>
-      </c>
       <c r="C88" s="40" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B90" s="40" t="s">
         <v>3188</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>3189</v>
-      </c>
       <c r="C90" s="40" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B91" s="40" t="s">
         <v>3190</v>
       </c>
-      <c r="B91" s="40" t="s">
-        <v>3191</v>
-      </c>
       <c r="C91" s="40" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B92" s="40" t="s">
         <v>3192</v>
       </c>
-      <c r="B92" s="40" t="s">
-        <v>3193</v>
-      </c>
       <c r="C92" s="40" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B93" s="40" t="s">
         <v>3194</v>
       </c>
-      <c r="B93" s="40" t="s">
-        <v>3195</v>
-      </c>
       <c r="C93" s="40" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B94" s="40" t="s">
         <v>3196</v>
       </c>
-      <c r="B94" s="40" t="s">
-        <v>3197</v>
-      </c>
       <c r="C94" s="40" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B97" s="40" t="s">
         <v>3200</v>
       </c>
-      <c r="B97" s="40" t="s">
-        <v>3201</v>
-      </c>
       <c r="C97" s="40" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B100" s="40" t="s">
         <v>3204</v>
       </c>
-      <c r="B100" s="40" t="s">
-        <v>3205</v>
-      </c>
       <c r="C100" s="40" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B101" s="40" t="s">
         <v>3206</v>
       </c>
-      <c r="B101" s="40" t="s">
-        <v>3207</v>
-      </c>
       <c r="C101" s="40" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B103" s="40" t="s">
         <v>3209</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>3210</v>
-      </c>
       <c r="C103" s="40" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B104" s="40" t="s">
         <v>3211</v>
       </c>
-      <c r="B104" s="40" t="s">
-        <v>3212</v>
-      </c>
       <c r="C104" s="40" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B105" s="40" t="s">
         <v>3213</v>
       </c>
-      <c r="B105" s="40" t="s">
-        <v>3214</v>
-      </c>
       <c r="C105" s="40" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B106" s="40" t="s">
         <v>3215</v>
       </c>
-      <c r="B106" s="40" t="s">
-        <v>3216</v>
-      </c>
       <c r="C106" s="40" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B107" s="40" t="s">
         <v>3217</v>
       </c>
-      <c r="B107" s="40" t="s">
-        <v>3218</v>
-      </c>
       <c r="C107" s="40" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B109" s="40" t="s">
         <v>3220</v>
       </c>
-      <c r="B109" s="40" t="s">
-        <v>3221</v>
-      </c>
       <c r="C109" s="40" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B110" s="40" t="s">
         <v>3222</v>
       </c>
-      <c r="B110" s="40" t="s">
-        <v>3223</v>
-      </c>
       <c r="C110" s="40" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B111" s="40" t="s">
         <v>3224</v>
       </c>
-      <c r="B111" s="40" t="s">
-        <v>3225</v>
-      </c>
       <c r="C111" s="40" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B112" s="40" t="s">
         <v>3226</v>
       </c>
-      <c r="B112" s="40" t="s">
-        <v>3227</v>
-      </c>
       <c r="C112" s="40" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B113" s="40" t="s">
         <v>3228</v>
       </c>
-      <c r="B113" s="40" t="s">
-        <v>3229</v>
-      </c>
       <c r="C113" s="40" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24613,223 +24613,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B115" s="40" t="s">
         <v>3231</v>
       </c>
-      <c r="B115" s="40" t="s">
-        <v>3232</v>
-      </c>
       <c r="C115" s="40" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B116" s="40" t="s">
         <v>3233</v>
       </c>
-      <c r="B116" s="40" t="s">
-        <v>3234</v>
-      </c>
       <c r="C116" s="40" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B117" s="40" t="s">
         <v>3235</v>
       </c>
-      <c r="B117" s="40" t="s">
-        <v>3236</v>
-      </c>
       <c r="C117" s="40" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B118" s="40" t="s">
         <v>3237</v>
       </c>
-      <c r="B118" s="40" t="s">
-        <v>3238</v>
-      </c>
       <c r="C118" s="40" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B119" s="40" t="s">
         <v>3239</v>
       </c>
-      <c r="B119" s="40" t="s">
-        <v>3240</v>
-      </c>
       <c r="C119" s="40" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B120" s="40" t="s">
         <v>3241</v>
       </c>
-      <c r="B120" s="40" t="s">
-        <v>3242</v>
-      </c>
       <c r="C120" s="40" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B121" s="40" t="s">
         <v>3243</v>
       </c>
-      <c r="B121" s="40" t="s">
-        <v>3244</v>
-      </c>
       <c r="C121" s="40" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B122" s="40" t="s">
         <v>3245</v>
       </c>
-      <c r="B122" s="40" t="s">
-        <v>3246</v>
-      </c>
       <c r="C122" s="40" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B123" s="40" t="s">
         <v>3247</v>
       </c>
-      <c r="B123" s="40" t="s">
-        <v>3248</v>
-      </c>
       <c r="C123" s="40" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B124" s="40" t="s">
         <v>3249</v>
       </c>
-      <c r="B124" s="40" t="s">
-        <v>3250</v>
-      </c>
       <c r="C124" s="40" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B125" s="40" t="s">
         <v>3251</v>
       </c>
-      <c r="B125" s="40" t="s">
-        <v>3252</v>
-      </c>
       <c r="C125" s="40" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B126" s="40" t="s">
         <v>3253</v>
       </c>
-      <c r="B126" s="40" t="s">
-        <v>3254</v>
-      </c>
       <c r="C126" s="40" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B127" s="40" t="s">
         <v>3255</v>
       </c>
-      <c r="B127" s="40" t="s">
-        <v>3256</v>
-      </c>
       <c r="C127" s="40" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B128" s="40" t="s">
         <v>3257</v>
       </c>
-      <c r="B128" s="40" t="s">
-        <v>3258</v>
-      </c>
       <c r="C128" s="40" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B129" s="40" t="s">
         <v>3259</v>
       </c>
-      <c r="B129" s="40" t="s">
-        <v>3260</v>
-      </c>
       <c r="C129" s="40" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -24871,13 +24871,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24885,237 +24885,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2907</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2908</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>2909</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>2910</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2911</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2912</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2913</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2914</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2915</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>2916</v>
-      </c>
       <c r="C7" s="40" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2917</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2918</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2919</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2920</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>2921</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>2922</v>
-      </c>
       <c r="C10" s="40" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>2923</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>2924</v>
-      </c>
       <c r="C11" s="40" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2925</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2926</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2927</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2928</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>2929</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>2930</v>
-      </c>
       <c r="C14" s="40" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>2931</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>2932</v>
-      </c>
       <c r="C15" s="40" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>2933</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>2934</v>
-      </c>
       <c r="C16" s="40" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2935</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>2936</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2937</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2938</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25123,27 +25123,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2940</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2941</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25151,405 +25151,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>2944</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>2945</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>2947</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>2948</v>
-      </c>
       <c r="C25" s="40" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>3399</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>3400</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>2949</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>2950</v>
-      </c>
       <c r="C26" s="40" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2951</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>2952</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>2953</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>2954</v>
-      </c>
       <c r="C28" s="40" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>2955</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>2956</v>
-      </c>
       <c r="C29" s="40" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2957</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2958</v>
-      </c>
       <c r="C30" s="40" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>3407</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>3408</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>2959</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>2960</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>2961</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>2962</v>
-      </c>
       <c r="C32" s="40" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>2963</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>2964</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2965</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>2966</v>
-      </c>
       <c r="C34" s="40" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B35" s="40" t="s">
         <v>2967</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>2968</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2969</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2970</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>2971</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>2972</v>
-      </c>
       <c r="C37" s="40" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2973</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2974</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>2975</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>2976</v>
-      </c>
       <c r="C39" s="40" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>3415</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>3416</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>2977</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>2978</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>2979</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>2980</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>2981</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>2982</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>2983</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>2984</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>2985</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>2986</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>2987</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>2988</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>2989</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>2990</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>2991</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>2992</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>2993</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>2994</v>
-      </c>
       <c r="C48" s="40" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>2995</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>2996</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25557,202 +25557,202 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3003</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3004</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3005</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3006</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3007</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3008</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3011</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3012</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3013</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3014</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25760,122 +25760,122 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3018</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3019</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3020</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3021</v>
-      </c>
       <c r="C68" s="40" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B69" s="40" t="s">
         <v>3022</v>
       </c>
-      <c r="B69" s="40" t="s">
-        <v>3023</v>
-      </c>
       <c r="C69" s="40" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>3026</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>3027</v>
-      </c>
       <c r="C72" s="40" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3028</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3029</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3030</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3031</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
     </row>
   </sheetData>
@@ -26131,10 +26131,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>2841</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>2842</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -26197,7 +26197,7 @@
         <v>1950</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>201</v>
@@ -26218,7 +26218,7 @@
         <v>1951</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>205</v>
@@ -26512,7 +26512,7 @@
         <v>1965</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>257</v>
@@ -26680,7 +26680,7 @@
         <v>1973</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>289</v>
@@ -26701,7 +26701,7 @@
         <v>1974</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>293</v>
@@ -27016,7 +27016,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -27037,7 +27037,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -27058,7 +27058,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -27163,7 +27163,7 @@
         <v>1996</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>376</v>
@@ -27184,7 +27184,7 @@
         <v>1997</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>380</v>
@@ -27205,7 +27205,7 @@
         <v>1998</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>384</v>
@@ -27226,7 +27226,7 @@
         <v>1999</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>388</v>
@@ -27247,7 +27247,7 @@
         <v>2000</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>392</v>
@@ -27268,7 +27268,7 @@
         <v>2001</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>396</v>
@@ -27289,7 +27289,7 @@
         <v>2002</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>400</v>
@@ -27307,10 +27307,10 @@
         <v>403</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>404</v>
@@ -27331,7 +27331,7 @@
         <v>2003</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>408</v>
@@ -27352,7 +27352,7 @@
         <v>2004</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>412</v>
@@ -27373,7 +27373,7 @@
         <v>2005</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>416</v>
@@ -27394,7 +27394,7 @@
         <v>2006</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>420</v>
@@ -27415,7 +27415,7 @@
         <v>2007</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>423</v>
@@ -27436,7 +27436,7 @@
         <v>2008</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>426</v>
@@ -27457,7 +27457,7 @@
         <v>2009</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>429</v>
@@ -27478,7 +27478,7 @@
         <v>2010</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>433</v>
@@ -27541,7 +27541,7 @@
         <v>2013</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>444</v>
@@ -27562,7 +27562,7 @@
         <v>2014</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>448</v>
@@ -27583,7 +27583,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>452</v>
@@ -27601,10 +27601,10 @@
         <v>455</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>456</v>
@@ -27622,10 +27622,10 @@
         <v>459</v>
       </c>
       <c r="C70" s="19" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>2500</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>2501</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>460</v>
@@ -27643,10 +27643,10 @@
         <v>463</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>464</v>
@@ -27667,7 +27667,7 @@
         <v>2016</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>468</v>
@@ -27685,10 +27685,10 @@
         <v>471</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>472</v>
@@ -27706,10 +27706,10 @@
         <v>475</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>476</v>
@@ -27727,10 +27727,10 @@
         <v>479</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>480</v>
@@ -27751,7 +27751,7 @@
         <v>2017</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>484</v>
@@ -27772,7 +27772,7 @@
         <v>2018</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>488</v>
@@ -27793,7 +27793,7 @@
         <v>2019</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>492</v>
@@ -27814,7 +27814,7 @@
         <v>2020</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>496</v>
@@ -27835,7 +27835,7 @@
         <v>2021</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>500</v>
@@ -27856,7 +27856,7 @@
         <v>2022</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>504</v>
@@ -27877,7 +27877,7 @@
         <v>2023</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>508</v>
@@ -27898,7 +27898,7 @@
         <v>2024</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>512</v>
@@ -27961,7 +27961,7 @@
         <v>2025</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>524</v>
@@ -27982,7 +27982,7 @@
         <v>2026</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>528</v>
@@ -28003,7 +28003,7 @@
         <v>2027</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>532</v>
@@ -28024,7 +28024,7 @@
         <v>2028</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>536</v>
@@ -28045,7 +28045,7 @@
         <v>2029</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>540</v>
@@ -28066,7 +28066,7 @@
         <v>2025</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>543</v>
@@ -28087,7 +28087,7 @@
         <v>2026</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>545</v>
@@ -28108,7 +28108,7 @@
         <v>2027</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>547</v>
@@ -28129,7 +28129,7 @@
         <v>2028</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>549</v>
@@ -28150,7 +28150,7 @@
         <v>2029</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>551</v>
@@ -28171,7 +28171,7 @@
         <v>2030</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>554</v>
@@ -28192,7 +28192,7 @@
         <v>2031</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>558</v>
@@ -28213,7 +28213,7 @@
         <v>2032</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>562</v>
@@ -28360,7 +28360,7 @@
         <v>2038</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>53</v>
@@ -28381,7 +28381,7 @@
         <v>2039</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>55</v>
@@ -28399,10 +28399,10 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>57</v>
@@ -28423,7 +28423,7 @@
         <v>2272</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>59</v>
@@ -28444,7 +28444,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>61</v>
@@ -28486,7 +28486,7 @@
         <v>2179</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>591</v>
@@ -28507,7 +28507,7 @@
         <v>2180</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>594</v>
@@ -28528,7 +28528,7 @@
         <v>2181</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>597</v>
@@ -28546,10 +28546,10 @@
         <v>600</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>601</v>
@@ -28567,10 +28567,10 @@
         <v>588</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>604</v>
@@ -28588,10 +28588,10 @@
         <v>606</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>605</v>
@@ -28609,10 +28609,10 @@
         <v>596</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>609</v>
@@ -28630,10 +28630,10 @@
         <v>600</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>611</v>
@@ -28651,10 +28651,10 @@
         <v>613</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>612</v>
@@ -28672,10 +28672,10 @@
         <v>616</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>615</v>
@@ -28696,7 +28696,7 @@
         <v>2041</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>620</v>
@@ -28717,7 +28717,7 @@
         <v>2042</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>624</v>
@@ -28738,7 +28738,7 @@
         <v>2043</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>628</v>
@@ -28759,7 +28759,7 @@
         <v>2044</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>632</v>
@@ -28780,7 +28780,7 @@
         <v>2045</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>636</v>
@@ -28801,7 +28801,7 @@
         <v>2046</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>640</v>
@@ -28822,7 +28822,7 @@
         <v>2047</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>644</v>
@@ -28838,7 +28838,7 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="23" t="s">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D129" s="19"/>
       <c r="E129" s="23" t="s">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D130" s="19"/>
       <c r="E130" s="23" t="s">
@@ -28883,7 +28883,7 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D131" s="19"/>
       <c r="E131" s="23" t="s">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D132" s="19"/>
       <c r="E132" s="23" t="s">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D133" s="19"/>
       <c r="E133" s="23" t="s">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D134" s="19"/>
       <c r="E134" s="23" t="s">
@@ -28943,7 +28943,7 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D135" s="19"/>
       <c r="E135" s="23" t="s">
@@ -28958,7 +28958,7 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D136" s="19"/>
       <c r="E136" s="23" t="s">
@@ -28973,7 +28973,7 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="23" t="s">
@@ -28988,7 +28988,7 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D138" s="19"/>
       <c r="E138" s="23" t="s">
@@ -29003,7 +29003,7 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D139" s="19"/>
       <c r="E139" s="23" t="s">
@@ -29018,7 +29018,7 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="23" t="s">
@@ -29033,7 +29033,7 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="23" t="s">
@@ -29116,7 +29116,7 @@
         <v>2051</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>688</v>
@@ -29137,7 +29137,7 @@
         <v>2052</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>692</v>
@@ -29158,7 +29158,7 @@
         <v>2053</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>696</v>
@@ -29281,7 +29281,7 @@
         <v>719</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>2160</v>
@@ -29368,7 +29368,7 @@
         <v>2062</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>734</v>
@@ -29389,7 +29389,7 @@
         <v>2063</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>737</v>
@@ -29410,7 +29410,7 @@
         <v>2064</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>740</v>
@@ -29536,7 +29536,7 @@
         <v>2070</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>762</v>
@@ -29557,7 +29557,7 @@
         <v>2071</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>766</v>
@@ -29578,7 +29578,7 @@
         <v>2072</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>769</v>
@@ -29620,7 +29620,7 @@
         <v>2074</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>776</v>
@@ -29641,7 +29641,7 @@
         <v>2075</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>780</v>
@@ -29660,7 +29660,7 @@
         <v>2076</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>783</v>
@@ -29679,7 +29679,7 @@
         <v>2077</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>786</v>
@@ -29698,7 +29698,7 @@
         <v>2077</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>786</v>
@@ -29717,7 +29717,7 @@
         <v>2078</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>790</v>
@@ -29736,7 +29736,7 @@
         <v>2079</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>793</v>
@@ -29755,7 +29755,7 @@
         <v>2080</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>793</v>
@@ -29774,7 +29774,7 @@
         <v>2081</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>797</v>
@@ -29793,7 +29793,7 @@
         <v>2082</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>800</v>
@@ -29814,7 +29814,7 @@
         <v>2083</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>804</v>
@@ -29835,7 +29835,7 @@
         <v>2084</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>808</v>
@@ -29856,7 +29856,7 @@
         <v>2085</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>812</v>
@@ -29877,7 +29877,7 @@
         <v>2086</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>816</v>
@@ -29895,10 +29895,10 @@
         <v>819</v>
       </c>
       <c r="C183" s="19" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D183" s="19" t="s">
         <v>2579</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>2580</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>820</v>
@@ -29919,7 +29919,7 @@
         <v>2087</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>824</v>
@@ -29940,7 +29940,7 @@
         <v>2088</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>828</v>
@@ -29961,7 +29961,7 @@
         <v>2089</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>832</v>
@@ -29982,7 +29982,7 @@
         <v>2090</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>836</v>
@@ -30003,7 +30003,7 @@
         <v>2091</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>840</v>
@@ -30024,7 +30024,7 @@
         <v>2092</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>844</v>
@@ -30045,7 +30045,7 @@
         <v>2093</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>848</v>
@@ -30112,7 +30112,7 @@
         <v>2095</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>860</v>
@@ -30133,7 +30133,7 @@
         <v>2096</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>864</v>
@@ -30154,7 +30154,7 @@
         <v>2097</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>868</v>
@@ -30175,7 +30175,7 @@
         <v>2098</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>872</v>
@@ -30196,7 +30196,7 @@
         <v>2099</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>874</v>
@@ -30217,7 +30217,7 @@
         <v>2100</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>879</v>
@@ -30238,7 +30238,7 @@
         <v>2101</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>883</v>
@@ -30259,7 +30259,7 @@
         <v>2102</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>887</v>
@@ -30280,7 +30280,7 @@
         <v>2103</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>891</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="3529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="3555">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -8028,9 +8028,6 @@
     <t>A local village girl who was converted into a succubus.</t>
   </si>
   <si>
-    <t>A succubus who was once a servant of the church. Proficient in giving puff puffs.</t>
-  </si>
-  <si>
     <t>A succubus who was once a thief. Proficient in making men melt in her mouth.</t>
   </si>
   <si>
@@ -10217,9 +10214,6 @@
     <t>Foot Grind</t>
   </si>
   <si>
-    <t>The leader of a mercinary group.</t>
-  </si>
-  <si>
     <t>HP decreases over 3 turns.</t>
   </si>
   <si>
@@ -10427,9 +10421,6 @@
     <t>Uses their breasts to massage aphrodasic directly into a foe's penis.</t>
   </si>
   <si>
-    <t>A paizuri that revitalises an mans penis with abundant breasts.</t>
-  </si>
-  <si>
     <t>Drains a man's strength with a handjob while stuffing their face in endless clevage</t>
   </si>
   <si>
@@ -10664,9 +10655,6 @@
     <t>A mysterious aura…</t>
   </si>
   <si>
-    <t>A advanced level breast succubus. All men's reason will melts within her huge soft breasts.</t>
-  </si>
-  <si>
     <t>Love struck and unable to resist seduction.</t>
   </si>
   <si>
@@ -10674,6 +10662,96 @@
   </si>
   <si>
     <t>Boobie Elf</t>
+  </si>
+  <si>
+    <t>A paizuri involving the user's abundant breasts to revitalise an mans penis.</t>
+  </si>
+  <si>
+    <t>A leader with a fair amount of combat experience.</t>
+  </si>
+  <si>
+    <t>A title bestowed upon a hero of legend.</t>
+  </si>
+  <si>
+    <t>A leader bellonging to a group of mercenaries.</t>
+  </si>
+  <si>
+    <t>A warrior boasting notable Spd and Mov.</t>
+  </si>
+  <si>
+    <t>A warrior boasting excellent Spd and Mov.</t>
+  </si>
+  <si>
+    <t>A warrior boasting superior Spd and Mov.</t>
+  </si>
+  <si>
+    <t>A axe weilding unit. Has high Str but low Def.</t>
+  </si>
+  <si>
+    <t>A warrior boasting excellent Str and Def.</t>
+  </si>
+  <si>
+    <t>A warrior boasting superior Str and Def.</t>
+  </si>
+  <si>
+    <t>A warrior boasting notable Str and Def.</t>
+  </si>
+  <si>
+    <t>A common soldier with increased HP.</t>
+  </si>
+  <si>
+    <t>A common soldier with increased Str.</t>
+  </si>
+  <si>
+    <t>A common soldier with increased stats.</t>
+  </si>
+  <si>
+    <t>Above average soldiers.</t>
+  </si>
+  <si>
+    <t>Above average soldiers that excell in all areas. A very rare class.</t>
+  </si>
+  <si>
+    <t>Common soldiers who raise the stats of nearby allies.</t>
+  </si>
+  <si>
+    <t>Common soldiers who wield spears. Boasts great Skill.</t>
+  </si>
+  <si>
+    <t>A class adept in magical attacks.</t>
+  </si>
+  <si>
+    <t>A unit who can heal their allies. Increases the range of magic circles.</t>
+  </si>
+  <si>
+    <t>A class that may use instructional manuals.</t>
+  </si>
+  <si>
+    <t>A class excellent at using instructional manuals.</t>
+  </si>
+  <si>
+    <t>Enables the use of the "Excavate" ability.</t>
+  </si>
+  <si>
+    <t>Enables the use of the "Excavate" ability to obtain items. Has increased stats.</t>
+  </si>
+  <si>
+    <t>A class capable of mixing medicine.</t>
+  </si>
+  <si>
+    <t>A class capable of professionally mixing various medicines.</t>
+  </si>
+  <si>
+    <t>Prefers to fight with their hands rather than weapons. Has increased stats.</t>
+  </si>
+  <si>
+    <t>Able to cast curses with their tomes.</t>
+  </si>
+  <si>
+    <t>A succubus who was once a servant of the church. Proficient in giving Puff-Puffs.</t>
+  </si>
+  <si>
+    <t>A advanced level breast succubus. All men's reason will melt within her huge soft breasts.</t>
   </si>
 </sst>
 </file>
@@ -11403,8 +11481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -11655,13 +11733,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>2264</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11677,13 +11755,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>2265</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11699,13 +11777,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2266</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -11901,7 +11979,7 @@
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
@@ -12030,7 +12108,7 @@
         <v>2277</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -12091,16 +12169,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="D35" s="40" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>2824</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="F35" s="40" t="s">
         <v>2825</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>2826</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -12122,7 +12200,7 @@
         <v>2280</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -12170,7 +12248,7 @@
         <v>2283</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -12290,7 +12368,7 @@
         <v>2284</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>2647</v>
+        <v>3553</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -12314,7 +12392,7 @@
         <v>2285</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>91</v>
@@ -12338,7 +12416,7 @@
         <v>2286</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>93</v>
@@ -12359,10 +12437,10 @@
         <v>2227</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>3528</v>
+        <v>3524</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>95</v>
@@ -12386,7 +12464,7 @@
         <v>2301</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>97</v>
@@ -12410,7 +12488,7 @@
         <v>2302</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>99</v>
@@ -12434,7 +12512,7 @@
         <v>2303</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>101</v>
@@ -12458,7 +12536,7 @@
         <v>2309</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>103</v>
@@ -12482,7 +12560,7 @@
         <v>2300</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -12506,7 +12584,7 @@
         <v>2304</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>3525</v>
+        <v>3554</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -12530,7 +12608,7 @@
         <v>2305</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -12554,7 +12632,7 @@
         <v>2305</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -12578,7 +12656,7 @@
         <v>2306</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -13079,7 +13157,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -13113,7 +13191,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -13127,7 +13205,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -13143,7 +13221,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -13157,7 +13235,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -13209,7 +13287,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -13223,7 +13301,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -13239,7 +13317,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -13253,7 +13331,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -13269,7 +13347,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -13283,7 +13361,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -13303,7 +13381,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -13317,7 +13395,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -13335,7 +13413,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -13349,7 +13427,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -13367,7 +13445,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -13381,7 +13459,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -13397,7 +13475,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -13411,7 +13489,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -13429,7 +13507,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -13443,7 +13521,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -13463,7 +13541,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -13479,7 +13557,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -13493,7 +13571,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -13509,7 +13587,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -13525,7 +13603,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -13539,7 +13617,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -13559,7 +13637,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -13575,7 +13653,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -13589,7 +13667,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -13607,7 +13685,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -13621,7 +13699,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -13641,7 +13719,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -13655,7 +13733,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -13673,7 +13751,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -13687,7 +13765,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -13705,7 +13783,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -13719,7 +13797,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -13739,7 +13817,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -13753,7 +13831,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -13767,7 +13845,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -13785,7 +13863,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -13799,7 +13877,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -13817,7 +13895,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -13831,7 +13909,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -13849,7 +13927,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -13863,7 +13941,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -13881,7 +13959,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -13895,7 +13973,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -13913,7 +13991,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -13927,7 +14005,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -13945,7 +14023,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -13959,7 +14037,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -13977,7 +14055,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -13991,7 +14069,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -14009,7 +14087,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -14023,7 +14101,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -14528,7 +14606,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -14545,7 +14623,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -14562,7 +14640,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -14579,7 +14657,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -14596,7 +14674,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -14613,13 +14691,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -14639,13 +14717,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -14665,13 +14743,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -14691,13 +14769,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -14717,13 +14795,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -14743,13 +14821,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -14769,7 +14847,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -14786,7 +14864,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -14803,7 +14881,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -14820,7 +14898,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -14837,7 +14915,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -14854,7 +14932,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -14871,7 +14949,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14885,13 +14963,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
+        <v>2686</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>2685</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2687</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>2686</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2688</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -14914,7 +14992,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -14923,10 +15001,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>2689</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>2690</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -14949,7 +15027,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -14958,10 +15036,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -14984,7 +15062,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -14993,10 +15071,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>2692</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>2693</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -15019,7 +15097,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -15028,10 +15106,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
+        <v>2691</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>2692</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>2693</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -15054,7 +15132,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -15063,10 +15141,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>2698</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>2699</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -15089,7 +15167,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -15098,10 +15176,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>2698</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>2699</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -15124,7 +15202,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -15133,10 +15211,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>2698</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>2699</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -15159,7 +15237,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -15168,10 +15246,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>2706</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -15194,7 +15272,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -15203,10 +15281,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="J27" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>2703</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -15229,7 +15307,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -15238,10 +15316,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
+        <v>2704</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>2705</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>2706</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -15264,7 +15342,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -15278,7 +15356,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -15292,7 +15370,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -15306,7 +15384,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -15320,31 +15398,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2811</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>2812</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="G33" s="40" t="s">
+        <v>2813</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>2815</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2813</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2814</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="J33" s="40" t="s">
         <v>2816</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2817</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2818</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2819</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -15358,7 +15436,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -15372,7 +15450,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -15386,7 +15464,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -15400,7 +15478,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -15414,7 +15492,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -15428,7 +15506,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -15442,7 +15520,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -15456,7 +15534,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -15470,7 +15548,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -15484,7 +15562,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -15498,7 +15576,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -15512,7 +15590,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -15526,7 +15604,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -15540,7 +15618,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -15554,7 +15632,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -15568,7 +15646,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -15582,7 +15660,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -15596,7 +15674,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -15610,7 +15688,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -15624,7 +15702,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -15638,7 +15716,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -15652,7 +15730,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -15666,7 +15744,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -15680,7 +15758,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -15694,7 +15772,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -15708,7 +15786,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -15722,7 +15800,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -15736,7 +15814,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -15750,7 +15828,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -15764,7 +15842,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -15778,7 +15856,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -15792,7 +15870,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -15806,7 +15884,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15820,7 +15898,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -15834,7 +15912,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -15848,7 +15926,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -15862,7 +15940,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -15876,7 +15954,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -15893,7 +15971,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -15907,13 +15985,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -15924,13 +16002,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -15941,7 +16019,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -15953,13 +16031,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="J76" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K76" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -15970,7 +16048,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -15982,13 +16060,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="J77" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K77" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -15999,7 +16077,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -16014,16 +16092,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J78" s="40" t="s">
         <v>2766</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="K78" s="40" t="s">
         <v>2767</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2768</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2769</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -16034,7 +16112,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -16046,10 +16124,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K79" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -16060,7 +16138,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -16072,10 +16150,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K80" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -16086,7 +16164,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -16109,7 +16187,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -16132,7 +16210,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -16155,7 +16233,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -16167,10 +16245,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K84" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -16181,7 +16259,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -16207,7 +16285,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -16222,7 +16300,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -16233,7 +16311,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -16245,13 +16323,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="J87" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K87" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -16262,7 +16340,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -16274,10 +16352,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -16288,7 +16366,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -16300,10 +16378,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K89" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -16314,7 +16392,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -16337,7 +16415,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -16349,10 +16427,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K91" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -16363,7 +16441,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -16375,10 +16453,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>2702</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>2703</v>
       </c>
     </row>
   </sheetData>
@@ -17996,7 +18074,7 @@
         <v>2195</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2616</v>
@@ -18016,7 +18094,7 @@
         <v>2196</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2211</v>
@@ -18036,7 +18114,7 @@
         <v>2197</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2211</v>
@@ -18056,7 +18134,7 @@
         <v>2198</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2211</v>
@@ -18076,7 +18154,7 @@
         <v>2199</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2211</v>
@@ -18096,7 +18174,7 @@
         <v>2206</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>2617</v>
@@ -18116,7 +18194,7 @@
         <v>2207</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>2620</v>
@@ -18136,7 +18214,7 @@
         <v>2200</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2211</v>
@@ -18156,7 +18234,7 @@
         <v>2201</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2211</v>
@@ -18176,7 +18254,7 @@
         <v>2202</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2211</v>
@@ -18196,7 +18274,7 @@
         <v>2208</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>2619</v>
@@ -18216,7 +18294,7 @@
         <v>2209</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>2621</v>
@@ -18236,7 +18314,7 @@
         <v>2210</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>2622</v>
@@ -18256,7 +18334,7 @@
         <v>2203</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2618</v>
@@ -18276,7 +18354,7 @@
         <v>2204</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2211</v>
@@ -18296,7 +18374,7 @@
         <v>2205</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2211</v>
@@ -18364,7 +18442,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -18485,7 +18563,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -18661,7 +18739,7 @@
         <v>2388</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -18797,7 +18875,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -18809,7 +18887,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -19762,10 +19840,10 @@
         <v>2253</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3032</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3033</v>
       </c>
     </row>
   </sheetData>
@@ -19780,8 +19858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -19797,13 +19875,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -19811,148 +19889,168 @@
         <v>2316</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3376</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2844</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2845</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2318</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="40" t="s">
+        <v>3526</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="40" t="s">
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3037</v>
-      </c>
-      <c r="D4" s="40"/>
+        <v>3036</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>3527</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2847</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2848</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2849</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2850</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D6" s="40"/>
+        <v>3038</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>3529</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2851</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>2852</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2319</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>3530</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2853</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2854</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3040</v>
-      </c>
-      <c r="D8" s="40"/>
+        <v>3039</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>3531</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2855</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2856</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>2806</v>
-      </c>
-      <c r="D9" s="40"/>
+        <v>2805</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>3532</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D10" s="40"/>
+        <v>3040</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>3532</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="40" t="s">
         <v>2317</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2320</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="40" t="s">
+        <v>3535</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2858</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2859</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3043</v>
-      </c>
-      <c r="D12" s="40"/>
+        <v>3042</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>3533</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2860</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2861</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3042</v>
-      </c>
-      <c r="D13" s="40"/>
+        <v>3041</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>3534</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="40" t="s">
@@ -19966,17 +20064,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -19986,319 +20084,371 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2864</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>2865</v>
-      </c>
       <c r="C17" s="40" t="s">
-        <v>3361</v>
-      </c>
-      <c r="D17" s="40"/>
+        <v>3360</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>3536</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2866</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2867</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3362</v>
-      </c>
-      <c r="D18" s="40"/>
+        <v>3361</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>3537</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>2868</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>2869</v>
-      </c>
       <c r="C19" s="40" t="s">
-        <v>3364</v>
-      </c>
-      <c r="D19" s="40"/>
+        <v>3363</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>3538</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2870</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2871</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3363</v>
-      </c>
-      <c r="D20" s="40"/>
+        <v>3362</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>3539</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>2872</v>
       </c>
-      <c r="B21" s="40" t="s">
-        <v>2873</v>
-      </c>
       <c r="C21" s="40" t="s">
-        <v>3365</v>
-      </c>
-      <c r="D21" s="40"/>
+        <v>3364</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>3540</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>2874</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>2875</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="40" t="s">
+        <v>3541</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3366</v>
-      </c>
-      <c r="D23" s="40"/>
+        <v>3365</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>3541</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>2877</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>2878</v>
-      </c>
       <c r="C24" s="40" t="s">
-        <v>3344</v>
-      </c>
-      <c r="D24" s="40"/>
+        <v>3343</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>3542</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="40" t="s">
+        <v>3542</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3345</v>
-      </c>
-      <c r="D26" s="40"/>
+        <v>3344</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>3542</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2881</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>2882</v>
-      </c>
       <c r="C27" s="40" t="s">
-        <v>3346</v>
-      </c>
-      <c r="D27" s="40"/>
+        <v>3345</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>3543</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3347</v>
-      </c>
-      <c r="D28" s="40"/>
+        <v>3346</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>3543</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3348</v>
-      </c>
-      <c r="D29" s="40"/>
+        <v>3347</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>3543</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2885</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2886</v>
-      </c>
       <c r="C30" s="40" t="s">
-        <v>3349</v>
-      </c>
-      <c r="D30" s="40"/>
+        <v>3348</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>3544</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3350</v>
-      </c>
-      <c r="D31" s="40"/>
+        <v>3349</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>3544</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3351</v>
-      </c>
-      <c r="D32" s="40"/>
+        <v>3350</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>3544</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3352</v>
-      </c>
-      <c r="D33" s="40"/>
+        <v>3351</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>3545</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2890</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>2891</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2270</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="40" t="s">
+        <v>3546</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15">
       <c r="A35" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
       </c>
-      <c r="D35" s="40"/>
+      <c r="D35" s="40" t="s">
+        <v>3547</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2893</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2894</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3353</v>
-      </c>
-      <c r="D36" s="40"/>
+        <v>3352</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>3548</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15">
       <c r="A37" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>3549</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2896</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2897</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3354</v>
-      </c>
-      <c r="D38" s="40"/>
+        <v>3353</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>3550</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15">
       <c r="A39" s="40" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2271</v>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="40" t="s">
+        <v>3551</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3355</v>
-      </c>
-      <c r="D40" s="40"/>
+        <v>3354</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>3551</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D41" s="40"/>
+        <v>3355</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>3552</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3357</v>
-      </c>
-      <c r="D42" s="40"/>
+        <v>3356</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>3552</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -20306,21 +20456,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -20330,7 +20480,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -20344,7 +20494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
+    <sheetView topLeftCell="B55" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -23032,8 +23182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -23053,7 +23203,7 @@
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -23590,1022 +23740,1022 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>3103</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>3104</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>3105</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>3106</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>3107</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>3108</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>3109</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>3110</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>3111</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>3112</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>3113</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>3114</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>3115</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>3116</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>3117</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>3118</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>3120</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>3121</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B50" s="40" t="s">
         <v>3122</v>
       </c>
-      <c r="B50" s="40" t="s">
-        <v>3123</v>
-      </c>
       <c r="C50" s="40" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B51" s="40" t="s">
         <v>3124</v>
       </c>
-      <c r="B51" s="40" t="s">
-        <v>3125</v>
-      </c>
       <c r="C51" s="40" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B52" s="40" t="s">
         <v>3126</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>3127</v>
-      </c>
       <c r="C52" s="40" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B53" s="40" t="s">
         <v>3128</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>3129</v>
-      </c>
       <c r="C53" s="40" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B54" s="40" t="s">
         <v>3130</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>3131</v>
-      </c>
       <c r="C54" s="40" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B55" s="40" t="s">
         <v>3132</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>3133</v>
-      </c>
       <c r="C55" s="40" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B56" s="40" t="s">
         <v>3134</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>3135</v>
-      </c>
       <c r="C56" s="40" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3136</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3137</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3138</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3139</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3140</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3141</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>3142</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>3143</v>
-      </c>
       <c r="C60" s="40" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>3144</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>3145</v>
-      </c>
       <c r="C61" s="40" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3146</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3147</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3148</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3149</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B64" s="40" t="s">
         <v>3150</v>
       </c>
-      <c r="B64" s="40" t="s">
-        <v>3151</v>
-      </c>
       <c r="C64" s="40" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3154</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3155</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3156</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3157</v>
-      </c>
       <c r="C68" s="40" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3162</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3163</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3164</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3165</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3446</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B75" s="40" t="s">
         <v>3166</v>
       </c>
-      <c r="B75" s="40" t="s">
-        <v>3167</v>
-      </c>
       <c r="C75" s="40" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B76" s="40" t="s">
         <v>3168</v>
       </c>
-      <c r="B76" s="40" t="s">
-        <v>3169</v>
-      </c>
       <c r="C76" s="40" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B77" s="40" t="s">
         <v>3170</v>
       </c>
-      <c r="B77" s="40" t="s">
-        <v>3171</v>
-      </c>
       <c r="C77" s="40" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B82" s="40" t="s">
         <v>3176</v>
       </c>
-      <c r="B82" s="40" t="s">
-        <v>3177</v>
-      </c>
       <c r="C82" s="40" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B83" s="40" t="s">
         <v>3178</v>
       </c>
-      <c r="B83" s="40" t="s">
-        <v>3179</v>
-      </c>
       <c r="C83" s="40" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B88" s="40" t="s">
         <v>3184</v>
       </c>
-      <c r="B88" s="40" t="s">
-        <v>3185</v>
-      </c>
       <c r="C88" s="40" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B90" s="40" t="s">
         <v>3187</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>3188</v>
-      </c>
       <c r="C90" s="40" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B91" s="40" t="s">
         <v>3189</v>
       </c>
-      <c r="B91" s="40" t="s">
-        <v>3190</v>
-      </c>
       <c r="C91" s="40" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B92" s="40" t="s">
         <v>3191</v>
       </c>
-      <c r="B92" s="40" t="s">
-        <v>3192</v>
-      </c>
       <c r="C92" s="40" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B93" s="40" t="s">
         <v>3193</v>
       </c>
-      <c r="B93" s="40" t="s">
-        <v>3194</v>
-      </c>
       <c r="C93" s="40" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B94" s="40" t="s">
         <v>3195</v>
       </c>
-      <c r="B94" s="40" t="s">
-        <v>3196</v>
-      </c>
       <c r="C94" s="40" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B97" s="40" t="s">
         <v>3199</v>
       </c>
-      <c r="B97" s="40" t="s">
-        <v>3200</v>
-      </c>
       <c r="C97" s="40" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B100" s="40" t="s">
         <v>3203</v>
       </c>
-      <c r="B100" s="40" t="s">
-        <v>3204</v>
-      </c>
       <c r="C100" s="40" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B101" s="40" t="s">
         <v>3205</v>
       </c>
-      <c r="B101" s="40" t="s">
-        <v>3206</v>
-      </c>
       <c r="C101" s="40" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B103" s="40" t="s">
         <v>3208</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>3209</v>
-      </c>
       <c r="C103" s="40" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B104" s="40" t="s">
         <v>3210</v>
       </c>
-      <c r="B104" s="40" t="s">
-        <v>3211</v>
-      </c>
       <c r="C104" s="40" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B105" s="40" t="s">
         <v>3212</v>
       </c>
-      <c r="B105" s="40" t="s">
-        <v>3213</v>
-      </c>
       <c r="C105" s="40" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B106" s="40" t="s">
         <v>3214</v>
       </c>
-      <c r="B106" s="40" t="s">
-        <v>3215</v>
-      </c>
       <c r="C106" s="40" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B107" s="40" t="s">
         <v>3216</v>
       </c>
-      <c r="B107" s="40" t="s">
-        <v>3217</v>
-      </c>
       <c r="C107" s="40" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B109" s="40" t="s">
         <v>3219</v>
       </c>
-      <c r="B109" s="40" t="s">
-        <v>3220</v>
-      </c>
       <c r="C109" s="40" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B110" s="40" t="s">
         <v>3221</v>
       </c>
-      <c r="B110" s="40" t="s">
-        <v>3222</v>
-      </c>
       <c r="C110" s="40" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B111" s="40" t="s">
         <v>3223</v>
       </c>
-      <c r="B111" s="40" t="s">
-        <v>3224</v>
-      </c>
       <c r="C111" s="40" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B112" s="40" t="s">
         <v>3225</v>
       </c>
-      <c r="B112" s="40" t="s">
-        <v>3226</v>
-      </c>
       <c r="C112" s="40" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B113" s="40" t="s">
         <v>3227</v>
       </c>
-      <c r="B113" s="40" t="s">
-        <v>3228</v>
-      </c>
       <c r="C113" s="40" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24613,223 +24763,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B115" s="40" t="s">
         <v>3230</v>
       </c>
-      <c r="B115" s="40" t="s">
-        <v>3231</v>
-      </c>
       <c r="C115" s="40" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B116" s="40" t="s">
         <v>3232</v>
       </c>
-      <c r="B116" s="40" t="s">
-        <v>3233</v>
-      </c>
       <c r="C116" s="40" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B117" s="40" t="s">
         <v>3234</v>
       </c>
-      <c r="B117" s="40" t="s">
-        <v>3235</v>
-      </c>
       <c r="C117" s="40" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B118" s="40" t="s">
         <v>3236</v>
       </c>
-      <c r="B118" s="40" t="s">
-        <v>3237</v>
-      </c>
       <c r="C118" s="40" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B119" s="40" t="s">
         <v>3238</v>
       </c>
-      <c r="B119" s="40" t="s">
-        <v>3239</v>
-      </c>
       <c r="C119" s="40" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B120" s="40" t="s">
         <v>3240</v>
       </c>
-      <c r="B120" s="40" t="s">
-        <v>3241</v>
-      </c>
       <c r="C120" s="40" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B121" s="40" t="s">
         <v>3242</v>
       </c>
-      <c r="B121" s="40" t="s">
-        <v>3243</v>
-      </c>
       <c r="C121" s="40" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B122" s="40" t="s">
         <v>3244</v>
       </c>
-      <c r="B122" s="40" t="s">
-        <v>3245</v>
-      </c>
       <c r="C122" s="40" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B123" s="40" t="s">
         <v>3246</v>
       </c>
-      <c r="B123" s="40" t="s">
-        <v>3247</v>
-      </c>
       <c r="C123" s="40" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B124" s="40" t="s">
         <v>3248</v>
       </c>
-      <c r="B124" s="40" t="s">
-        <v>3249</v>
-      </c>
       <c r="C124" s="40" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B125" s="40" t="s">
         <v>3250</v>
       </c>
-      <c r="B125" s="40" t="s">
-        <v>3251</v>
-      </c>
       <c r="C125" s="40" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B126" s="40" t="s">
         <v>3252</v>
       </c>
-      <c r="B126" s="40" t="s">
-        <v>3253</v>
-      </c>
       <c r="C126" s="40" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B127" s="40" t="s">
         <v>3254</v>
       </c>
-      <c r="B127" s="40" t="s">
-        <v>3255</v>
-      </c>
       <c r="C127" s="40" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B128" s="40" t="s">
         <v>3256</v>
       </c>
-      <c r="B128" s="40" t="s">
-        <v>3257</v>
-      </c>
       <c r="C128" s="40" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B129" s="40" t="s">
         <v>3258</v>
       </c>
-      <c r="B129" s="40" t="s">
-        <v>3259</v>
-      </c>
       <c r="C129" s="40" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -24871,13 +25021,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24885,237 +25035,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3526</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>2906</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>2907</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>2908</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>2909</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>2910</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>2911</v>
-      </c>
       <c r="C5" s="40" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>2912</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>2913</v>
-      </c>
       <c r="C6" s="40" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>2914</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>2915</v>
-      </c>
       <c r="C7" s="40" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>2916</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>2917</v>
-      </c>
       <c r="C8" s="40" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>2918</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>2919</v>
-      </c>
       <c r="C9" s="40" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>2920</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>2921</v>
-      </c>
       <c r="C10" s="40" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>2922</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>2923</v>
-      </c>
       <c r="C11" s="40" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>2924</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>2925</v>
-      </c>
       <c r="C12" s="40" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>2926</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>2927</v>
-      </c>
       <c r="C13" s="40" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>2928</v>
       </c>
-      <c r="B14" s="40" t="s">
-        <v>2929</v>
-      </c>
       <c r="C14" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>2930</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>2931</v>
-      </c>
       <c r="C15" s="40" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>2932</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>2933</v>
-      </c>
       <c r="C16" s="40" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>2934</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>2935</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>2936</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>2937</v>
-      </c>
       <c r="C18" s="40" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25123,27 +25273,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3527</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>2939</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>2940</v>
-      </c>
       <c r="C20" s="40" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25151,405 +25301,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>2943</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>2944</v>
-      </c>
       <c r="C23" s="40" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>2946</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>2947</v>
-      </c>
       <c r="C25" s="40" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>2948</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>2949</v>
-      </c>
       <c r="C26" s="40" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>2950</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>2951</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B28" s="40" t="s">
         <v>2952</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>2953</v>
-      </c>
       <c r="C28" s="40" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B29" s="40" t="s">
         <v>2954</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>2955</v>
-      </c>
       <c r="C29" s="40" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>2956</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>2957</v>
-      </c>
       <c r="C30" s="40" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>2958</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>2959</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>2960</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>2961</v>
-      </c>
       <c r="C32" s="40" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>2962</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>2963</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>2964</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>2965</v>
-      </c>
       <c r="C34" s="40" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B35" s="40" t="s">
         <v>2966</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>2967</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>2968</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>2969</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>2970</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>2971</v>
-      </c>
       <c r="C37" s="40" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>2972</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>2973</v>
-      </c>
       <c r="C38" s="40" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>2974</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>2975</v>
-      </c>
       <c r="C39" s="40" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B40" s="40" t="s">
         <v>2976</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>2977</v>
-      </c>
       <c r="C40" s="40" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B41" s="40" t="s">
         <v>2978</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>2979</v>
-      </c>
       <c r="C41" s="40" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B42" s="40" t="s">
         <v>2980</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>2981</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B43" s="40" t="s">
         <v>2982</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>2983</v>
-      </c>
       <c r="C43" s="40" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>2984</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>2985</v>
-      </c>
       <c r="C44" s="40" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B45" s="40" t="s">
         <v>2986</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>2987</v>
-      </c>
       <c r="C45" s="40" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B46" s="40" t="s">
         <v>2988</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>2989</v>
-      </c>
       <c r="C46" s="40" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B47" s="40" t="s">
         <v>2990</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>2991</v>
-      </c>
       <c r="C47" s="40" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B48" s="40" t="s">
         <v>2992</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>2993</v>
-      </c>
       <c r="C48" s="40" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B49" s="40" t="s">
         <v>2994</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>2995</v>
-      </c>
       <c r="C49" s="40" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25557,202 +25707,202 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B57" s="40" t="s">
         <v>3002</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>3003</v>
-      </c>
       <c r="C57" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B58" s="40" t="s">
         <v>3004</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>3005</v>
-      </c>
       <c r="C58" s="40" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B59" s="40" t="s">
         <v>3006</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>3007</v>
-      </c>
       <c r="C59" s="40" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>3010</v>
       </c>
-      <c r="B62" s="40" t="s">
-        <v>3011</v>
-      </c>
       <c r="C62" s="40" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>3012</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>3013</v>
-      </c>
       <c r="C63" s="40" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25760,122 +25910,122 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>3017</v>
       </c>
-      <c r="B67" s="40" t="s">
-        <v>3018</v>
-      </c>
       <c r="C67" s="40" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>3019</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>3020</v>
-      </c>
       <c r="C68" s="40" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B69" s="40" t="s">
         <v>3021</v>
       </c>
-      <c r="B69" s="40" t="s">
-        <v>3022</v>
-      </c>
       <c r="C69" s="40" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B72" s="40" t="s">
         <v>3025</v>
       </c>
-      <c r="B72" s="40" t="s">
-        <v>3026</v>
-      </c>
       <c r="C72" s="40" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B73" s="40" t="s">
         <v>3027</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>3028</v>
-      </c>
       <c r="C73" s="40" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B74" s="40" t="s">
         <v>3029</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>3030</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
   </sheetData>
@@ -26131,10 +26281,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>2840</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>2841</v>
       </c>
     </row>
   </sheetData>
@@ -27016,7 +27166,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -27037,7 +27187,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -27058,7 +27208,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -28399,7 +28549,7 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>2523</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -9224,9 +9224,6 @@
     <t>Paralysis</t>
   </si>
   <si>
-    <t>Betrayal</t>
-  </si>
-  <si>
     <t>Queen's Slave</t>
   </si>
   <si>
@@ -9278,9 +9275,6 @@
     <t>Masturbation Frenzy</t>
   </si>
   <si>
-    <t>Betrayal+</t>
-  </si>
-  <si>
     <t>Accelerate</t>
   </si>
   <si>
@@ -10526,12 +10520,6 @@
     <t>Drains a foe's strength by rubbing their face against the queen's breasts.</t>
   </si>
   <si>
-    <t>Skillfully melts a man with unrivaled handjob techniques.</t>
-  </si>
-  <si>
-    <t>Melts a man into mindlessness with the caress of her mouth.</t>
-  </si>
-  <si>
     <t>Pleasures men by rubbing her smooth feet around their penis.</t>
   </si>
   <si>
@@ -10550,9 +10538,6 @@
     <t>An irresistable paizuri that drains men of the will to fight.</t>
   </si>
   <si>
-    <t>A sigh filled with pheromones that inflicts 2 or more abnormal states.</t>
-  </si>
-  <si>
     <t>A spear made by woodland sprites. It quietens the user's mind and movements.</t>
   </si>
   <si>
@@ -10752,6 +10737,21 @@
   </si>
   <si>
     <t>A advanced level breast succubus. All men's reason will melt within her huge soft breasts.</t>
+  </si>
+  <si>
+    <t>Treachery</t>
+  </si>
+  <si>
+    <t>Treachery+</t>
+  </si>
+  <si>
+    <t>A pheromone filled sigh that inflicts 2 or more abnormal states.</t>
+  </si>
+  <si>
+    <t>A caressing mouth that melts a man into mindlessness.</t>
+  </si>
+  <si>
+    <t>An unrivaled handjob technique that skillfully melts any man.</t>
   </si>
 </sst>
 </file>
@@ -11481,7 +11481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -11739,7 +11739,7 @@
         <v>2264</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11761,7 +11761,7 @@
         <v>2265</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11783,7 +11783,7 @@
         <v>2266</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -12368,7 +12368,7 @@
         <v>2284</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>3553</v>
+        <v>3548</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -12437,7 +12437,7 @@
         <v>2227</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>3524</v>
+        <v>3519</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>2649</v>
@@ -12560,7 +12560,7 @@
         <v>2300</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -12584,7 +12584,7 @@
         <v>2304</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>3554</v>
+        <v>3549</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -19858,7 +19858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -19895,7 +19895,7 @@
         <v>3037</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3528</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -19909,7 +19909,7 @@
         <v>2318</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3526</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -19923,7 +19923,7 @@
         <v>3036</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3527</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -19951,7 +19951,7 @@
         <v>3038</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3529</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -19965,7 +19965,7 @@
         <v>2319</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3530</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -19979,7 +19979,7 @@
         <v>3039</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3531</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -19993,7 +19993,7 @@
         <v>2805</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3532</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -20007,7 +20007,7 @@
         <v>3040</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3532</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -20021,7 +20021,7 @@
         <v>2320</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3535</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -20035,7 +20035,7 @@
         <v>3042</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3533</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -20049,7 +20049,7 @@
         <v>3041</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3534</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -20090,10 +20090,10 @@
         <v>2864</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3536</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -20104,10 +20104,10 @@
         <v>2866</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3537</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -20118,10 +20118,10 @@
         <v>2868</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3538</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -20132,10 +20132,10 @@
         <v>2870</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3539</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -20146,10 +20146,10 @@
         <v>2872</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3540</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -20163,7 +20163,7 @@
         <v>2039</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3541</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -20174,10 +20174,10 @@
         <v>2874</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3541</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
@@ -20188,10 +20188,10 @@
         <v>2877</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -20205,7 +20205,7 @@
         <v>2036</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -20216,10 +20216,10 @@
         <v>2877</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -20230,10 +20230,10 @@
         <v>2881</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -20244,10 +20244,10 @@
         <v>2881</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -20258,10 +20258,10 @@
         <v>2881</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -20272,10 +20272,10 @@
         <v>2885</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -20286,10 +20286,10 @@
         <v>2885</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
@@ -20300,10 +20300,10 @@
         <v>2885</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -20314,10 +20314,10 @@
         <v>2888</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3545</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -20331,7 +20331,7 @@
         <v>2270</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3546</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -20345,7 +20345,7 @@
         <v>2035</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3547</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -20356,10 +20356,10 @@
         <v>2893</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3548</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -20373,7 +20373,7 @@
         <v>2038</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3549</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -20384,10 +20384,10 @@
         <v>2896</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3550</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -20401,7 +20401,7 @@
         <v>2271</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3551</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
@@ -20412,10 +20412,10 @@
         <v>2897</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3551</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -20426,10 +20426,10 @@
         <v>2899</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3552</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
@@ -20440,10 +20440,10 @@
         <v>2899</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3552</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
@@ -20460,7 +20460,7 @@
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="D44" s="40"/>
     </row>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -20494,7 +20494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -23182,8 +23182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -23740,1022 +23740,1022 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3488</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3490</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3491</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3492</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3493</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3494</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3495</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3497</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3498</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3499</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3500</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3501</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3502</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3503</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3504</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3505</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3489</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3506</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3507</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3508</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3509</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3510</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3525</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24763,223 +24763,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3479</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3480</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3481</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3482</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3483</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3496</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3484</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3485</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3486</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3487</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -25003,8 +25003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -25041,7 +25041,7 @@
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3522</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -25055,7 +25055,7 @@
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -25069,7 +25069,7 @@
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -25083,7 +25083,7 @@
         <v>3043</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -25097,7 +25097,7 @@
         <v>3044</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -25108,10 +25108,10 @@
         <v>2914</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3045</v>
+        <v>3550</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -25122,10 +25122,10 @@
         <v>2916</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3063</v>
+        <v>3551</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -25136,10 +25136,10 @@
         <v>2918</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -25150,10 +25150,10 @@
         <v>2920</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -25164,10 +25164,10 @@
         <v>2922</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -25178,10 +25178,10 @@
         <v>2924</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -25192,10 +25192,10 @@
         <v>2926</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -25206,10 +25206,10 @@
         <v>2928</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -25220,10 +25220,10 @@
         <v>2930</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -25234,10 +25234,10 @@
         <v>2932</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -25251,7 +25251,7 @@
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -25262,10 +25262,10 @@
         <v>2936</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25276,10 +25276,10 @@
         <v>2937</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3523</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -25290,10 +25290,10 @@
         <v>2939</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25304,10 +25304,10 @@
         <v>2940</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -25318,10 +25318,10 @@
         <v>2940</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -25332,10 +25332,10 @@
         <v>2943</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -25346,10 +25346,10 @@
         <v>2943</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -25360,10 +25360,10 @@
         <v>2946</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25374,10 +25374,10 @@
         <v>2948</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -25391,7 +25391,7 @@
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -25402,10 +25402,10 @@
         <v>2952</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -25416,10 +25416,10 @@
         <v>2954</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -25430,10 +25430,10 @@
         <v>2956</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -25447,7 +25447,7 @@
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -25458,10 +25458,10 @@
         <v>2960</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -25475,7 +25475,7 @@
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -25486,10 +25486,10 @@
         <v>2964</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -25503,7 +25503,7 @@
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -25514,10 +25514,10 @@
         <v>2968</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -25528,10 +25528,10 @@
         <v>2970</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -25542,10 +25542,10 @@
         <v>2972</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -25556,10 +25556,10 @@
         <v>2974</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -25570,10 +25570,10 @@
         <v>2976</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -25584,10 +25584,10 @@
         <v>2978</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -25598,10 +25598,10 @@
         <v>2980</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -25612,10 +25612,10 @@
         <v>2982</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -25626,10 +25626,10 @@
         <v>2984</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -25640,10 +25640,10 @@
         <v>2986</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -25654,10 +25654,10 @@
         <v>2988</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -25668,10 +25668,10 @@
         <v>2990</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -25682,10 +25682,10 @@
         <v>2992</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -25696,10 +25696,10 @@
         <v>2994</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25707,10 +25707,10 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3516</v>
+        <v>3511</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3511</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -25718,10 +25718,10 @@
         <v>2995</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3513</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -25729,10 +25729,10 @@
         <v>2996</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -25740,10 +25740,10 @@
         <v>2997</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3515</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -25751,10 +25751,10 @@
         <v>2998</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3517</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -25762,10 +25762,10 @@
         <v>2999</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3518</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -25773,10 +25773,10 @@
         <v>3000</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3519</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -25787,10 +25787,10 @@
         <v>3002</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3512</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -25801,10 +25801,10 @@
         <v>3004</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -25815,10 +25815,10 @@
         <v>3006</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -25829,10 +25829,10 @@
         <v>3007</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25843,10 +25843,10 @@
         <v>3007</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -25857,10 +25857,10 @@
         <v>3010</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -25871,10 +25871,10 @@
         <v>3012</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -25885,10 +25885,10 @@
         <v>3012</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -25899,10 +25899,10 @@
         <v>3012</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25913,10 +25913,10 @@
         <v>3015</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -25927,10 +25927,10 @@
         <v>3017</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -25941,10 +25941,10 @@
         <v>3019</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -25955,13 +25955,13 @@
         <v>3021</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -25969,10 +25969,10 @@
         <v>3022</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3520</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -25980,10 +25980,10 @@
         <v>3023</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3521</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -25994,10 +25994,10 @@
         <v>3025</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -26008,10 +26008,10 @@
         <v>3027</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -26022,10 +26022,10 @@
         <v>3029</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
     </row>
   </sheetData>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -7564,9 +7564,6 @@
     <t>Heavy clothing that when held, increases the odds of HP growth.</t>
   </si>
   <si>
-    <t>A doll that was given by a young boy. Strengthens your heart when held.</t>
-  </si>
-  <si>
     <t>Heavy armour that greatly increases defence.</t>
   </si>
   <si>
@@ -7838,9 +7835,6 @@
   </si>
   <si>
     <t>Grants Wil+3. Cures the mental negative statuses on all allies. (Infinite use).</t>
-  </si>
-  <si>
-    <t>Panties that a succubus surrended over. It's permeated with her scent.</t>
   </si>
   <si>
     <t>Gloves once worn by a succubus maid. They're silky to the touch. Just holding them makes you horny.</t>
@@ -10752,6 +10746,12 @@
     <t>Want some help? 
 Fufu- It all depends on how
 well known you are-</t>
+  </si>
+  <si>
+    <t>A doll that was given by a young boy. Strengthens willpower when held.</t>
+  </si>
+  <si>
+    <t>Panties that a succubus gave up. It's permeated with her scent.</t>
   </si>
 </sst>
 </file>
@@ -11733,13 +11733,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>2264</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11755,13 +11755,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>2265</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11777,13 +11777,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2266</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
@@ -12108,7 +12108,7 @@
         <v>2277</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -12132,7 +12132,7 @@
         <v>2278</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>73</v>
@@ -12156,7 +12156,7 @@
         <v>2279</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>75</v>
@@ -12169,16 +12169,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="D35" s="40" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>2816</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>2817</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>2818</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>2819</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -12200,7 +12200,7 @@
         <v>2280</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -12224,7 +12224,7 @@
         <v>2283</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>79</v>
@@ -12248,7 +12248,7 @@
         <v>2283</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -12269,10 +12269,10 @@
         <v>2220</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>81</v>
@@ -12296,7 +12296,7 @@
         <v>2281</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>83</v>
@@ -12320,7 +12320,7 @@
         <v>2282</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>85</v>
@@ -12344,7 +12344,7 @@
         <v>2273</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>87</v>
@@ -12368,7 +12368,7 @@
         <v>2284</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -12392,7 +12392,7 @@
         <v>2285</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>91</v>
@@ -12416,7 +12416,7 @@
         <v>2286</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>93</v>
@@ -12437,10 +12437,10 @@
         <v>2227</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>95</v>
@@ -12464,7 +12464,7 @@
         <v>2301</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>97</v>
@@ -12488,7 +12488,7 @@
         <v>2302</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>99</v>
@@ -12512,7 +12512,7 @@
         <v>2303</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>101</v>
@@ -12536,7 +12536,7 @@
         <v>2309</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>103</v>
@@ -12560,7 +12560,7 @@
         <v>2300</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -12584,7 +12584,7 @@
         <v>2304</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -12608,7 +12608,7 @@
         <v>2305</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -12632,7 +12632,7 @@
         <v>2305</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -12656,7 +12656,7 @@
         <v>2306</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -13157,7 +13157,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -13191,7 +13191,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -13205,7 +13205,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -13221,7 +13221,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -13235,7 +13235,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -13287,7 +13287,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -13301,7 +13301,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -13317,7 +13317,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -13331,7 +13331,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -13347,7 +13347,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -13361,7 +13361,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -13381,7 +13381,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -13395,7 +13395,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -13413,7 +13413,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -13427,7 +13427,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -13445,7 +13445,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -13459,7 +13459,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -13475,7 +13475,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -13489,7 +13489,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -13507,7 +13507,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -13521,7 +13521,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -13541,7 +13541,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -13557,7 +13557,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -13571,7 +13571,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -13587,7 +13587,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -13603,7 +13603,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -13617,7 +13617,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -13637,7 +13637,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -13653,7 +13653,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -13667,7 +13667,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -13685,7 +13685,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -13699,7 +13699,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -13719,7 +13719,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -13733,7 +13733,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -13751,7 +13751,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -13765,7 +13765,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -13783,7 +13783,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -13797,7 +13797,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -13817,7 +13817,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -13831,7 +13831,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -13845,7 +13845,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -13863,7 +13863,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -13877,7 +13877,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -13895,7 +13895,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -13909,7 +13909,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -13927,7 +13927,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -13941,7 +13941,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -13959,7 +13959,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -13973,7 +13973,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -13991,7 +13991,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -14005,7 +14005,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -14023,7 +14023,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -14037,7 +14037,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -14055,7 +14055,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -14069,7 +14069,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -14087,7 +14087,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -14101,7 +14101,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -14606,7 +14606,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -14623,7 +14623,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -14640,7 +14640,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -14657,7 +14657,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -14674,7 +14674,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -14691,13 +14691,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -14717,13 +14717,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -14743,13 +14743,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -14769,13 +14769,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -14795,13 +14795,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -14821,13 +14821,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -14847,7 +14847,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -14864,7 +14864,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -14881,7 +14881,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -14898,7 +14898,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -14915,7 +14915,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -14932,7 +14932,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -14949,7 +14949,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14963,13 +14963,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2684</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2686</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -14992,7 +14992,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -15001,10 +15001,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -15027,7 +15027,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -15036,10 +15036,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -15062,7 +15062,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -15071,10 +15071,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -15097,7 +15097,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -15106,10 +15106,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -15132,7 +15132,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -15141,10 +15141,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -15167,7 +15167,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -15176,10 +15176,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -15202,7 +15202,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -15211,10 +15211,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -15237,7 +15237,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -15246,10 +15246,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -15272,7 +15272,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -15281,10 +15281,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -15307,7 +15307,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -15316,10 +15316,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -15342,7 +15342,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -15356,7 +15356,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -15370,7 +15370,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -15384,7 +15384,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -15398,31 +15398,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>2805</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>2806</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="I33" s="40" t="s">
+        <v>2808</v>
+      </c>
+      <c r="J33" s="40" t="s">
         <v>2809</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2807</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2808</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2810</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2811</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>2812</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2813</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -15436,7 +15436,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -15450,7 +15450,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -15464,7 +15464,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -15478,7 +15478,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -15492,7 +15492,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -15506,7 +15506,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -15520,7 +15520,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -15534,7 +15534,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -15548,7 +15548,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -15562,7 +15562,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -15576,7 +15576,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -15590,7 +15590,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -15604,7 +15604,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -15618,7 +15618,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -15632,7 +15632,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -15646,7 +15646,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -15660,7 +15660,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -15674,7 +15674,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -15688,7 +15688,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -15702,7 +15702,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -15716,7 +15716,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -15730,7 +15730,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -15744,7 +15744,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -15758,7 +15758,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -15772,7 +15772,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -15786,7 +15786,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -15800,7 +15800,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -15814,7 +15814,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -15828,7 +15828,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -15842,7 +15842,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -15856,7 +15856,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -15870,7 +15870,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -15884,7 +15884,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15898,7 +15898,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -15912,7 +15912,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -15926,7 +15926,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -15940,7 +15940,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -15954,7 +15954,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -15971,7 +15971,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -15985,13 +15985,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -16002,13 +16002,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -16019,7 +16019,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -16031,13 +16031,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -16048,7 +16048,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -16060,13 +16060,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -16077,7 +16077,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -16092,16 +16092,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2758</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>2759</v>
+      </c>
+      <c r="K78" s="40" t="s">
         <v>2760</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2761</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>2762</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -16112,7 +16112,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -16124,10 +16124,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -16138,7 +16138,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -16150,10 +16150,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -16164,7 +16164,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -16187,7 +16187,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -16210,7 +16210,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -16233,7 +16233,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -16245,10 +16245,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -16259,7 +16259,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -16285,7 +16285,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -16300,7 +16300,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -16311,7 +16311,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -16323,13 +16323,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -16340,7 +16340,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -16352,10 +16352,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -16366,7 +16366,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -16378,10 +16378,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -16392,7 +16392,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -16415,7 +16415,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -16427,10 +16427,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -16441,7 +16441,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -16453,10 +16453,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
   </sheetData>
@@ -16536,7 +16536,7 @@
         <v>1306</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1307</v>
@@ -18074,10 +18074,10 @@
         <v>2195</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="E2" t="s">
         <v>1629</v>
@@ -18094,7 +18094,7 @@
         <v>2196</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2211</v>
@@ -18114,7 +18114,7 @@
         <v>2197</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2211</v>
@@ -18134,7 +18134,7 @@
         <v>2198</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2211</v>
@@ -18154,7 +18154,7 @@
         <v>2199</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2211</v>
@@ -18174,10 +18174,10 @@
         <v>2206</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1641</v>
@@ -18194,10 +18194,10 @@
         <v>2207</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1644</v>
@@ -18214,7 +18214,7 @@
         <v>2200</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2211</v>
@@ -18234,7 +18234,7 @@
         <v>2201</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2211</v>
@@ -18254,7 +18254,7 @@
         <v>2202</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2211</v>
@@ -18274,10 +18274,10 @@
         <v>2208</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1653</v>
@@ -18294,10 +18294,10 @@
         <v>2209</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1656</v>
@@ -18314,10 +18314,10 @@
         <v>2210</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1659</v>
@@ -18334,10 +18334,10 @@
         <v>2203</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="E15" t="s">
         <v>1662</v>
@@ -18354,7 +18354,7 @@
         <v>2204</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2211</v>
@@ -18374,7 +18374,7 @@
         <v>2205</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2211</v>
@@ -18442,7 +18442,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -18563,7 +18563,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -18739,7 +18739,7 @@
         <v>2388</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -18805,7 +18805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -18875,7 +18875,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -18887,7 +18887,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -18970,7 +18970,7 @@
         <v>1789</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1790</v>
@@ -18992,7 +18992,7 @@
         <v>1793</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1794</v>
@@ -19840,10 +19840,10 @@
         <v>2253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
   </sheetData>
@@ -19875,13 +19875,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -19889,27 +19889,27 @@
         <v>2316</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2318</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -19917,97 +19917,97 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2319</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -20015,41 +20015,41 @@
         <v>2317</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2320</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -20064,17 +20064,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -20084,226 +20084,226 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -20311,27 +20311,27 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2270</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -20339,27 +20339,27 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -20367,27 +20367,27 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -20395,27 +20395,27 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2271</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -20423,32 +20423,32 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -20456,21 +20456,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -20560,7 +20560,7 @@
         <v>1437</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -20940,7 +20940,7 @@
         <v>1472</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -20959,7 +20959,7 @@
         <v>1474</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -20978,7 +20978,7 @@
         <v>1476</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -20997,7 +20997,7 @@
         <v>1478</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -21890,7 +21890,7 @@
         <v>1544</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -21909,7 +21909,7 @@
         <v>1546</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -21966,7 +21966,7 @@
         <v>1549</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -21985,7 +21985,7 @@
         <v>2327</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -22004,7 +22004,7 @@
         <v>1552</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -22042,7 +22042,7 @@
         <v>1554</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -22061,7 +22061,7 @@
         <v>1556</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -22080,7 +22080,7 @@
         <v>1558</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -22099,7 +22099,7 @@
         <v>1560</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -22118,7 +22118,7 @@
         <v>1562</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -22137,7 +22137,7 @@
         <v>1564</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -22251,7 +22251,7 @@
         <v>1568</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -22270,7 +22270,7 @@
         <v>1570</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -22289,7 +22289,7 @@
         <v>1552</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -22308,7 +22308,7 @@
         <v>1549</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -22367,7 +22367,7 @@
         <v>2327</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -22386,7 +22386,7 @@
         <v>1552</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -22405,7 +22405,7 @@
         <v>1549</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -22445,7 +22445,7 @@
         <v>1574</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -22464,7 +22464,7 @@
         <v>1576</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -22483,7 +22483,7 @@
         <v>1578</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -22502,7 +22502,7 @@
         <v>1580</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -22521,7 +22521,7 @@
         <v>1582</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -22540,7 +22540,7 @@
         <v>1584</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -22559,7 +22559,7 @@
         <v>1586</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -22578,7 +22578,7 @@
         <v>1588</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -22597,7 +22597,7 @@
         <v>1590</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -22616,7 +22616,7 @@
         <v>1592</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -23203,7 +23203,7 @@
         <v>2253</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -23740,1022 +23740,1022 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24763,223 +24763,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -25021,13 +25021,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2253</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -25035,237 +25035,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25273,27 +25273,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25301,405 +25301,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25707,202 +25707,202 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>2999</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>3001</v>
-      </c>
       <c r="C60" s="40" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25910,122 +25910,122 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
   </sheetData>
@@ -26281,10 +26281,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
   </sheetData>
@@ -26299,8 +26299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -26347,7 +26347,7 @@
         <v>1950</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>201</v>
@@ -26368,7 +26368,7 @@
         <v>1951</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>205</v>
@@ -26830,7 +26830,7 @@
         <v>1973</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>289</v>
@@ -26851,7 +26851,7 @@
         <v>1974</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>293</v>
@@ -27166,7 +27166,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -27187,7 +27187,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -27208,7 +27208,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -27628,7 +27628,7 @@
         <v>2010</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>2493</v>
+        <v>3553</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>433</v>
@@ -27691,7 +27691,7 @@
         <v>2013</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>444</v>
@@ -27712,7 +27712,7 @@
         <v>2014</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>448</v>
@@ -27733,7 +27733,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>452</v>
@@ -27751,10 +27751,10 @@
         <v>455</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>456</v>
@@ -27772,10 +27772,10 @@
         <v>459</v>
       </c>
       <c r="C70" s="19" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>2499</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>2500</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>460</v>
@@ -27793,10 +27793,10 @@
         <v>463</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>464</v>
@@ -27817,7 +27817,7 @@
         <v>2016</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>468</v>
@@ -27835,10 +27835,10 @@
         <v>471</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>472</v>
@@ -27856,10 +27856,10 @@
         <v>475</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>476</v>
@@ -27877,10 +27877,10 @@
         <v>479</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>480</v>
@@ -27901,7 +27901,7 @@
         <v>2017</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>484</v>
@@ -27922,7 +27922,7 @@
         <v>2018</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>488</v>
@@ -27943,7 +27943,7 @@
         <v>2019</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>492</v>
@@ -27964,7 +27964,7 @@
         <v>2020</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>496</v>
@@ -27985,7 +27985,7 @@
         <v>2021</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>500</v>
@@ -28006,7 +28006,7 @@
         <v>2022</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>504</v>
@@ -28027,7 +28027,7 @@
         <v>2023</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>508</v>
@@ -28048,7 +28048,7 @@
         <v>2024</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>512</v>
@@ -28111,7 +28111,7 @@
         <v>2025</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>524</v>
@@ -28132,7 +28132,7 @@
         <v>2026</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>528</v>
@@ -28153,7 +28153,7 @@
         <v>2027</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>532</v>
@@ -28174,7 +28174,7 @@
         <v>2028</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>536</v>
@@ -28195,7 +28195,7 @@
         <v>2029</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>540</v>
@@ -28216,7 +28216,7 @@
         <v>2025</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>543</v>
@@ -28237,7 +28237,7 @@
         <v>2026</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>545</v>
@@ -28258,7 +28258,7 @@
         <v>2027</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>547</v>
@@ -28279,7 +28279,7 @@
         <v>2028</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>549</v>
@@ -28300,7 +28300,7 @@
         <v>2029</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>551</v>
@@ -28321,7 +28321,7 @@
         <v>2030</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>554</v>
@@ -28342,7 +28342,7 @@
         <v>2031</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>558</v>
@@ -28363,7 +28363,7 @@
         <v>2032</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>562</v>
@@ -28510,7 +28510,7 @@
         <v>2038</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>53</v>
@@ -28531,7 +28531,7 @@
         <v>2039</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>55</v>
@@ -28549,10 +28549,10 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>57</v>
@@ -28573,7 +28573,7 @@
         <v>2272</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>59</v>
@@ -28594,7 +28594,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>61</v>
@@ -28636,7 +28636,7 @@
         <v>2179</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>591</v>
@@ -28657,7 +28657,7 @@
         <v>2180</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>594</v>
@@ -28678,7 +28678,7 @@
         <v>2181</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>597</v>
@@ -28696,10 +28696,10 @@
         <v>600</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>601</v>
@@ -28717,10 +28717,10 @@
         <v>588</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>604</v>
@@ -28738,10 +28738,10 @@
         <v>606</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>605</v>
@@ -28759,10 +28759,10 @@
         <v>596</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>609</v>
@@ -28780,10 +28780,10 @@
         <v>600</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>611</v>
@@ -28801,10 +28801,10 @@
         <v>613</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>612</v>
@@ -28822,10 +28822,10 @@
         <v>616</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>615</v>
@@ -28846,7 +28846,7 @@
         <v>2041</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>620</v>
@@ -28867,7 +28867,7 @@
         <v>2042</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>624</v>
@@ -28888,7 +28888,7 @@
         <v>2043</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>628</v>
@@ -28909,7 +28909,7 @@
         <v>2044</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>632</v>
@@ -28930,7 +28930,7 @@
         <v>2045</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>636</v>
@@ -28951,7 +28951,7 @@
         <v>2046</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>640</v>
@@ -28972,7 +28972,7 @@
         <v>2047</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>644</v>
@@ -28988,10 +28988,10 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E128" s="23" t="s">
         <v>647</v>
@@ -29005,10 +29005,10 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>649</v>
@@ -29022,10 +29022,10 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>651</v>
@@ -29039,10 +29039,10 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>653</v>
@@ -29056,10 +29056,10 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="E132" s="23" t="s">
         <v>655</v>
@@ -29073,10 +29073,10 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>657</v>
@@ -29090,10 +29090,10 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>659</v>
@@ -29107,10 +29107,10 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>661</v>
@@ -29124,10 +29124,10 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>663</v>
@@ -29141,10 +29141,10 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>665</v>
@@ -29158,10 +29158,10 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>667</v>
@@ -29175,10 +29175,10 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>669</v>
@@ -29192,10 +29192,10 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>671</v>
@@ -29209,10 +29209,10 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>673</v>
@@ -29294,7 +29294,7 @@
         <v>2051</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>688</v>
@@ -29315,7 +29315,7 @@
         <v>2052</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>692</v>
@@ -29336,7 +29336,7 @@
         <v>2053</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>696</v>
@@ -29459,7 +29459,7 @@
         <v>719</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>2160</v>
@@ -29546,7 +29546,7 @@
         <v>2062</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>734</v>
@@ -29567,7 +29567,7 @@
         <v>2063</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>737</v>
@@ -29588,7 +29588,7 @@
         <v>2064</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>740</v>
@@ -29714,7 +29714,7 @@
         <v>2070</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>762</v>
@@ -29735,7 +29735,7 @@
         <v>2071</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>766</v>
@@ -29756,7 +29756,7 @@
         <v>2072</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>769</v>
@@ -29798,7 +29798,7 @@
         <v>2074</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>776</v>
@@ -29819,7 +29819,7 @@
         <v>2075</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>780</v>
@@ -29838,7 +29838,7 @@
         <v>2076</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>783</v>
@@ -29857,7 +29857,7 @@
         <v>2077</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>786</v>
@@ -29876,7 +29876,7 @@
         <v>2077</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>786</v>
@@ -29895,7 +29895,7 @@
         <v>2078</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>790</v>
@@ -29914,7 +29914,7 @@
         <v>2079</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>793</v>
@@ -29933,7 +29933,7 @@
         <v>2080</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>793</v>
@@ -29952,7 +29952,7 @@
         <v>2081</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>797</v>
@@ -29971,7 +29971,7 @@
         <v>2082</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>800</v>
@@ -29992,7 +29992,7 @@
         <v>2083</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>804</v>
@@ -30013,7 +30013,7 @@
         <v>2084</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>808</v>
@@ -30034,7 +30034,7 @@
         <v>2085</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>812</v>
@@ -30055,7 +30055,7 @@
         <v>2086</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>816</v>
@@ -30073,10 +30073,10 @@
         <v>819</v>
       </c>
       <c r="C183" s="19" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D183" s="19" t="s">
         <v>2578</v>
-      </c>
-      <c r="D183" s="19" t="s">
-        <v>2579</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>820</v>
@@ -30097,7 +30097,7 @@
         <v>2087</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>824</v>
@@ -30118,7 +30118,7 @@
         <v>2088</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>828</v>
@@ -30139,7 +30139,7 @@
         <v>2089</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>832</v>
@@ -30160,7 +30160,7 @@
         <v>2090</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>836</v>
@@ -30181,7 +30181,7 @@
         <v>2091</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>840</v>
@@ -30202,7 +30202,7 @@
         <v>2092</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>844</v>
@@ -30223,7 +30223,7 @@
         <v>2093</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>2585</v>
+        <v>3554</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>848</v>
@@ -30290,7 +30290,7 @@
         <v>2095</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>860</v>
@@ -30311,7 +30311,7 @@
         <v>2096</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>864</v>
@@ -30332,7 +30332,7 @@
         <v>2097</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>868</v>
@@ -30353,7 +30353,7 @@
         <v>2098</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>872</v>
@@ -30374,7 +30374,7 @@
         <v>2099</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>874</v>
@@ -30395,7 +30395,7 @@
         <v>2100</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>879</v>
@@ -30416,7 +30416,7 @@
         <v>2101</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>883</v>
@@ -30437,7 +30437,7 @@
         <v>2102</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>887</v>
@@ -30458,7 +30458,7 @@
         <v>2103</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>891</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -8115,12 +8115,6 @@
     <t>Save</t>
   </si>
   <si>
-    <t>Change Difficulty</t>
-  </si>
-  <si>
-    <t>Silhouette Toggle</t>
-  </si>
-  <si>
     <t>Units may not counter-attack.</t>
   </si>
   <si>
@@ -8142,9 +8136,6 @@
     <t>Use Silhouettes</t>
   </si>
   <si>
-    <t>Weakening items</t>
-  </si>
-  <si>
     <t>Obtain</t>
   </si>
   <si>
@@ -8268,12 +8259,6 @@
     <t>Unit arrangement</t>
   </si>
   <si>
-    <t>Tavern (enemy)</t>
-  </si>
-  <si>
-    <t>Treasurey</t>
-  </si>
-  <si>
     <t>Elf Shop</t>
   </si>
   <si>
@@ -10723,12 +10708,6 @@
   </si>
   <si>
     <t>Fetish Remov. Items</t>
-  </si>
-  <si>
-    <t>Freeplay Exp Gain</t>
-  </si>
-  <si>
-    <t>Counter-attack Tog.</t>
   </si>
   <si>
     <t>Item Shop</t>
@@ -10752,6 +10731,27 @@
   </si>
   <si>
     <t>Ask about the legend of the Succubus</t>
+  </si>
+  <si>
+    <t>Treasury</t>
+  </si>
+  <si>
+    <t>Tavern (Enem.)</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Silhouettes</t>
+  </si>
+  <si>
+    <t>Freeplay Exp</t>
+  </si>
+  <si>
+    <t>Counter-attacking</t>
+  </si>
+  <si>
+    <t>Fetish items</t>
   </si>
 </sst>
 </file>
@@ -11733,13 +11733,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2799</v>
+        <v>2794</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>2263</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -11755,13 +11755,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>2264</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -11777,13 +11777,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2797</v>
+        <v>2792</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2265</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
@@ -12108,7 +12108,7 @@
         <v>2276</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2811</v>
+        <v>2806</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -12169,16 +12169,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2815</v>
+        <v>2810</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>2812</v>
+        <v>2807</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>2813</v>
+        <v>2808</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>2814</v>
+        <v>2809</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -12200,7 +12200,7 @@
         <v>2279</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2810</v>
+        <v>2805</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -12368,7 +12368,7 @@
         <v>2283</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>3537</v>
+        <v>3532</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -12437,7 +12437,7 @@
         <v>2226</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>3508</v>
+        <v>3503</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>2645</v>
@@ -12560,7 +12560,7 @@
         <v>2299</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -12584,7 +12584,7 @@
         <v>2303</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>3538</v>
+        <v>3533</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -13112,7 +13112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
@@ -13157,7 +13157,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2796</v>
+        <v>2791</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -13191,7 +13191,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -13205,7 +13205,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -13221,7 +13221,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2762</v>
+        <v>2757</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -13235,7 +13235,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2763</v>
+        <v>2758</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -13287,7 +13287,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -13301,7 +13301,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -13317,7 +13317,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -13331,7 +13331,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2764</v>
+        <v>2759</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -13347,7 +13347,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -13361,7 +13361,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2765</v>
+        <v>2760</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -13381,7 +13381,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2766</v>
+        <v>2761</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -13395,7 +13395,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2767</v>
+        <v>2762</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -13413,7 +13413,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -13427,7 +13427,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -13445,7 +13445,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -13459,7 +13459,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -13475,7 +13475,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2769</v>
+        <v>2764</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -13489,7 +13489,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -13507,7 +13507,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2771</v>
+        <v>2766</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -13521,7 +13521,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2768</v>
+        <v>2763</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -13541,7 +13541,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2772</v>
+        <v>2767</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -13557,7 +13557,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2774</v>
+        <v>2769</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -13571,7 +13571,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2773</v>
+        <v>2768</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -13587,7 +13587,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2775</v>
+        <v>2770</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -13603,7 +13603,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2776</v>
+        <v>2771</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -13617,7 +13617,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2777</v>
+        <v>2772</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -13637,7 +13637,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2778</v>
+        <v>2773</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -13653,7 +13653,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2779</v>
+        <v>2774</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -13667,7 +13667,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -13685,7 +13685,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2781</v>
+        <v>2776</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -13699,7 +13699,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2782</v>
+        <v>2777</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -13719,7 +13719,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2783</v>
+        <v>2778</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -13733,7 +13733,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -13751,7 +13751,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -13765,7 +13765,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2780</v>
+        <v>2775</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -13783,7 +13783,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -13797,7 +13797,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2786</v>
+        <v>2781</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -13817,7 +13817,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>3554</v>
+        <v>3547</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -13831,7 +13831,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2787</v>
+        <v>2782</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -13845,7 +13845,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2788</v>
+        <v>2783</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -13863,7 +13863,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -13877,7 +13877,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -13895,7 +13895,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>2790</v>
+        <v>2785</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -13909,7 +13909,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2789</v>
+        <v>2784</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -13927,7 +13927,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2791</v>
+        <v>2786</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -13941,7 +13941,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2792</v>
+        <v>2787</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -13959,7 +13959,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -13973,7 +13973,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -13991,7 +13991,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -14005,7 +14005,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -14023,7 +14023,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -14037,7 +14037,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -14055,7 +14055,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -14069,7 +14069,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -14087,7 +14087,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2794</v>
+        <v>2789</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -14101,7 +14101,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2793</v>
+        <v>2788</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -14573,8 +14573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6"/>
@@ -14949,7 +14949,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2676</v>
+        <v>3550</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14963,13 +14963,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>2678</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2680</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2682</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -14992,7 +14992,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2677</v>
+        <v>3551</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -15001,10 +15001,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -15027,7 +15027,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3547</v>
+        <v>3553</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -15036,10 +15036,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -15062,7 +15062,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2685</v>
+        <v>3554</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -15071,10 +15071,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -15097,7 +15097,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3545</v>
+        <v>3540</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -15106,10 +15106,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -15132,7 +15132,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -15141,10 +15141,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -15167,7 +15167,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -15176,10 +15176,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -15202,7 +15202,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -15211,10 +15211,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -15237,7 +15237,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3546</v>
+        <v>3552</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -15246,10 +15246,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -15272,7 +15272,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -15281,10 +15281,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -15307,7 +15307,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -15316,10 +15316,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -15342,7 +15342,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -15356,7 +15356,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -15370,7 +15370,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -15401,28 +15401,28 @@
         <v>2659</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>2797</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>2800</v>
+      </c>
+      <c r="J33" s="40" t="s">
         <v>2801</v>
       </c>
-      <c r="E33" s="40" t="s">
-        <v>2804</v>
-      </c>
-      <c r="F33" s="40" t="s">
+      <c r="K33" s="40" t="s">
         <v>2802</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2803</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>2805</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>2806</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>2807</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2808</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -15436,7 +15436,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -15450,7 +15450,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -15464,7 +15464,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -15478,7 +15478,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -15492,7 +15492,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -15506,7 +15506,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -15520,7 +15520,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -15534,7 +15534,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -15548,7 +15548,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -15562,7 +15562,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -15576,7 +15576,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -15590,7 +15590,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -15604,7 +15604,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -15618,7 +15618,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -15632,7 +15632,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -15646,7 +15646,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -15660,7 +15660,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -15674,7 +15674,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -15688,7 +15688,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -15702,7 +15702,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -15716,7 +15716,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -15744,7 +15744,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -15772,7 +15772,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -15786,7 +15786,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -15800,7 +15800,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -15814,7 +15814,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -15828,7 +15828,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -15856,7 +15856,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -15870,7 +15870,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -15884,7 +15884,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>2727</v>
+        <v>3549</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15898,7 +15898,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>2728</v>
+        <v>3548</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -15912,7 +15912,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2729</v>
+        <v>2724</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -15926,7 +15926,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2731</v>
+        <v>2726</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -15940,7 +15940,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3548</v>
+        <v>3541</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -15954,7 +15954,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2730</v>
+        <v>2725</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -15971,7 +15971,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2734</v>
+        <v>2729</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -15985,13 +15985,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2733</v>
+        <v>2728</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2748</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -16002,13 +16002,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2735</v>
+        <v>2730</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2749</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -16019,7 +16019,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2750</v>
+        <v>2745</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -16031,13 +16031,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2760</v>
+        <v>2755</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -16048,7 +16048,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2736</v>
+        <v>2731</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -16060,13 +16060,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -16077,7 +16077,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2737</v>
+        <v>2732</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -16092,16 +16092,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>2756</v>
+        <v>2751</v>
       </c>
       <c r="J78" s="40" t="s">
-        <v>2757</v>
+        <v>2752</v>
       </c>
       <c r="K78" s="40" t="s">
-        <v>2758</v>
+        <v>2753</v>
       </c>
       <c r="L78" s="40" t="s">
-        <v>2759</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -16112,7 +16112,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2738</v>
+        <v>2733</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -16124,10 +16124,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -16138,7 +16138,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2739</v>
+        <v>2734</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -16150,10 +16150,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -16164,7 +16164,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2740</v>
+        <v>2735</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -16187,7 +16187,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2732</v>
+        <v>2727</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -16210,7 +16210,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2741</v>
+        <v>2736</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -16233,7 +16233,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2742</v>
+        <v>2737</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -16245,10 +16245,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -16259,7 +16259,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2743</v>
+        <v>2738</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -16285,7 +16285,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2744</v>
+        <v>2739</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -16300,7 +16300,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2746</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -16311,7 +16311,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2745</v>
+        <v>2740</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -16323,13 +16323,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2747</v>
+        <v>2742</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -16340,7 +16340,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2751</v>
+        <v>2746</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -16352,10 +16352,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -16366,7 +16366,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2752</v>
+        <v>2747</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -16378,10 +16378,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -16392,7 +16392,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2753</v>
+        <v>2748</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -16415,7 +16415,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2754</v>
+        <v>2749</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -16427,10 +16427,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -16441,7 +16441,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2755</v>
+        <v>2750</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -16453,10 +16453,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
   </sheetData>
@@ -16475,7 +16475,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -18074,7 +18074,7 @@
         <v>2194</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2816</v>
+        <v>2811</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2612</v>
@@ -18094,7 +18094,7 @@
         <v>2195</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2210</v>
@@ -18114,7 +18114,7 @@
         <v>2196</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2210</v>
@@ -18134,7 +18134,7 @@
         <v>2197</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2210</v>
@@ -18154,7 +18154,7 @@
         <v>2198</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2210</v>
@@ -18174,7 +18174,7 @@
         <v>2205</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2818</v>
+        <v>2813</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>2613</v>
@@ -18194,7 +18194,7 @@
         <v>2206</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2819</v>
+        <v>2814</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>2616</v>
@@ -18214,7 +18214,7 @@
         <v>2199</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2210</v>
@@ -18234,7 +18234,7 @@
         <v>2200</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2210</v>
@@ -18254,7 +18254,7 @@
         <v>2201</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2210</v>
@@ -18274,7 +18274,7 @@
         <v>2207</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2820</v>
+        <v>2815</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>2615</v>
@@ -18294,7 +18294,7 @@
         <v>2208</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2821</v>
+        <v>2816</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>2617</v>
@@ -18314,7 +18314,7 @@
         <v>2209</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2822</v>
+        <v>2817</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>2618</v>
@@ -18334,7 +18334,7 @@
         <v>2202</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2823</v>
+        <v>2818</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>2614</v>
@@ -18354,7 +18354,7 @@
         <v>2203</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2210</v>
@@ -18374,7 +18374,7 @@
         <v>2204</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2817</v>
+        <v>2812</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2210</v>
@@ -18442,7 +18442,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2827</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -18563,7 +18563,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2824</v>
+        <v>2819</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -18739,7 +18739,7 @@
         <v>2387</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2825</v>
+        <v>2820</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -18875,7 +18875,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>3549</v>
+        <v>3542</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -18887,7 +18887,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2809</v>
+        <v>2804</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -19840,10 +19840,10 @@
         <v>2252</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3020</v>
+        <v>3015</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
     </row>
   </sheetData>
@@ -19875,13 +19875,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2252</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -19889,27 +19889,27 @@
         <v>2315</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2831</v>
+        <v>2826</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3512</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
-        <v>2832</v>
+        <v>2827</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2833</v>
+        <v>2828</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2317</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3510</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -19917,97 +19917,97 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2834</v>
+        <v>2829</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3511</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
-        <v>2835</v>
+        <v>2830</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3023</v>
+        <v>3018</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3022</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
-        <v>2837</v>
+        <v>2832</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2838</v>
+        <v>2833</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3513</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
-        <v>2839</v>
+        <v>2834</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2840</v>
+        <v>2835</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2318</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
-        <v>2841</v>
+        <v>2836</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2842</v>
+        <v>2837</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3515</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
-        <v>2843</v>
+        <v>2838</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2844</v>
+        <v>2839</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3516</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2845</v>
+        <v>2840</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2844</v>
+        <v>2839</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3516</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -20015,41 +20015,41 @@
         <v>2316</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2798</v>
+        <v>2793</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2319</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3519</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
-        <v>2846</v>
+        <v>2841</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2847</v>
+        <v>2842</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3517</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
-        <v>2848</v>
+        <v>2843</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2849</v>
+        <v>2844</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3518</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -20064,17 +20064,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2850</v>
+        <v>2845</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3024</v>
+        <v>3019</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2851</v>
+        <v>2846</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -20084,226 +20084,226 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
-        <v>2852</v>
+        <v>2847</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2853</v>
+        <v>2848</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3347</v>
+        <v>3342</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3520</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
-        <v>2854</v>
+        <v>2849</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2855</v>
+        <v>2850</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3348</v>
+        <v>3343</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3521</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
-        <v>2856</v>
+        <v>2851</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2857</v>
+        <v>2852</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3350</v>
+        <v>3345</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3522</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
-        <v>2858</v>
+        <v>2853</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2859</v>
+        <v>2854</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3349</v>
+        <v>3344</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3523</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
-        <v>2860</v>
+        <v>2855</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2861</v>
+        <v>2856</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3524</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
-        <v>2862</v>
+        <v>2857</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2863</v>
+        <v>2858</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3525</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2864</v>
+        <v>2859</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2863</v>
+        <v>2858</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3525</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
-        <v>2865</v>
+        <v>2860</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2866</v>
+        <v>2861</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3526</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2867</v>
+        <v>2862</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2866</v>
+        <v>2861</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3526</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2868</v>
+        <v>2863</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2866</v>
+        <v>2861</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3526</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
-        <v>2869</v>
+        <v>2864</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3527</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2871</v>
+        <v>2866</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3527</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3527</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
-        <v>2873</v>
+        <v>2868</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3335</v>
+        <v>3330</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3528</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2875</v>
+        <v>2870</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3528</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2876</v>
+        <v>2871</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3528</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -20311,27 +20311,27 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2877</v>
+        <v>2872</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3529</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
-        <v>2878</v>
+        <v>2873</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2879</v>
+        <v>2874</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2269</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3530</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -20339,27 +20339,27 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2880</v>
+        <v>2875</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3531</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
-        <v>2881</v>
+        <v>2876</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3532</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -20367,27 +20367,27 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2883</v>
+        <v>2878</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3533</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
-        <v>2884</v>
+        <v>2879</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2885</v>
+        <v>2880</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3534</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -20395,27 +20395,27 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2270</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3535</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2887</v>
+        <v>2882</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2886</v>
+        <v>2881</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3535</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -20423,32 +20423,32 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3342</v>
+        <v>3337</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3536</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2889</v>
+        <v>2884</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2888</v>
+        <v>2883</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3343</v>
+        <v>3338</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3536</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2890</v>
+        <v>2885</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -20456,21 +20456,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2891</v>
+        <v>2886</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3344</v>
+        <v>3339</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2892</v>
+        <v>2887</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -23203,7 +23203,7 @@
         <v>2252</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -23740,1022 +23740,1022 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3472</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3247</v>
+        <v>3242</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3474</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3248</v>
+        <v>3243</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3475</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3249</v>
+        <v>3244</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3476</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3250</v>
+        <v>3245</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3477</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>3100</v>
+        <v>3095</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3478</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3479</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3481</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3482</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3483</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3484</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3485</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3486</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3487</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3488</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3489</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3473</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3490</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3491</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3492</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3493</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3494</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3425</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3430</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3509</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>3165</v>
+        <v>3160</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3288</v>
+        <v>3283</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3174</v>
+        <v>3169</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3175</v>
+        <v>3170</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3178</v>
+        <v>3173</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>3296</v>
+        <v>3291</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3446</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>3298</v>
+        <v>3293</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3446</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3299</v>
+        <v>3294</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3447</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3300</v>
+        <v>3295</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3447</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>3301</v>
+        <v>3296</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3447</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3302</v>
+        <v>3297</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3448</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3304</v>
+        <v>3299</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3448</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3190</v>
+        <v>3185</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3448</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3191</v>
+        <v>3186</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3449</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3306</v>
+        <v>3301</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3450</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3194</v>
+        <v>3189</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>3307</v>
+        <v>3302</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3451</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3452</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>3199</v>
+        <v>3194</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3453</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3200</v>
+        <v>3195</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3201</v>
+        <v>3196</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3454</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3202</v>
+        <v>3197</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>3311</v>
+        <v>3306</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3455</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3455</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3205</v>
+        <v>3200</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3456</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3208</v>
+        <v>3203</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>3312</v>
+        <v>3307</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3454</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3209</v>
+        <v>3204</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>3210</v>
+        <v>3205</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>3313</v>
+        <v>3308</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3457</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3211</v>
+        <v>3206</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3212</v>
+        <v>3207</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3458</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3213</v>
+        <v>3208</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>3214</v>
+        <v>3209</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>3314</v>
+        <v>3309</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3459</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -24763,223 +24763,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3215</v>
+        <v>3210</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3315</v>
+        <v>3310</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3216</v>
+        <v>3211</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>3217</v>
+        <v>3212</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3461</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3218</v>
+        <v>3213</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3219</v>
+        <v>3214</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3220</v>
+        <v>3215</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>3221</v>
+        <v>3216</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3463</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3222</v>
+        <v>3217</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3223</v>
+        <v>3218</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3224</v>
+        <v>3219</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>3225</v>
+        <v>3220</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3228</v>
+        <v>3223</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>3229</v>
+        <v>3224</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3230</v>
+        <v>3225</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3231</v>
+        <v>3226</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3232</v>
+        <v>3227</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>3233</v>
+        <v>3228</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3467</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3234</v>
+        <v>3229</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3235</v>
+        <v>3230</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3468</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3236</v>
+        <v>3231</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3480</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3238</v>
+        <v>3233</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3239</v>
+        <v>3234</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3469</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3240</v>
+        <v>3235</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>3241</v>
+        <v>3236</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3470</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3242</v>
+        <v>3237</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3471</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3244</v>
+        <v>3239</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3541</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -25021,13 +25021,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2830</v>
+        <v>2825</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2252</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -25035,237 +25035,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2893</v>
+        <v>2888</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3506</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
-        <v>2894</v>
+        <v>2889</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2895</v>
+        <v>2890</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
-        <v>2896</v>
+        <v>2891</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2897</v>
+        <v>2892</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>2898</v>
+        <v>2893</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2899</v>
+        <v>2894</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3032</v>
+        <v>3027</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2901</v>
+        <v>2896</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
-        <v>2902</v>
+        <v>2897</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2903</v>
+        <v>2898</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3539</v>
+        <v>3534</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
-        <v>2904</v>
+        <v>2899</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2905</v>
+        <v>2900</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3540</v>
+        <v>3535</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
-        <v>2906</v>
+        <v>2901</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2907</v>
+        <v>2902</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
-        <v>2908</v>
+        <v>2903</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2909</v>
+        <v>2904</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>2910</v>
+        <v>2905</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2911</v>
+        <v>2906</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2913</v>
+        <v>2908</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>2914</v>
+        <v>2909</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2915</v>
+        <v>2910</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3054</v>
+        <v>3049</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>2916</v>
+        <v>2911</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2917</v>
+        <v>2912</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2919</v>
+        <v>2914</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3053</v>
+        <v>3048</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2923</v>
+        <v>2918</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3051</v>
+        <v>3046</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25273,27 +25273,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3507</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -25301,405 +25301,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3065</v>
+        <v>3060</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2935</v>
+        <v>2930</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
-        <v>2936</v>
+        <v>2931</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2937</v>
+        <v>2932</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
-        <v>2938</v>
+        <v>2933</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2939</v>
+        <v>2934</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3388</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
-        <v>2940</v>
+        <v>2935</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2941</v>
+        <v>2936</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3059</v>
+        <v>3054</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3389</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
-        <v>2942</v>
+        <v>2937</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2943</v>
+        <v>2938</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3390</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
-        <v>2944</v>
+        <v>2939</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2945</v>
+        <v>2940</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3391</v>
+        <v>3386</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3392</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
-        <v>2946</v>
+        <v>2941</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2947</v>
+        <v>2942</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3386</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
-        <v>2948</v>
+        <v>2943</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2949</v>
+        <v>2944</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3393</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
-        <v>2950</v>
+        <v>2945</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2951</v>
+        <v>2946</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
-        <v>2952</v>
+        <v>2947</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3394</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2955</v>
+        <v>2950</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3387</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
-        <v>2956</v>
+        <v>2951</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
-        <v>2958</v>
+        <v>2953</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2959</v>
+        <v>2954</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
-        <v>2960</v>
+        <v>2955</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2961</v>
+        <v>2956</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
-        <v>2962</v>
+        <v>2957</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2963</v>
+        <v>2958</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3399</v>
+        <v>3394</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3400</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
-        <v>2966</v>
+        <v>2961</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2967</v>
+        <v>2962</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
-        <v>2968</v>
+        <v>2963</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2969</v>
+        <v>2964</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
-        <v>2970</v>
+        <v>2965</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2971</v>
+        <v>2966</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3071</v>
+        <v>3066</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3404</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
-        <v>2972</v>
+        <v>2967</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2973</v>
+        <v>2968</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2975</v>
+        <v>2970</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
-        <v>2976</v>
+        <v>2971</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
-        <v>2978</v>
+        <v>2973</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2979</v>
+        <v>2974</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
-        <v>2980</v>
+        <v>2975</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2981</v>
+        <v>2976</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
-        <v>2982</v>
+        <v>2977</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2983</v>
+        <v>2978</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25707,202 +25707,202 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3500</v>
+        <v>3495</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3495</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
-        <v>2984</v>
+        <v>2979</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3497</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2985</v>
+        <v>2980</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3498</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2986</v>
+        <v>2981</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3499</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>2987</v>
+        <v>2982</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3501</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>2988</v>
+        <v>2983</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3502</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>2989</v>
+        <v>2984</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3503</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2991</v>
+        <v>2986</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3496</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
-        <v>2992</v>
+        <v>2987</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
-        <v>2994</v>
+        <v>2989</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2995</v>
+        <v>2990</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>2994</v>
+        <v>2989</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2996</v>
+        <v>2991</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>2997</v>
+        <v>2992</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2996</v>
+        <v>2991</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
-        <v>2998</v>
+        <v>2993</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2999</v>
+        <v>2994</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
-        <v>3000</v>
+        <v>2995</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>3002</v>
+        <v>2997</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>3003</v>
+        <v>2998</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -25910,122 +25910,122 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3004</v>
+        <v>2999</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
-        <v>3005</v>
+        <v>3000</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3006</v>
+        <v>3001</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3008</v>
+        <v>3003</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
-        <v>3009</v>
+        <v>3004</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3045</v>
+        <v>3040</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3504</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3046</v>
+        <v>3041</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3505</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
-        <v>3013</v>
+        <v>3008</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3014</v>
+        <v>3009</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3047</v>
+        <v>3042</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3421</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
-        <v>3015</v>
+        <v>3010</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3016</v>
+        <v>3011</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3048</v>
+        <v>3043</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3422</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3049</v>
+        <v>3044</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
     </row>
   </sheetData>
@@ -26281,10 +26281,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
-        <v>2828</v>
+        <v>2823</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>2829</v>
+        <v>2824</v>
       </c>
     </row>
   </sheetData>
@@ -26299,8 +26299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -27166,7 +27166,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2826</v>
+        <v>2821</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -27187,7 +27187,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2826</v>
+        <v>2821</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -27208,7 +27208,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2826</v>
+        <v>2821</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -27628,7 +27628,7 @@
         <v>2010</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>3550</v>
+        <v>3543</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>433</v>
@@ -28426,7 +28426,7 @@
         <v>2269</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>3552</v>
+        <v>3545</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>47</v>
@@ -28549,7 +28549,7 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>2521</v>
@@ -28594,7 +28594,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>3553</v>
+        <v>3546</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>61</v>
@@ -30223,7 +30223,7 @@
         <v>2093</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>3551</v>
+        <v>3544</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>848</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="names-名前" sheetId="1" r:id="rId1"/>
@@ -10718,9 +10718,6 @@
 well known you are-</t>
   </si>
   <si>
-    <t>A doll that was given by a young boy. Strengthens willpower when held.</t>
-  </si>
-  <si>
     <t>Panties that a succubus gave up. It's permeated with her scent.</t>
   </si>
   <si>
@@ -10752,6 +10749,9 @@
   </si>
   <si>
     <t>Fetish items</t>
+  </si>
+  <si>
+    <t>A doll that was given by a young boy. Strengthens heart when held.</t>
   </si>
 </sst>
 </file>
@@ -13817,7 +13817,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -14573,7 +14573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -14949,7 +14949,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -14992,7 +14992,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -15027,7 +15027,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -15062,7 +15062,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -15237,7 +15237,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -15884,7 +15884,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -15898,7 +15898,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -26299,8 +26299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -26308,7 +26308,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="27.92578125" customWidth="1"/>
-    <col min="4" max="4" width="53.5" customWidth="1"/>
+    <col min="4" max="4" width="58.640625" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.92578125" customWidth="1"/>
   </cols>
@@ -27628,7 +27628,7 @@
         <v>2010</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>3543</v>
+        <v>3554</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>433</v>
@@ -28426,7 +28426,7 @@
         <v>2269</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>47</v>
@@ -28594,7 +28594,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>61</v>
@@ -30223,7 +30223,7 @@
         <v>2093</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>848</v>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="23" r:id="rId1"/>
@@ -7016,9 +7016,6 @@
     <t>Knight</t>
   </si>
   <si>
-    <t>Urgh, I'm not ready...</t>
-  </si>
-  <si>
     <t>Heh, you bet!</t>
   </si>
   <si>
@@ -8365,9 +8362,6 @@
     <t>Ignore it and run after the woman</t>
   </si>
   <si>
-    <t>Take your bellongings</t>
-  </si>
-  <si>
     <t>Fall at her mercy</t>
   </si>
   <si>
@@ -8408,12 +8402,6 @@
   </si>
   <si>
     <t>Reject her proposal</t>
-  </si>
-  <si>
-    <t>It's interesting…</t>
-  </si>
-  <si>
-    <t>Lean forward</t>
   </si>
   <si>
     <t>Turn the other way</t>
@@ -10879,6 +10867,18 @@
   </si>
   <si>
     <t>Nusing Handjob</t>
+  </si>
+  <si>
+    <t>Pucker your lips</t>
+  </si>
+  <si>
+    <t>Take your belongings</t>
+  </si>
+  <si>
+    <t>Give in to seduction</t>
+  </si>
+  <si>
+    <t>Urgh, I'm not ready…</t>
   </si>
 </sst>
 </file>
@@ -11647,44 +11647,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>3557</v>
+        <v>3553</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>3558</v>
+        <v>3554</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>3559</v>
+        <v>3555</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>3581</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
-        <v>3568</v>
+        <v>3564</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>3582</v>
+        <v>3578</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>3558</v>
+        <v>3554</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>3559</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="40" t="s">
-        <v>3560</v>
+        <v>3556</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>3562</v>
+        <v>3558</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>3561</v>
+        <v>3557</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11695,56 +11695,56 @@
         <v>2089</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3543</v>
+        <v>3539</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>2277</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>3520</v>
+        <v>3516</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="40" t="s">
-        <v>3563</v>
+        <v>3559</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>3564</v>
+        <v>3560</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3544</v>
+        <v>3540</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>2278</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="40" t="s">
-        <v>3565</v>
+        <v>3561</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>3566</v>
+        <v>3562</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3567</v>
+        <v>3563</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>2297</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>3521</v>
+        <v>3517</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>3584</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11755,36 +11755,36 @@
         <v>2073</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3569</v>
+        <v>3565</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>2298</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="40" t="s">
-        <v>3570</v>
+        <v>3566</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>2095</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3556</v>
+        <v>3552</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>2258</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>3338</v>
+        <v>3334</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>3587</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11795,16 +11795,16 @@
         <v>2102</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>2259</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>3588</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.9">
@@ -11815,7 +11815,7 @@
         <v>2279</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.9">
@@ -11823,53 +11823,53 @@
         <v>2020</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>3591</v>
+        <v>3587</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="40" t="s">
-        <v>3574</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="40" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>3275</v>
+        <v>3271</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3555</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="40" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>3280</v>
+        <v>3276</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="40" t="s">
-        <v>3575</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="40" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11880,12 +11880,12 @@
         <v>2253</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="40" t="s">
-        <v>3579</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11896,18 +11896,18 @@
         <v>2182</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="40" t="s">
-        <v>3577</v>
+        <v>3573</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>2180</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3549</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11918,7 +11918,7 @@
         <v>2181</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11926,10 +11926,10 @@
         <v>1314</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>3578</v>
+        <v>3574</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11937,10 +11937,10 @@
         <v>1521</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3593</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11948,10 +11948,10 @@
         <v>1515</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3594</v>
+        <v>3590</v>
       </c>
     </row>
   </sheetData>
@@ -12012,7 +12012,7 @@
         <v>1950</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>201</v>
@@ -12033,7 +12033,7 @@
         <v>1951</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>205</v>
@@ -12327,7 +12327,7 @@
         <v>1965</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>257</v>
@@ -12495,7 +12495,7 @@
         <v>1973</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>289</v>
@@ -12516,7 +12516,7 @@
         <v>1974</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>293</v>
@@ -12831,7 +12831,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -12852,7 +12852,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -12873,7 +12873,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -12978,7 +12978,7 @@
         <v>1996</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>376</v>
@@ -12999,7 +12999,7 @@
         <v>1997</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>380</v>
@@ -13020,7 +13020,7 @@
         <v>1998</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>384</v>
@@ -13041,7 +13041,7 @@
         <v>1999</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>388</v>
@@ -13062,7 +13062,7 @@
         <v>2000</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>392</v>
@@ -13083,7 +13083,7 @@
         <v>2001</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>396</v>
@@ -13104,7 +13104,7 @@
         <v>2002</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>400</v>
@@ -13122,10 +13122,10 @@
         <v>403</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>404</v>
@@ -13146,7 +13146,7 @@
         <v>2003</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>408</v>
@@ -13167,7 +13167,7 @@
         <v>2004</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>412</v>
@@ -13188,7 +13188,7 @@
         <v>2005</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>416</v>
@@ -13209,7 +13209,7 @@
         <v>2006</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>420</v>
@@ -13230,7 +13230,7 @@
         <v>2007</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>423</v>
@@ -13251,7 +13251,7 @@
         <v>2008</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>426</v>
@@ -13272,7 +13272,7 @@
         <v>2009</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>429</v>
@@ -13293,7 +13293,7 @@
         <v>2010</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>3542</v>
+        <v>3538</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>433</v>
@@ -13356,7 +13356,7 @@
         <v>2013</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>444</v>
@@ -13377,7 +13377,7 @@
         <v>2014</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>448</v>
@@ -13398,7 +13398,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>452</v>
@@ -13416,10 +13416,10 @@
         <v>455</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>456</v>
@@ -13437,10 +13437,10 @@
         <v>459</v>
       </c>
       <c r="C70" s="19" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>2490</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>2491</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>460</v>
@@ -13458,10 +13458,10 @@
         <v>463</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>464</v>
@@ -13482,7 +13482,7 @@
         <v>2016</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>468</v>
@@ -13500,10 +13500,10 @@
         <v>471</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>472</v>
@@ -13521,10 +13521,10 @@
         <v>475</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>476</v>
@@ -13542,10 +13542,10 @@
         <v>479</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>480</v>
@@ -13566,7 +13566,7 @@
         <v>2017</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>484</v>
@@ -13587,7 +13587,7 @@
         <v>2018</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>488</v>
@@ -13608,7 +13608,7 @@
         <v>2019</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>492</v>
@@ -13629,7 +13629,7 @@
         <v>2020</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>496</v>
@@ -13650,7 +13650,7 @@
         <v>2021</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>500</v>
@@ -13671,7 +13671,7 @@
         <v>2022</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>504</v>
@@ -13692,7 +13692,7 @@
         <v>2023</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>508</v>
@@ -13713,7 +13713,7 @@
         <v>2024</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>512</v>
@@ -13776,7 +13776,7 @@
         <v>2025</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>524</v>
@@ -13797,7 +13797,7 @@
         <v>2026</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>528</v>
@@ -13818,7 +13818,7 @@
         <v>2027</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>532</v>
@@ -13839,7 +13839,7 @@
         <v>2028</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>536</v>
@@ -13860,7 +13860,7 @@
         <v>2029</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>540</v>
@@ -13881,7 +13881,7 @@
         <v>2025</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>543</v>
@@ -13902,7 +13902,7 @@
         <v>2026</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>545</v>
@@ -13923,7 +13923,7 @@
         <v>2027</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>547</v>
@@ -13944,7 +13944,7 @@
         <v>2028</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>549</v>
@@ -13965,7 +13965,7 @@
         <v>2029</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>551</v>
@@ -13986,7 +13986,7 @@
         <v>2030</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>554</v>
@@ -14007,7 +14007,7 @@
         <v>2031</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>558</v>
@@ -14028,7 +14028,7 @@
         <v>2032</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>562</v>
@@ -14091,7 +14091,7 @@
         <v>2263</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>3532</v>
+        <v>3528</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>47</v>
@@ -14175,7 +14175,7 @@
         <v>2038</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>53</v>
@@ -14196,7 +14196,7 @@
         <v>2039</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>55</v>
@@ -14214,10 +14214,10 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>57</v>
@@ -14238,7 +14238,7 @@
         <v>2265</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>59</v>
@@ -14259,7 +14259,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>3533</v>
+        <v>3529</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>61</v>
@@ -14301,7 +14301,7 @@
         <v>2173</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>591</v>
@@ -14322,7 +14322,7 @@
         <v>2174</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>594</v>
@@ -14343,7 +14343,7 @@
         <v>2175</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>597</v>
@@ -14361,10 +14361,10 @@
         <v>600</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>601</v>
@@ -14382,10 +14382,10 @@
         <v>588</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>604</v>
@@ -14403,10 +14403,10 @@
         <v>606</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>605</v>
@@ -14424,10 +14424,10 @@
         <v>596</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>609</v>
@@ -14445,10 +14445,10 @@
         <v>600</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>611</v>
@@ -14466,10 +14466,10 @@
         <v>613</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>612</v>
@@ -14487,10 +14487,10 @@
         <v>616</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>615</v>
@@ -14511,7 +14511,7 @@
         <v>2041</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>620</v>
@@ -14532,7 +14532,7 @@
         <v>2042</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>624</v>
@@ -14553,7 +14553,7 @@
         <v>2043</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>628</v>
@@ -14574,7 +14574,7 @@
         <v>2044</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>632</v>
@@ -14595,7 +14595,7 @@
         <v>2045</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>636</v>
@@ -14616,7 +14616,7 @@
         <v>2046</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>640</v>
@@ -14637,7 +14637,7 @@
         <v>2047</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>644</v>
@@ -14653,10 +14653,10 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="E128" s="23" t="s">
         <v>647</v>
@@ -14670,10 +14670,10 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>649</v>
@@ -14687,10 +14687,10 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>651</v>
@@ -14704,10 +14704,10 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>653</v>
@@ -14721,10 +14721,10 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="E132" s="23" t="s">
         <v>655</v>
@@ -14738,10 +14738,10 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>657</v>
@@ -14755,10 +14755,10 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>659</v>
@@ -14772,10 +14772,10 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>661</v>
@@ -14789,10 +14789,10 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>663</v>
@@ -14806,10 +14806,10 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>665</v>
@@ -14823,10 +14823,10 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>667</v>
@@ -14840,10 +14840,10 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>669</v>
@@ -14857,10 +14857,10 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>671</v>
@@ -14874,10 +14874,10 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>673</v>
@@ -14959,7 +14959,7 @@
         <v>2051</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>688</v>
@@ -14980,7 +14980,7 @@
         <v>2052</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>692</v>
@@ -15001,7 +15001,7 @@
         <v>2053</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>696</v>
@@ -15124,7 +15124,7 @@
         <v>719</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>2155</v>
@@ -15211,7 +15211,7 @@
         <v>2062</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>734</v>
@@ -15232,7 +15232,7 @@
         <v>2063</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>737</v>
@@ -15253,7 +15253,7 @@
         <v>2064</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>740</v>
@@ -15379,7 +15379,7 @@
         <v>2070</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>762</v>
@@ -15400,7 +15400,7 @@
         <v>2071</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>766</v>
@@ -15421,7 +15421,7 @@
         <v>2072</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>769</v>
@@ -15439,7 +15439,7 @@
         <v>771</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
       <c r="D168" s="19" t="s">
         <v>2144</v>
@@ -15463,7 +15463,7 @@
         <v>2073</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>776</v>
@@ -15484,7 +15484,7 @@
         <v>2074</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>780</v>
@@ -15503,7 +15503,7 @@
         <v>2075</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>783</v>
@@ -15519,10 +15519,10 @@
         <v>785</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>3545</v>
+        <v>3541</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>786</v>
@@ -15538,10 +15538,10 @@
         <v>787</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>3545</v>
+        <v>3541</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>786</v>
@@ -15560,7 +15560,7 @@
         <v>1982</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>790</v>
@@ -15579,7 +15579,7 @@
         <v>2076</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>793</v>
@@ -15598,7 +15598,7 @@
         <v>2077</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>793</v>
@@ -15617,7 +15617,7 @@
         <v>2078</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>797</v>
@@ -15636,7 +15636,7 @@
         <v>2079</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>800</v>
@@ -15657,7 +15657,7 @@
         <v>2080</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>804</v>
@@ -15678,7 +15678,7 @@
         <v>2081</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>808</v>
@@ -15699,7 +15699,7 @@
         <v>2082</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>812</v>
@@ -15720,7 +15720,7 @@
         <v>2083</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>816</v>
@@ -15738,10 +15738,10 @@
         <v>819</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>3544</v>
+        <v>3540</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>820</v>
@@ -15762,7 +15762,7 @@
         <v>2084</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>824</v>
@@ -15783,7 +15783,7 @@
         <v>2085</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>828</v>
@@ -15804,7 +15804,7 @@
         <v>2086</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>832</v>
@@ -15825,7 +15825,7 @@
         <v>2087</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>836</v>
@@ -15846,7 +15846,7 @@
         <v>2088</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>840</v>
@@ -15864,10 +15864,10 @@
         <v>843</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>3543</v>
+        <v>3539</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>844</v>
@@ -15888,7 +15888,7 @@
         <v>2090</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>3531</v>
+        <v>3527</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>848</v>
@@ -15955,7 +15955,7 @@
         <v>2092</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>860</v>
@@ -15976,7 +15976,7 @@
         <v>2093</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>864</v>
@@ -15997,7 +15997,7 @@
         <v>2094</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>868</v>
@@ -16018,7 +16018,7 @@
         <v>2095</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>872</v>
@@ -16039,7 +16039,7 @@
         <v>2096</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>874</v>
@@ -16060,7 +16060,7 @@
         <v>2097</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>879</v>
@@ -16081,7 +16081,7 @@
         <v>2098</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>883</v>
@@ -16102,7 +16102,7 @@
         <v>2099</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>887</v>
@@ -16123,7 +16123,7 @@
         <v>2100</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>891</v>
@@ -16144,7 +16144,7 @@
         <v>2101</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>3573</v>
+        <v>3569</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>895</v>
@@ -16162,10 +16162,10 @@
         <v>898</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>3571</v>
+        <v>3567</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>3572</v>
+        <v>3568</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>899</v>
@@ -16187,8 +16187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15"/>
@@ -16232,7 +16232,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -16246,7 +16246,7 @@
         <v>905</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>2314</v>
+        <v>3596</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>906</v>
@@ -16266,7 +16266,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -16280,7 +16280,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -16296,7 +16296,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -16310,7 +16310,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -16328,7 +16328,7 @@
         <v>915</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>916</v>
@@ -16342,7 +16342,7 @@
         <v>917</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>918</v>
@@ -16362,7 +16362,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -16376,7 +16376,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -16392,7 +16392,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -16406,7 +16406,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -16422,7 +16422,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -16436,7 +16436,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -16456,7 +16456,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -16470,7 +16470,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -16488,7 +16488,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -16502,7 +16502,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -16520,7 +16520,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -16534,7 +16534,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -16550,7 +16550,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -16564,7 +16564,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -16582,7 +16582,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -16596,7 +16596,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -16616,7 +16616,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -16632,7 +16632,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -16646,7 +16646,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -16662,7 +16662,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>2759</v>
+        <v>3594</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -16678,7 +16678,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -16692,7 +16692,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -16712,7 +16712,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -16728,7 +16728,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -16742,7 +16742,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -16760,7 +16760,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -16774,7 +16774,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -16794,7 +16794,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -16808,7 +16808,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -16826,7 +16826,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -16840,7 +16840,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -16858,7 +16858,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -16872,7 +16872,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -16892,7 +16892,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>3534</v>
+        <v>3530</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -16906,7 +16906,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -16920,7 +16920,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -16938,7 +16938,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>2774</v>
+        <v>3595</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -16952,7 +16952,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -16969,8 +16969,8 @@
       <c r="D48" s="23" t="s">
         <v>994</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>2774</v>
+      <c r="E48" s="40" t="s">
+        <v>3595</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -16984,7 +16984,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -17002,7 +17002,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>2775</v>
+        <v>3593</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -17016,7 +17016,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -17034,7 +17034,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -17048,7 +17048,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -17066,7 +17066,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -17080,7 +17080,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -17098,7 +17098,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -17112,7 +17112,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -17130,7 +17130,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -17144,7 +17144,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -17162,7 +17162,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -17176,7 +17176,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -17681,7 +17681,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -17698,7 +17698,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -17715,7 +17715,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -17732,7 +17732,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -17749,7 +17749,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -17766,13 +17766,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -17792,13 +17792,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -17818,13 +17818,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -17844,13 +17844,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -17870,13 +17870,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -17896,13 +17896,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -17922,7 +17922,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -17939,7 +17939,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -17956,7 +17956,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -17973,7 +17973,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -17990,7 +17990,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -18007,7 +18007,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -18024,7 +18024,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3537</v>
+        <v>3533</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -18038,13 +18038,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
+        <v>2667</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>2666</v>
+      </c>
+      <c r="K18" s="27" t="s">
         <v>2668</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>2667</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>2669</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -18067,7 +18067,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3538</v>
+        <v>3534</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -18076,10 +18076,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
+        <v>2669</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>2670</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>2671</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -18102,7 +18102,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3540</v>
+        <v>3536</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -18111,10 +18111,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -18137,7 +18137,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3541</v>
+        <v>3537</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -18146,10 +18146,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J21" s="27" t="s">
         <v>2672</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>2673</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -18172,7 +18172,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3528</v>
+        <v>3524</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -18181,10 +18181,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J22" s="27" t="s">
         <v>2672</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>2673</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -18207,7 +18207,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -18216,10 +18216,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J23" s="27" t="s">
         <v>2677</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>2678</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -18242,7 +18242,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -18251,10 +18251,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J24" s="27" t="s">
         <v>2677</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>2678</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -18277,7 +18277,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -18286,10 +18286,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>2677</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>2678</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -18312,7 +18312,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3539</v>
+        <v>3535</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -18321,10 +18321,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>2682</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>2683</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -18347,7 +18347,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -18356,10 +18356,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J27" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>2681</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -18382,7 +18382,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3527</v>
+        <v>3523</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -18391,10 +18391,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
+        <v>2681</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>2682</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>2683</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -18417,7 +18417,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -18431,7 +18431,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -18445,7 +18445,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -18459,7 +18459,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -18473,31 +18473,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>2782</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>2783</v>
+      </c>
+      <c r="I33" s="40" t="s">
         <v>2785</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="J33" s="40" t="s">
+        <v>2786</v>
+      </c>
+      <c r="K33" s="40" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L33" s="40" t="s">
         <v>2788</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>2786</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2787</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>2789</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>2790</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>2791</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2792</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -18511,7 +18511,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -18525,7 +18525,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -18539,7 +18539,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -18553,7 +18553,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -18567,7 +18567,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -18581,7 +18581,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -18595,7 +18595,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -18609,7 +18609,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -18623,7 +18623,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -18637,7 +18637,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -18651,7 +18651,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -18665,7 +18665,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -18679,7 +18679,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -18693,7 +18693,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -18707,7 +18707,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -18721,7 +18721,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -18735,7 +18735,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -18749,7 +18749,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -18763,7 +18763,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -18777,7 +18777,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -18791,7 +18791,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -18805,7 +18805,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -18819,7 +18819,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -18833,7 +18833,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -18847,7 +18847,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -18861,7 +18861,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -18875,7 +18875,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -18889,7 +18889,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -18903,7 +18903,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -18917,7 +18917,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -18931,7 +18931,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -18945,7 +18945,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -18959,7 +18959,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3536</v>
+        <v>3532</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -18973,7 +18973,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3535</v>
+        <v>3531</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -18987,7 +18987,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -19001,7 +19001,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -19015,7 +19015,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3529</v>
+        <v>3525</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -19029,7 +19029,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -19046,7 +19046,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -19060,13 +19060,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -19077,13 +19077,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -19094,7 +19094,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -19106,13 +19106,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="J76" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K76" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K76" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -19123,7 +19123,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -19135,13 +19135,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="J77" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K77" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K77" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -19152,7 +19152,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -19167,16 +19167,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2739</v>
+      </c>
+      <c r="J78" s="40" t="s">
         <v>2740</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="K78" s="40" t="s">
         <v>2741</v>
       </c>
-      <c r="K78" s="40" t="s">
+      <c r="L78" s="40" t="s">
         <v>2742</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2743</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -19187,7 +19187,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -19199,10 +19199,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K79" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K79" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -19213,7 +19213,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -19225,10 +19225,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K80" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K80" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -19239,7 +19239,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -19262,7 +19262,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -19285,7 +19285,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -19308,7 +19308,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -19320,10 +19320,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K84" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K84" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -19334,7 +19334,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -19360,7 +19360,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -19375,7 +19375,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -19386,7 +19386,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -19398,13 +19398,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="J87" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K87" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K87" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -19415,7 +19415,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -19427,10 +19427,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K88" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K88" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -19441,7 +19441,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -19453,10 +19453,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K89" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K89" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -19467,7 +19467,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -19490,7 +19490,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -19502,10 +19502,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K91" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -19516,7 +19516,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -19528,10 +19528,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
+        <v>2679</v>
+      </c>
+      <c r="K92" s="40" t="s">
         <v>2680</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>2681</v>
       </c>
     </row>
   </sheetData>
@@ -19611,7 +19611,7 @@
         <v>1306</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1307</v>
@@ -19625,7 +19625,7 @@
         <v>1308</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>3549</v>
+        <v>3545</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1309</v>
@@ -19639,7 +19639,7 @@
         <v>1310</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1311</v>
@@ -19653,7 +19653,7 @@
         <v>1312</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1313</v>
@@ -19667,7 +19667,7 @@
         <v>1314</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1315</v>
@@ -21149,10 +21149,10 @@
         <v>2188</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E2" t="s">
         <v>1629</v>
@@ -21169,7 +21169,7 @@
         <v>2189</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2204</v>
@@ -21189,7 +21189,7 @@
         <v>2190</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2204</v>
@@ -21209,7 +21209,7 @@
         <v>2191</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2204</v>
@@ -21229,7 +21229,7 @@
         <v>2192</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2204</v>
@@ -21249,10 +21249,10 @@
         <v>2199</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1641</v>
@@ -21269,10 +21269,10 @@
         <v>2200</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1644</v>
@@ -21289,7 +21289,7 @@
         <v>2193</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2204</v>
@@ -21309,7 +21309,7 @@
         <v>2194</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2204</v>
@@ -21329,7 +21329,7 @@
         <v>2195</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2204</v>
@@ -21349,10 +21349,10 @@
         <v>2201</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1653</v>
@@ -21369,10 +21369,10 @@
         <v>2202</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1656</v>
@@ -21389,10 +21389,10 @@
         <v>2203</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1659</v>
@@ -21409,10 +21409,10 @@
         <v>2196</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="E15" t="s">
         <v>1662</v>
@@ -21429,7 +21429,7 @@
         <v>2197</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2204</v>
@@ -21449,7 +21449,7 @@
         <v>2198</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2204</v>
@@ -21517,7 +21517,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -21525,7 +21525,7 @@
         <v>1668</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -21535,7 +21535,7 @@
         <v>1669</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -21545,7 +21545,7 @@
         <v>1670</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -21555,7 +21555,7 @@
         <v>1671</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -21578,7 +21578,7 @@
         <v>1674</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1675</v>
@@ -21590,7 +21590,7 @@
         <v>1676</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1677</v>
@@ -21602,7 +21602,7 @@
         <v>1678</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1679</v>
@@ -21614,7 +21614,7 @@
         <v>1680</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1681</v>
@@ -21626,7 +21626,7 @@
         <v>1682</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1683</v>
@@ -21638,7 +21638,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -21650,7 +21650,7 @@
         <v>1686</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>1687</v>
@@ -21672,7 +21672,7 @@
         <v>1690</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>1691</v>
@@ -21684,7 +21684,7 @@
         <v>1692</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1693</v>
@@ -21696,7 +21696,7 @@
         <v>1694</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1695</v>
@@ -21708,7 +21708,7 @@
         <v>1696</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>1697</v>
@@ -21720,7 +21720,7 @@
         <v>1698</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>1679</v>
@@ -21732,7 +21732,7 @@
         <v>1699</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1683</v>
@@ -21744,7 +21744,7 @@
         <v>1694</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>1695</v>
@@ -21756,7 +21756,7 @@
         <v>1686</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>1700</v>
@@ -21768,7 +21768,7 @@
         <v>1699</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>1701</v>
@@ -21782,10 +21782,10 @@
         <v>1694</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33.75" customHeight="1">
@@ -21794,10 +21794,10 @@
         <v>1703</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -21811,10 +21811,10 @@
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40"/>
       <c r="B27" s="40" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -21823,13 +21823,13 @@
     <row r="28" spans="1:4" ht="29.15">
       <c r="A28" s="40"/>
       <c r="B28" s="41" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>2381</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>2390</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -21838,7 +21838,7 @@
         <v>1704</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>1705</v>
@@ -21850,7 +21850,7 @@
         <v>1706</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>1707</v>
@@ -21862,7 +21862,7 @@
         <v>1708</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>1681</v>
@@ -21897,7 +21897,7 @@
         <v>1668</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -21907,7 +21907,7 @@
         <v>1669</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -21917,7 +21917,7 @@
         <v>1670</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -21927,7 +21927,7 @@
         <v>1671</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -21950,7 +21950,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>3530</v>
+        <v>3526</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -21962,7 +21962,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -21974,7 +21974,7 @@
         <v>1713</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1714</v>
@@ -21986,7 +21986,7 @@
         <v>1715</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1920</v>
@@ -22021,7 +22021,7 @@
         <v>1670</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -22029,7 +22029,7 @@
         <v>1671</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -22045,7 +22045,7 @@
         <v>1789</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1790</v>
@@ -22056,7 +22056,7 @@
         <v>1791</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1792</v>
@@ -22067,7 +22067,7 @@
         <v>1793</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1794</v>
@@ -22078,7 +22078,7 @@
         <v>1795</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1796</v>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -22546,7 +22546,7 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="40" t="s">
-        <v>3580</v>
+        <v>3576</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
@@ -22671,13 +22671,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>2257</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3339</v>
+        <v>3335</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -22693,13 +22693,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>2258</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3338</v>
+        <v>3334</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -22715,13 +22715,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -22917,7 +22917,7 @@
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
@@ -23046,7 +23046,7 @@
         <v>2270</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -23070,7 +23070,7 @@
         <v>2271</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>73</v>
@@ -23094,7 +23094,7 @@
         <v>2272</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>75</v>
@@ -23107,16 +23107,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>3576</v>
+        <v>3572</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -23138,7 +23138,7 @@
         <v>2273</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -23162,7 +23162,7 @@
         <v>2276</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>79</v>
@@ -23186,7 +23186,7 @@
         <v>2276</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -23207,10 +23207,10 @@
         <v>2213</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>81</v>
@@ -23234,7 +23234,7 @@
         <v>2274</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>83</v>
@@ -23258,7 +23258,7 @@
         <v>2275</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>85</v>
@@ -23282,7 +23282,7 @@
         <v>2266</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>87</v>
@@ -23306,7 +23306,7 @@
         <v>2277</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>3585</v>
+        <v>3581</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -23330,7 +23330,7 @@
         <v>2278</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>3583</v>
+        <v>3579</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>91</v>
@@ -23354,7 +23354,7 @@
         <v>2279</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>3589</v>
+        <v>3585</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>93</v>
@@ -23375,10 +23375,10 @@
         <v>2220</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>3491</v>
+        <v>3487</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>95</v>
@@ -23402,7 +23402,7 @@
         <v>2294</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>97</v>
@@ -23426,7 +23426,7 @@
         <v>2295</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>99</v>
@@ -23450,7 +23450,7 @@
         <v>2296</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>101</v>
@@ -23474,7 +23474,7 @@
         <v>2302</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>103</v>
@@ -23498,7 +23498,7 @@
         <v>2293</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3337</v>
+        <v>3333</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -23522,7 +23522,7 @@
         <v>2297</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>3584</v>
+        <v>3580</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -23546,7 +23546,7 @@
         <v>2298</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -23570,7 +23570,7 @@
         <v>2298</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -23594,7 +23594,7 @@
         <v>2299</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -24546,10 +24546,10 @@
         <v>2246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
     </row>
   </sheetData>
@@ -24581,13 +24581,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2246</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -24595,27 +24595,27 @@
         <v>2309</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3495</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2311</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3493</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -24623,97 +24623,97 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3494</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3496</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2312</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3497</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3498</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3499</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3499</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -24721,41 +24721,41 @@
         <v>2310</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2313</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3502</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3500</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3501</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -24770,17 +24770,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -24790,226 +24790,226 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3331</v>
+        <v>3327</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3503</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3332</v>
+        <v>3328</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3504</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3334</v>
+        <v>3330</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3505</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3333</v>
+        <v>3329</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3506</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3335</v>
+        <v>3331</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3507</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3508</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3336</v>
+        <v>3332</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3508</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3314</v>
+        <v>3310</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3509</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3509</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3315</v>
+        <v>3311</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3509</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3510</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3510</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3510</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3319</v>
+        <v>3315</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3511</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3511</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3511</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -25017,27 +25017,27 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3322</v>
+        <v>3318</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3512</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2263</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3513</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -25045,27 +25045,27 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3514</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3323</v>
+        <v>3319</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3515</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -25073,27 +25073,27 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3516</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3324</v>
+        <v>3320</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3517</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -25101,27 +25101,27 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2264</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3518</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3518</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -25129,32 +25129,32 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3519</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3327</v>
+        <v>3323</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3519</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -25162,21 +25162,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3328</v>
+        <v>3324</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3329</v>
+        <v>3325</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -25186,7 +25186,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3330</v>
+        <v>3326</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -25227,7 +25227,7 @@
         <v>1922</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>1434</v>
@@ -25247,7 +25247,7 @@
         <v>908</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23" t="s">
@@ -25266,7 +25266,7 @@
         <v>1437</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -25285,7 +25285,7 @@
         <v>1439</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
@@ -25304,7 +25304,7 @@
         <v>1441</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
@@ -25323,7 +25323,7 @@
         <v>1443</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
@@ -25342,7 +25342,7 @@
         <v>1445</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
@@ -25361,7 +25361,7 @@
         <v>1447</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
@@ -25380,7 +25380,7 @@
         <v>1450</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
@@ -25399,7 +25399,7 @@
         <v>1452</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="27" t="s">
@@ -25418,7 +25418,7 @@
         <v>1454</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="27" t="s">
@@ -25437,7 +25437,7 @@
         <v>1456</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="27" t="s">
@@ -25456,7 +25456,7 @@
         <v>1458</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="27" t="s">
@@ -25494,7 +25494,7 @@
         <v>1460</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23" t="s">
@@ -25513,7 +25513,7 @@
         <v>1462</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23" t="s">
@@ -25532,7 +25532,7 @@
         <v>1464</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -25551,7 +25551,7 @@
         <v>1447</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
@@ -25570,7 +25570,7 @@
         <v>1466</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
@@ -25589,7 +25589,7 @@
         <v>1468</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23" t="s">
@@ -25608,7 +25608,7 @@
         <v>1470</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
@@ -25627,7 +25627,7 @@
         <v>1450</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
@@ -25646,7 +25646,7 @@
         <v>1472</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -25665,7 +25665,7 @@
         <v>1474</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -25684,7 +25684,7 @@
         <v>1476</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -25703,7 +25703,7 @@
         <v>1478</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -25722,7 +25722,7 @@
         <v>1480</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23" t="s">
@@ -25741,7 +25741,7 @@
         <v>1482</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -25760,7 +25760,7 @@
         <v>1462</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
@@ -25779,7 +25779,7 @@
         <v>1466</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23" t="s">
@@ -25798,7 +25798,7 @@
         <v>1468</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
@@ -25817,7 +25817,7 @@
         <v>1484</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -25836,7 +25836,7 @@
         <v>1447</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23" t="s">
@@ -25855,7 +25855,7 @@
         <v>1486</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -25871,14 +25871,14 @@
         <v>1435</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="G35" s="23"/>
     </row>
@@ -25893,7 +25893,7 @@
         <v>1443</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="23" t="s">
@@ -25912,7 +25912,7 @@
         <v>1445</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23" t="s">
@@ -25931,7 +25931,7 @@
         <v>1488</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -25950,7 +25950,7 @@
         <v>1490</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -25969,7 +25969,7 @@
         <v>1492</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -25988,7 +25988,7 @@
         <v>1494</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -26045,7 +26045,7 @@
         <v>1450</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23" t="s">
@@ -26064,7 +26064,7 @@
         <v>1497</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -26083,7 +26083,7 @@
         <v>1499</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -26102,7 +26102,7 @@
         <v>1501</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -26121,7 +26121,7 @@
         <v>1503</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -26140,7 +26140,7 @@
         <v>1505</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -26159,7 +26159,7 @@
         <v>1507</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -26178,7 +26178,7 @@
         <v>1490</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -26197,7 +26197,7 @@
         <v>1509</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -26235,7 +26235,7 @@
         <v>1513</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -26254,7 +26254,7 @@
         <v>1450</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="25" t="s">
@@ -26273,7 +26273,7 @@
         <v>1515</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3595</v>
+        <v>3591</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -26292,7 +26292,7 @@
         <v>1517</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -26311,7 +26311,7 @@
         <v>1519</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -26330,7 +26330,7 @@
         <v>1521</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3593</v>
+        <v>3589</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -26349,7 +26349,7 @@
         <v>1523</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -26368,7 +26368,7 @@
         <v>1525</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -26387,7 +26387,7 @@
         <v>1527</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -26406,7 +26406,7 @@
         <v>1529</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -26425,7 +26425,7 @@
         <v>1531</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -26444,7 +26444,7 @@
         <v>1533</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -26501,7 +26501,7 @@
         <v>1536</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -26539,7 +26539,7 @@
         <v>1538</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -26558,7 +26558,7 @@
         <v>1540</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -26577,7 +26577,7 @@
         <v>1542</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -26596,7 +26596,7 @@
         <v>1544</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -26615,7 +26615,7 @@
         <v>1546</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -26672,7 +26672,7 @@
         <v>1549</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -26688,10 +26688,10 @@
         <v>1435</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -26710,7 +26710,7 @@
         <v>1552</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -26729,7 +26729,7 @@
         <v>1450</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="25" t="s">
@@ -26748,7 +26748,7 @@
         <v>1554</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -26767,7 +26767,7 @@
         <v>1556</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -26786,7 +26786,7 @@
         <v>1558</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -26805,7 +26805,7 @@
         <v>1560</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -26824,7 +26824,7 @@
         <v>1562</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -26843,7 +26843,7 @@
         <v>1564</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -26881,7 +26881,7 @@
         <v>1462</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="25" t="s">
@@ -26900,7 +26900,7 @@
         <v>1447</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="25" t="s">
@@ -26957,7 +26957,7 @@
         <v>1568</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -26976,7 +26976,7 @@
         <v>1570</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -26995,7 +26995,7 @@
         <v>1552</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -27014,7 +27014,7 @@
         <v>1549</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -27070,10 +27070,10 @@
         <v>1435</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -27092,7 +27092,7 @@
         <v>1552</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -27111,7 +27111,7 @@
         <v>1549</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -27132,7 +27132,7 @@
         <v>1450</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="25" t="s">
@@ -27151,7 +27151,7 @@
         <v>1574</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -27170,7 +27170,7 @@
         <v>1576</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -27189,7 +27189,7 @@
         <v>1578</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -27208,7 +27208,7 @@
         <v>1580</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -27227,7 +27227,7 @@
         <v>1582</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -27246,7 +27246,7 @@
         <v>1584</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -27265,7 +27265,7 @@
         <v>1586</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -27284,7 +27284,7 @@
         <v>1588</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -27303,7 +27303,7 @@
         <v>1590</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -27322,7 +27322,7 @@
         <v>1592</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -27442,7 +27442,7 @@
         <v>1435</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -27680,7 +27680,7 @@
         <v>1435</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -27888,7 +27888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -27909,7 +27909,7 @@
         <v>2246</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -27920,10 +27920,10 @@
         <v>1717</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>2395</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -27934,10 +27934,10 @@
         <v>1719</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>2397</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -27948,10 +27948,10 @@
         <v>1721</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>2399</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -27962,10 +27962,10 @@
         <v>1723</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>2401</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -27976,10 +27976,10 @@
         <v>1725</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>2403</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -27990,10 +27990,10 @@
         <v>1727</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>2405</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -28004,10 +28004,10 @@
         <v>1729</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>2407</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -28018,10 +28018,10 @@
         <v>1731</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>2409</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -28032,10 +28032,10 @@
         <v>1733</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>2411</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -28046,10 +28046,10 @@
         <v>1735</v>
       </c>
       <c r="C11" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>2413</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -28063,7 +28063,7 @@
         <v>1950</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -28077,7 +28077,7 @@
         <v>1951</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -28088,10 +28088,10 @@
         <v>1739</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>2417</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -28102,10 +28102,10 @@
         <v>1739</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -28116,10 +28116,10 @@
         <v>1742</v>
       </c>
       <c r="C16" s="40" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>2420</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -28130,10 +28130,10 @@
         <v>1744</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>2422</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -28144,10 +28144,10 @@
         <v>1746</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>2424</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -28158,10 +28158,10 @@
         <v>1748</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>2426</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -28172,10 +28172,10 @@
         <v>1750</v>
       </c>
       <c r="C20" s="40" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>2428</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -28186,10 +28186,10 @@
         <v>1752</v>
       </c>
       <c r="C21" s="40" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>2430</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -28200,10 +28200,10 @@
         <v>1754</v>
       </c>
       <c r="C22" s="40" t="s">
+        <v>2431</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>2432</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -28214,10 +28214,10 @@
         <v>1756</v>
       </c>
       <c r="C23" s="40" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>2434</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
@@ -28228,10 +28228,10 @@
         <v>1758</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>2436</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -28242,10 +28242,10 @@
         <v>1760</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>2438</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -28256,10 +28256,10 @@
         <v>1762</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>2439</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>2440</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>2441</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -28270,10 +28270,10 @@
         <v>1764</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>2442</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -28284,10 +28284,10 @@
         <v>1766</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>2444</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -28298,10 +28298,10 @@
         <v>1768</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>2446</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -28312,10 +28312,10 @@
         <v>1770</v>
       </c>
       <c r="C30" s="40" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>2448</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -28326,10 +28326,10 @@
         <v>1772</v>
       </c>
       <c r="C31" s="40" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>2450</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
@@ -28340,10 +28340,10 @@
         <v>1774</v>
       </c>
       <c r="C32" s="40" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>2452</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>2453</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -28354,10 +28354,10 @@
         <v>1776</v>
       </c>
       <c r="C33" s="40" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>2454</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -28368,10 +28368,10 @@
         <v>1778</v>
       </c>
       <c r="C34" s="40" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>2456</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -28382,10 +28382,10 @@
         <v>1780</v>
       </c>
       <c r="C35" s="40" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D35" s="40" t="s">
         <v>2458</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>2459</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -28396,10 +28396,10 @@
         <v>1727</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -28410,10 +28410,10 @@
         <v>1783</v>
       </c>
       <c r="C37" s="40" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D37" s="40" t="s">
         <v>2461</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -28424,10 +28424,10 @@
         <v>1785</v>
       </c>
       <c r="C38" s="40" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D38" s="40" t="s">
         <v>2463</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -28438,1030 +28438,1030 @@
         <v>1787</v>
       </c>
       <c r="C39" s="40" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>2465</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3458</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3459</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3460</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3461</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3462</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3463</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3237</v>
+        <v>3233</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3465</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3466</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3239</v>
+        <v>3235</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3467</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3240</v>
+        <v>3236</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3468</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3241</v>
+        <v>3237</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3469</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3242</v>
+        <v>3238</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3470</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3471</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3472</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3473</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3246</v>
+        <v>3242</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3457</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3474</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3248</v>
+        <v>3244</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3475</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3476</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3250</v>
+        <v>3246</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3477</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3251</v>
+        <v>3247</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3478</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3252</v>
+        <v>3248</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3409</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3253</v>
+        <v>3249</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3410</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3254</v>
+        <v>3250</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3408</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3255</v>
+        <v>3251</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3408</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3256</v>
+        <v>3252</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3408</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3257</v>
+        <v>3253</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3411</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3412</v>
+        <v>3408</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3413</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3258</v>
+        <v>3254</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3259</v>
+        <v>3255</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3260</v>
+        <v>3256</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3261</v>
+        <v>3257</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3262</v>
+        <v>3258</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3414</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3263</v>
+        <v>3259</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3492</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>3596</v>
+        <v>3592</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3415</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>3264</v>
+        <v>3260</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3416</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>3265</v>
+        <v>3261</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3421</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3266</v>
+        <v>3262</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3421</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3267</v>
+        <v>3263</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3417</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3268</v>
+        <v>3264</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3417</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3269</v>
+        <v>3265</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3417</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>3270</v>
+        <v>3266</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3419</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3420</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3271</v>
+        <v>3267</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3422</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3272</v>
+        <v>3268</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3422</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3273</v>
+        <v>3269</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3423</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3274</v>
+        <v>3270</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3424</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>3276</v>
+        <v>3272</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3426</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3425</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3427</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>3279</v>
+        <v>3275</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3428</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>3592</v>
+        <v>3588</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3429</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>3281</v>
+        <v>3277</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>3282</v>
+        <v>3278</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3283</v>
+        <v>3279</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3284</v>
+        <v>3280</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>3285</v>
+        <v>3281</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3286</v>
+        <v>3282</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3288</v>
+        <v>3284</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>3287</v>
+        <v>3283</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>3289</v>
+        <v>3285</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3433</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3434</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>3291</v>
+        <v>3287</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3436</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3437</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>3294</v>
+        <v>3290</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3438</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>3295</v>
+        <v>3291</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3439</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3439</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3440</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3438</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3441</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3442</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3443</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -29469,223 +29469,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3444</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>3300</v>
+        <v>3296</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3445</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3446</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>3313</v>
+        <v>3309</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3447</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>3302</v>
+        <v>3298</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3448</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>3303</v>
+        <v>3299</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>3304</v>
+        <v>3300</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3526</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>3305</v>
+        <v>3301</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3525</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>3306</v>
+        <v>3302</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3450</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>3307</v>
+        <v>3303</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3451</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>3308</v>
+        <v>3304</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3452</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3464</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>3309</v>
+        <v>3305</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>3310</v>
+        <v>3306</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>3311</v>
+        <v>3307</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3455</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>3312</v>
+        <v>3308</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3524</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -29727,13 +29727,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2246</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -29741,237 +29741,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3489</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3522</v>
+        <v>3518</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3350</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3523</v>
+        <v>3519</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3358</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3359</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -29979,27 +29979,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3490</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -30007,405 +30007,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3366</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3367</v>
+        <v>3363</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3368</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3369</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3372</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3373</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3374</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3375</v>
+        <v>3371</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3376</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3370</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3377</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3379</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3378</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3371</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3380</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3381</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3382</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3383</v>
+        <v>3379</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3384</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3385</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3386</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3387</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3389</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3391</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="40" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3393</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3394</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -30413,202 +30413,202 @@
         <v>168</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3484</v>
+        <v>3480</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3479</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="40" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3481</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3482</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3483</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3485</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3486</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3487</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3480</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3395</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3396</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3397</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3398</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3399</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -30616,122 +30616,122 @@
         <v>158</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3400</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3401</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3402</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3404</v>
+        <v>3400</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>3403</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3547</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3488</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3405</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3406</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3407</v>
+        <v>3403</v>
       </c>
     </row>
   </sheetData>
@@ -30987,10 +30987,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="23" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
     </row>
   </sheetData>

--- a/固有名詞 (Literally everything else).xlsx
+++ b/固有名詞 (Literally everything else).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="8091" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="23" r:id="rId1"/>
@@ -7088,9 +7088,6 @@
     <t>Knight (About CC)</t>
   </si>
   <si>
-    <t>Distracted Soldier (Textboxes)</t>
-  </si>
-  <si>
     <t>Merchant's Uncle</t>
   </si>
   <si>
@@ -7149,12 +7146,6 @@
   </si>
   <si>
     <t>Enemy Type 5: Kissing Mermaid</t>
-  </si>
-  <si>
-    <t>Drunk Big Breasted Elf</t>
-  </si>
-  <si>
-    <t>Drunk Elf</t>
   </si>
   <si>
     <t>Elf A</t>
@@ -10879,6 +10870,15 @@
   </si>
   <si>
     <t>Urgh, I'm not ready…</t>
+  </si>
+  <si>
+    <t>Drunk Elf A</t>
+  </si>
+  <si>
+    <t>Drunk Elf B</t>
+  </si>
+  <si>
+    <t>Distracted Soldier (Hide Text)</t>
   </si>
 </sst>
 </file>
@@ -11629,8 +11629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -11647,44 +11647,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>3578</v>
+        <v>3575</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="40" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -11695,56 +11695,56 @@
         <v>2089</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>2277</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="40" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>2278</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>3579</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="40" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>2297</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11755,36 +11755,36 @@
         <v>2073</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>2298</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>3582</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="40" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>2095</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>2258</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>3583</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -11795,16 +11795,16 @@
         <v>2102</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>2259</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>3584</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.9">
@@ -11815,7 +11815,7 @@
         <v>2279</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>3585</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.9">
@@ -11823,53 +11823,53 @@
         <v>2020</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>3587</v>
+        <v>3584</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>3586</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="40" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="40" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="40" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3588</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="40" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="40" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11880,12 +11880,12 @@
         <v>2253</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="40" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11896,18 +11896,18 @@
         <v>2182</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="40" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>2180</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11918,7 +11918,7 @@
         <v>2181</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11926,10 +11926,10 @@
         <v>1314</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11937,10 +11937,10 @@
         <v>1521</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11948,10 +11948,10 @@
         <v>1515</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3590</v>
+        <v>3587</v>
       </c>
     </row>
   </sheetData>
@@ -12012,7 +12012,7 @@
         <v>1950</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>2598</v>
+        <v>2595</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>201</v>
@@ -12033,7 +12033,7 @@
         <v>1951</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>2599</v>
+        <v>2596</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>205</v>
@@ -12495,7 +12495,7 @@
         <v>1973</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>2577</v>
+        <v>2574</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>289</v>
@@ -12516,7 +12516,7 @@
         <v>1974</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>2578</v>
+        <v>2575</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>293</v>
@@ -12831,7 +12831,7 @@
         <v>1989</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>352</v>
@@ -12852,7 +12852,7 @@
         <v>1990</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>355</v>
@@ -12873,7 +12873,7 @@
         <v>1991</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>357</v>
@@ -12978,7 +12978,7 @@
         <v>1996</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>2468</v>
+        <v>2465</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>376</v>
@@ -12999,7 +12999,7 @@
         <v>1997</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>2469</v>
+        <v>2466</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>380</v>
@@ -13020,7 +13020,7 @@
         <v>1998</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>384</v>
@@ -13041,7 +13041,7 @@
         <v>1999</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>388</v>
@@ -13062,7 +13062,7 @@
         <v>2000</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>392</v>
@@ -13083,7 +13083,7 @@
         <v>2001</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>396</v>
@@ -13104,7 +13104,7 @@
         <v>2002</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>400</v>
@@ -13122,10 +13122,10 @@
         <v>403</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>404</v>
@@ -13146,7 +13146,7 @@
         <v>2003</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>408</v>
@@ -13167,7 +13167,7 @@
         <v>2004</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>412</v>
@@ -13188,7 +13188,7 @@
         <v>2005</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>416</v>
@@ -13209,7 +13209,7 @@
         <v>2006</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>420</v>
@@ -13230,7 +13230,7 @@
         <v>2007</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>2480</v>
+        <v>2477</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>423</v>
@@ -13251,7 +13251,7 @@
         <v>2008</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>2481</v>
+        <v>2478</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>426</v>
@@ -13272,7 +13272,7 @@
         <v>2009</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>2482</v>
+        <v>2479</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>429</v>
@@ -13293,7 +13293,7 @@
         <v>2010</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>433</v>
@@ -13356,7 +13356,7 @@
         <v>2013</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>444</v>
@@ -13377,7 +13377,7 @@
         <v>2014</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>448</v>
@@ -13398,7 +13398,7 @@
         <v>2015</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>452</v>
@@ -13416,10 +13416,10 @@
         <v>455</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>456</v>
@@ -13437,10 +13437,10 @@
         <v>459</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>460</v>
@@ -13458,10 +13458,10 @@
         <v>463</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>464</v>
@@ -13482,7 +13482,7 @@
         <v>2016</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>468</v>
@@ -13500,10 +13500,10 @@
         <v>471</v>
       </c>
       <c r="C73" s="19" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>2494</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>2497</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>472</v>
@@ -13521,10 +13521,10 @@
         <v>475</v>
       </c>
       <c r="C74" s="19" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>2495</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>2498</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>476</v>
@@ -13542,10 +13542,10 @@
         <v>479</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D75" s="19" t="s">
         <v>2496</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>2499</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>480</v>
@@ -13566,7 +13566,7 @@
         <v>2017</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>484</v>
@@ -13587,7 +13587,7 @@
         <v>2018</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>488</v>
@@ -13608,7 +13608,7 @@
         <v>2019</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>492</v>
@@ -13629,7 +13629,7 @@
         <v>2020</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>3586</v>
+        <v>3583</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>496</v>
@@ -13650,7 +13650,7 @@
         <v>2021</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>500</v>
@@ -13671,7 +13671,7 @@
         <v>2022</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>2504</v>
+        <v>2501</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>504</v>
@@ -13692,7 +13692,7 @@
         <v>2023</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>2505</v>
+        <v>2502</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>508</v>
@@ -13713,7 +13713,7 @@
         <v>2024</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>512</v>
@@ -13776,7 +13776,7 @@
         <v>2025</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>524</v>
@@ -13797,7 +13797,7 @@
         <v>2026</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>528</v>
@@ -13818,7 +13818,7 @@
         <v>2027</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>532</v>
@@ -13839,7 +13839,7 @@
         <v>2028</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>536</v>
@@ -13860,7 +13860,7 @@
         <v>2029</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>540</v>
@@ -13881,7 +13881,7 @@
         <v>2025</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>543</v>
@@ -13902,7 +13902,7 @@
         <v>2026</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>2580</v>
+        <v>2577</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>545</v>
@@ -13923,7 +13923,7 @@
         <v>2027</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>2581</v>
+        <v>2578</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>547</v>
@@ -13944,7 +13944,7 @@
         <v>2028</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>2582</v>
+        <v>2579</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>549</v>
@@ -13965,7 +13965,7 @@
         <v>2029</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>2583</v>
+        <v>2580</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>551</v>
@@ -13986,7 +13986,7 @@
         <v>2030</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>554</v>
@@ -14007,7 +14007,7 @@
         <v>2031</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>558</v>
@@ -14028,7 +14028,7 @@
         <v>2032</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>562</v>
@@ -14091,7 +14091,7 @@
         <v>2263</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>47</v>
@@ -14175,7 +14175,7 @@
         <v>2038</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>53</v>
@@ -14196,7 +14196,7 @@
         <v>2039</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="E106" s="23" t="s">
         <v>55</v>
@@ -14214,10 +14214,10 @@
         <v>581</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>2512</v>
+        <v>2509</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>57</v>
@@ -14238,7 +14238,7 @@
         <v>2265</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>2584</v>
+        <v>2581</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>59</v>
@@ -14259,7 +14259,7 @@
         <v>2040</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>61</v>
@@ -14301,7 +14301,7 @@
         <v>2173</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>591</v>
@@ -14322,7 +14322,7 @@
         <v>2174</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>2513</v>
+        <v>2510</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>594</v>
@@ -14343,7 +14343,7 @@
         <v>2175</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>597</v>
@@ -14361,10 +14361,10 @@
         <v>600</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>2520</v>
+        <v>2517</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>601</v>
@@ -14382,10 +14382,10 @@
         <v>588</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>2516</v>
+        <v>2513</v>
       </c>
       <c r="E115" s="23" t="s">
         <v>604</v>
@@ -14403,10 +14403,10 @@
         <v>606</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>2522</v>
+        <v>2519</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>605</v>
@@ -14424,10 +14424,10 @@
         <v>596</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>2523</v>
+        <v>2520</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>2514</v>
+        <v>2511</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>609</v>
@@ -14445,10 +14445,10 @@
         <v>600</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>2524</v>
+        <v>2521</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>2515</v>
+        <v>2512</v>
       </c>
       <c r="E118" s="23" t="s">
         <v>611</v>
@@ -14466,10 +14466,10 @@
         <v>613</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>2525</v>
+        <v>2522</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>2518</v>
+        <v>2515</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>612</v>
@@ -14487,10 +14487,10 @@
         <v>616</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>615</v>
@@ -14511,7 +14511,7 @@
         <v>2041</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>2527</v>
+        <v>2524</v>
       </c>
       <c r="E121" s="23" t="s">
         <v>620</v>
@@ -14532,7 +14532,7 @@
         <v>2042</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>2528</v>
+        <v>2525</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>624</v>
@@ -14553,7 +14553,7 @@
         <v>2043</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>2529</v>
+        <v>2526</v>
       </c>
       <c r="E123" s="25" t="s">
         <v>628</v>
@@ -14574,7 +14574,7 @@
         <v>2044</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>2530</v>
+        <v>2527</v>
       </c>
       <c r="E124" s="25" t="s">
         <v>632</v>
@@ -14595,7 +14595,7 @@
         <v>2045</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>2531</v>
+        <v>2528</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>636</v>
@@ -14616,7 +14616,7 @@
         <v>2046</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>2532</v>
+        <v>2529</v>
       </c>
       <c r="E126" s="25" t="s">
         <v>640</v>
@@ -14637,7 +14637,7 @@
         <v>2047</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>2533</v>
+        <v>2530</v>
       </c>
       <c r="E127" s="25" t="s">
         <v>644</v>
@@ -14653,10 +14653,10 @@
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="19" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="E128" s="23" t="s">
         <v>647</v>
@@ -14670,10 +14670,10 @@
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="19" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>2535</v>
+        <v>2532</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>649</v>
@@ -14687,10 +14687,10 @@
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="19" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>2536</v>
+        <v>2533</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>651</v>
@@ -14704,10 +14704,10 @@
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="19" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>2537</v>
+        <v>2534</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>653</v>
@@ -14721,10 +14721,10 @@
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="19" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>2538</v>
+        <v>2535</v>
       </c>
       <c r="E132" s="23" t="s">
         <v>655</v>
@@ -14738,10 +14738,10 @@
       </c>
       <c r="B133" s="22"/>
       <c r="C133" s="19" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>2539</v>
+        <v>2536</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>657</v>
@@ -14755,10 +14755,10 @@
       </c>
       <c r="B134" s="22"/>
       <c r="C134" s="19" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="D134" s="19" t="s">
-        <v>2540</v>
+        <v>2537</v>
       </c>
       <c r="E134" s="23" t="s">
         <v>659</v>
@@ -14772,10 +14772,10 @@
       </c>
       <c r="B135" s="22"/>
       <c r="C135" s="19" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>2541</v>
+        <v>2538</v>
       </c>
       <c r="E135" s="23" t="s">
         <v>661</v>
@@ -14789,10 +14789,10 @@
       </c>
       <c r="B136" s="22"/>
       <c r="C136" s="19" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>2542</v>
+        <v>2539</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>663</v>
@@ -14806,10 +14806,10 @@
       </c>
       <c r="B137" s="22"/>
       <c r="C137" s="19" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="E137" s="23" t="s">
         <v>665</v>
@@ -14823,10 +14823,10 @@
       </c>
       <c r="B138" s="22"/>
       <c r="C138" s="19" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>667</v>
@@ -14840,10 +14840,10 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="19" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="E139" s="23" t="s">
         <v>669</v>
@@ -14857,10 +14857,10 @@
       </c>
       <c r="B140" s="22"/>
       <c r="C140" s="19" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>671</v>
@@ -14874,10 +14874,10 @@
       </c>
       <c r="B141" s="22"/>
       <c r="C141" s="19" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="E141" s="23" t="s">
         <v>673</v>
@@ -14959,7 +14959,7 @@
         <v>2051</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="E145" s="23" t="s">
         <v>688</v>
@@ -14980,7 +14980,7 @@
         <v>2052</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="E146" s="27" t="s">
         <v>692</v>
@@ -15001,7 +15001,7 @@
         <v>2053</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="E147" s="23" t="s">
         <v>696</v>
@@ -15124,7 +15124,7 @@
         <v>719</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>2600</v>
+        <v>2597</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>2155</v>
@@ -15211,7 +15211,7 @@
         <v>2062</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>734</v>
@@ -15232,7 +15232,7 @@
         <v>2063</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="E158" s="23" t="s">
         <v>737</v>
@@ -15253,7 +15253,7 @@
         <v>2064</v>
       </c>
       <c r="D159" s="19" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>740</v>
@@ -15379,7 +15379,7 @@
         <v>2070</v>
       </c>
       <c r="D165" s="19" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
       <c r="E165" s="23" t="s">
         <v>762</v>
@@ -15400,7 +15400,7 @@
         <v>2071</v>
       </c>
       <c r="D166" s="19" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>766</v>
@@ -15421,7 +15421,7 @@
         <v>2072</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>769</v>
@@ -15439,7 +15439,7 @@
         <v>771</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="D168" s="19" t="s">
         <v>2144</v>
@@ -15463,7 +15463,7 @@
         <v>2073</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
       <c r="E169" s="23" t="s">
         <v>776</v>
@@ -15484,7 +15484,7 @@
         <v>2074</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>2558</v>
+        <v>2555</v>
       </c>
       <c r="E170" s="23" t="s">
         <v>780</v>
@@ -15503,7 +15503,7 @@
         <v>2075</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>2557</v>
+        <v>2554</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>783</v>
@@ -15519,10 +15519,10 @@
         <v>785</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>786</v>
@@ -15538,10 +15538,10 @@
         <v>787</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>2586</v>
+        <v>2583</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>786</v>
@@ -15560,7 +15560,7 @@
         <v>1982</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>2559</v>
+        <v>2556</v>
       </c>
       <c r="E174" s="23" t="s">
         <v>790</v>
@@ -15579,7 +15579,7 @@
         <v>2076</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>2585</v>
+        <v>2582</v>
       </c>
       <c r="E175" s="23" t="s">
         <v>793</v>
@@ -15598,7 +15598,7 @@
         <v>2077</v>
       </c>
       <c r="D176" s="19" t="s">
-        <v>2587</v>
+        <v>2584</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>793</v>
@@ -15617,7 +15617,7 @@
         <v>2078</v>
       </c>
       <c r="D177" s="19" t="s">
-        <v>2588</v>
+        <v>2585</v>
       </c>
       <c r="E177" s="23" t="s">
         <v>797</v>
@@ -15636,7 +15636,7 @@
         <v>2079</v>
       </c>
       <c r="D178" s="19" t="s">
-        <v>2560</v>
+        <v>2557</v>
       </c>
       <c r="E178" s="23" t="s">
         <v>800</v>
@@ -15657,7 +15657,7 @@
         <v>2080</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>2561</v>
+        <v>2558</v>
       </c>
       <c r="E179" s="25" t="s">
         <v>804</v>
@@ -15678,7 +15678,7 @@
         <v>2081</v>
       </c>
       <c r="D180" s="19" t="s">
-        <v>2562</v>
+        <v>2559</v>
       </c>
       <c r="E180" s="25" t="s">
         <v>808</v>
@@ -15699,7 +15699,7 @@
         <v>2082</v>
       </c>
       <c r="D181" s="19" t="s">
-        <v>2563</v>
+        <v>2560</v>
       </c>
       <c r="E181" s="23" t="s">
         <v>812</v>
@@ -15720,7 +15720,7 @@
         <v>2083</v>
       </c>
       <c r="D182" s="19" t="s">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>816</v>
@@ -15738,10 +15738,10 @@
         <v>819</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="D183" s="19" t="s">
-        <v>2566</v>
+        <v>2563</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>820</v>
@@ -15762,7 +15762,7 @@
         <v>2084</v>
       </c>
       <c r="D184" s="19" t="s">
-        <v>2565</v>
+        <v>2562</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>824</v>
@@ -15783,7 +15783,7 @@
         <v>2085</v>
       </c>
       <c r="D185" s="19" t="s">
-        <v>2564</v>
+        <v>2561</v>
       </c>
       <c r="E185" s="23" t="s">
         <v>828</v>
@@ -15804,7 +15804,7 @@
         <v>2086</v>
       </c>
       <c r="D186" s="19" t="s">
-        <v>2567</v>
+        <v>2564</v>
       </c>
       <c r="E186" s="23" t="s">
         <v>832</v>
@@ -15825,7 +15825,7 @@
         <v>2087</v>
       </c>
       <c r="D187" s="19" t="s">
-        <v>2569</v>
+        <v>2566</v>
       </c>
       <c r="E187" s="23" t="s">
         <v>836</v>
@@ -15846,7 +15846,7 @@
         <v>2088</v>
       </c>
       <c r="D188" s="19" t="s">
-        <v>2570</v>
+        <v>2567</v>
       </c>
       <c r="E188" s="23" t="s">
         <v>840</v>
@@ -15864,10 +15864,10 @@
         <v>843</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="D189" s="19" t="s">
-        <v>2571</v>
+        <v>2568</v>
       </c>
       <c r="E189" s="23" t="s">
         <v>844</v>
@@ -15888,7 +15888,7 @@
         <v>2090</v>
       </c>
       <c r="D190" s="19" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="E190" s="23" t="s">
         <v>848</v>
@@ -15955,7 +15955,7 @@
         <v>2092</v>
       </c>
       <c r="D193" s="19" t="s">
-        <v>2572</v>
+        <v>2569</v>
       </c>
       <c r="E193" s="23" t="s">
         <v>860</v>
@@ -15976,7 +15976,7 @@
         <v>2093</v>
       </c>
       <c r="D194" s="19" t="s">
-        <v>2573</v>
+        <v>2570</v>
       </c>
       <c r="E194" s="23" t="s">
         <v>864</v>
@@ -15997,7 +15997,7 @@
         <v>2094</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="E195" s="23" t="s">
         <v>868</v>
@@ -16018,7 +16018,7 @@
         <v>2095</v>
       </c>
       <c r="D196" s="19" t="s">
-        <v>2575</v>
+        <v>2572</v>
       </c>
       <c r="E196" s="23" t="s">
         <v>872</v>
@@ -16039,7 +16039,7 @@
         <v>2096</v>
       </c>
       <c r="D197" s="19" t="s">
-        <v>2576</v>
+        <v>2573</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>874</v>
@@ -16060,7 +16060,7 @@
         <v>2097</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>2589</v>
+        <v>2586</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>879</v>
@@ -16081,7 +16081,7 @@
         <v>2098</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>2590</v>
+        <v>2587</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>883</v>
@@ -16102,7 +16102,7 @@
         <v>2099</v>
       </c>
       <c r="D200" s="19" t="s">
-        <v>2591</v>
+        <v>2588</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>887</v>
@@ -16123,7 +16123,7 @@
         <v>2100</v>
       </c>
       <c r="D201" s="19" t="s">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>891</v>
@@ -16144,7 +16144,7 @@
         <v>2101</v>
       </c>
       <c r="D202" s="19" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>895</v>
@@ -16162,10 +16162,10 @@
         <v>898</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="D203" s="19" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>899</v>
@@ -16187,7 +16187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -16232,7 +16232,7 @@
         <v>903</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>904</v>
@@ -16246,7 +16246,7 @@
         <v>905</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>3596</v>
+        <v>3593</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>906</v>
@@ -16266,7 +16266,7 @@
         <v>909</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>910</v>
@@ -16280,7 +16280,7 @@
         <v>911</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>912</v>
@@ -16296,7 +16296,7 @@
         <v>909</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>910</v>
@@ -16310,7 +16310,7 @@
         <v>911</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>912</v>
@@ -16362,7 +16362,7 @@
         <v>920</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>921</v>
@@ -16376,7 +16376,7 @@
         <v>922</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>923</v>
@@ -16392,7 +16392,7 @@
         <v>920</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>921</v>
@@ -16406,7 +16406,7 @@
         <v>922</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>923</v>
@@ -16422,7 +16422,7 @@
         <v>920</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>921</v>
@@ -16436,7 +16436,7 @@
         <v>920</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>921</v>
@@ -16456,7 +16456,7 @@
         <v>928</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>929</v>
@@ -16470,7 +16470,7 @@
         <v>930</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>923</v>
@@ -16488,7 +16488,7 @@
         <v>932</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>933</v>
@@ -16502,7 +16502,7 @@
         <v>934</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="F19" s="32" t="s">
         <v>935</v>
@@ -16520,7 +16520,7 @@
         <v>937</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="F20" s="32" t="s">
         <v>938</v>
@@ -16534,7 +16534,7 @@
         <v>939</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>940</v>
@@ -16550,7 +16550,7 @@
         <v>937</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>938</v>
@@ -16564,7 +16564,7 @@
         <v>939</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>940</v>
@@ -16582,7 +16582,7 @@
         <v>943</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="F24" s="32" t="s">
         <v>944</v>
@@ -16596,7 +16596,7 @@
         <v>934</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>935</v>
@@ -16616,7 +16616,7 @@
         <v>947</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="F26" s="32" t="s">
         <v>948</v>
@@ -16632,7 +16632,7 @@
         <v>950</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>951</v>
@@ -16646,7 +16646,7 @@
         <v>952</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>953</v>
@@ -16662,7 +16662,7 @@
         <v>955</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="F29" s="32" t="s">
         <v>956</v>
@@ -16678,7 +16678,7 @@
         <v>958</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>929</v>
@@ -16692,7 +16692,7 @@
         <v>959</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="F31" s="32" t="s">
         <v>960</v>
@@ -16712,7 +16712,7 @@
         <v>962</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>963</v>
@@ -16728,7 +16728,7 @@
         <v>965</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="F33" s="32" t="s">
         <v>966</v>
@@ -16742,7 +16742,7 @@
         <v>967</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>968</v>
@@ -16760,7 +16760,7 @@
         <v>969</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="F35" s="32" t="s">
         <v>970</v>
@@ -16774,7 +16774,7 @@
         <v>971</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>972</v>
@@ -16794,7 +16794,7 @@
         <v>974</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="F37" s="32" t="s">
         <v>975</v>
@@ -16808,7 +16808,7 @@
         <v>976</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="F38" s="32" t="s">
         <v>977</v>
@@ -16826,7 +16826,7 @@
         <v>928</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>979</v>
@@ -16840,7 +16840,7 @@
         <v>967</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>980</v>
@@ -16858,7 +16858,7 @@
         <v>928</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>979</v>
@@ -16872,7 +16872,7 @@
         <v>982</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>983</v>
@@ -16892,7 +16892,7 @@
         <v>986</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>987</v>
@@ -16906,7 +16906,7 @@
         <v>988</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>989</v>
@@ -16920,7 +16920,7 @@
         <v>990</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>991</v>
@@ -16938,7 +16938,7 @@
         <v>994</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>3595</v>
+        <v>3592</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>1921</v>
@@ -16952,7 +16952,7 @@
         <v>996</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>997</v>
@@ -16970,7 +16970,7 @@
         <v>994</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>3595</v>
+        <v>3592</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>995</v>
@@ -16984,7 +16984,7 @@
         <v>996</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>997</v>
@@ -17002,7 +17002,7 @@
         <v>1000</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>3593</v>
+        <v>3590</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>1001</v>
@@ -17016,7 +17016,7 @@
         <v>1002</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>1003</v>
@@ -17034,7 +17034,7 @@
         <v>1005</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>1006</v>
@@ -17048,7 +17048,7 @@
         <v>1007</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>1008</v>
@@ -17066,7 +17066,7 @@
         <v>1005</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>1006</v>
@@ -17080,7 +17080,7 @@
         <v>1007</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>1008</v>
@@ -17098,7 +17098,7 @@
         <v>1005</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>1006</v>
@@ -17112,7 +17112,7 @@
         <v>1007</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>1008</v>
@@ -17130,7 +17130,7 @@
         <v>1005</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>1006</v>
@@ -17144,7 +17144,7 @@
         <v>1007</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>1008</v>
@@ -17162,7 +17162,7 @@
         <v>1005</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>1006</v>
@@ -17176,7 +17176,7 @@
         <v>1007</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>1008</v>
@@ -17681,7 +17681,7 @@
         <v>1085</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>3</v>
@@ -17698,7 +17698,7 @@
         <v>1088</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>1089</v>
@@ -17715,7 +17715,7 @@
         <v>1090</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="Q3" s="40" t="s">
         <v>1091</v>
@@ -17732,7 +17732,7 @@
         <v>1092</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="Q4" s="40" t="s">
         <v>1093</v>
@@ -17749,7 +17749,7 @@
         <v>1094</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="Q5" s="40" t="s">
         <v>1095</v>
@@ -17766,13 +17766,13 @@
         <v>1097</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="Q6" s="40" t="s">
         <v>1098</v>
@@ -17792,13 +17792,13 @@
         <v>1101</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="Q7" s="40" t="s">
         <v>1102</v>
@@ -17818,13 +17818,13 @@
         <v>1105</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="I8" s="49" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>1106</v>
@@ -17844,13 +17844,13 @@
         <v>1109</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>1111</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="Q9" s="40" t="s">
         <v>1110</v>
@@ -17870,13 +17870,13 @@
         <v>1113</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>1115</v>
       </c>
       <c r="I10" s="49" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="Q10" s="40" t="s">
         <v>1114</v>
@@ -17896,13 +17896,13 @@
         <v>1116</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1118</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>1117</v>
@@ -17922,7 +17922,7 @@
         <v>1121</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>1122</v>
@@ -17939,7 +17939,7 @@
         <v>1096</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>1123</v>
@@ -17956,7 +17956,7 @@
         <v>1124</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>1124</v>
@@ -17973,7 +17973,7 @@
         <v>1092</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>1093</v>
@@ -17990,7 +17990,7 @@
         <v>1125</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="Q16" s="40" t="s">
         <v>1125</v>
@@ -18007,7 +18007,7 @@
         <v>1126</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="Q17" s="40" t="s">
         <v>1127</v>
@@ -18024,7 +18024,7 @@
         <v>1129</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>1131</v>
@@ -18038,13 +18038,13 @@
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="27" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="Q18" s="40" t="s">
         <v>1130</v>
@@ -18067,7 +18067,7 @@
         <v>1136</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>1138</v>
@@ -18076,10 +18076,10 @@
         <v>1140</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="Q19" s="40" t="s">
         <v>1137</v>
@@ -18102,7 +18102,7 @@
         <v>1142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>1144</v>
@@ -18111,10 +18111,10 @@
         <v>1146</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="Q20" s="40" t="s">
         <v>1143</v>
@@ -18137,7 +18137,7 @@
         <v>1148</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>1150</v>
@@ -18146,10 +18146,10 @@
         <v>1152</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="Q21" s="40" t="s">
         <v>1149</v>
@@ -18172,7 +18172,7 @@
         <v>1154</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>1150</v>
@@ -18181,10 +18181,10 @@
         <v>1152</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="Q22" s="40" t="s">
         <v>1155</v>
@@ -18207,7 +18207,7 @@
         <v>1156</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>1158</v>
@@ -18216,10 +18216,10 @@
         <v>1160</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>1157</v>
@@ -18242,7 +18242,7 @@
         <v>1162</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>1158</v>
@@ -18251,10 +18251,10 @@
         <v>1160</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="Q24" s="40" t="s">
         <v>1163</v>
@@ -18277,7 +18277,7 @@
         <v>1164</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>1158</v>
@@ -18286,10 +18286,10 @@
         <v>1160</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="Q25" s="40" t="s">
         <v>1165</v>
@@ -18312,7 +18312,7 @@
         <v>1166</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>1158</v>
@@ -18321,10 +18321,10 @@
         <v>1168</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="Q26" s="40" t="s">
         <v>1167</v>
@@ -18347,7 +18347,7 @@
         <v>1169</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>1171</v>
@@ -18356,10 +18356,10 @@
         <v>1172</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="J27" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>1170</v>
@@ -18382,7 +18382,7 @@
         <v>1173</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>1158</v>
@@ -18391,10 +18391,10 @@
         <v>1168</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="Q28" s="40" t="s">
         <v>1174</v>
@@ -18417,7 +18417,7 @@
         <v>1176</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="S29" s="40" t="s">
         <v>1177</v>
@@ -18431,7 +18431,7 @@
         <v>1178</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="S30" s="40" t="s">
         <v>1179</v>
@@ -18445,7 +18445,7 @@
         <v>1180</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="T31" s="40" t="s">
         <v>185</v>
@@ -18459,7 +18459,7 @@
         <v>1181</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="T32" s="40" t="s">
         <v>1182</v>
@@ -18473,31 +18473,31 @@
         <v>1183</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>2778</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>2781</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="F33" s="40" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>2782</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>2783</v>
+      </c>
+      <c r="K33" s="40" t="s">
         <v>2784</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>2782</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>2783</v>
-      </c>
-      <c r="I33" s="40" t="s">
+      <c r="L33" s="40" t="s">
         <v>2785</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>2786</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>2787</v>
-      </c>
-      <c r="L33" s="40" t="s">
-        <v>2788</v>
       </c>
       <c r="T33" s="40" t="s">
         <v>1184</v>
@@ -18511,7 +18511,7 @@
         <v>1185</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="T34" s="40" t="s">
         <v>1185</v>
@@ -18525,7 +18525,7 @@
         <v>1186</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="T35" s="40" t="s">
         <v>1187</v>
@@ -18539,7 +18539,7 @@
         <v>1188</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="T36" s="40" t="s">
         <v>1189</v>
@@ -18553,7 +18553,7 @@
         <v>1190</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="T37" s="40" t="s">
         <v>1191</v>
@@ -18567,7 +18567,7 @@
         <v>927</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="T38" s="40" t="s">
         <v>1192</v>
@@ -18581,7 +18581,7 @@
         <v>1193</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="T39" s="40" t="s">
         <v>1194</v>
@@ -18595,7 +18595,7 @@
         <v>1195</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="T40" s="40" t="s">
         <v>1196</v>
@@ -18609,7 +18609,7 @@
         <v>1197</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="T41" s="40" t="s">
         <v>1198</v>
@@ -18623,7 +18623,7 @@
         <v>1199</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="T42" s="40" t="s">
         <v>1189</v>
@@ -18637,7 +18637,7 @@
         <v>1200</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="T43" s="40" t="s">
         <v>1201</v>
@@ -18651,7 +18651,7 @@
         <v>1202</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="T44" s="40" t="s">
         <v>1203</v>
@@ -18665,7 +18665,7 @@
         <v>1204</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="T45" s="40" t="s">
         <v>1205</v>
@@ -18679,7 +18679,7 @@
         <v>1206</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="T46" s="40" t="s">
         <v>1207</v>
@@ -18693,7 +18693,7 @@
         <v>1208</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="T47" s="40" t="s">
         <v>1209</v>
@@ -18707,7 +18707,7 @@
         <v>1210</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="T48" s="40" t="s">
         <v>1211</v>
@@ -18721,7 +18721,7 @@
         <v>1212</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="T49" s="40" t="s">
         <v>1213</v>
@@ -18735,7 +18735,7 @@
         <v>1214</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="T50" s="40" t="s">
         <v>1215</v>
@@ -18749,7 +18749,7 @@
         <v>1216</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="T51" s="40" t="s">
         <v>1217</v>
@@ -18763,7 +18763,7 @@
         <v>1218</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="T52" s="40" t="s">
         <v>1219</v>
@@ -18777,7 +18777,7 @@
         <v>1220</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="T53" s="40" t="s">
         <v>1221</v>
@@ -18791,7 +18791,7 @@
         <v>1222</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="T54" s="40" t="s">
         <v>1222</v>
@@ -18805,7 +18805,7 @@
         <v>1126</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="T55" s="40" t="s">
         <v>1127</v>
@@ -18819,7 +18819,7 @@
         <v>1224</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="T56" s="40" t="s">
         <v>1225</v>
@@ -18833,7 +18833,7 @@
         <v>1124</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="T57" s="40" t="s">
         <v>1226</v>
@@ -18847,7 +18847,7 @@
         <v>1227</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="T58" s="40" t="s">
         <v>1228</v>
@@ -18861,7 +18861,7 @@
         <v>1229</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="T59" s="40" t="s">
         <v>1230</v>
@@ -18875,7 +18875,7 @@
         <v>1231</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="T60" s="40" t="s">
         <v>1232</v>
@@ -18889,7 +18889,7 @@
         <v>1128</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="T61" s="40" t="s">
         <v>1233</v>
@@ -18903,7 +18903,7 @@
         <v>1096</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="T62" s="40" t="s">
         <v>1234</v>
@@ -18917,7 +18917,7 @@
         <v>1235</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="T63" s="40" t="s">
         <v>1095</v>
@@ -18931,7 +18931,7 @@
         <v>1164</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="T64" s="40" t="s">
         <v>1165</v>
@@ -18945,7 +18945,7 @@
         <v>1162</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="T65" s="40" t="s">
         <v>1163</v>
@@ -18959,7 +18959,7 @@
         <v>1236</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="T66" s="40" t="s">
         <v>1237</v>
@@ -18973,7 +18973,7 @@
         <v>1238</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="T67" s="40" t="s">
         <v>1239</v>
@@ -18987,7 +18987,7 @@
         <v>1240</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="T68" s="27" t="s">
         <v>1241</v>
@@ -19001,7 +19001,7 @@
         <v>1242</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="T69" s="27" t="s">
         <v>1243</v>
@@ -19015,7 +19015,7 @@
         <v>1244</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="T70" s="27" t="s">
         <v>1245</v>
@@ -19029,7 +19029,7 @@
         <v>1246</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="T71" s="27" t="s">
         <v>1247</v>
@@ -19046,7 +19046,7 @@
         <v>1248</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>1249</v>
@@ -19060,13 +19060,13 @@
         <v>1250</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>1251</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -19077,13 +19077,13 @@
         <v>1252</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1253</v>
       </c>
       <c r="I75" s="40" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -19094,7 +19094,7 @@
         <v>1254</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1255</v>
@@ -19106,13 +19106,13 @@
         <v>1257</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K76" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -19123,7 +19123,7 @@
         <v>1258</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="D77" s="40" t="s">
         <v>1259</v>
@@ -19135,13 +19135,13 @@
         <v>1257</v>
       </c>
       <c r="I77" s="40" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="J77" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K77" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -19152,7 +19152,7 @@
         <v>1260</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>1261</v>
@@ -19167,16 +19167,16 @@
         <v>1264</v>
       </c>
       <c r="I78" s="40" t="s">
+        <v>2736</v>
+      </c>
+      <c r="J78" s="40" t="s">
+        <v>2737</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L78" s="40" t="s">
         <v>2739</v>
-      </c>
-      <c r="J78" s="40" t="s">
-        <v>2740</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>2741</v>
-      </c>
-      <c r="L78" s="40" t="s">
-        <v>2742</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -19187,7 +19187,7 @@
         <v>1265</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="D79" s="40" t="s">
         <v>1266</v>
@@ -19199,10 +19199,10 @@
         <v>1257</v>
       </c>
       <c r="J79" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K79" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -19213,7 +19213,7 @@
         <v>1267</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="D80" s="40" t="s">
         <v>1268</v>
@@ -19225,10 +19225,10 @@
         <v>1257</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -19239,7 +19239,7 @@
         <v>1269</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="D81" s="40" t="s">
         <v>1270</v>
@@ -19262,7 +19262,7 @@
         <v>1273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="D82" s="40" t="s">
         <v>1274</v>
@@ -19285,7 +19285,7 @@
         <v>1275</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="D83" s="40" t="s">
         <v>1276</v>
@@ -19308,7 +19308,7 @@
         <v>1277</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="D84" s="40" t="s">
         <v>1278</v>
@@ -19320,10 +19320,10 @@
         <v>1257</v>
       </c>
       <c r="J84" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K84" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -19334,7 +19334,7 @@
         <v>1279</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="D85" s="40" t="s">
         <v>1280</v>
@@ -19360,7 +19360,7 @@
         <v>1281</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="D86" s="40" t="s">
         <v>1282</v>
@@ -19375,7 +19375,7 @@
         <v>1264</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -19386,7 +19386,7 @@
         <v>1285</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="D87" s="40" t="s">
         <v>1286</v>
@@ -19398,13 +19398,13 @@
         <v>1257</v>
       </c>
       <c r="I87" s="40" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -19415,7 +19415,7 @@
         <v>1287</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="D88" s="40" t="s">
         <v>1288</v>
@@ -19427,10 +19427,10 @@
         <v>1257</v>
       </c>
       <c r="J88" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K88" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -19441,7 +19441,7 @@
         <v>1289</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="D89" s="40" t="s">
         <v>1290</v>
@@ -19453,10 +19453,10 @@
         <v>1257</v>
       </c>
       <c r="J89" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K89" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -19467,7 +19467,7 @@
         <v>1291</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="D90" s="40" t="s">
         <v>1292</v>
@@ -19490,7 +19490,7 @@
         <v>1295</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="D91" s="40" t="s">
         <v>1296</v>
@@ -19502,10 +19502,10 @@
         <v>1257</v>
       </c>
       <c r="J91" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K91" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -19516,7 +19516,7 @@
         <v>1297</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="D92" s="40" t="s">
         <v>1298</v>
@@ -19528,10 +19528,10 @@
         <v>1257</v>
       </c>
       <c r="J92" s="40" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="K92" s="40" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
   </sheetData>
@@ -19611,7 +19611,7 @@
         <v>1306</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>2601</v>
+        <v>2598</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>1307</v>
@@ -19625,7 +19625,7 @@
         <v>1308</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>1309</v>
@@ -19639,7 +19639,7 @@
         <v>1310</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>1311</v>
@@ -19653,7 +19653,7 @@
         <v>1312</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>1313</v>
@@ -19667,7 +19667,7 @@
         <v>1314</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>1315</v>
@@ -21149,10 +21149,10 @@
         <v>2188</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>2602</v>
+        <v>2599</v>
       </c>
       <c r="E2" t="s">
         <v>1629</v>
@@ -21169,7 +21169,7 @@
         <v>2189</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>2204</v>
@@ -21189,7 +21189,7 @@
         <v>2190</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>2204</v>
@@ -21209,7 +21209,7 @@
         <v>2191</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>2204</v>
@@ -21229,7 +21229,7 @@
         <v>2192</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>2204</v>
@@ -21249,10 +21249,10 @@
         <v>2199</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1641</v>
@@ -21269,10 +21269,10 @@
         <v>2200</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>2606</v>
+        <v>2603</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>1644</v>
@@ -21289,7 +21289,7 @@
         <v>2193</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>2204</v>
@@ -21309,7 +21309,7 @@
         <v>2194</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>2204</v>
@@ -21329,7 +21329,7 @@
         <v>2195</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>2204</v>
@@ -21349,10 +21349,10 @@
         <v>2201</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>2605</v>
+        <v>2602</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1653</v>
@@ -21369,10 +21369,10 @@
         <v>2202</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2607</v>
+        <v>2604</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>1656</v>
@@ -21389,10 +21389,10 @@
         <v>2203</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2608</v>
+        <v>2605</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1659</v>
@@ -21409,10 +21409,10 @@
         <v>2196</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2604</v>
+        <v>2601</v>
       </c>
       <c r="E15" t="s">
         <v>1662</v>
@@ -21429,7 +21429,7 @@
         <v>2197</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>2204</v>
@@ -21449,7 +21449,7 @@
         <v>2198</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2204</v>
@@ -21517,7 +21517,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -21525,7 +21525,7 @@
         <v>1668</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -21535,7 +21535,7 @@
         <v>1669</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -21545,7 +21545,7 @@
         <v>1670</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -21555,7 +21555,7 @@
         <v>1671</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
@@ -21578,7 +21578,7 @@
         <v>1674</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="D7" s="43" t="s">
         <v>1675</v>
@@ -21590,7 +21590,7 @@
         <v>1676</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1677</v>
@@ -21602,7 +21602,7 @@
         <v>1678</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2372</v>
+        <v>2369</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1679</v>
@@ -21614,7 +21614,7 @@
         <v>1680</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2373</v>
+        <v>2370</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1681</v>
@@ -21626,7 +21626,7 @@
         <v>1682</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2374</v>
+        <v>2371</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1683</v>
@@ -21638,7 +21638,7 @@
         <v>1684</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1685</v>
@@ -21650,7 +21650,7 @@
         <v>1686</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>2376</v>
+        <v>2373</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>1687</v>
@@ -21672,7 +21672,7 @@
         <v>1690</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>2382</v>
+        <v>2379</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>1691</v>
@@ -21684,7 +21684,7 @@
         <v>1692</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2383</v>
+        <v>2380</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1693</v>
@@ -21696,7 +21696,7 @@
         <v>1694</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>1695</v>
@@ -21708,7 +21708,7 @@
         <v>1696</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>1697</v>
@@ -21720,7 +21720,7 @@
         <v>1698</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>1679</v>
@@ -21732,7 +21732,7 @@
         <v>1699</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>1683</v>
@@ -21744,7 +21744,7 @@
         <v>1694</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>1695</v>
@@ -21756,7 +21756,7 @@
         <v>1686</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>2387</v>
+        <v>2384</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>1700</v>
@@ -21768,7 +21768,7 @@
         <v>1699</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>1701</v>
@@ -21782,10 +21782,10 @@
         <v>1694</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2375</v>
+        <v>2372</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>2377</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33.75" customHeight="1">
@@ -21794,10 +21794,10 @@
         <v>1703</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>2378</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -21811,10 +21811,10 @@
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40"/>
       <c r="B27" s="40" t="s">
-        <v>2379</v>
+        <v>2376</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>1695</v>
@@ -21823,13 +21823,13 @@
     <row r="28" spans="1:4" ht="29.15">
       <c r="A28" s="40"/>
       <c r="B28" s="41" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>2381</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -21838,7 +21838,7 @@
         <v>1704</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2390</v>
+        <v>2387</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>1705</v>
@@ -21850,7 +21850,7 @@
         <v>1706</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>2391</v>
+        <v>2388</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>1707</v>
@@ -21862,7 +21862,7 @@
         <v>1708</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>1681</v>
@@ -21897,7 +21897,7 @@
         <v>1668</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -21907,7 +21907,7 @@
         <v>1669</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -21917,7 +21917,7 @@
         <v>1670</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -21927,7 +21927,7 @@
         <v>1671</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -21950,7 +21950,7 @@
         <v>1710</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>1675</v>
@@ -21962,7 +21962,7 @@
         <v>1711</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>1712</v>
@@ -21974,7 +21974,7 @@
         <v>1713</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1714</v>
@@ -21986,7 +21986,7 @@
         <v>1715</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>1920</v>
@@ -22021,7 +22021,7 @@
         <v>1670</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -22029,7 +22029,7 @@
         <v>1671</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -22045,7 +22045,7 @@
         <v>1789</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>2609</v>
+        <v>2606</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>1790</v>
@@ -22056,7 +22056,7 @@
         <v>1791</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>1792</v>
@@ -22067,7 +22067,7 @@
         <v>1793</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>2610</v>
+        <v>2607</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>1794</v>
@@ -22078,7 +22078,7 @@
         <v>1795</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>1796</v>
@@ -22546,7 +22546,7 @@
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="40" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
@@ -22671,13 +22671,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>2257</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>32</v>
@@ -22693,13 +22693,13 @@
         <v>33</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>2258</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>34</v>
@@ -22715,13 +22715,13 @@
         <v>35</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>2259</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>36</v>
@@ -22917,7 +22917,7 @@
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
@@ -23046,7 +23046,7 @@
         <v>2270</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>71</v>
@@ -23070,7 +23070,7 @@
         <v>2271</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>73</v>
@@ -23094,7 +23094,7 @@
         <v>2272</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>75</v>
@@ -23107,16 +23107,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -23138,7 +23138,7 @@
         <v>2273</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>77</v>
@@ -23162,7 +23162,7 @@
         <v>2276</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="G37" s="23" t="s">
         <v>79</v>
@@ -23186,7 +23186,7 @@
         <v>2276</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>79</v>
@@ -23207,10 +23207,10 @@
         <v>2213</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>2593</v>
+        <v>2590</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>81</v>
@@ -23234,7 +23234,7 @@
         <v>2274</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>83</v>
@@ -23258,7 +23258,7 @@
         <v>2275</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>85</v>
@@ -23282,7 +23282,7 @@
         <v>2266</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>87</v>
@@ -23306,7 +23306,7 @@
         <v>2277</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>89</v>
@@ -23330,7 +23330,7 @@
         <v>2278</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>3579</v>
+        <v>3576</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>91</v>
@@ -23354,7 +23354,7 @@
         <v>2279</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>3585</v>
+        <v>3582</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>93</v>
@@ -23375,10 +23375,10 @@
         <v>2220</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>95</v>
@@ -23402,7 +23402,7 @@
         <v>2294</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>97</v>
@@ -23426,7 +23426,7 @@
         <v>2295</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>99</v>
@@ -23450,7 +23450,7 @@
         <v>2296</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>101</v>
@@ -23474,7 +23474,7 @@
         <v>2302</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>103</v>
@@ -23498,7 +23498,7 @@
         <v>2293</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>105</v>
@@ -23522,7 +23522,7 @@
         <v>2297</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>108</v>
@@ -23546,7 +23546,7 @@
         <v>2298</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>111</v>
@@ -23570,7 +23570,7 @@
         <v>2298</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>3582</v>
+        <v>3579</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>111</v>
@@ -23594,7 +23594,7 @@
         <v>2299</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>113</v>
@@ -24546,10 +24546,10 @@
         <v>2246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
     </row>
   </sheetData>
@@ -24581,13 +24581,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>2246</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -24595,27 +24595,27 @@
         <v>2309</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="40" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>2311</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -24623,97 +24623,97 @@
         <v>1224</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="40" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="40" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="40" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>2312</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="40" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="40" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="40" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -24721,41 +24721,41 @@
         <v>2310</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>2313</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="40" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="40" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -24770,17 +24770,17 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="40" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="40" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
@@ -24790,226 +24790,226 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="40" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="40" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="40" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="40" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="40" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="40" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>2039</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="40" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="40" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="40" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>2036</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="40" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="40" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="40" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="40" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="40" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="40" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="40" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -25017,27 +25017,27 @@
         <v>47</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="40" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="C34" s="40" t="s">
         <v>2263</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -25045,27 +25045,27 @@
         <v>48</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2035</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
       <c r="A36" s="40" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -25073,27 +25073,27 @@
         <v>52</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>2038</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
       <c r="A38" s="40" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -25101,27 +25101,27 @@
         <v>58</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>2264</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -25129,32 +25129,32 @@
         <v>60</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -25162,21 +25162,21 @@
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="D45" s="40"/>
     </row>
@@ -25186,7 +25186,7 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="D46" s="40"/>
     </row>
@@ -25200,8 +25200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.15"/>
@@ -25266,7 +25266,7 @@
         <v>1437</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23" t="s">
@@ -25532,7 +25532,7 @@
         <v>1464</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
@@ -25646,7 +25646,7 @@
         <v>1472</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>2594</v>
+        <v>2591</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="27" t="s">
@@ -25665,7 +25665,7 @@
         <v>1474</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="27" t="s">
@@ -25684,7 +25684,7 @@
         <v>1476</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>2596</v>
+        <v>2593</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="27" t="s">
@@ -25703,7 +25703,7 @@
         <v>1478</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="27" t="s">
@@ -25741,7 +25741,7 @@
         <v>1482</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>2338</v>
+        <v>3596</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23" t="s">
@@ -25817,7 +25817,7 @@
         <v>1484</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23" t="s">
@@ -25855,7 +25855,7 @@
         <v>1486</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23" t="s">
@@ -25874,7 +25874,7 @@
         <v>2317</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
@@ -25931,7 +25931,7 @@
         <v>1488</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23" t="s">
@@ -25950,7 +25950,7 @@
         <v>1490</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23" t="s">
@@ -25969,7 +25969,7 @@
         <v>1492</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23" t="s">
@@ -25988,7 +25988,7 @@
         <v>1494</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23" t="s">
@@ -26064,7 +26064,7 @@
         <v>1497</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="27" t="s">
@@ -26083,7 +26083,7 @@
         <v>1499</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="27" t="s">
@@ -26102,7 +26102,7 @@
         <v>1501</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="27" t="s">
@@ -26121,7 +26121,7 @@
         <v>1503</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="27" t="s">
@@ -26140,7 +26140,7 @@
         <v>1505</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="25" t="s">
@@ -26159,7 +26159,7 @@
         <v>1507</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="25" t="s">
@@ -26178,7 +26178,7 @@
         <v>1490</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="25" t="s">
@@ -26197,7 +26197,7 @@
         <v>1509</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="25" t="s">
@@ -26235,7 +26235,7 @@
         <v>1513</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="25" t="s">
@@ -26273,7 +26273,7 @@
         <v>1515</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3591</v>
+        <v>3588</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="25" t="s">
@@ -26292,7 +26292,7 @@
         <v>1517</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="25" t="s">
@@ -26311,7 +26311,7 @@
         <v>1519</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="25" t="s">
@@ -26330,7 +26330,7 @@
         <v>1521</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="25" t="s">
@@ -26349,7 +26349,7 @@
         <v>1523</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="25" t="s">
@@ -26368,7 +26368,7 @@
         <v>1525</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="25" t="s">
@@ -26387,7 +26387,7 @@
         <v>1527</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>2359</v>
+        <v>3594</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="25" t="s">
@@ -26406,7 +26406,7 @@
         <v>1529</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>2360</v>
+        <v>3595</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="25" t="s">
@@ -26425,7 +26425,7 @@
         <v>1531</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="25" t="s">
@@ -26444,7 +26444,7 @@
         <v>1533</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="25" t="s">
@@ -26501,7 +26501,7 @@
         <v>1536</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="25" t="s">
@@ -26539,7 +26539,7 @@
         <v>1538</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="25" t="s">
@@ -26558,7 +26558,7 @@
         <v>1540</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="25" t="s">
@@ -26577,7 +26577,7 @@
         <v>1542</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="25" t="s">
@@ -26596,7 +26596,7 @@
         <v>1544</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="25" t="s">
@@ -26615,7 +26615,7 @@
         <v>1546</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>2612</v>
+        <v>2609</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="25" t="s">
@@ -26672,7 +26672,7 @@
         <v>1549</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="25" t="s">
@@ -26691,7 +26691,7 @@
         <v>2319</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="25" t="s">
@@ -26710,7 +26710,7 @@
         <v>1552</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="25" t="s">
@@ -26748,7 +26748,7 @@
         <v>1554</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="25" t="s">
@@ -26767,7 +26767,7 @@
         <v>1556</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="25" t="s">
@@ -26786,7 +26786,7 @@
         <v>1558</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="25" t="s">
@@ -26805,7 +26805,7 @@
         <v>1560</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="25" t="s">
@@ -26824,7 +26824,7 @@
         <v>1562</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="25" t="s">
@@ -26843,7 +26843,7 @@
         <v>1564</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="25" t="s">
@@ -26957,7 +26957,7 @@
         <v>1568</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="25" t="s">
@@ -26976,7 +26976,7 @@
         <v>1570</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="25" t="s">
@@ -26995,7 +26995,7 @@
         <v>1552</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="25" t="s">
@@ -27014,7 +27014,7 @@
         <v>1549</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="25" t="s">
@@ -27073,7 +27073,7 @@
         <v>2319</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>2614</v>
+        <v>2611</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="25" t="s">
@@ -27092,7 +27092,7 @@
         <v>1552</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>2615</v>
+        <v>2612</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="25" t="s">
@@ -27111,7 +27111,7 @@
         <v>1549</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>2613</v>
+        <v>2610</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="25" t="s">
@@ -27151,7 +27151,7 @@
         <v>1574</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>2616</v>
+        <v>2613</v>
       </c>
       <c r="E102" s="23"/>
       <c r="F102" s="25" t="s">
@@ -27170,7 +27170,7 @@
         <v>1576</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="25" t="s">
@@ -27189,7 +27189,7 @@
         <v>1578</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="E104" s="23"/>
       <c r="F104" s="25" t="s">
@@ -27208,7 +27208,7 @@
         <v>1580</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="E105" s="23"/>
       <c r="F105" s="25" t="s">
@@ -27227,7 +27227,7 @@
         <v>1582</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="25" t="s">
@@ -27246,7 +27246,7 @@
         <v>1584</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="E107" s="23"/>
       <c r="F107" s="25" t="s">
@@ -27265,7 +27265,7 @@
         <v>1586</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="25" t="s">
@@ -27284,7 +27284,7 @@
         <v>1588</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="E109" s="23"/>
       <c r="F109" s="25" t="s">
@@ -27303,7 +27303,7 @@
         <v>1590</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>2618</v>
+        <v>2615</v>
       </c>
       <c r="E110" s="23"/>
       <c r="F110" s="25" t="s">
@@ -27322,7 +27322,7 @@
         <v>1592</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="E111" s="23"/>
       <c r="F111" s="25" t="s">
@@ -27909,7 +27909,7 @@
         <v>2246</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -27920,10 +27920,10 @@
         <v>1717</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>2394</v>
+        <v>2391</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>2395</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -27934,10 +27934,10 @@
         <v>1719</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>2396</v>
+        <v>2393</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>2397</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -27948,10 +27948,10 @@
         <v>1721</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -27962,10 +27962,10 @@
         <v>1723</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -27976,10 +27976,10 @@
         <v>1725</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -27990,10 +27990,10 @@
         <v>1727</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>2404</v>
+        <v>2401</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -28004,10 +28004,10 @@
         <v>1729</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>2406</v>
+        <v>2403</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>2407</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -28018,10 +28018,10 @@
         <v>1731</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>2408</v>
+        <v>2405</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>2409</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -28032,10 +28032,10 @@
         <v>1733</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>2411</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -28046,10 +28046,10 @@
         <v>1735</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>2412</v>
+        <v>2409</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>2413</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -28063,7 +28063,7 @@
         <v>1950</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>2414</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
@@ -28077,7 +28077,7 @@
         <v>1951</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>2415</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
@@ -28088,10 +28088,10 @@
         <v>1739</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>2416</v>
+        <v>2413</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -28102,10 +28102,10 @@
         <v>1739</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>2418</v>
+        <v>2415</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>2417</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
@@ -28116,10 +28116,10 @@
         <v>1742</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -28130,10 +28130,10 @@
         <v>1744</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>2422</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -28144,10 +28144,10 @@
         <v>1746</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>2423</v>
+        <v>2420</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>2424</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15">
@@ -28158,10 +28158,10 @@
         <v>1748</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15">
@@ -28172,10 +28172,10 @@
         <v>1750</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>2428</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
@@ -28186,10 +28186,10 @@
         <v>1752</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>2429</v>
+        <v>2426</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>2430</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -28200,10 +28200,10 @@
         <v>1754</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>2431</v>
+        <v>2428</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15">
@@ -28214,10 +28214,10 @@
         <v>1756</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15">
@@ -28228,10 +28228,10 @@
         <v>1758</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>2435</v>
+        <v>2432</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>2436</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
@@ -28242,10 +28242,10 @@
         <v>1760</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>2438</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
@@ -28256,10 +28256,10 @@
         <v>1762</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>2439</v>
+        <v>2436</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>2440</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
@@ -28270,10 +28270,10 @@
         <v>1764</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>2441</v>
+        <v>2438</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>2442</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -28284,10 +28284,10 @@
         <v>1766</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>2443</v>
+        <v>2440</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>2444</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -28298,10 +28298,10 @@
         <v>1768</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>2446</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -28312,10 +28312,10 @@
         <v>1770</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>2447</v>
+        <v>2444</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>2448</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -28326,10 +28326,10 @@
         <v>1772</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>2449</v>
+        <v>2446</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>2450</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
@@ -28340,10 +28340,10 @@
         <v>1774</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>2452</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15">
@@ -28354,10 +28354,10 @@
         <v>1776</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>2453</v>
+        <v>2450</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>2454</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
@@ -28368,10 +28368,10 @@
         <v>1778</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>2456</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15">
@@ -28382,10 +28382,10 @@
         <v>1780</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>2457</v>
+        <v>2454</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>2458</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -28396,10 +28396,10 @@
         <v>1727</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>2405</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15">
@@ -28410,10 +28410,10 @@
         <v>1783</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15">
@@ -28424,10 +28424,10 @@
         <v>1785</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15">
@@ -28438,1030 +28438,1030 @@
         <v>1787</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="40" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
       <c r="A41" s="40" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15">
       <c r="A42" s="40" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="40" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="40" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="40" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="40" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="40" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="40" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>1727</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="40" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="40" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="40" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="40" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="40" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="40" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="40" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="40" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="40" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="40" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="40" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="40" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="40" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="40" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="40" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="40" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="40" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="40" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="40" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="40" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="40" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="40" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="40" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="40" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="40" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="40" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="40" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>3592</v>
+        <v>3589</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="40" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="40" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="40" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="40" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="40" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="40" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="40" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="40" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="40" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="B84" s="40"/>
       <c r="C84" s="40" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="40" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="40" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="40" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="40" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="40" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="40" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="40" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="40" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>3588</v>
+        <v>3585</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="40" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="40" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="40" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="B95" s="40"/>
       <c r="C95" s="40" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="40" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="B96" s="40"/>
       <c r="C96" s="40" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="40" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="40" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="B98" s="40"/>
       <c r="C98" s="40" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="40" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="B99" s="40"/>
       <c r="C99" s="40" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="40" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="40" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="40" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="40" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="40" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="40" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="40" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="40" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="40" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="40" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="40" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="40" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="40" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="40" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
@@ -29469,223 +29469,223 @@
         <v>810</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="40" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="40" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="40" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="40" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="40" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="40" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="40" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="40" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="40" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="40" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="40" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="40" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="40" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="40" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="40" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
@@ -29727,13 +29727,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>2246</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -29741,237 +29741,237 @@
         <v>162</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>1926</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="40" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>1973</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="40" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>1974</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="40" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="40" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="40" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="40" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="40" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="40" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>1944</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="40" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -29979,27 +29979,27 @@
         <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="40" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -30007,405 +30007,405 @@
         <v>166</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="40" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="40" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="40" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="40" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="40" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="40" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="C27" s="40" t="s">
         <v>2042</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="40" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="40" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="40" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="40" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>2043</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="40" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="40" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>2047</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="40" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="40" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>2045</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="40" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="40" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="40" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="40" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="40" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="40" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="40" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>3055</